--- a/output/Region & Deprivation.xlsx
+++ b/output/Region & Deprivation.xlsx
@@ -663,103 +663,103 @@
         <v>330</v>
       </c>
       <c r="D4" s="2">
-        <v>111751.5</v>
+        <v>112096.5</v>
       </c>
       <c r="E4" s="2">
-        <v>113728</v>
+        <v>114102</v>
       </c>
       <c r="F4" s="2">
-        <v>114949.5</v>
+        <v>115375.5</v>
       </c>
       <c r="G4" s="2">
-        <v>115608</v>
+        <v>116070</v>
       </c>
       <c r="H4" s="2">
-        <v>117298.5</v>
+        <v>117765</v>
       </c>
       <c r="I4" s="2">
-        <v>117833</v>
+        <v>118287</v>
       </c>
       <c r="J4" s="3">
-        <v>656423651.9096787</v>
+        <v>639654272.2168691</v>
       </c>
       <c r="K4" s="3">
-        <v>646365456.8501958</v>
+        <v>631851557.9527519</v>
       </c>
       <c r="L4" s="3">
-        <v>642105658.2763417</v>
+        <v>630412395.6455989</v>
       </c>
       <c r="M4" s="3">
-        <v>640795805.4279999</v>
+        <v>632617079.085605</v>
       </c>
       <c r="N4" s="3">
-        <v>634195617.9411802</v>
+        <v>633503304.7512335</v>
       </c>
       <c r="O4" s="3">
-        <v>679238526.3264092</v>
+        <v>678316011.059967</v>
       </c>
       <c r="P4" s="4">
-        <v>0.703030303030303</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="Q4" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0.7242424242424242</v>
+      </c>
+      <c r="S4" s="4">
         <v>0.7393939393939394</v>
       </c>
-      <c r="R4" s="4">
-        <v>0.7818181818181819</v>
-      </c>
-      <c r="S4" s="4">
-        <v>0.8242424242424242</v>
-      </c>
       <c r="T4" s="4">
-        <v>0.6242424242424243</v>
+        <v>0.493939393939394</v>
       </c>
       <c r="U4" s="5">
-        <v>5873.958308476205</v>
+        <v>5706.28228550284</v>
       </c>
       <c r="V4" s="5">
-        <v>5683.43289999117</v>
+        <v>5537.602828633608</v>
       </c>
       <c r="W4" s="5">
-        <v>5585.980437290651</v>
+        <v>5464.005752049602</v>
       </c>
       <c r="X4" s="5">
-        <v>5542.832722891148</v>
+        <v>5450.306531279443</v>
       </c>
       <c r="Y4" s="5">
-        <v>5406.681397811398</v>
+        <v>5379.385256665677</v>
       </c>
       <c r="Z4" s="5">
-        <v>5764.41681300153</v>
+        <v>5734.493317608588</v>
       </c>
       <c r="AA4" s="5">
-        <v>-190.5254084850358</v>
+        <v>-168.6794568692321</v>
       </c>
       <c r="AB4" s="5">
-        <v>-287.9778711855542</v>
+        <v>-242.2765334532378</v>
       </c>
       <c r="AC4" s="5">
-        <v>-331.1255855850568</v>
+        <v>-255.9757542233965</v>
       </c>
       <c r="AD4" s="5">
-        <v>-467.2769106648075</v>
+        <v>-326.8970288371629</v>
       </c>
       <c r="AE4" s="5">
-        <v>-109.5414954746757</v>
+        <v>28.21103210574802</v>
       </c>
       <c r="AF4" s="4">
-        <v>-0.03243560789495303</v>
+        <v>-0.02956030711936086</v>
       </c>
       <c r="AG4" s="4">
-        <v>-0.04902620278560677</v>
+        <v>-0.04245785983437167</v>
       </c>
       <c r="AH4" s="4">
-        <v>-0.05637179703969597</v>
+        <v>-0.04485858592620251</v>
       </c>
       <c r="AI4" s="4">
-        <v>-0.0795506004852844</v>
+        <v>-0.05728721652408697</v>
       </c>
       <c r="AJ4" s="4">
-        <v>-0.01864866751209415</v>
+        <v>0.004943854981976692</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -771,103 +771,103 @@
         <v>377</v>
       </c>
       <c r="D5" s="2">
-        <v>123263</v>
+        <v>123009.5</v>
       </c>
       <c r="E5" s="2">
-        <v>125637.5</v>
+        <v>125372</v>
       </c>
       <c r="F5" s="2">
-        <v>127311</v>
+        <v>127074</v>
       </c>
       <c r="G5" s="2">
-        <v>128607.5</v>
+        <v>128377</v>
       </c>
       <c r="H5" s="2">
-        <v>129742.5</v>
+        <v>129510</v>
       </c>
       <c r="I5" s="2">
-        <v>130359.5</v>
+        <v>130160.5</v>
       </c>
       <c r="J5" s="3">
-        <v>744191086.66302</v>
+        <v>722551376.351311</v>
       </c>
       <c r="K5" s="3">
-        <v>739315608.7486498</v>
+        <v>720890031.3694856</v>
       </c>
       <c r="L5" s="3">
-        <v>732731812.5154049</v>
+        <v>715701380.4763327</v>
       </c>
       <c r="M5" s="3">
-        <v>739550041.5159435</v>
+        <v>726651141.0226281</v>
       </c>
       <c r="N5" s="3">
-        <v>721390017.0924495</v>
+        <v>717276205.3823086</v>
       </c>
       <c r="O5" s="3">
-        <v>772596217.5080426</v>
+        <v>768200909.2241865</v>
       </c>
       <c r="P5" s="4">
-        <v>0.753315649867374</v>
+        <v>0.7400530503978779</v>
       </c>
       <c r="Q5" s="4">
-        <v>0.7586206896551724</v>
+        <v>0.7347480106100795</v>
       </c>
       <c r="R5" s="4">
-        <v>0.7427055702917772</v>
+        <v>0.6816976127320955</v>
       </c>
       <c r="S5" s="4">
-        <v>0.8567639257294429</v>
+        <v>0.7824933687002652</v>
       </c>
       <c r="T5" s="4">
-        <v>0.6021220159151194</v>
+        <v>0.5251989389920424</v>
       </c>
       <c r="U5" s="5">
-        <v>6037.424747596765</v>
+        <v>5873.94775485886</v>
       </c>
       <c r="V5" s="5">
-        <v>5884.513849357476</v>
+        <v>5750.008226473899</v>
       </c>
       <c r="W5" s="5">
-        <v>5755.447781538162</v>
+        <v>5632.16220844809</v>
       </c>
       <c r="X5" s="5">
-        <v>5750.442559850269</v>
+        <v>5660.290714244982</v>
       </c>
       <c r="Y5" s="5">
-        <v>5560.167386110562</v>
+        <v>5538.384722278655</v>
       </c>
       <c r="Z5" s="5">
-        <v>5926.658337198613</v>
+        <v>5901.951123606521</v>
       </c>
       <c r="AA5" s="5">
-        <v>-152.9108982392891</v>
+        <v>-123.9395283849617</v>
       </c>
       <c r="AB5" s="5">
-        <v>-281.9769660586026</v>
+        <v>-241.7855464107697</v>
       </c>
       <c r="AC5" s="5">
-        <v>-286.9821877464956</v>
+        <v>-213.6570406138781</v>
       </c>
       <c r="AD5" s="5">
-        <v>-477.2573614862031</v>
+        <v>-335.5630325802049</v>
       </c>
       <c r="AE5" s="5">
-        <v>-110.7664103981524</v>
+        <v>28.00336874766072</v>
       </c>
       <c r="AF5" s="4">
-        <v>-0.02532717253331496</v>
+        <v>-0.02109986904164074</v>
       </c>
       <c r="AG5" s="4">
-        <v>-0.04670484152549403</v>
+        <v>-0.04116235903030763</v>
       </c>
       <c r="AH5" s="4">
-        <v>-0.04753387408443155</v>
+        <v>-0.03637367057566077</v>
       </c>
       <c r="AI5" s="4">
-        <v>-0.07904982363153734</v>
+        <v>-0.05712734375320772</v>
       </c>
       <c r="AJ5" s="4">
-        <v>-0.01834663205404652</v>
+        <v>0.004767384715755441</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -876,106 +876,106 @@
         <v>26</v>
       </c>
       <c r="C6" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D6" s="2">
-        <v>121829</v>
+        <v>122109</v>
       </c>
       <c r="E6" s="2">
-        <v>123285.5</v>
+        <v>123594</v>
       </c>
       <c r="F6" s="2">
-        <v>125081.5</v>
+        <v>125440.5</v>
       </c>
       <c r="G6" s="2">
-        <v>126599.5</v>
+        <v>126968.5</v>
       </c>
       <c r="H6" s="2">
-        <v>127560.5</v>
+        <v>127891.5</v>
       </c>
       <c r="I6" s="2">
-        <v>129030.5</v>
+        <v>129344.5</v>
       </c>
       <c r="J6" s="3">
-        <v>790983066.6169364</v>
+        <v>771463952.4949782</v>
       </c>
       <c r="K6" s="3">
-        <v>764092971.415255</v>
+        <v>747935574.7137095</v>
       </c>
       <c r="L6" s="3">
-        <v>756766599.5013462</v>
+        <v>742677420.8415934</v>
       </c>
       <c r="M6" s="3">
-        <v>756833103.862515</v>
+        <v>746520198.2821914</v>
       </c>
       <c r="N6" s="3">
-        <v>744388134.6293932</v>
+        <v>743602239.8672944</v>
       </c>
       <c r="O6" s="3">
-        <v>781764389.4830954</v>
+        <v>780629577.5497277</v>
       </c>
       <c r="P6" s="4">
-        <v>0.7861111111111111</v>
+        <v>0.7479224376731302</v>
       </c>
       <c r="Q6" s="4">
-        <v>0.7861111111111111</v>
+        <v>0.7673130193905817</v>
       </c>
       <c r="R6" s="4">
-        <v>0.7555555555555555</v>
+        <v>0.6980609418282548</v>
       </c>
       <c r="S6" s="4">
-        <v>0.8388888888888889</v>
+        <v>0.7562326869806094</v>
       </c>
       <c r="T6" s="4">
-        <v>0.6611111111111111</v>
+        <v>0.554016620498615</v>
       </c>
       <c r="U6" s="5">
-        <v>6492.567997906381</v>
+        <v>6317.830401485379</v>
       </c>
       <c r="V6" s="5">
-        <v>6197.75213966975</v>
+        <v>6051.55245977725</v>
       </c>
       <c r="W6" s="5">
-        <v>6050.188073386921</v>
+        <v>5920.555329750706</v>
       </c>
       <c r="X6" s="5">
-        <v>5978.16819073152</v>
+        <v>5879.570116069666</v>
       </c>
       <c r="Y6" s="5">
-        <v>5835.569275985851</v>
+        <v>5814.321044536146</v>
       </c>
       <c r="Z6" s="5">
-        <v>6058.756569052242</v>
+        <v>6035.274615849361</v>
       </c>
       <c r="AA6" s="5">
-        <v>-294.8158582366304</v>
+        <v>-266.2779417081292</v>
       </c>
       <c r="AB6" s="5">
-        <v>-442.3799245194596</v>
+        <v>-397.2750717346735</v>
       </c>
       <c r="AC6" s="5">
-        <v>-514.3998071748611</v>
+        <v>-438.260285415713</v>
       </c>
       <c r="AD6" s="5">
-        <v>-656.9987219205295</v>
+        <v>-503.5093569492337</v>
       </c>
       <c r="AE6" s="5">
-        <v>-433.8114288541383</v>
+        <v>-282.5557856360183</v>
       </c>
       <c r="AF6" s="4">
-        <v>-0.0454082049401251</v>
+        <v>-0.04214705441373112</v>
       </c>
       <c r="AG6" s="4">
-        <v>-0.06813635600922641</v>
+        <v>-0.06288156637463238</v>
       </c>
       <c r="AH6" s="4">
-        <v>-0.07922902114244113</v>
+        <v>-0.06936879554612196</v>
       </c>
       <c r="AI6" s="4">
-        <v>-0.1011924283476719</v>
+        <v>-0.07969656115347035</v>
       </c>
       <c r="AJ6" s="4">
-        <v>-0.06681661693709284</v>
+        <v>-0.04472354711667903</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -984,106 +984,106 @@
         <v>27</v>
       </c>
       <c r="C7" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D7" s="2">
-        <v>114226.5</v>
+        <v>114557.5</v>
       </c>
       <c r="E7" s="2">
-        <v>116071</v>
+        <v>116399</v>
       </c>
       <c r="F7" s="2">
-        <v>117708</v>
+        <v>118038.5</v>
       </c>
       <c r="G7" s="2">
-        <v>119270</v>
+        <v>119609</v>
       </c>
       <c r="H7" s="2">
-        <v>120256.5</v>
+        <v>120591.5</v>
       </c>
       <c r="I7" s="2">
-        <v>120231</v>
+        <v>120558.5</v>
       </c>
       <c r="J7" s="3">
-        <v>760894043.9926809</v>
+        <v>741926335.5495143</v>
       </c>
       <c r="K7" s="3">
-        <v>738335061.7142729</v>
+        <v>722970923.8394771</v>
       </c>
       <c r="L7" s="3">
-        <v>730200877.8780298</v>
+        <v>716256522.4636155</v>
       </c>
       <c r="M7" s="3">
-        <v>737352049.2871044</v>
+        <v>727325402.7009398</v>
       </c>
       <c r="N7" s="3">
-        <v>720447094.9699173</v>
+        <v>719280173.8177083</v>
       </c>
       <c r="O7" s="3">
-        <v>759106592.2756901</v>
+        <v>757763957.3088725</v>
       </c>
       <c r="P7" s="4">
-        <v>0.7627118644067796</v>
+        <v>0.7436619718309859</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.7598870056497176</v>
+        <v>0.7295774647887324</v>
       </c>
       <c r="R7" s="4">
-        <v>0.7401129943502824</v>
+        <v>0.6873239436619718</v>
       </c>
       <c r="S7" s="4">
-        <v>0.8389830508474576</v>
+        <v>0.7718309859154929</v>
       </c>
       <c r="T7" s="4">
-        <v>0.632768361581921</v>
+        <v>0.5549295774647888</v>
       </c>
       <c r="U7" s="5">
-        <v>6661.274257660709</v>
+        <v>6476.453619793679</v>
       </c>
       <c r="V7" s="5">
-        <v>6361.064018697804</v>
+        <v>6211.143771333749</v>
       </c>
       <c r="W7" s="5">
-        <v>6203.494052044294</v>
+        <v>6067.990718821533</v>
       </c>
       <c r="X7" s="5">
-        <v>6182.20884788383</v>
+        <v>6080.858486409382</v>
       </c>
       <c r="Y7" s="5">
-        <v>5990.920199489568</v>
+        <v>5964.600936365401</v>
       </c>
       <c r="Z7" s="5">
-        <v>6313.734330378106</v>
+        <v>6285.446130375482</v>
       </c>
       <c r="AA7" s="5">
-        <v>-300.2102389629044</v>
+        <v>-265.3098484599295</v>
       </c>
       <c r="AB7" s="5">
-        <v>-457.7802056164146</v>
+        <v>-408.4629009721457</v>
       </c>
       <c r="AC7" s="5">
-        <v>-479.0654097768793</v>
+        <v>-395.5951333842968</v>
       </c>
       <c r="AD7" s="5">
-        <v>-670.3540581711404</v>
+        <v>-511.8526834282775</v>
       </c>
       <c r="AE7" s="5">
-        <v>-347.5399272826025</v>
+        <v>-191.0074894181971</v>
       </c>
       <c r="AF7" s="4">
-        <v>-0.04506798959938507</v>
+        <v>-0.04096529737340748</v>
       </c>
       <c r="AG7" s="4">
-        <v>-0.0687226179120235</v>
+        <v>-0.06306891471032539</v>
       </c>
       <c r="AH7" s="4">
-        <v>-0.07191798314353093</v>
+        <v>-0.06108206074004119</v>
       </c>
       <c r="AI7" s="4">
-        <v>-0.1006345080898311</v>
+        <v>-0.07903286481723981</v>
       </c>
       <c r="AJ7" s="4">
-        <v>-0.05217318996930942</v>
+        <v>-0.02949260515576457</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1095,103 +1095,103 @@
         <v>253</v>
       </c>
       <c r="D8" s="2">
-        <v>76026</v>
+        <v>75327</v>
       </c>
       <c r="E8" s="2">
-        <v>77449</v>
+        <v>76721</v>
       </c>
       <c r="F8" s="2">
-        <v>77231.5</v>
+        <v>76493.5</v>
       </c>
       <c r="G8" s="2">
-        <v>77561</v>
+        <v>76811.5</v>
       </c>
       <c r="H8" s="2">
-        <v>77821.5</v>
+        <v>77066.5</v>
       </c>
       <c r="I8" s="2">
-        <v>77306.5</v>
+        <v>76550.5</v>
       </c>
       <c r="J8" s="3">
-        <v>548211962.4320637</v>
+        <v>528349714.3680111</v>
       </c>
       <c r="K8" s="3">
-        <v>530816557.2313428</v>
+        <v>515476904.5131497</v>
       </c>
       <c r="L8" s="3">
-        <v>523814792.1902028</v>
+        <v>508158269.3260412</v>
       </c>
       <c r="M8" s="3">
-        <v>513702981.5795371</v>
+        <v>501591982.1244536</v>
       </c>
       <c r="N8" s="3">
-        <v>507863733.5091274</v>
+        <v>501427204.7265455</v>
       </c>
       <c r="O8" s="3">
-        <v>533745377.18747</v>
+        <v>527748446.0959212</v>
       </c>
       <c r="P8" s="4">
-        <v>0.7154150197628458</v>
+        <v>0.7075098814229249</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.7233201581027668</v>
+        <v>0.6837944664031621</v>
       </c>
       <c r="R8" s="4">
-        <v>0.7312252964426877</v>
+        <v>0.691699604743083</v>
       </c>
       <c r="S8" s="4">
-        <v>0.7984189723320159</v>
+        <v>0.7351778656126482</v>
       </c>
       <c r="T8" s="4">
-        <v>0.5770750988142292</v>
+        <v>0.4901185770750988</v>
       </c>
       <c r="U8" s="5">
-        <v>7210.848425960378</v>
+        <v>7014.0814630612</v>
       </c>
       <c r="V8" s="5">
-        <v>6853.756113459732</v>
+        <v>6718.850178088785</v>
       </c>
       <c r="W8" s="5">
-        <v>6782.398272598652</v>
+        <v>6643.156207076956</v>
       </c>
       <c r="X8" s="5">
-        <v>6623.212459606466</v>
+        <v>6530.167775976952</v>
       </c>
       <c r="Y8" s="5">
-        <v>6526.008024891931</v>
+        <v>6506.422436811656</v>
       </c>
       <c r="Z8" s="5">
-        <v>6904.27554199802</v>
+        <v>6894.121476618979</v>
       </c>
       <c r="AA8" s="5">
-        <v>-357.0923125006466</v>
+        <v>-295.2312849724149</v>
       </c>
       <c r="AB8" s="5">
-        <v>-428.4501533617267</v>
+        <v>-370.9252559842444</v>
       </c>
       <c r="AC8" s="5">
-        <v>-587.6359663539124</v>
+        <v>-483.9136870842485</v>
       </c>
       <c r="AD8" s="5">
-        <v>-684.8404010684471</v>
+        <v>-507.6590262495447</v>
       </c>
       <c r="AE8" s="5">
-        <v>-306.572883962358</v>
+        <v>-119.9599864422216</v>
       </c>
       <c r="AF8" s="4">
-        <v>-0.04952153913193469</v>
+        <v>-0.04209122556206601</v>
       </c>
       <c r="AG8" s="4">
-        <v>-0.05941743995328308</v>
+        <v>-0.05288294097205415</v>
       </c>
       <c r="AH8" s="4">
-        <v>-0.08149331835048912</v>
+        <v>-0.06899174034871436</v>
       </c>
       <c r="AI8" s="4">
-        <v>-0.09497362315964042</v>
+        <v>-0.07237712149809905</v>
       </c>
       <c r="AJ8" s="4">
-        <v>-0.04251550800300274</v>
+        <v>-0.01710273641302518</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1202,106 +1202,106 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D9" s="2">
-        <v>186557</v>
+        <v>186036.5</v>
       </c>
       <c r="E9" s="2">
-        <v>188515</v>
+        <v>187950</v>
       </c>
       <c r="F9" s="2">
-        <v>190905.5</v>
+        <v>190405</v>
       </c>
       <c r="G9" s="2">
-        <v>193160</v>
+        <v>192717</v>
       </c>
       <c r="H9" s="2">
-        <v>195484</v>
+        <v>195212</v>
       </c>
       <c r="I9" s="2">
-        <v>197910</v>
+        <v>197664.5</v>
       </c>
       <c r="J9" s="3">
-        <v>1158878625.473768</v>
+        <v>1123848753.84173</v>
       </c>
       <c r="K9" s="3">
-        <v>1160708230.498879</v>
+        <v>1130053806.746551</v>
       </c>
       <c r="L9" s="3">
-        <v>1136881770.012008</v>
+        <v>1110641937.478701</v>
       </c>
       <c r="M9" s="3">
-        <v>1139460476.297539</v>
+        <v>1118000310.01918</v>
       </c>
       <c r="N9" s="3">
-        <v>1099207501.464392</v>
+        <v>1090472956.407462</v>
       </c>
       <c r="O9" s="3">
-        <v>1179020222.675207</v>
+        <v>1172224998.48491</v>
       </c>
       <c r="P9" s="4">
-        <v>0.7149122807017544</v>
+        <v>0.6945054945054945</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.7763157894736842</v>
+        <v>0.7516483516483516</v>
       </c>
       <c r="R9" s="4">
-        <v>0.7894736842105263</v>
+        <v>0.734065934065934</v>
       </c>
       <c r="S9" s="4">
-        <v>0.8793859649122807</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="T9" s="4">
-        <v>0.7390350877192983</v>
+        <v>0.621978021978022</v>
       </c>
       <c r="U9" s="5">
-        <v>6211.927858369122</v>
+        <v>6041.012133864753</v>
       </c>
       <c r="V9" s="5">
-        <v>6157.113388849051</v>
+        <v>6012.523579391064</v>
       </c>
       <c r="W9" s="5">
-        <v>5955.207000385049</v>
+        <v>5833.0502743032</v>
       </c>
       <c r="X9" s="5">
-        <v>5899.049887645158</v>
+        <v>5801.25422261233</v>
       </c>
       <c r="Y9" s="5">
-        <v>5623.004959303023</v>
+        <v>5586.095918321939</v>
       </c>
       <c r="Z9" s="5">
-        <v>5957.355478122417</v>
+        <v>5930.376969485719</v>
       </c>
       <c r="AA9" s="5">
-        <v>-54.81446952007082</v>
+        <v>-28.48855447368896</v>
       </c>
       <c r="AB9" s="5">
-        <v>-256.7208579840735</v>
+        <v>-207.961859561553</v>
       </c>
       <c r="AC9" s="5">
-        <v>-312.8779707239637</v>
+        <v>-239.7579112524236</v>
       </c>
       <c r="AD9" s="5">
-        <v>-588.9228990660986</v>
+        <v>-454.9162155428139</v>
       </c>
       <c r="AE9" s="5">
-        <v>-254.5723802467055</v>
+        <v>-110.635164379034</v>
       </c>
       <c r="AF9" s="4">
-        <v>-0.008824067305646666</v>
+        <v>-0.004715857846731897</v>
       </c>
       <c r="AG9" s="4">
-        <v>-0.04132708296639376</v>
+        <v>-0.0344250027898072</v>
       </c>
       <c r="AH9" s="4">
-        <v>-0.05036728981043037</v>
+        <v>-0.03968836776678308</v>
       </c>
       <c r="AI9" s="4">
-        <v>-0.09480517361009955</v>
+        <v>-0.07530463529325504</v>
       </c>
       <c r="AJ9" s="4">
-        <v>-0.04098121968749668</v>
+        <v>-0.01831401128278398</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -1313,103 +1313,103 @@
         <v>532</v>
       </c>
       <c r="D10" s="2">
-        <v>189849.5</v>
+        <v>189574</v>
       </c>
       <c r="E10" s="2">
-        <v>194425.5</v>
+        <v>194109.5</v>
       </c>
       <c r="F10" s="2">
-        <v>198586.5</v>
+        <v>198308</v>
       </c>
       <c r="G10" s="2">
-        <v>202363</v>
+        <v>202092.5</v>
       </c>
       <c r="H10" s="2">
-        <v>204934.5</v>
+        <v>204605</v>
       </c>
       <c r="I10" s="2">
-        <v>205919</v>
+        <v>205593.5</v>
       </c>
       <c r="J10" s="3">
-        <v>1168441208.503915</v>
+        <v>1142798356.890521</v>
       </c>
       <c r="K10" s="3">
-        <v>1167361118.654397</v>
+        <v>1147310057.312731</v>
       </c>
       <c r="L10" s="3">
-        <v>1162547396.058562</v>
+        <v>1142967616.916024</v>
       </c>
       <c r="M10" s="3">
-        <v>1173681823.64382</v>
+        <v>1160877981.593452</v>
       </c>
       <c r="N10" s="3">
-        <v>1135356380.879359</v>
+        <v>1131445078.624118</v>
       </c>
       <c r="O10" s="3">
-        <v>1214929644.459627</v>
+        <v>1215651786.042403</v>
       </c>
       <c r="P10" s="4">
-        <v>0.7086466165413534</v>
+        <v>0.6898496240601504</v>
       </c>
       <c r="Q10" s="4">
-        <v>0.7669172932330827</v>
+        <v>0.731203007518797</v>
       </c>
       <c r="R10" s="4">
-        <v>0.7706766917293233</v>
+        <v>0.7218045112781954</v>
       </c>
       <c r="S10" s="4">
-        <v>0.8627819548872181</v>
+        <v>0.793233082706767</v>
       </c>
       <c r="T10" s="4">
-        <v>0.7105263157894737</v>
+        <v>0.6015037593984962</v>
       </c>
       <c r="U10" s="5">
-        <v>6154.565634905095</v>
+        <v>6028.244152101666</v>
       </c>
       <c r="V10" s="5">
-        <v>6004.156443750418</v>
+        <v>5910.633211217023</v>
       </c>
       <c r="W10" s="5">
-        <v>5854.110909143177</v>
+        <v>5763.598124715213</v>
       </c>
       <c r="X10" s="5">
-        <v>5799.88349472888</v>
+        <v>5744.290271006851</v>
       </c>
       <c r="Y10" s="5">
-        <v>5540.093936742518</v>
+        <v>5529.899458097885</v>
       </c>
       <c r="Z10" s="5">
-        <v>5900.036637996625</v>
+        <v>5912.890174263308</v>
       </c>
       <c r="AA10" s="5">
-        <v>-150.4091911546775</v>
+        <v>-117.6109408846432</v>
       </c>
       <c r="AB10" s="5">
-        <v>-300.4547257619179</v>
+        <v>-264.6460273864532</v>
       </c>
       <c r="AC10" s="5">
-        <v>-354.6821401762154</v>
+        <v>-283.9538810948152</v>
       </c>
       <c r="AD10" s="5">
-        <v>-614.471698162577</v>
+        <v>-498.3446940037811</v>
       </c>
       <c r="AE10" s="5">
-        <v>-254.5289969084697</v>
+        <v>-115.3539778383583</v>
       </c>
       <c r="AF10" s="4">
-        <v>-0.0244386363030471</v>
+        <v>-0.01950998299291506</v>
       </c>
       <c r="AG10" s="4">
-        <v>-0.04881818532536475</v>
+        <v>-0.04390101341436015</v>
       </c>
       <c r="AH10" s="4">
-        <v>-0.05762911003250426</v>
+        <v>-0.04710391184070051</v>
       </c>
       <c r="AI10" s="4">
-        <v>-0.09983997809327971</v>
+        <v>-0.08266829966235523</v>
       </c>
       <c r="AJ10" s="4">
-        <v>-0.04135612681826484</v>
+        <v>-0.01913558491126177</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -1418,106 +1418,106 @@
         <v>26</v>
       </c>
       <c r="C11" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D11" s="2">
-        <v>157098.5</v>
+        <v>158299.5</v>
       </c>
       <c r="E11" s="2">
-        <v>159295</v>
+        <v>160493.5</v>
       </c>
       <c r="F11" s="2">
-        <v>160888.5</v>
+        <v>162110</v>
       </c>
       <c r="G11" s="2">
-        <v>162561.5</v>
+        <v>163841</v>
       </c>
       <c r="H11" s="2">
-        <v>164722.5</v>
+        <v>166026</v>
       </c>
       <c r="I11" s="2">
-        <v>165886</v>
+        <v>167262</v>
       </c>
       <c r="J11" s="3">
-        <v>1003896262.276293</v>
+        <v>982208892.0372897</v>
       </c>
       <c r="K11" s="3">
-        <v>975864459.8967402</v>
+        <v>957701511.5227623</v>
       </c>
       <c r="L11" s="3">
-        <v>963492276.9948874</v>
+        <v>948347148.8161386</v>
       </c>
       <c r="M11" s="3">
-        <v>960640803.1894494</v>
+        <v>951406559.4686563</v>
       </c>
       <c r="N11" s="3">
-        <v>934600936.6068581</v>
+        <v>937105762.3591286</v>
       </c>
       <c r="O11" s="3">
-        <v>989566409.1636477</v>
+        <v>992252154.1951836</v>
       </c>
       <c r="P11" s="4">
-        <v>0.7435897435897436</v>
+        <v>0.7154989384288747</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.8012820512820513</v>
+        <v>0.7813163481953291</v>
       </c>
       <c r="R11" s="4">
-        <v>0.7756410256410257</v>
+        <v>0.7537154989384289</v>
       </c>
       <c r="S11" s="4">
-        <v>0.8525641025641025</v>
+        <v>0.8089171974522293</v>
       </c>
       <c r="T11" s="4">
-        <v>0.7286324786324786</v>
+        <v>0.6581740976645435</v>
       </c>
       <c r="U11" s="5">
-        <v>6390.234548874068</v>
+        <v>6204.750438487106</v>
       </c>
       <c r="V11" s="5">
-        <v>6126.146206075145</v>
+        <v>5967.229274224578</v>
       </c>
       <c r="W11" s="5">
-        <v>5988.571445410252</v>
+        <v>5850.022508273016</v>
       </c>
       <c r="X11" s="5">
-        <v>5909.399231610495</v>
+        <v>5806.8893590045</v>
       </c>
       <c r="Y11" s="5">
-        <v>5673.790384476062</v>
+        <v>5644.331383994848</v>
       </c>
       <c r="Z11" s="5">
-        <v>5965.340108047983</v>
+        <v>5932.322668598867</v>
       </c>
       <c r="AA11" s="5">
-        <v>-264.0883427989238</v>
+        <v>-237.5211642625281</v>
       </c>
       <c r="AB11" s="5">
-        <v>-401.6631034638167</v>
+        <v>-354.7279302140905</v>
       </c>
       <c r="AC11" s="5">
-        <v>-480.8353172635734</v>
+        <v>-397.8610794826063</v>
       </c>
       <c r="AD11" s="5">
-        <v>-716.4441643980063</v>
+        <v>-560.4190544922585</v>
       </c>
       <c r="AE11" s="5">
-        <v>-424.8944408260859</v>
+        <v>-272.4277698882397</v>
       </c>
       <c r="AF11" s="4">
-        <v>-0.04132686222690451</v>
+        <v>-0.03828053466731252</v>
       </c>
       <c r="AG11" s="4">
-        <v>-0.06285576849985697</v>
+        <v>-0.05717037836264427</v>
       </c>
       <c r="AH11" s="4">
-        <v>-0.07524533154237578</v>
+        <v>-0.0641220115824056</v>
       </c>
       <c r="AI11" s="4">
-        <v>-0.1121154722754646</v>
+        <v>-0.09032096617715124</v>
       </c>
       <c r="AJ11" s="4">
-        <v>-0.06649121211066511</v>
+        <v>-0.04390632187209531</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -1526,106 +1526,106 @@
         <v>27</v>
       </c>
       <c r="C12" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D12" s="2">
-        <v>131344.5</v>
+        <v>130950.5</v>
       </c>
       <c r="E12" s="2">
-        <v>134209</v>
+        <v>133779.5</v>
       </c>
       <c r="F12" s="2">
-        <v>136724</v>
+        <v>136322.5</v>
       </c>
       <c r="G12" s="2">
-        <v>138999.5</v>
+        <v>139091.5</v>
       </c>
       <c r="H12" s="2">
-        <v>140899</v>
+        <v>141035</v>
       </c>
       <c r="I12" s="2">
-        <v>141669.5</v>
+        <v>141796.5</v>
       </c>
       <c r="J12" s="3">
-        <v>891071822.3525386</v>
+        <v>866680114.8894676</v>
       </c>
       <c r="K12" s="3">
-        <v>864666319.8799497</v>
+        <v>842290425.2536641</v>
       </c>
       <c r="L12" s="3">
-        <v>857677066.3792276</v>
+        <v>839373476.7995633</v>
       </c>
       <c r="M12" s="3">
-        <v>851957468.3875009</v>
+        <v>839093959.0590724</v>
       </c>
       <c r="N12" s="3">
-        <v>835510125.553912</v>
+        <v>832515969.8286418</v>
       </c>
       <c r="O12" s="3">
-        <v>877074142.301695</v>
+        <v>873757649.857728</v>
       </c>
       <c r="P12" s="4">
-        <v>0.7534246575342466</v>
+        <v>0.7355371900826446</v>
       </c>
       <c r="Q12" s="4">
-        <v>0.7726027397260274</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="R12" s="4">
-        <v>0.8082191780821918</v>
+        <v>0.7961432506887053</v>
       </c>
       <c r="S12" s="4">
-        <v>0.852054794520548</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="T12" s="4">
-        <v>0.7397260273972602</v>
+        <v>0.6584022038567493</v>
       </c>
       <c r="U12" s="5">
-        <v>6784.23399801696</v>
+        <v>6618.379577698959</v>
       </c>
       <c r="V12" s="5">
-        <v>6442.685064935657</v>
+        <v>6296.10983187756</v>
       </c>
       <c r="W12" s="5">
-        <v>6273.054228805679</v>
+        <v>6157.262937516281</v>
       </c>
       <c r="X12" s="5">
-        <v>6129.212467580825</v>
+        <v>6032.67603742193</v>
       </c>
       <c r="Y12" s="5">
-        <v>5929.851351350343</v>
+        <v>5902.903320655452</v>
       </c>
       <c r="Z12" s="5">
-        <v>6190.987772962388</v>
+        <v>6162.053716824661</v>
       </c>
       <c r="AA12" s="5">
-        <v>-341.5489330813025</v>
+        <v>-322.2697458213988</v>
       </c>
       <c r="AB12" s="5">
-        <v>-511.1797692112814</v>
+        <v>-461.1166401826777</v>
       </c>
       <c r="AC12" s="5">
-        <v>-655.0215304361345</v>
+        <v>-585.7035402770289</v>
       </c>
       <c r="AD12" s="5">
-        <v>-854.3826466666169</v>
+        <v>-715.4762570435068</v>
       </c>
       <c r="AE12" s="5">
-        <v>-593.2462250545723</v>
+        <v>-456.3258608742981</v>
       </c>
       <c r="AF12" s="4">
-        <v>-0.05034450951738068</v>
+        <v>-0.04869314943907221</v>
       </c>
       <c r="AG12" s="4">
-        <v>-0.07534819249464275</v>
+        <v>-0.06967213571981257</v>
       </c>
       <c r="AH12" s="4">
-        <v>-0.09655055097268139</v>
+        <v>-0.08849651691942739</v>
       </c>
       <c r="AI12" s="4">
-        <v>-0.1259364943656651</v>
+        <v>-0.108104445906117</v>
       </c>
       <c r="AJ12" s="4">
-        <v>-0.08744483536799863</v>
+        <v>-0.06894827586074337</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -1634,106 +1634,106 @@
         <v>28</v>
       </c>
       <c r="C13" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D13" s="2">
-        <v>52134.5</v>
+        <v>52313</v>
       </c>
       <c r="E13" s="2">
-        <v>53053.5</v>
+        <v>53244</v>
       </c>
       <c r="F13" s="2">
-        <v>53437</v>
+        <v>53651.5</v>
       </c>
       <c r="G13" s="2">
-        <v>53659.5</v>
+        <v>53858.5</v>
       </c>
       <c r="H13" s="2">
-        <v>53419</v>
+        <v>53582</v>
       </c>
       <c r="I13" s="2">
-        <v>52600</v>
+        <v>52788.5</v>
       </c>
       <c r="J13" s="3">
-        <v>379268810.5962566</v>
+        <v>366521160.3254606</v>
       </c>
       <c r="K13" s="3">
-        <v>366213300.5602895</v>
+        <v>354292672.7298843</v>
       </c>
       <c r="L13" s="3">
-        <v>363295784.8757839</v>
+        <v>350891476.8835065</v>
       </c>
       <c r="M13" s="3">
-        <v>359216951.1129351</v>
+        <v>350196881.2620658</v>
       </c>
       <c r="N13" s="3">
-        <v>344152157.533805</v>
+        <v>340182439.7039341</v>
       </c>
       <c r="O13" s="3">
-        <v>357528294.6821261</v>
+        <v>352023545.0099512</v>
       </c>
       <c r="P13" s="4">
-        <v>0.7468354430379747</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.689873417721519</v>
+        <v>0.6858974358974359</v>
       </c>
       <c r="R13" s="4">
-        <v>0.7911392405063291</v>
+        <v>0.7564102564102564</v>
       </c>
       <c r="S13" s="4">
-        <v>0.8734177215189873</v>
+        <v>0.7756410256410257</v>
       </c>
       <c r="T13" s="4">
-        <v>0.7341772151898734</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="U13" s="5">
-        <v>7274.814385795521</v>
+        <v>7006.311248168918</v>
       </c>
       <c r="V13" s="5">
-        <v>6902.717079180252</v>
+        <v>6654.133286940957</v>
       </c>
       <c r="W13" s="5">
-        <v>6798.581224166475</v>
+        <v>6540.198817992162</v>
       </c>
       <c r="X13" s="5">
-        <v>6694.377530780851</v>
+        <v>6502.165512631541</v>
       </c>
       <c r="Y13" s="5">
-        <v>6442.504680615605</v>
+        <v>6348.819374116943</v>
       </c>
       <c r="Z13" s="5">
-        <v>6797.115868481485</v>
+        <v>6668.565028556432</v>
       </c>
       <c r="AA13" s="5">
-        <v>-372.0973066152692</v>
+        <v>-352.1779612279606</v>
       </c>
       <c r="AB13" s="5">
-        <v>-476.2331616290458</v>
+        <v>-466.1124301767559</v>
       </c>
       <c r="AC13" s="5">
-        <v>-580.4368550146701</v>
+        <v>-504.1457355373768</v>
       </c>
       <c r="AD13" s="5">
-        <v>-832.3097051799159</v>
+        <v>-657.4918740519743</v>
       </c>
       <c r="AE13" s="5">
-        <v>-477.6985173140365</v>
+        <v>-337.7462196124861</v>
       </c>
       <c r="AF13" s="4">
-        <v>-0.05114870110525571</v>
+        <v>-0.05026581731149915</v>
       </c>
       <c r="AG13" s="4">
-        <v>-0.06546327320170775</v>
+        <v>-0.06652750836591415</v>
       </c>
       <c r="AH13" s="4">
-        <v>-0.07978717039818983</v>
+        <v>-0.07195594338877453</v>
       </c>
       <c r="AI13" s="4">
-        <v>-0.1144097513752442</v>
+        <v>-0.09384280126347633</v>
       </c>
       <c r="AJ13" s="4">
-        <v>-0.06566470180280737</v>
+        <v>-0.04820599708594953</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -1744,106 +1744,106 @@
         <v>24</v>
       </c>
       <c r="C14" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D14" s="2">
-        <v>143099</v>
+        <v>140646</v>
       </c>
       <c r="E14" s="2">
-        <v>146414.5</v>
+        <v>144009</v>
       </c>
       <c r="F14" s="2">
-        <v>149065.5</v>
+        <v>146646</v>
       </c>
       <c r="G14" s="2">
-        <v>151214.5</v>
+        <v>148759</v>
       </c>
       <c r="H14" s="2">
-        <v>152864</v>
+        <v>150386.5</v>
       </c>
       <c r="I14" s="2">
-        <v>154091</v>
+        <v>151574</v>
       </c>
       <c r="J14" s="3">
-        <v>930398598.7710754</v>
+        <v>883937182.6852837</v>
       </c>
       <c r="K14" s="3">
-        <v>923759672.7801112</v>
+        <v>882207842.3690733</v>
       </c>
       <c r="L14" s="3">
-        <v>919117423.814769</v>
+        <v>879940702.7128173</v>
       </c>
       <c r="M14" s="3">
-        <v>927616252.4741791</v>
+        <v>893558138.072162</v>
       </c>
       <c r="N14" s="3">
-        <v>900415228.4206612</v>
+        <v>877891978.4520904</v>
       </c>
       <c r="O14" s="3">
-        <v>947585155.1725854</v>
+        <v>924503900.3967282</v>
       </c>
       <c r="P14" s="4">
-        <v>0.7985347985347986</v>
+        <v>0.7712177121771218</v>
       </c>
       <c r="Q14" s="4">
-        <v>0.8424908424908425</v>
+        <v>0.8044280442804428</v>
       </c>
       <c r="R14" s="4">
-        <v>0.8388278388278388</v>
+        <v>0.7675276752767528</v>
       </c>
       <c r="S14" s="4">
-        <v>0.9157509157509157</v>
+        <v>0.8523985239852399</v>
       </c>
       <c r="T14" s="4">
-        <v>0.8131868131868132</v>
+        <v>0.7121771217712177</v>
       </c>
       <c r="U14" s="5">
-        <v>6501.782673331577</v>
+        <v>6284.836985661047</v>
       </c>
       <c r="V14" s="5">
-        <v>6309.208942967473</v>
+        <v>6126.060471005793</v>
       </c>
       <c r="W14" s="5">
-        <v>6165.862817451181</v>
+        <v>6000.441217031609</v>
       </c>
       <c r="X14" s="5">
-        <v>6134.439835294757</v>
+        <v>6006.750099638758</v>
       </c>
       <c r="Y14" s="5">
-        <v>5890.302677024421</v>
+        <v>5837.571713232839</v>
       </c>
       <c r="Z14" s="5">
-        <v>6149.516553027662</v>
+        <v>6099.356752455752</v>
       </c>
       <c r="AA14" s="5">
-        <v>-192.5737303641035</v>
+        <v>-158.7765146552538</v>
       </c>
       <c r="AB14" s="5">
-        <v>-335.9198558803955</v>
+        <v>-284.395768629438</v>
       </c>
       <c r="AC14" s="5">
-        <v>-367.3428380368196</v>
+        <v>-278.086886022289</v>
       </c>
       <c r="AD14" s="5">
-        <v>-611.4799963071555</v>
+        <v>-447.2652724282079</v>
       </c>
       <c r="AE14" s="5">
-        <v>-352.2661203039152</v>
+        <v>-185.480233205295</v>
       </c>
       <c r="AF14" s="4">
-        <v>-0.02961860462577215</v>
+        <v>-0.02526342608686671</v>
       </c>
       <c r="AG14" s="4">
-        <v>-0.05166580809571519</v>
+        <v>-0.04525109708943786</v>
       </c>
       <c r="AH14" s="4">
-        <v>-0.05649878756230242</v>
+        <v>-0.04424727111566273</v>
       </c>
       <c r="AI14" s="4">
-        <v>-0.09404805220809187</v>
+        <v>-0.07116577143506675</v>
       </c>
       <c r="AJ14" s="4">
-        <v>-0.05417992849081354</v>
+        <v>-0.02951233796969932</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -1852,106 +1852,106 @@
         <v>25</v>
       </c>
       <c r="C15" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D15" s="2">
-        <v>155417</v>
+        <v>157122</v>
       </c>
       <c r="E15" s="2">
-        <v>158795.5</v>
+        <v>160485.5</v>
       </c>
       <c r="F15" s="2">
-        <v>161812</v>
+        <v>163485</v>
       </c>
       <c r="G15" s="2">
-        <v>164528.5</v>
+        <v>166110.5</v>
       </c>
       <c r="H15" s="2">
-        <v>167344</v>
+        <v>168910</v>
       </c>
       <c r="I15" s="2">
-        <v>168815</v>
+        <v>170375</v>
       </c>
       <c r="J15" s="3">
-        <v>1134889642.561637</v>
+        <v>1115645484.695813</v>
       </c>
       <c r="K15" s="3">
-        <v>1114620991.068366</v>
+        <v>1099846446.934735</v>
       </c>
       <c r="L15" s="3">
-        <v>1117587605.522836</v>
+        <v>1104558881.322862</v>
       </c>
       <c r="M15" s="3">
-        <v>1128384628.383571</v>
+        <v>1120827307.526865</v>
       </c>
       <c r="N15" s="3">
-        <v>1094110041.969242</v>
+        <v>1097114006.454898</v>
       </c>
       <c r="O15" s="3">
-        <v>1145163511.941425</v>
+        <v>1149432024.032328</v>
       </c>
       <c r="P15" s="4">
-        <v>0.7837837837837838</v>
+        <v>0.7641791044776119</v>
       </c>
       <c r="Q15" s="4">
-        <v>0.8108108108108109</v>
+        <v>0.7970149253731343</v>
       </c>
       <c r="R15" s="4">
-        <v>0.8048048048048048</v>
+        <v>0.7492537313432835</v>
       </c>
       <c r="S15" s="4">
-        <v>0.9039039039039038</v>
+        <v>0.8507462686567164</v>
       </c>
       <c r="T15" s="4">
-        <v>0.7717717717717718</v>
+        <v>0.6895522388059702</v>
       </c>
       <c r="U15" s="5">
-        <v>7302.223325386782</v>
+        <v>7100.504605948325</v>
       </c>
       <c r="V15" s="5">
-        <v>7019.222780673043</v>
+        <v>6853.244978111634</v>
       </c>
       <c r="W15" s="5">
-        <v>6906.70411046669</v>
+        <v>6756.331659313466</v>
       </c>
       <c r="X15" s="5">
-        <v>6858.292808744815</v>
+        <v>6747.480186543689</v>
       </c>
       <c r="Y15" s="5">
-        <v>6538.089456265191</v>
+        <v>6495.257867828415</v>
       </c>
       <c r="Z15" s="5">
-        <v>6783.541225255013</v>
+        <v>6746.482899676173</v>
       </c>
       <c r="AA15" s="5">
-        <v>-283.0005447137391</v>
+        <v>-247.2596278366909</v>
       </c>
       <c r="AB15" s="5">
-        <v>-395.5192149200921</v>
+        <v>-344.1729466348588</v>
       </c>
       <c r="AC15" s="5">
-        <v>-443.9305166419663</v>
+        <v>-353.0244194046354</v>
       </c>
       <c r="AD15" s="5">
-        <v>-764.1338691215906</v>
+        <v>-605.2467381199094</v>
       </c>
       <c r="AE15" s="5">
-        <v>-518.6821001317685</v>
+        <v>-354.0217062721522</v>
       </c>
       <c r="AF15" s="4">
-        <v>-0.03875539436459907</v>
+        <v>-0.03482282479326237</v>
       </c>
       <c r="AG15" s="4">
-        <v>-0.05416421784102887</v>
+        <v>-0.04847161796733912</v>
       </c>
       <c r="AH15" s="4">
-        <v>-0.06079388384337758</v>
+        <v>-0.04971821567567114</v>
       </c>
       <c r="AI15" s="4">
-        <v>-0.1046440015693598</v>
+        <v>-0.08523996134202549</v>
       </c>
       <c r="AJ15" s="4">
-        <v>-0.07103070900728647</v>
+        <v>-0.04985866863258936</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -1960,106 +1960,106 @@
         <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D16" s="2">
-        <v>223861.5</v>
+        <v>222209.5</v>
       </c>
       <c r="E16" s="2">
-        <v>228200</v>
+        <v>226499</v>
       </c>
       <c r="F16" s="2">
-        <v>232254.5</v>
+        <v>230486.5</v>
       </c>
       <c r="G16" s="2">
-        <v>234968</v>
+        <v>233091.5</v>
       </c>
       <c r="H16" s="2">
-        <v>236113.5</v>
+        <v>234167</v>
       </c>
       <c r="I16" s="2">
-        <v>235139</v>
+        <v>233235.5</v>
       </c>
       <c r="J16" s="3">
-        <v>1651015711.871217</v>
+        <v>1594031335.230638</v>
       </c>
       <c r="K16" s="3">
-        <v>1619008030.101945</v>
+        <v>1569130402.985905</v>
       </c>
       <c r="L16" s="3">
-        <v>1614301532.38761</v>
+        <v>1572198071.434989</v>
       </c>
       <c r="M16" s="3">
-        <v>1632571933.151513</v>
+        <v>1593773835.9426</v>
       </c>
       <c r="N16" s="3">
-        <v>1575485630.290572</v>
+        <v>1557230869.607991</v>
       </c>
       <c r="O16" s="3">
-        <v>1628915488.042949</v>
+        <v>1609080719.720515</v>
       </c>
       <c r="P16" s="4">
-        <v>0.8077858880778589</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="Q16" s="4">
-        <v>0.8126520681265207</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="R16" s="4">
-        <v>0.7858880778588808</v>
+        <v>0.7463414634146341</v>
       </c>
       <c r="S16" s="4">
-        <v>0.8710462287104623</v>
+        <v>0.8121951219512196</v>
       </c>
       <c r="T16" s="4">
-        <v>0.805352798053528</v>
+        <v>0.6975609756097561</v>
       </c>
       <c r="U16" s="5">
-        <v>7375.16594801347</v>
+        <v>7173.551694372373</v>
       </c>
       <c r="V16" s="5">
-        <v>7094.689001323158</v>
+        <v>6927.758634633728</v>
       </c>
       <c r="W16" s="5">
-        <v>6950.571603080283</v>
+        <v>6821.215435329135</v>
       </c>
       <c r="X16" s="5">
-        <v>6948.060728063027</v>
+        <v>6837.545924851826</v>
       </c>
       <c r="Y16" s="5">
-        <v>6672.577511622892</v>
+        <v>6650.08677400313</v>
       </c>
       <c r="Z16" s="5">
-        <v>6927.457750704687</v>
+        <v>6898.952859751261</v>
       </c>
       <c r="AA16" s="5">
-        <v>-280.4769466903126</v>
+        <v>-245.7930597386448</v>
       </c>
       <c r="AB16" s="5">
-        <v>-424.5943449331871</v>
+        <v>-352.336259043238</v>
       </c>
       <c r="AC16" s="5">
-        <v>-427.1052199504429</v>
+        <v>-336.0057695205469</v>
       </c>
       <c r="AD16" s="5">
-        <v>-702.5884363905789</v>
+        <v>-523.4649203692434</v>
       </c>
       <c r="AE16" s="5">
-        <v>-447.7081973087834</v>
+        <v>-274.5988346211125</v>
       </c>
       <c r="AF16" s="4">
-        <v>-0.03802991670524514</v>
+        <v>-0.03426378873542779</v>
       </c>
       <c r="AG16" s="4">
-        <v>-0.05757081914171069</v>
+        <v>-0.04911601310681912</v>
       </c>
       <c r="AH16" s="4">
-        <v>-0.05791126911055955</v>
+        <v>-0.04683952717370699</v>
       </c>
       <c r="AI16" s="4">
-        <v>-0.09526408508541073</v>
+        <v>-0.07297151295081628</v>
       </c>
       <c r="AJ16" s="4">
-        <v>-0.06070483030003893</v>
+        <v>-0.03827934143647904</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2071,103 +2071,103 @@
         <v>588</v>
       </c>
       <c r="D17" s="2">
-        <v>306154</v>
+        <v>306295</v>
       </c>
       <c r="E17" s="2">
-        <v>310348.5</v>
+        <v>310440.5</v>
       </c>
       <c r="F17" s="2">
-        <v>311922</v>
+        <v>311943</v>
       </c>
       <c r="G17" s="2">
-        <v>314012.5</v>
+        <v>313969.5</v>
       </c>
       <c r="H17" s="2">
-        <v>314131</v>
+        <v>314028</v>
       </c>
       <c r="I17" s="2">
-        <v>311506</v>
+        <v>311391.5</v>
       </c>
       <c r="J17" s="3">
-        <v>2525974360.126216</v>
+        <v>2457872745.253994</v>
       </c>
       <c r="K17" s="3">
-        <v>2461830979.659065</v>
+        <v>2403566563.401718</v>
       </c>
       <c r="L17" s="3">
-        <v>2430495786.22528</v>
+        <v>2378394203.56498</v>
       </c>
       <c r="M17" s="3">
-        <v>2428096625.748889</v>
+        <v>2389286957.553091</v>
       </c>
       <c r="N17" s="3">
-        <v>2328482786.438206</v>
+        <v>2318401304.78261</v>
       </c>
       <c r="O17" s="3">
-        <v>2407082509.588936</v>
+        <v>2394571895.199767</v>
       </c>
       <c r="P17" s="4">
-        <v>0.7806122448979592</v>
+        <v>0.7517006802721088</v>
       </c>
       <c r="Q17" s="4">
-        <v>0.7789115646258503</v>
+        <v>0.7465986394557823</v>
       </c>
       <c r="R17" s="4">
-        <v>0.7908163265306123</v>
+        <v>0.7448979591836735</v>
       </c>
       <c r="S17" s="4">
-        <v>0.8690476190476191</v>
+        <v>0.8112244897959183</v>
       </c>
       <c r="T17" s="4">
-        <v>0.7431972789115646</v>
+        <v>0.6700680272108843</v>
       </c>
       <c r="U17" s="5">
-        <v>8250.665874449514</v>
+        <v>8024.527808988049</v>
       </c>
       <c r="V17" s="5">
-        <v>7932.472622419845</v>
+        <v>7742.438771364297</v>
       </c>
       <c r="W17" s="5">
-        <v>7791.99859652503</v>
+        <v>7624.451273357568</v>
       </c>
       <c r="X17" s="5">
-        <v>7732.483979933566</v>
+        <v>7609.933313755287</v>
       </c>
       <c r="Y17" s="5">
-        <v>7412.457816764999</v>
+        <v>7382.78530826108</v>
       </c>
       <c r="Z17" s="5">
-        <v>7727.242844725096</v>
+        <v>7689.907705251322</v>
       </c>
       <c r="AA17" s="5">
-        <v>-318.1932520296696</v>
+        <v>-282.0890376237521</v>
       </c>
       <c r="AB17" s="5">
-        <v>-458.6672779244846</v>
+        <v>-400.076535630481</v>
       </c>
       <c r="AC17" s="5">
-        <v>-518.1818945159484</v>
+        <v>-414.5944952327627</v>
       </c>
       <c r="AD17" s="5">
-        <v>-838.2080576845156</v>
+        <v>-641.7425007269694</v>
       </c>
       <c r="AE17" s="5">
-        <v>-523.4230297244185</v>
+        <v>-334.6201037367273</v>
       </c>
       <c r="AF17" s="4">
-        <v>-0.03856576631166753</v>
+        <v>-0.03515335037007317</v>
       </c>
       <c r="AG17" s="4">
-        <v>-0.05559154677986367</v>
+        <v>-0.04985670747908266</v>
       </c>
       <c r="AH17" s="4">
-        <v>-0.06280485749891329</v>
+        <v>-0.05166590547152028</v>
       </c>
       <c r="AI17" s="4">
-        <v>-0.1015927769272854</v>
+        <v>-0.07997261845216252</v>
       </c>
       <c r="AJ17" s="4">
-        <v>-0.06344009534373996</v>
+        <v>-0.04169966279659831</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2176,106 +2176,106 @@
         <v>28</v>
       </c>
       <c r="C18" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D18" s="2">
-        <v>245028.5</v>
+        <v>244337.5</v>
       </c>
       <c r="E18" s="2">
-        <v>245858.5</v>
+        <v>245165.5</v>
       </c>
       <c r="F18" s="2">
-        <v>245893.5</v>
+        <v>245218</v>
       </c>
       <c r="G18" s="2">
-        <v>244937</v>
+        <v>244296.5</v>
       </c>
       <c r="H18" s="2">
-        <v>242664.5</v>
+        <v>241991</v>
       </c>
       <c r="I18" s="2">
-        <v>238295</v>
+        <v>237637.5</v>
       </c>
       <c r="J18" s="3">
-        <v>2274307757.062909</v>
+        <v>2205712275.360182</v>
       </c>
       <c r="K18" s="3">
-        <v>2197110749.275406</v>
+        <v>2139672893.313154</v>
       </c>
       <c r="L18" s="3">
-        <v>2150739682.965896</v>
+        <v>2097904606.530392</v>
       </c>
       <c r="M18" s="3">
-        <v>2126609843.951532</v>
+        <v>2086473124.695107</v>
       </c>
       <c r="N18" s="3">
-        <v>2017557369.749536</v>
+        <v>2003623862.861666</v>
       </c>
       <c r="O18" s="3">
-        <v>2051037618.511459</v>
+        <v>2036559676.719691</v>
       </c>
       <c r="P18" s="4">
-        <v>0.7731568998109641</v>
+        <v>0.7518939393939394</v>
       </c>
       <c r="Q18" s="4">
-        <v>0.7485822306238186</v>
+        <v>0.7348484848484849</v>
       </c>
       <c r="R18" s="4">
-        <v>0.7655954631379962</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="S18" s="4">
-        <v>0.8260869565217391</v>
+        <v>0.7746212121212122</v>
       </c>
       <c r="T18" s="4">
-        <v>0.7296786389413988</v>
+        <v>0.6553030303030303</v>
       </c>
       <c r="U18" s="5">
-        <v>9281.809083689894</v>
+        <v>9027.317850760453</v>
       </c>
       <c r="V18" s="5">
-        <v>8936.484804370833</v>
+        <v>8727.463257730609</v>
       </c>
       <c r="W18" s="5">
-        <v>8746.630890877132</v>
+        <v>8555.263506473391</v>
       </c>
       <c r="X18" s="5">
-        <v>8682.272763818988</v>
+        <v>8540.740963112883</v>
       </c>
       <c r="Y18" s="5">
-        <v>8314.18427396482</v>
+        <v>8279.745374256339</v>
       </c>
       <c r="Z18" s="5">
-        <v>8607.136610132226</v>
+        <v>8570.026518203949</v>
       </c>
       <c r="AA18" s="5">
-        <v>-345.3242793190602</v>
+        <v>-299.8545930298442</v>
       </c>
       <c r="AB18" s="5">
-        <v>-535.1781928127621</v>
+        <v>-472.0543442870621</v>
       </c>
       <c r="AC18" s="5">
-        <v>-599.5363198709056</v>
+        <v>-486.5768876475704</v>
       </c>
       <c r="AD18" s="5">
-        <v>-967.6248097250736</v>
+        <v>-747.5724765041141</v>
       </c>
       <c r="AE18" s="5">
-        <v>-674.6724735576681</v>
+        <v>-457.2913325565041</v>
       </c>
       <c r="AF18" s="4">
-        <v>-0.0372044152390365</v>
+        <v>-0.03321635484504237</v>
       </c>
       <c r="AG18" s="4">
-        <v>-0.0576588236180362</v>
+        <v>-0.05229176064153951</v>
       </c>
       <c r="AH18" s="4">
-        <v>-0.06459261491646262</v>
+        <v>-0.05390049355651982</v>
       </c>
       <c r="AI18" s="4">
-        <v>-0.1042495919707501</v>
+        <v>-0.08281224709963431</v>
       </c>
       <c r="AJ18" s="4">
-        <v>-0.07268760512896244</v>
+        <v>-0.05065638987309862</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2307,85 +2307,85 @@
         <v>28589.5</v>
       </c>
       <c r="J19" s="3">
-        <v>148169704.2877502</v>
+        <v>144087078.7366754</v>
       </c>
       <c r="K19" s="3">
-        <v>145273826.6153765</v>
+        <v>141865269.7020775</v>
       </c>
       <c r="L19" s="3">
-        <v>144996294.9526604</v>
+        <v>141846180.6098524</v>
       </c>
       <c r="M19" s="3">
-        <v>140915823.8979584</v>
+        <v>138639842.448126</v>
       </c>
       <c r="N19" s="3">
-        <v>145131746.1642062</v>
+        <v>144511830.3544183</v>
       </c>
       <c r="O19" s="3">
-        <v>154264881.8681253</v>
+        <v>153599467.0168653</v>
       </c>
       <c r="P19" s="4">
-        <v>0.7444444444444445</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="Q19" s="4">
-        <v>0.8222222222222222</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="R19" s="4">
-        <v>0.8333333333333334</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="S19" s="4">
-        <v>0.9</v>
+        <v>0.7888888888888889</v>
       </c>
       <c r="T19" s="4">
-        <v>0.7222222222222222</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="U19" s="5">
-        <v>5625.380295288453</v>
+        <v>5470.38017945198</v>
       </c>
       <c r="V19" s="5">
-        <v>5446.066602263411</v>
+        <v>5318.285649562417</v>
       </c>
       <c r="W19" s="5">
-        <v>5368.543049508871</v>
+        <v>5251.908866092244</v>
       </c>
       <c r="X19" s="5">
-        <v>5158.822789184104</v>
+        <v>5075.500812656772</v>
       </c>
       <c r="Y19" s="5">
-        <v>5121.18231317441</v>
+        <v>5099.307692599315</v>
       </c>
       <c r="Z19" s="5">
-        <v>5395.857985208741</v>
+        <v>5372.583186724681</v>
       </c>
       <c r="AA19" s="5">
-        <v>-179.3136930250421</v>
+        <v>-152.0945298895631</v>
       </c>
       <c r="AB19" s="5">
-        <v>-256.8372457795822</v>
+        <v>-218.4713133597361</v>
       </c>
       <c r="AC19" s="5">
-        <v>-466.5575061043492</v>
+        <v>-394.8793667952086</v>
       </c>
       <c r="AD19" s="5">
-        <v>-504.197982114044</v>
+        <v>-371.0724868526659</v>
       </c>
       <c r="AE19" s="5">
-        <v>-229.522310079712</v>
+        <v>-97.79699272729977</v>
       </c>
       <c r="AF19" s="4">
-        <v>-0.03187583480804423</v>
+        <v>-0.02780328330028425</v>
       </c>
       <c r="AG19" s="4">
-        <v>-0.04565686803338376</v>
+        <v>-0.03993713529826781</v>
       </c>
       <c r="AH19" s="4">
-        <v>-0.08293794936763921</v>
+        <v>-0.07218499516331012</v>
       </c>
       <c r="AI19" s="4">
-        <v>-0.08962913716897247</v>
+        <v>-0.06783303439247246</v>
       </c>
       <c r="AJ19" s="4">
-        <v>-0.04080120774624763</v>
+        <v>-0.0178775495521587</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2394,106 +2394,106 @@
         <v>25</v>
       </c>
       <c r="C20" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D20" s="2">
-        <v>36815.5</v>
+        <v>36559.5</v>
       </c>
       <c r="E20" s="2">
-        <v>37368</v>
+        <v>37098</v>
       </c>
       <c r="F20" s="2">
-        <v>38484.5</v>
+        <v>38199.5</v>
       </c>
       <c r="G20" s="2">
-        <v>38935</v>
+        <v>38646</v>
       </c>
       <c r="H20" s="2">
-        <v>38941.5</v>
+        <v>38651.5</v>
       </c>
       <c r="I20" s="2">
-        <v>38871.5</v>
+        <v>38569.5</v>
       </c>
       <c r="J20" s="3">
-        <v>215398880.0881134</v>
+        <v>208192066.7136249</v>
       </c>
       <c r="K20" s="3">
-        <v>207961879.6116207</v>
+        <v>201773719.9444468</v>
       </c>
       <c r="L20" s="3">
-        <v>212345179.9388642</v>
+        <v>206366886.0954241</v>
       </c>
       <c r="M20" s="3">
-        <v>216204686.3190784</v>
+        <v>211288731.4361258</v>
       </c>
       <c r="N20" s="3">
-        <v>211765428.5870113</v>
+        <v>209438051.0355873</v>
       </c>
       <c r="O20" s="3">
-        <v>217480605.1561288</v>
+        <v>215097313.9003921</v>
       </c>
       <c r="P20" s="4">
-        <v>0.8656716417910447</v>
+        <v>0.8345864661654135</v>
       </c>
       <c r="Q20" s="4">
-        <v>0.7835820895522388</v>
+        <v>0.7669172932330827</v>
       </c>
       <c r="R20" s="4">
-        <v>0.7835820895522388</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="S20" s="4">
-        <v>0.8208955223880597</v>
+        <v>0.7218045112781954</v>
       </c>
       <c r="T20" s="4">
-        <v>0.7313432835820896</v>
+        <v>0.6390977443609023</v>
       </c>
       <c r="U20" s="5">
-        <v>5850.766119925395</v>
+        <v>5694.609245575702</v>
       </c>
       <c r="V20" s="5">
-        <v>5565.239766956239</v>
+        <v>5438.937946639895</v>
       </c>
       <c r="W20" s="5">
-        <v>5517.68062307849</v>
+        <v>5402.345216440636</v>
       </c>
       <c r="X20" s="5">
-        <v>5552.964847029109</v>
+        <v>5467.285914095269</v>
       </c>
       <c r="Y20" s="5">
-        <v>5438.039844048415</v>
+        <v>5418.62672950823</v>
       </c>
       <c r="Z20" s="5">
-        <v>5594.860120039844</v>
+        <v>5576.875870840744</v>
       </c>
       <c r="AA20" s="5">
-        <v>-285.5263529691565</v>
+        <v>-255.6712989358066</v>
       </c>
       <c r="AB20" s="5">
-        <v>-333.0854968469048</v>
+        <v>-292.2640291350654</v>
       </c>
       <c r="AC20" s="5">
-        <v>-297.8012728962867</v>
+        <v>-227.3233314804329</v>
       </c>
       <c r="AD20" s="5">
-        <v>-412.7262758769803</v>
+        <v>-275.9825160674718</v>
       </c>
       <c r="AE20" s="5">
-        <v>-255.905999885551</v>
+        <v>-117.7333747349576</v>
       </c>
       <c r="AF20" s="4">
-        <v>-0.04880153250302843</v>
+        <v>-0.04489707509509011</v>
       </c>
       <c r="AG20" s="4">
-        <v>-0.05693023614677528</v>
+        <v>-0.05132292955168671</v>
       </c>
       <c r="AH20" s="4">
-        <v>-0.050899534657879</v>
+        <v>-0.03991903951215736</v>
       </c>
       <c r="AI20" s="4">
-        <v>-0.07054226188795987</v>
+        <v>-0.0484638197575874</v>
       </c>
       <c r="AJ20" s="4">
-        <v>-0.04373888729102271</v>
+        <v>-0.0206745308866324</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2502,106 +2502,106 @@
         <v>26</v>
       </c>
       <c r="C21" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" s="2">
-        <v>46462</v>
+        <v>45451</v>
       </c>
       <c r="E21" s="2">
-        <v>47044.5</v>
+        <v>46104</v>
       </c>
       <c r="F21" s="2">
-        <v>47497.5</v>
+        <v>46681.5</v>
       </c>
       <c r="G21" s="2">
-        <v>47940</v>
+        <v>47286</v>
       </c>
       <c r="H21" s="2">
-        <v>48401</v>
+        <v>47824</v>
       </c>
       <c r="I21" s="2">
-        <v>48882.5</v>
+        <v>48265.5</v>
       </c>
       <c r="J21" s="3">
-        <v>306304433.8704417</v>
+        <v>291345036.5047701</v>
       </c>
       <c r="K21" s="3">
-        <v>299935902.7266119</v>
+        <v>286541659.3314232</v>
       </c>
       <c r="L21" s="3">
-        <v>297466990.9965256</v>
+        <v>285268800.2198179</v>
       </c>
       <c r="M21" s="3">
-        <v>294514329.2758163</v>
+        <v>287428701.3726559</v>
       </c>
       <c r="N21" s="3">
-        <v>283865386.350769</v>
+        <v>277791828.2716556</v>
       </c>
       <c r="O21" s="3">
-        <v>298525640.8172086</v>
+        <v>293226369.7313293</v>
       </c>
       <c r="P21" s="4">
-        <v>0.788135593220339</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="Q21" s="4">
-        <v>0.7542372881355932</v>
+        <v>0.7350427350427351</v>
       </c>
       <c r="R21" s="4">
-        <v>0.7542372881355932</v>
+        <v>0.7350427350427351</v>
       </c>
       <c r="S21" s="4">
-        <v>0.8220338983050848</v>
+        <v>0.7606837606837606</v>
       </c>
       <c r="T21" s="4">
-        <v>0.788135593220339</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="U21" s="5">
-        <v>6592.57961065907</v>
+        <v>6410.090790186577</v>
       </c>
       <c r="V21" s="5">
-        <v>6375.578499646332</v>
+        <v>6215.114942985927</v>
       </c>
       <c r="W21" s="5">
-        <v>6262.792589010486</v>
+        <v>6110.960449424673</v>
       </c>
       <c r="X21" s="5">
-        <v>6143.394436291538</v>
+        <v>6078.515868812246</v>
       </c>
       <c r="Y21" s="5">
-        <v>5864.866146376501</v>
+        <v>5808.628058540807</v>
       </c>
       <c r="Z21" s="5">
-        <v>6107.00436387682</v>
+        <v>6075.278816780708</v>
       </c>
       <c r="AA21" s="5">
-        <v>-217.001111012738</v>
+        <v>-194.9758472006497</v>
       </c>
       <c r="AB21" s="5">
-        <v>-329.7870216485835</v>
+        <v>-299.1303407619034</v>
       </c>
       <c r="AC21" s="5">
-        <v>-449.1851743675315</v>
+        <v>-331.5749213743302</v>
       </c>
       <c r="AD21" s="5">
-        <v>-727.7134642825686</v>
+        <v>-601.46273164577</v>
       </c>
       <c r="AE21" s="5">
-        <v>-485.5752467822495</v>
+        <v>-334.8119734058682</v>
       </c>
       <c r="AF21" s="4">
-        <v>-0.03291596367860072</v>
+        <v>-0.03041701803961105</v>
       </c>
       <c r="AG21" s="4">
-        <v>-0.05002397257598146</v>
+        <v>-0.04666553884382607</v>
       </c>
       <c r="AH21" s="4">
-        <v>-0.06813496398910013</v>
+        <v>-0.05172702419159947</v>
       </c>
       <c r="AI21" s="4">
-        <v>-0.1103837203734302</v>
+        <v>-0.09383061041297103</v>
       </c>
       <c r="AJ21" s="4">
-        <v>-0.07365481730355716</v>
+        <v>-0.05223201735589189</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -2613,103 +2613,103 @@
         <v>165</v>
       </c>
       <c r="D22" s="2">
-        <v>57068.5</v>
+        <v>57084.5</v>
       </c>
       <c r="E22" s="2">
-        <v>57245</v>
+        <v>57286</v>
       </c>
       <c r="F22" s="2">
-        <v>57578</v>
+        <v>57610</v>
       </c>
       <c r="G22" s="2">
-        <v>58227</v>
+        <v>58256</v>
       </c>
       <c r="H22" s="2">
-        <v>58926</v>
+        <v>58962.5</v>
       </c>
       <c r="I22" s="2">
-        <v>59027</v>
+        <v>59069</v>
       </c>
       <c r="J22" s="3">
-        <v>406717111.7383958</v>
+        <v>400473733.6124244</v>
       </c>
       <c r="K22" s="3">
-        <v>388602276.1005586</v>
+        <v>384679494.2527498</v>
       </c>
       <c r="L22" s="3">
-        <v>384063155.2018282</v>
+        <v>380926196.3533244</v>
       </c>
       <c r="M22" s="3">
-        <v>388795286.3909868</v>
+        <v>387678376.9815274</v>
       </c>
       <c r="N22" s="3">
-        <v>379008305.3383854</v>
+        <v>379539849.588554</v>
       </c>
       <c r="O22" s="3">
-        <v>397366434.88572</v>
+        <v>401215927.0380216</v>
       </c>
       <c r="P22" s="4">
-        <v>0.7393939393939394</v>
+        <v>0.7212121212121212</v>
       </c>
       <c r="Q22" s="4">
+        <v>0.7636363636363637</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="S22" s="4">
         <v>0.7696969696969697</v>
       </c>
-      <c r="R22" s="4">
-        <v>0.7575757575757576</v>
-      </c>
-      <c r="S22" s="4">
-        <v>0.8424242424242424</v>
-      </c>
       <c r="T22" s="4">
-        <v>0.6545454545454545</v>
+        <v>0.6</v>
       </c>
       <c r="U22" s="5">
-        <v>7126.82323415537</v>
+        <v>7015.454871504951</v>
       </c>
       <c r="V22" s="5">
-        <v>6788.405556826948</v>
+        <v>6715.069899325312</v>
       </c>
       <c r="W22" s="5">
-        <v>6670.310799295359</v>
+        <v>6612.154076606915</v>
       </c>
       <c r="X22" s="5">
-        <v>6677.233695553383</v>
+        <v>6654.737314294278</v>
       </c>
       <c r="Y22" s="5">
-        <v>6431.936756921994</v>
+        <v>6436.970101141472</v>
       </c>
       <c r="Z22" s="5">
-        <v>6731.94360014434</v>
+        <v>6792.326381655717</v>
       </c>
       <c r="AA22" s="5">
-        <v>-338.4176773284225</v>
+        <v>-300.3849721796396</v>
       </c>
       <c r="AB22" s="5">
-        <v>-456.5124348600111</v>
+        <v>-403.3007948980367</v>
       </c>
       <c r="AC22" s="5">
-        <v>-449.5895386019874</v>
+        <v>-360.7175572106735</v>
       </c>
       <c r="AD22" s="5">
-        <v>-694.8864772333764</v>
+        <v>-578.4847703634796</v>
       </c>
       <c r="AE22" s="5">
-        <v>-394.8796340110302</v>
+        <v>-223.128489849234</v>
       </c>
       <c r="AF22" s="4">
-        <v>-0.04748506679758135</v>
+        <v>-0.0428176045148162</v>
       </c>
       <c r="AG22" s="4">
-        <v>-0.06405552935172731</v>
+        <v>-0.05748747619147909</v>
       </c>
       <c r="AH22" s="4">
-        <v>-0.06308414335960022</v>
+        <v>-0.05141755792283964</v>
       </c>
       <c r="AI22" s="4">
-        <v>-0.09750297634759986</v>
+        <v>-0.0824586261274578</v>
       </c>
       <c r="AJ22" s="4">
-        <v>-0.05540752464836862</v>
+        <v>-0.0318052776243386</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -2718,106 +2718,106 @@
         <v>28</v>
       </c>
       <c r="C23" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D23" s="2">
-        <v>106686.5</v>
+        <v>106936</v>
       </c>
       <c r="E23" s="2">
-        <v>107660</v>
+        <v>107907.5</v>
       </c>
       <c r="F23" s="2">
-        <v>108415.5</v>
+        <v>109005.5</v>
       </c>
       <c r="G23" s="2">
-        <v>109620.5</v>
+        <v>110230.5</v>
       </c>
       <c r="H23" s="2">
-        <v>110121.5</v>
+        <v>110709.5</v>
       </c>
       <c r="I23" s="2">
-        <v>110106.5</v>
+        <v>110671.5</v>
       </c>
       <c r="J23" s="3">
-        <v>801216931.3245873</v>
+        <v>780733773.0969934</v>
       </c>
       <c r="K23" s="3">
-        <v>765823902.9923135</v>
+        <v>749415944.0523233</v>
       </c>
       <c r="L23" s="3">
-        <v>770382976.7722547</v>
+        <v>756212664.0142719</v>
       </c>
       <c r="M23" s="3">
-        <v>766972487.1901331</v>
+        <v>757860782.7445087</v>
       </c>
       <c r="N23" s="3">
-        <v>752715708.6061651</v>
+        <v>752727562.2582616</v>
       </c>
       <c r="O23" s="3">
-        <v>783911180.6312376</v>
+        <v>783798075.767431</v>
       </c>
       <c r="P23" s="4">
-        <v>0.760806916426513</v>
+        <v>0.7471264367816092</v>
       </c>
       <c r="Q23" s="4">
-        <v>0.7579250720461095</v>
+        <v>0.7183908045977011</v>
       </c>
       <c r="R23" s="4">
-        <v>0.7348703170028819</v>
+        <v>0.7011494252873564</v>
       </c>
       <c r="S23" s="4">
-        <v>0.8328530259365994</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="T23" s="4">
-        <v>0.7175792507204611</v>
+        <v>0.6120689655172413</v>
       </c>
       <c r="U23" s="5">
-        <v>7510.012338248863</v>
+        <v>7300.944238581894</v>
       </c>
       <c r="V23" s="5">
-        <v>7113.35596314614</v>
+        <v>6944.98476984754</v>
       </c>
       <c r="W23" s="5">
-        <v>7105.837973096603</v>
+        <v>6937.38081119092</v>
       </c>
       <c r="X23" s="5">
-        <v>6996.61547967883</v>
+        <v>6875.236733431389</v>
       </c>
       <c r="Y23" s="5">
-        <v>6835.320156428718</v>
+        <v>6799.123492186864</v>
       </c>
       <c r="Z23" s="5">
-        <v>7119.572238071663</v>
+        <v>7082.203419737069</v>
       </c>
       <c r="AA23" s="5">
-        <v>-396.6563751027224</v>
+        <v>-355.9594687343542</v>
       </c>
       <c r="AB23" s="5">
-        <v>-404.1743651522602</v>
+        <v>-363.5634273909736</v>
       </c>
       <c r="AC23" s="5">
-        <v>-513.3968585700331</v>
+        <v>-425.7075051505044</v>
       </c>
       <c r="AD23" s="5">
-        <v>-674.6921818201445</v>
+        <v>-501.8207463950303</v>
       </c>
       <c r="AE23" s="5">
-        <v>-390.4401001771994</v>
+        <v>-218.7408188448253</v>
       </c>
       <c r="AF23" s="4">
-        <v>-0.05281700711495929</v>
+        <v>-0.04875526467566804</v>
       </c>
       <c r="AG23" s="4">
-        <v>-0.05381806939168132</v>
+        <v>-0.0497967681316781</v>
       </c>
       <c r="AH23" s="4">
-        <v>-0.06836165314340137</v>
+        <v>-0.05830855451557215</v>
       </c>
       <c r="AI23" s="4">
-        <v>-0.08983902441596592</v>
+        <v>-0.06873367745272652</v>
       </c>
       <c r="AJ23" s="4">
-        <v>-0.05198927546212795</v>
+        <v>-0.02996062039330305</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -2828,106 +2828,106 @@
         <v>24</v>
       </c>
       <c r="C24" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D24" s="2">
-        <v>182326.5</v>
+        <v>182204.5</v>
       </c>
       <c r="E24" s="2">
-        <v>184941</v>
+        <v>184788</v>
       </c>
       <c r="F24" s="2">
-        <v>187600</v>
+        <v>187514</v>
       </c>
       <c r="G24" s="2">
-        <v>189772</v>
+        <v>189555</v>
       </c>
       <c r="H24" s="2">
-        <v>191068</v>
+        <v>190850</v>
       </c>
       <c r="I24" s="2">
-        <v>192683.5</v>
+        <v>192476.5</v>
       </c>
       <c r="J24" s="3">
-        <v>1055715110.878725</v>
+        <v>1025540154.508391</v>
       </c>
       <c r="K24" s="3">
-        <v>1035083935.953383</v>
+        <v>1009661698.397079</v>
       </c>
       <c r="L24" s="3">
-        <v>1030813188.768154</v>
+        <v>1007581826.663393</v>
       </c>
       <c r="M24" s="3">
-        <v>1035975864.126997</v>
+        <v>1017977412.444606</v>
       </c>
       <c r="N24" s="3">
-        <v>1019106184.77446</v>
+        <v>1013377716.527225</v>
       </c>
       <c r="O24" s="3">
-        <v>1071467811.102022</v>
+        <v>1065553208.805685</v>
       </c>
       <c r="P24" s="4">
-        <v>0.7839721254355401</v>
+        <v>0.7653239929947461</v>
       </c>
       <c r="Q24" s="4">
-        <v>0.7996515679442509</v>
+        <v>0.7775831873905429</v>
       </c>
       <c r="R24" s="4">
-        <v>0.8048780487804879</v>
+        <v>0.7495621716287215</v>
       </c>
       <c r="S24" s="4">
-        <v>0.872822299651568</v>
+        <v>0.7863397548161121</v>
       </c>
       <c r="T24" s="4">
-        <v>0.7386759581881533</v>
+        <v>0.6164623467600701</v>
       </c>
       <c r="U24" s="5">
-        <v>5790.245032283978</v>
+        <v>5628.511669626112</v>
       </c>
       <c r="V24" s="5">
-        <v>5596.833238456496</v>
+        <v>5463.8921271786</v>
       </c>
       <c r="W24" s="5">
-        <v>5494.739812196985</v>
+        <v>5373.368530687802</v>
       </c>
       <c r="X24" s="5">
-        <v>5459.05541453427</v>
+        <v>5370.353788845488</v>
       </c>
       <c r="Y24" s="5">
-        <v>5333.735553700568</v>
+        <v>5309.812504727402</v>
       </c>
       <c r="Z24" s="5">
-        <v>5560.76576926422</v>
+        <v>5536.017169917808</v>
       </c>
       <c r="AA24" s="5">
-        <v>-193.4117938274812</v>
+        <v>-164.6195424475118</v>
       </c>
       <c r="AB24" s="5">
-        <v>-295.5052200869932</v>
+        <v>-255.1431389383097</v>
       </c>
       <c r="AC24" s="5">
-        <v>-331.1896177497074</v>
+        <v>-258.1578807806245</v>
       </c>
       <c r="AD24" s="5">
-        <v>-456.5094785834099</v>
+        <v>-318.6991648987105</v>
       </c>
       <c r="AE24" s="5">
-        <v>-229.479263019758</v>
+        <v>-92.49449970830392</v>
       </c>
       <c r="AF24" s="4">
-        <v>-0.03340304127875382</v>
+        <v>-0.02924743735290991</v>
       </c>
       <c r="AG24" s="4">
-        <v>-0.05103501120235499</v>
+        <v>-0.04533048058071421</v>
       </c>
       <c r="AH24" s="4">
-        <v>-0.05719785879580797</v>
+        <v>-0.04586610030032567</v>
       </c>
       <c r="AI24" s="4">
-        <v>-0.0788411329810923</v>
+        <v>-0.05662228020571569</v>
       </c>
       <c r="AJ24" s="4">
-        <v>-0.03963204695833733</v>
+        <v>-0.01643320741563781</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -2939,103 +2939,103 @@
         <v>491</v>
       </c>
       <c r="D25" s="2">
-        <v>155630</v>
+        <v>155751.5</v>
       </c>
       <c r="E25" s="2">
-        <v>157469</v>
+        <v>157566</v>
       </c>
       <c r="F25" s="2">
-        <v>160178.5</v>
+        <v>160291.5</v>
       </c>
       <c r="G25" s="2">
-        <v>161955.5</v>
+        <v>162068.5</v>
       </c>
       <c r="H25" s="2">
-        <v>164145.5</v>
+        <v>164292.5</v>
       </c>
       <c r="I25" s="2">
-        <v>165197.5</v>
+        <v>165358.5</v>
       </c>
       <c r="J25" s="3">
-        <v>974850719.9839956</v>
+        <v>948545372.5148056</v>
       </c>
       <c r="K25" s="3">
-        <v>954037366.4604918</v>
+        <v>932215572.3177316</v>
       </c>
       <c r="L25" s="3">
-        <v>950481265.5651081</v>
+        <v>930280723.8003668</v>
       </c>
       <c r="M25" s="3">
-        <v>954744126.3438919</v>
+        <v>939339331.2855271</v>
       </c>
       <c r="N25" s="3">
-        <v>933762163.6669637</v>
+        <v>930293121.1761594</v>
       </c>
       <c r="O25" s="3">
-        <v>973888617.0141385</v>
+        <v>970332309.9027586</v>
       </c>
       <c r="P25" s="4">
-        <v>0.7678207739307535</v>
+        <v>0.7352342158859471</v>
       </c>
       <c r="Q25" s="4">
-        <v>0.8370672097759674</v>
+        <v>0.8065173116089613</v>
       </c>
       <c r="R25" s="4">
-        <v>0.8309572301425662</v>
+        <v>0.7963340122199593</v>
       </c>
       <c r="S25" s="4">
-        <v>0.90020366598778</v>
+        <v>0.8533604887983707</v>
       </c>
       <c r="T25" s="4">
-        <v>0.7881873727087576</v>
+        <v>0.6945010183299389</v>
       </c>
       <c r="U25" s="5">
-        <v>6263.899762153797</v>
+        <v>6090.120303912357</v>
       </c>
       <c r="V25" s="5">
-        <v>6058.572585464389</v>
+        <v>5916.349798292345</v>
       </c>
       <c r="W25" s="5">
-        <v>5933.887916075553</v>
+        <v>5803.680942535111</v>
       </c>
       <c r="X25" s="5">
-        <v>5895.10159484483</v>
+        <v>5795.940181377177</v>
       </c>
       <c r="Y25" s="5">
-        <v>5688.624809495013</v>
+        <v>5662.419898511249</v>
       </c>
       <c r="Z25" s="5">
-        <v>5895.298760660049</v>
+        <v>5868.052201143326</v>
       </c>
       <c r="AA25" s="5">
-        <v>-205.3271766894086</v>
+        <v>-173.770505620013</v>
       </c>
       <c r="AB25" s="5">
-        <v>-330.0118460782442</v>
+        <v>-286.4393613772463</v>
       </c>
       <c r="AC25" s="5">
-        <v>-368.7981673089671</v>
+        <v>-294.1801225351801</v>
       </c>
       <c r="AD25" s="5">
-        <v>-575.2749526587841</v>
+        <v>-427.7004054011086</v>
       </c>
       <c r="AE25" s="5">
-        <v>-368.6010014937483</v>
+        <v>-222.0681027690316</v>
       </c>
       <c r="AF25" s="4">
-        <v>-0.03277944802533184</v>
+        <v>-0.02853318111111547</v>
       </c>
       <c r="AG25" s="4">
-        <v>-0.05268472654561951</v>
+        <v>-0.04703344877985982</v>
       </c>
       <c r="AH25" s="4">
-        <v>-0.0588767670800272</v>
+        <v>-0.0483044846168631</v>
       </c>
       <c r="AI25" s="4">
-        <v>-0.0918397443290152</v>
+        <v>-0.07022856430707114</v>
       </c>
       <c r="AJ25" s="4">
-        <v>-0.05884529055219223</v>
+        <v>-0.03646366437562365</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3044,106 +3044,106 @@
         <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D26" s="2">
-        <v>154772.5</v>
+        <v>155099</v>
       </c>
       <c r="E26" s="2">
-        <v>156911.5</v>
+        <v>157229</v>
       </c>
       <c r="F26" s="2">
-        <v>159234.5</v>
+        <v>159565.5</v>
       </c>
       <c r="G26" s="2">
-        <v>161064</v>
+        <v>161395.5</v>
       </c>
       <c r="H26" s="2">
-        <v>162198</v>
+        <v>162531.5</v>
       </c>
       <c r="I26" s="2">
-        <v>162267.5</v>
+        <v>162606</v>
       </c>
       <c r="J26" s="3">
-        <v>989481179.1818718</v>
+        <v>964076097.1994743</v>
       </c>
       <c r="K26" s="3">
-        <v>960134215.8141649</v>
+        <v>939384981.3867137</v>
       </c>
       <c r="L26" s="3">
-        <v>963173387.7704033</v>
+        <v>943984015.6622552</v>
       </c>
       <c r="M26" s="3">
-        <v>958474669.817618</v>
+        <v>943940976.7102941</v>
       </c>
       <c r="N26" s="3">
-        <v>948312980.7752351</v>
+        <v>945969035.2913128</v>
       </c>
       <c r="O26" s="3">
-        <v>977519970.6296724</v>
+        <v>975167893.0664225</v>
       </c>
       <c r="P26" s="4">
-        <v>0.8297413793103449</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="Q26" s="4">
-        <v>0.8405172413793104</v>
+        <v>0.8086021505376344</v>
       </c>
       <c r="R26" s="4">
-        <v>0.8706896551724138</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="S26" s="4">
-        <v>0.896551724137931</v>
+        <v>0.8516129032258064</v>
       </c>
       <c r="T26" s="4">
-        <v>0.8254310344827587</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="U26" s="5">
-        <v>6393.133012530468</v>
+        <v>6215.875648453403</v>
       </c>
       <c r="V26" s="5">
-        <v>6118.953778494023</v>
+        <v>5974.629243884486</v>
       </c>
       <c r="W26" s="5">
-        <v>6048.773273193958</v>
+        <v>5915.965642085885</v>
       </c>
       <c r="X26" s="5">
-        <v>5950.893246272401</v>
+        <v>5848.620170390712</v>
       </c>
       <c r="Y26" s="5">
-        <v>5846.63794112896</v>
+        <v>5820.219682285051</v>
       </c>
       <c r="Z26" s="5">
-        <v>6024.126646615449</v>
+        <v>5997.121219797686</v>
       </c>
       <c r="AA26" s="5">
-        <v>-274.1792340364445</v>
+        <v>-241.2464045689176</v>
       </c>
       <c r="AB26" s="5">
-        <v>-344.3597393365098</v>
+        <v>-299.9100063675187</v>
       </c>
       <c r="AC26" s="5">
-        <v>-442.2397662580661</v>
+        <v>-367.2554780626915</v>
       </c>
       <c r="AD26" s="5">
-        <v>-546.4950714015076</v>
+        <v>-395.6559661683523</v>
       </c>
       <c r="AE26" s="5">
-        <v>-369.0063659150183</v>
+        <v>-218.7544286557177</v>
       </c>
       <c r="AF26" s="4">
-        <v>-0.04288652113119751</v>
+        <v>-0.03881133056916009</v>
       </c>
       <c r="AG26" s="4">
-        <v>-0.05386400355843823</v>
+        <v>-0.04824903574802697</v>
       </c>
       <c r="AH26" s="4">
-        <v>-0.06917418508128659</v>
+        <v>-0.05908346608479365</v>
       </c>
       <c r="AI26" s="4">
-        <v>-0.08548157379650689</v>
+        <v>-0.06365249058140299</v>
       </c>
       <c r="AJ26" s="4">
-        <v>-0.0577191754327292</v>
+        <v>-0.03519285793790727</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -3152,106 +3152,106 @@
         <v>27</v>
       </c>
       <c r="C27" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D27" s="2">
-        <v>177087.5</v>
+        <v>176781.5</v>
       </c>
       <c r="E27" s="2">
-        <v>179498.5</v>
+        <v>179180.5</v>
       </c>
       <c r="F27" s="2">
-        <v>181419.5</v>
+        <v>181095.5</v>
       </c>
       <c r="G27" s="2">
-        <v>183078</v>
+        <v>182751.5</v>
       </c>
       <c r="H27" s="2">
-        <v>185108</v>
+        <v>184805.5</v>
       </c>
       <c r="I27" s="2">
-        <v>185476.5</v>
+        <v>185197.5</v>
       </c>
       <c r="J27" s="3">
-        <v>1206219652.566792</v>
+        <v>1170901153.606467</v>
       </c>
       <c r="K27" s="3">
-        <v>1168665105.655324</v>
+        <v>1139260725.770824</v>
       </c>
       <c r="L27" s="3">
-        <v>1168578111.546636</v>
+        <v>1141210505.131917</v>
       </c>
       <c r="M27" s="3">
-        <v>1165015425.135197</v>
+        <v>1144147759.23832</v>
       </c>
       <c r="N27" s="3">
-        <v>1139760956.60346</v>
+        <v>1132784645.038439</v>
       </c>
       <c r="O27" s="3">
-        <v>1183461632.790061</v>
+        <v>1176351619.203403</v>
       </c>
       <c r="P27" s="4">
-        <v>0.7943548387096774</v>
+        <v>0.7809330628803245</v>
       </c>
       <c r="Q27" s="4">
-        <v>0.8326612903225806</v>
+        <v>0.8052738336713996</v>
       </c>
       <c r="R27" s="4">
-        <v>0.8387096774193549</v>
+        <v>0.7789046653144016</v>
       </c>
       <c r="S27" s="4">
-        <v>0.8931451612903226</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="T27" s="4">
-        <v>0.780241935483871</v>
+        <v>0.6815415821501014</v>
       </c>
       <c r="U27" s="5">
-        <v>6811.433063128637</v>
+        <v>6623.437144760436</v>
       </c>
       <c r="V27" s="5">
-        <v>6510.723519446257</v>
+        <v>6358.173605782012</v>
       </c>
       <c r="W27" s="5">
-        <v>6441.303782375301</v>
+        <v>6301.705482090485</v>
       </c>
       <c r="X27" s="5">
-        <v>6363.49220078435</v>
+        <v>6260.675065530624</v>
       </c>
       <c r="Y27" s="5">
-        <v>6157.275518094625</v>
+        <v>6129.604611542618</v>
       </c>
       <c r="Z27" s="5">
-        <v>6380.655408043935</v>
+        <v>6351.876343921506</v>
       </c>
       <c r="AA27" s="5">
-        <v>-300.7095436823793</v>
+        <v>-265.2635389784245</v>
       </c>
       <c r="AB27" s="5">
-        <v>-370.1292807533355</v>
+        <v>-321.7316626699512</v>
       </c>
       <c r="AC27" s="5">
-        <v>-447.9408623442869</v>
+        <v>-362.7620792298121</v>
       </c>
       <c r="AD27" s="5">
-        <v>-654.1575450340115</v>
+        <v>-493.8325332178183</v>
       </c>
       <c r="AE27" s="5">
-        <v>-430.777655084702</v>
+        <v>-271.5608008389299</v>
       </c>
       <c r="AF27" s="4">
-        <v>-0.04414776463269787</v>
+        <v>-0.04004922718837378</v>
       </c>
       <c r="AG27" s="4">
-        <v>-0.05433941394167163</v>
+        <v>-0.04857472874555191</v>
       </c>
       <c r="AH27" s="4">
-        <v>-0.06576308659172792</v>
+        <v>-0.05476946052349574</v>
       </c>
       <c r="AI27" s="4">
-        <v>-0.09603816685435396</v>
+        <v>-0.07455834824498508</v>
       </c>
       <c r="AJ27" s="4">
-        <v>-0.06324332208688499</v>
+        <v>-0.04099998156602902</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3260,106 +3260,106 @@
         <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D28" s="2">
-        <v>254625</v>
+        <v>253582.5</v>
       </c>
       <c r="E28" s="2">
-        <v>258893.5</v>
+        <v>257832.5</v>
       </c>
       <c r="F28" s="2">
-        <v>263122</v>
+        <v>262062.5</v>
       </c>
       <c r="G28" s="2">
-        <v>266865</v>
+        <v>265793</v>
       </c>
       <c r="H28" s="2">
-        <v>269342.5</v>
+        <v>268337.5</v>
       </c>
       <c r="I28" s="2">
-        <v>269930.5</v>
+        <v>268939.5</v>
       </c>
       <c r="J28" s="3">
-        <v>1897703974.307356</v>
+        <v>1836912253.937835</v>
       </c>
       <c r="K28" s="3">
-        <v>1830531767.614657</v>
+        <v>1779664744.713541</v>
       </c>
       <c r="L28" s="3">
-        <v>1836636403.396557</v>
+        <v>1788996603.94889</v>
       </c>
       <c r="M28" s="3">
-        <v>1839158337.63519</v>
+        <v>1801953223.701611</v>
       </c>
       <c r="N28" s="3">
-        <v>1794588376.031259</v>
+        <v>1779649052.327952</v>
       </c>
       <c r="O28" s="3">
-        <v>1871914541.003409</v>
+        <v>1856455826.394535</v>
       </c>
       <c r="P28" s="4">
-        <v>0.7889182058047494</v>
+        <v>0.7645502645502645</v>
       </c>
       <c r="Q28" s="4">
-        <v>0.8047493403693932</v>
+        <v>0.7738095238095238</v>
       </c>
       <c r="R28" s="4">
-        <v>0.8192612137203166</v>
+        <v>0.7685185185185185</v>
       </c>
       <c r="S28" s="4">
-        <v>0.8865435356200527</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="T28" s="4">
-        <v>0.7704485488126649</v>
+        <v>0.6812169312169312</v>
       </c>
       <c r="U28" s="5">
-        <v>7452.936570671992</v>
+        <v>7243.844720900831</v>
       </c>
       <c r="V28" s="5">
-        <v>7070.597630356332</v>
+        <v>6902.406580681413</v>
       </c>
       <c r="W28" s="5">
-        <v>6980.170428153316</v>
+        <v>6826.60282928267</v>
       </c>
       <c r="X28" s="5">
-        <v>6891.718050831659</v>
+        <v>6779.536043844689</v>
       </c>
       <c r="Y28" s="5">
-        <v>6662.848885828485</v>
+        <v>6632.129509770167</v>
       </c>
       <c r="Z28" s="5">
-        <v>6934.801887905995</v>
+        <v>6902.875280107737</v>
       </c>
       <c r="AA28" s="5">
-        <v>-382.3389403156598</v>
+        <v>-341.4381402194176</v>
       </c>
       <c r="AB28" s="5">
-        <v>-472.7661425186761</v>
+        <v>-417.2418916181605</v>
       </c>
       <c r="AC28" s="5">
-        <v>-561.2185198403331</v>
+        <v>-464.3086770561422</v>
       </c>
       <c r="AD28" s="5">
-        <v>-790.0876848435073</v>
+        <v>-611.7152111306641</v>
       </c>
       <c r="AE28" s="5">
-        <v>-518.1346827659972</v>
+        <v>-340.9694407930938</v>
       </c>
       <c r="AF28" s="4">
-        <v>-0.05130044200566519</v>
+        <v>-0.0471349336401784</v>
       </c>
       <c r="AG28" s="4">
-        <v>-0.06343353898637161</v>
+        <v>-0.0575995079538747</v>
       </c>
       <c r="AH28" s="4">
-        <v>-0.07530166324624055</v>
+        <v>-0.06409699475148356</v>
       </c>
       <c r="AI28" s="4">
-        <v>-0.1060102521135866</v>
+        <v>-0.084446207048816</v>
       </c>
       <c r="AJ28" s="4">
-        <v>-0.06952087648309069</v>
+        <v>-0.04707023051022707</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3370,106 +3370,106 @@
         <v>24</v>
       </c>
       <c r="C29" s="2">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="D29" s="2">
-        <v>358919.5</v>
+        <v>357185</v>
       </c>
       <c r="E29" s="2">
-        <v>364875.5</v>
+        <v>363120</v>
       </c>
       <c r="F29" s="2">
-        <v>369801.5</v>
+        <v>368026.5</v>
       </c>
       <c r="G29" s="2">
-        <v>374162</v>
+        <v>372358.5</v>
       </c>
       <c r="H29" s="2">
-        <v>379220</v>
+        <v>377469.5</v>
       </c>
       <c r="I29" s="2">
-        <v>383239</v>
+        <v>381463</v>
       </c>
       <c r="J29" s="3">
-        <v>2146314044.146517</v>
+        <v>2080326407.576871</v>
       </c>
       <c r="K29" s="3">
-        <v>2135344397.985606</v>
+        <v>2080342609.538209</v>
       </c>
       <c r="L29" s="3">
-        <v>2135322032.599108</v>
+        <v>2082010118.571479</v>
       </c>
       <c r="M29" s="3">
-        <v>2162950580.265174</v>
+        <v>2120995920.102131</v>
       </c>
       <c r="N29" s="3">
-        <v>2118607082.810396</v>
+        <v>2101407134.41438</v>
       </c>
       <c r="O29" s="3">
-        <v>2255203360.970236</v>
+        <v>2238616942.151745</v>
       </c>
       <c r="P29" s="4">
-        <v>0.708904109589041</v>
+        <v>0.6831228473019518</v>
       </c>
       <c r="Q29" s="4">
-        <v>0.7659817351598174</v>
+        <v>0.7405281285878301</v>
       </c>
       <c r="R29" s="4">
-        <v>0.726027397260274</v>
+        <v>0.6762342135476463</v>
       </c>
       <c r="S29" s="4">
-        <v>0.8470319634703196</v>
+        <v>0.7393800229621125</v>
       </c>
       <c r="T29" s="4">
-        <v>0.6415525114155252</v>
+        <v>0.5235361653272101</v>
       </c>
       <c r="U29" s="5">
-        <v>5979.931556091316</v>
+        <v>5824.226682466709</v>
       </c>
       <c r="V29" s="5">
-        <v>5852.254804681613</v>
+        <v>5729.077466232125</v>
       </c>
       <c r="W29" s="5">
-        <v>5774.238429533432</v>
+        <v>5657.228809804399</v>
       </c>
       <c r="X29" s="5">
-        <v>5780.786344591847</v>
+        <v>5696.112536982856</v>
       </c>
       <c r="Y29" s="5">
-        <v>5586.749334978103</v>
+        <v>5567.091207142246</v>
       </c>
       <c r="Z29" s="5">
-        <v>5884.587322715684</v>
+        <v>5868.503477799275</v>
       </c>
       <c r="AA29" s="5">
-        <v>-127.6767514097028</v>
+        <v>-95.14921623458395</v>
       </c>
       <c r="AB29" s="5">
-        <v>-205.6931265578833</v>
+        <v>-166.9978726623094</v>
       </c>
       <c r="AC29" s="5">
-        <v>-199.145211499469</v>
+        <v>-128.1141454838526</v>
       </c>
       <c r="AD29" s="5">
-        <v>-393.182221113213</v>
+        <v>-257.1354753244623</v>
       </c>
       <c r="AE29" s="5">
-        <v>-95.34423337563203</v>
+        <v>44.27679533256651</v>
       </c>
       <c r="AF29" s="4">
-        <v>-0.02135087169679184</v>
+        <v>-0.01633679824327949</v>
       </c>
       <c r="AG29" s="4">
-        <v>-0.03439723759854052</v>
+        <v>-0.02867296926560925</v>
       </c>
       <c r="AH29" s="4">
-        <v>-0.03330225599264836</v>
+        <v>-0.02199676497302694</v>
       </c>
       <c r="AI29" s="4">
-        <v>-0.0657502878461389</v>
+        <v>-0.04414929042829752</v>
       </c>
       <c r="AJ29" s="4">
-        <v>-0.01594403422201573</v>
+        <v>0.00760217583320677</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -3481,103 +3481,103 @@
         <v>704</v>
       </c>
       <c r="D30" s="2">
-        <v>255893</v>
+        <v>255649</v>
       </c>
       <c r="E30" s="2">
-        <v>259872.5</v>
+        <v>259630</v>
       </c>
       <c r="F30" s="2">
-        <v>264938</v>
+        <v>264744</v>
       </c>
       <c r="G30" s="2">
-        <v>269176</v>
+        <v>269082.5</v>
       </c>
       <c r="H30" s="2">
-        <v>272949</v>
+        <v>272873.5</v>
       </c>
       <c r="I30" s="2">
-        <v>275614.5</v>
+        <v>275693.5</v>
       </c>
       <c r="J30" s="3">
-        <v>1545874742.527215</v>
+        <v>1505525552.811863</v>
       </c>
       <c r="K30" s="3">
-        <v>1518404220.181367</v>
+        <v>1484290143.226968</v>
       </c>
       <c r="L30" s="3">
-        <v>1520916790.493374</v>
+        <v>1489379273.927533</v>
       </c>
       <c r="M30" s="3">
-        <v>1544252522.385058</v>
+        <v>1517781308.51717</v>
       </c>
       <c r="N30" s="3">
-        <v>1510460186.108353</v>
+        <v>1506897451.430019</v>
       </c>
       <c r="O30" s="3">
-        <v>1605637032.454624</v>
+        <v>1603093152.468339</v>
       </c>
       <c r="P30" s="4">
-        <v>0.7286931818181818</v>
+        <v>0.703125</v>
       </c>
       <c r="Q30" s="4">
-        <v>0.7769886363636364</v>
+        <v>0.7457386363636364</v>
       </c>
       <c r="R30" s="4">
-        <v>0.7428977272727273</v>
+        <v>0.7002840909090909</v>
       </c>
       <c r="S30" s="4">
-        <v>0.8522727272727273</v>
+        <v>0.7784090909090909</v>
       </c>
       <c r="T30" s="4">
-        <v>0.6505681818181818</v>
+        <v>0.5539772727272727</v>
       </c>
       <c r="U30" s="5">
-        <v>6041.098203261577</v>
+        <v>5889.033607844596</v>
       </c>
       <c r="V30" s="5">
-        <v>5842.881490659332</v>
+        <v>5716.943894106876</v>
       </c>
       <c r="W30" s="5">
-        <v>5740.651739249841</v>
+        <v>5625.733818056437</v>
       </c>
       <c r="X30" s="5">
-        <v>5736.96214515803</v>
+        <v>5640.579779499486</v>
       </c>
       <c r="Y30" s="5">
-        <v>5533.854991622437</v>
+        <v>5522.329766100478</v>
       </c>
       <c r="Z30" s="5">
-        <v>5825.662410557588</v>
+        <v>5814.765863062926</v>
       </c>
       <c r="AA30" s="5">
-        <v>-198.216712602245</v>
+        <v>-172.0897137377206</v>
       </c>
       <c r="AB30" s="5">
-        <v>-300.4464640117358</v>
+        <v>-263.2997897881596</v>
       </c>
       <c r="AC30" s="5">
-        <v>-304.1360581035469</v>
+        <v>-248.4538283451102</v>
       </c>
       <c r="AD30" s="5">
-        <v>-507.2432116391392</v>
+        <v>-366.7038417441181</v>
       </c>
       <c r="AE30" s="5">
-        <v>-215.4357927039882</v>
+        <v>-74.26774478167044</v>
       </c>
       <c r="AF30" s="4">
-        <v>-0.03281137070329831</v>
+        <v>-0.02922206344831946</v>
       </c>
       <c r="AG30" s="4">
-        <v>-0.04973374937846986</v>
+        <v>-0.04471018630924883</v>
       </c>
       <c r="AH30" s="4">
-        <v>-0.05034449828002208</v>
+        <v>-0.04218923594087709</v>
       </c>
       <c r="AI30" s="4">
-        <v>-0.0839653974446698</v>
+        <v>-0.06226893343852602</v>
       </c>
       <c r="AJ30" s="4">
-        <v>-0.03566169352911275</v>
+        <v>-0.01261119391180598</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -3586,106 +3586,106 @@
         <v>26</v>
       </c>
       <c r="C31" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D31" s="2">
-        <v>189682</v>
+        <v>188774.5</v>
       </c>
       <c r="E31" s="2">
-        <v>193198.5</v>
+        <v>192221</v>
       </c>
       <c r="F31" s="2">
-        <v>196670</v>
+        <v>195678.5</v>
       </c>
       <c r="G31" s="2">
-        <v>199673.5</v>
+        <v>198629.5</v>
       </c>
       <c r="H31" s="2">
-        <v>202394</v>
+        <v>201318</v>
       </c>
       <c r="I31" s="2">
-        <v>202791</v>
+        <v>201733.5</v>
       </c>
       <c r="J31" s="3">
-        <v>1178943771.841491</v>
+        <v>1144184102.514074</v>
       </c>
       <c r="K31" s="3">
-        <v>1154962445.600518</v>
+        <v>1124788200.46373</v>
       </c>
       <c r="L31" s="3">
-        <v>1152208209.35678</v>
+        <v>1123262830.037508</v>
       </c>
       <c r="M31" s="3">
-        <v>1165584222.008088</v>
+        <v>1142544870.781641</v>
       </c>
       <c r="N31" s="3">
-        <v>1140288496.487024</v>
+        <v>1130203955.623713</v>
       </c>
       <c r="O31" s="3">
-        <v>1205035144.338467</v>
+        <v>1195241646.477396</v>
       </c>
       <c r="P31" s="4">
-        <v>0.7524366471734892</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="Q31" s="4">
-        <v>0.7797270955165692</v>
+        <v>0.7573385518590998</v>
       </c>
       <c r="R31" s="4">
-        <v>0.7894736842105263</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="S31" s="4">
-        <v>0.8576998050682261</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="T31" s="4">
-        <v>0.6998050682261209</v>
+        <v>0.5772994129158513</v>
       </c>
       <c r="U31" s="5">
-        <v>6215.369786492606</v>
+        <v>6061.115789018505</v>
       </c>
       <c r="V31" s="5">
-        <v>5978.112902535567</v>
+        <v>5851.536515072393</v>
       </c>
       <c r="W31" s="5">
-        <v>5858.586512212234</v>
+        <v>5740.348735489633</v>
       </c>
       <c r="X31" s="5">
-        <v>5837.450748387184</v>
+        <v>5752.140899421492</v>
       </c>
       <c r="Y31" s="5">
-        <v>5634.003461006866</v>
+        <v>5614.023364148827</v>
       </c>
       <c r="Z31" s="5">
-        <v>5942.251600605881</v>
+        <v>5924.854555526951</v>
       </c>
       <c r="AA31" s="5">
-        <v>-237.2568839570395</v>
+        <v>-209.5792739461122</v>
       </c>
       <c r="AB31" s="5">
-        <v>-356.7832742803721</v>
+        <v>-320.7670535288717</v>
       </c>
       <c r="AC31" s="5">
-        <v>-377.9190381054223</v>
+        <v>-308.9748895970133</v>
       </c>
       <c r="AD31" s="5">
-        <v>-581.3663254857402</v>
+        <v>-447.0924248696783</v>
       </c>
       <c r="AE31" s="5">
-        <v>-273.1181858867249</v>
+        <v>-136.2612334915539</v>
       </c>
       <c r="AF31" s="4">
-        <v>-0.03817260953204293</v>
+        <v>-0.03457767203949913</v>
       </c>
       <c r="AG31" s="4">
-        <v>-0.05740338652991206</v>
+        <v>-0.05292211280801395</v>
       </c>
       <c r="AH31" s="4">
-        <v>-0.06080395070406353</v>
+        <v>-0.05097656938955242</v>
       </c>
       <c r="AI31" s="4">
-        <v>-0.0935368844423673</v>
+        <v>-0.0737640461645227</v>
       </c>
       <c r="AJ31" s="4">
-        <v>-0.04394238722212018</v>
+        <v>-0.02248121273948123</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -3694,106 +3694,106 @@
         <v>27</v>
       </c>
       <c r="C32" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D32" s="2">
-        <v>161499.5</v>
+        <v>161012</v>
       </c>
       <c r="E32" s="2">
-        <v>165612.5</v>
+        <v>165161.5</v>
       </c>
       <c r="F32" s="2">
-        <v>167862.5</v>
+        <v>167494.5</v>
       </c>
       <c r="G32" s="2">
-        <v>170009</v>
+        <v>169718.5</v>
       </c>
       <c r="H32" s="2">
-        <v>171648</v>
+        <v>171370</v>
       </c>
       <c r="I32" s="2">
-        <v>172361</v>
+        <v>172148.5</v>
       </c>
       <c r="J32" s="3">
-        <v>1087481530.705435</v>
+        <v>1054244043.595221</v>
       </c>
       <c r="K32" s="3">
-        <v>1059591655.921497</v>
+        <v>1028321516.909924</v>
       </c>
       <c r="L32" s="3">
-        <v>1061570421.096744</v>
+        <v>1035375652.870707</v>
       </c>
       <c r="M32" s="3">
-        <v>1058860397.915211</v>
+        <v>1039241603.574839</v>
       </c>
       <c r="N32" s="3">
-        <v>1038727595.648785</v>
+        <v>1032612599.31572</v>
       </c>
       <c r="O32" s="3">
-        <v>1082539777.144612</v>
+        <v>1075912939.872174</v>
       </c>
       <c r="P32" s="4">
-        <v>0.7417943107221007</v>
+        <v>0.7328918322295805</v>
       </c>
       <c r="Q32" s="4">
-        <v>0.7811816192560175</v>
+        <v>0.7748344370860927</v>
       </c>
       <c r="R32" s="4">
-        <v>0.7768052516411379</v>
+        <v>0.7527593818984547</v>
       </c>
       <c r="S32" s="4">
-        <v>0.8512035010940919</v>
+        <v>0.7924944812362031</v>
       </c>
       <c r="T32" s="4">
-        <v>0.7155361050328227</v>
+        <v>0.6490066225165563</v>
       </c>
       <c r="U32" s="5">
-        <v>6733.652616295622</v>
+        <v>6547.611628917227</v>
       </c>
       <c r="V32" s="5">
-        <v>6398.017395555874</v>
+        <v>6226.157530114004</v>
       </c>
       <c r="W32" s="5">
-        <v>6324.047485869352</v>
+        <v>6181.550157591488</v>
       </c>
       <c r="X32" s="5">
-        <v>6228.260844515354</v>
+        <v>6123.325409868926</v>
       </c>
       <c r="Y32" s="5">
-        <v>6051.498390012029</v>
+        <v>6025.632253695048</v>
       </c>
       <c r="Z32" s="5">
-        <v>6280.653843645673</v>
+        <v>6249.911790530699</v>
       </c>
       <c r="AA32" s="5">
-        <v>-335.6352207397476</v>
+        <v>-321.4540988032231</v>
       </c>
       <c r="AB32" s="5">
-        <v>-409.6051304262692</v>
+        <v>-366.0614713257391</v>
       </c>
       <c r="AC32" s="5">
-        <v>-505.3917717802678</v>
+        <v>-424.2862190483011</v>
       </c>
       <c r="AD32" s="5">
-        <v>-682.1542262835928</v>
+        <v>-521.9793752221785</v>
       </c>
       <c r="AE32" s="5">
-        <v>-452.9987726499485</v>
+        <v>-297.6998383865275</v>
       </c>
       <c r="AF32" s="4">
-        <v>-0.04984445142410543</v>
+        <v>-0.04909486344357017</v>
       </c>
       <c r="AG32" s="4">
-        <v>-0.06082956068078327</v>
+        <v>-0.05590763351159156</v>
       </c>
       <c r="AH32" s="4">
-        <v>-0.07505462496791204</v>
+        <v>-0.06480015051205246</v>
       </c>
       <c r="AI32" s="4">
-        <v>-0.1013052298885692</v>
+        <v>-0.07972057672401955</v>
       </c>
       <c r="AJ32" s="4">
-        <v>-0.0672738554337774</v>
+        <v>-0.04546693592389472</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -3802,106 +3802,106 @@
         <v>28</v>
       </c>
       <c r="C33" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D33" s="2">
-        <v>89692</v>
+        <v>88381</v>
       </c>
       <c r="E33" s="2">
-        <v>90723.5</v>
+        <v>89433.5</v>
       </c>
       <c r="F33" s="2">
-        <v>90119</v>
+        <v>88834</v>
       </c>
       <c r="G33" s="2">
-        <v>90312</v>
+        <v>88950</v>
       </c>
       <c r="H33" s="2">
-        <v>90818</v>
+        <v>89368</v>
       </c>
       <c r="I33" s="2">
-        <v>91035.5</v>
+        <v>89506.5</v>
       </c>
       <c r="J33" s="3">
-        <v>660961213.9444542</v>
+        <v>632481254.2273923</v>
       </c>
       <c r="K33" s="3">
-        <v>639846424.6770499</v>
+        <v>615944970.163402</v>
       </c>
       <c r="L33" s="3">
-        <v>623521786.4770377</v>
+        <v>601569194.6767492</v>
       </c>
       <c r="M33" s="3">
-        <v>623362645.798074</v>
+        <v>603134105.4054921</v>
       </c>
       <c r="N33" s="3">
-        <v>603665110.4374279</v>
+        <v>590726657.1529515</v>
       </c>
       <c r="O33" s="3">
-        <v>628887350.8154014</v>
+        <v>614691575.1468939</v>
       </c>
       <c r="P33" s="4">
-        <v>0.7509727626459144</v>
+        <v>0.7204724409448819</v>
       </c>
       <c r="Q33" s="4">
-        <v>0.7859922178988327</v>
+        <v>0.7637795275590551</v>
       </c>
       <c r="R33" s="4">
-        <v>0.7821011673151751</v>
+        <v>0.7401574803149606</v>
       </c>
       <c r="S33" s="4">
-        <v>0.8249027237354085</v>
+        <v>0.7559055118110236</v>
       </c>
       <c r="T33" s="4">
-        <v>0.7431906614785992</v>
+        <v>0.6417322834645669</v>
       </c>
       <c r="U33" s="5">
-        <v>7369.232639972954</v>
+        <v>7156.303438831788</v>
       </c>
       <c r="V33" s="5">
-        <v>7052.708776414599</v>
+        <v>6887.183998875164</v>
       </c>
       <c r="W33" s="5">
-        <v>6918.871564010227</v>
+        <v>6771.835048255727</v>
       </c>
       <c r="X33" s="5">
-        <v>6902.323564953428</v>
+        <v>6780.597025356853</v>
       </c>
       <c r="Y33" s="5">
-        <v>6646.976485249927</v>
+        <v>6610.046741036517</v>
       </c>
       <c r="Z33" s="5">
-        <v>6908.155069345491</v>
+        <v>6867.563530546875</v>
       </c>
       <c r="AA33" s="5">
-        <v>-316.5238635583546</v>
+        <v>-269.1194399566248</v>
       </c>
       <c r="AB33" s="5">
-        <v>-450.3610759627263</v>
+        <v>-384.4683905760612</v>
       </c>
       <c r="AC33" s="5">
-        <v>-466.9090750195255</v>
+        <v>-375.7064134749353</v>
       </c>
       <c r="AD33" s="5">
-        <v>-722.2561547230262</v>
+        <v>-546.2566977952711</v>
       </c>
       <c r="AE33" s="5">
-        <v>-461.0775706274626</v>
+        <v>-288.7399082849133</v>
       </c>
       <c r="AF33" s="4">
-        <v>-0.04295207914070087</v>
+        <v>-0.03760592913043892</v>
       </c>
       <c r="AG33" s="4">
-        <v>-0.06111370043060271</v>
+        <v>-0.05372443942075533</v>
       </c>
       <c r="AH33" s="4">
-        <v>-0.06335925296846634</v>
+        <v>-0.05250006748403979</v>
       </c>
       <c r="AI33" s="4">
-        <v>-0.09800968296282164</v>
+        <v>-0.07633224365964608</v>
       </c>
       <c r="AJ33" s="4">
-        <v>-0.06256792167564884</v>
+        <v>-0.04034763348884041</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -3912,106 +3912,106 @@
         <v>24</v>
       </c>
       <c r="C34" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D34" s="2">
-        <v>130926.5</v>
+        <v>130757</v>
       </c>
       <c r="E34" s="2">
-        <v>132237.5</v>
+        <v>132060.5</v>
       </c>
       <c r="F34" s="2">
-        <v>133451</v>
+        <v>133257.5</v>
       </c>
       <c r="G34" s="2">
-        <v>134824.5</v>
+        <v>134632</v>
       </c>
       <c r="H34" s="2">
-        <v>136121</v>
+        <v>135930</v>
       </c>
       <c r="I34" s="2">
-        <v>136893</v>
+        <v>136726.5</v>
       </c>
       <c r="J34" s="3">
-        <v>764772985.7670418</v>
+        <v>742635741.3858193</v>
       </c>
       <c r="K34" s="3">
-        <v>762937614.7150247</v>
+        <v>743947113.6042473</v>
       </c>
       <c r="L34" s="3">
-        <v>749581523.318804</v>
+        <v>732140713.3349848</v>
       </c>
       <c r="M34" s="3">
-        <v>752667750.7545148</v>
+        <v>739247233.3312052</v>
       </c>
       <c r="N34" s="3">
-        <v>732013197.8090535</v>
+        <v>726796792.4704485</v>
       </c>
       <c r="O34" s="3">
-        <v>788205881.2196652</v>
+        <v>783461713.0068539</v>
       </c>
       <c r="P34" s="4">
-        <v>0.6860759493670886</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="Q34" s="4">
-        <v>0.7316455696202532</v>
+        <v>0.7040816326530612</v>
       </c>
       <c r="R34" s="4">
-        <v>0.6835443037974683</v>
+        <v>0.6454081632653061</v>
       </c>
       <c r="S34" s="4">
-        <v>0.8202531645569621</v>
+        <v>0.7704081632653061</v>
       </c>
       <c r="T34" s="4">
-        <v>0.5924050632911393</v>
+        <v>0.4872448979591837</v>
       </c>
       <c r="U34" s="5">
-        <v>5841.239059831599</v>
+        <v>5679.510400099569</v>
       </c>
       <c r="V34" s="5">
-        <v>5769.449775706776</v>
+        <v>5633.381015551564</v>
       </c>
       <c r="W34" s="5">
-        <v>5616.904506663899</v>
+        <v>5494.180164981219</v>
       </c>
       <c r="X34" s="5">
-        <v>5582.574018479689</v>
+        <v>5490.873145546418</v>
       </c>
       <c r="Y34" s="5">
-        <v>5377.665443311859</v>
+        <v>5346.846115430358</v>
       </c>
       <c r="Z34" s="5">
-        <v>5757.824587229918</v>
+        <v>5730.137998170464</v>
       </c>
       <c r="AA34" s="5">
-        <v>-71.7892841248231</v>
+        <v>-46.12938454800496</v>
       </c>
       <c r="AB34" s="5">
-        <v>-224.3345531676996</v>
+        <v>-185.3302351183502</v>
       </c>
       <c r="AC34" s="5">
-        <v>-258.6650413519101</v>
+        <v>-188.6372545531513</v>
       </c>
       <c r="AD34" s="5">
-        <v>-463.5736165197395</v>
+        <v>-332.6642846692112</v>
       </c>
       <c r="AE34" s="5">
-        <v>-83.41447260168115</v>
+        <v>50.62759807089515</v>
       </c>
       <c r="AF34" s="4">
-        <v>-0.01229007807923765</v>
+        <v>-0.008122070618480803</v>
       </c>
       <c r="AG34" s="4">
-        <v>-0.03840530251712848</v>
+        <v>-0.03263137525289173</v>
       </c>
       <c r="AH34" s="4">
-        <v>-0.04428256380237372</v>
+        <v>-0.03321364717455999</v>
       </c>
       <c r="AI34" s="4">
-        <v>-0.07936220582163678</v>
+        <v>-0.05857270455273378</v>
       </c>
       <c r="AJ34" s="4">
-        <v>-0.01428027028979117</v>
+        <v>0.008914077887771432</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -4020,106 +4020,106 @@
         <v>25</v>
       </c>
       <c r="C35" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D35" s="2">
-        <v>162280.5</v>
+        <v>161657</v>
       </c>
       <c r="E35" s="2">
-        <v>164408.5</v>
+        <v>163804.5</v>
       </c>
       <c r="F35" s="2">
-        <v>165833</v>
+        <v>165252.5</v>
       </c>
       <c r="G35" s="2">
-        <v>166973.5</v>
+        <v>166446</v>
       </c>
       <c r="H35" s="2">
-        <v>167993</v>
+        <v>167471.5</v>
       </c>
       <c r="I35" s="2">
-        <v>169003.5</v>
+        <v>168483</v>
       </c>
       <c r="J35" s="3">
-        <v>981744621.2287663</v>
+        <v>949406475.4438928</v>
       </c>
       <c r="K35" s="3">
-        <v>974357285.8953491</v>
+        <v>946532691.9276292</v>
       </c>
       <c r="L35" s="3">
-        <v>956112623.3094288</v>
+        <v>931210721.4941897</v>
       </c>
       <c r="M35" s="3">
-        <v>964551989.4407659</v>
+        <v>944407495.1571699</v>
       </c>
       <c r="N35" s="3">
-        <v>929967723.0482568</v>
+        <v>922116149.9369787</v>
       </c>
       <c r="O35" s="3">
-        <v>990653443.2206392</v>
+        <v>986641320.4439127</v>
       </c>
       <c r="P35" s="4">
-        <v>0.6666666666666666</v>
+        <v>0.6359550561797753</v>
       </c>
       <c r="Q35" s="4">
-        <v>0.7297297297297297</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="R35" s="4">
-        <v>0.6779279279279279</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="S35" s="4">
-        <v>0.7882882882882883</v>
+        <v>0.701123595505618</v>
       </c>
       <c r="T35" s="4">
-        <v>0.5743243243243243</v>
+        <v>0.4898876404494382</v>
       </c>
       <c r="U35" s="5">
-        <v>6049.67707906228</v>
+        <v>5872.968541070865</v>
       </c>
       <c r="V35" s="5">
-        <v>5926.441065366749</v>
+        <v>5778.429114753436</v>
       </c>
       <c r="W35" s="5">
-        <v>5765.514845111822</v>
+        <v>5635.077965502426</v>
       </c>
       <c r="X35" s="5">
-        <v>5776.677074151083</v>
+        <v>5673.957290395503</v>
       </c>
       <c r="Y35" s="5">
-        <v>5535.752817368919</v>
+        <v>5506.107904550797</v>
       </c>
       <c r="Z35" s="5">
-        <v>5861.733296769826</v>
+        <v>5856.028919498779</v>
       </c>
       <c r="AA35" s="5">
-        <v>-123.2360136955303</v>
+        <v>-94.53942631742939</v>
       </c>
       <c r="AB35" s="5">
-        <v>-284.1622339504574</v>
+        <v>-237.8905755684391</v>
       </c>
       <c r="AC35" s="5">
-        <v>-273.0000049111968</v>
+        <v>-199.0112506753621</v>
       </c>
       <c r="AD35" s="5">
-        <v>-513.9242616933607</v>
+        <v>-366.8606365200685</v>
       </c>
       <c r="AE35" s="5">
-        <v>-187.9437822924538</v>
+        <v>-16.93962157208625</v>
       </c>
       <c r="AF35" s="4">
-        <v>-0.02037067633279899</v>
+        <v>-0.01609738340266864</v>
       </c>
       <c r="AG35" s="4">
-        <v>-0.04697147140860347</v>
+        <v>-0.04050601904383133</v>
       </c>
       <c r="AH35" s="4">
-        <v>-0.04512637639057471</v>
+        <v>-0.03388597253393</v>
       </c>
       <c r="AI35" s="4">
-        <v>-0.08495069323155024</v>
+        <v>-0.06246596315892672</v>
       </c>
       <c r="AJ35" s="4">
-        <v>-0.03106674618103511</v>
+        <v>-0.002884337188872044</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -4128,106 +4128,106 @@
         <v>26</v>
       </c>
       <c r="C36" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D36" s="2">
-        <v>147196</v>
+        <v>146619.5</v>
       </c>
       <c r="E36" s="2">
-        <v>149611</v>
+        <v>148968.5</v>
       </c>
       <c r="F36" s="2">
-        <v>151905</v>
+        <v>151472</v>
       </c>
       <c r="G36" s="2">
-        <v>153887.5</v>
+        <v>153484.5</v>
       </c>
       <c r="H36" s="2">
-        <v>154925.5</v>
+        <v>154591.5</v>
       </c>
       <c r="I36" s="2">
-        <v>155246.5</v>
+        <v>154669</v>
       </c>
       <c r="J36" s="3">
-        <v>927395671.2095044</v>
+        <v>902306562.7283611</v>
       </c>
       <c r="K36" s="3">
-        <v>900412263.9899644</v>
+        <v>878813139.1716819</v>
       </c>
       <c r="L36" s="3">
-        <v>897098597.6165036</v>
+        <v>877119213.5926195</v>
       </c>
       <c r="M36" s="3">
-        <v>900799002.7488147</v>
+        <v>882572093.2772908</v>
       </c>
       <c r="N36" s="3">
-        <v>881604432.9995123</v>
+        <v>876207556.6794426</v>
       </c>
       <c r="O36" s="3">
-        <v>937896444.7319618</v>
+        <v>930968856.6250734</v>
       </c>
       <c r="P36" s="4">
-        <v>0.7251732101616628</v>
+        <v>0.7102803738317757</v>
       </c>
       <c r="Q36" s="4">
-        <v>0.74364896073903</v>
+        <v>0.7172897196261683</v>
       </c>
       <c r="R36" s="4">
-        <v>0.7066974595842956</v>
+        <v>0.6728971962616822</v>
       </c>
       <c r="S36" s="4">
-        <v>0.7990762124711316</v>
+        <v>0.7429906542056075</v>
       </c>
       <c r="T36" s="4">
-        <v>0.6073903002309469</v>
+        <v>0.514018691588785</v>
       </c>
       <c r="U36" s="5">
-        <v>6300.413538475939</v>
+        <v>6154.069293159239</v>
       </c>
       <c r="V36" s="5">
-        <v>6018.35602990398</v>
+        <v>5899.321931627705</v>
       </c>
       <c r="W36" s="5">
-        <v>5905.655492686242</v>
+        <v>5790.635982839201</v>
       </c>
       <c r="X36" s="5">
-        <v>5853.620357396246</v>
+        <v>5750.235973517136</v>
       </c>
       <c r="Y36" s="5">
-        <v>5690.505649486446</v>
+        <v>5667.889610227229</v>
       </c>
       <c r="Z36" s="5">
-        <v>6041.337129867416</v>
+        <v>6019.104388242463</v>
       </c>
       <c r="AA36" s="5">
-        <v>-282.0575085719593</v>
+        <v>-254.7473615315339</v>
       </c>
       <c r="AB36" s="5">
-        <v>-394.7580457896975</v>
+        <v>-363.4333103200379</v>
       </c>
       <c r="AC36" s="5">
-        <v>-446.7931810796936</v>
+        <v>-403.8333196421036</v>
       </c>
       <c r="AD36" s="5">
-        <v>-609.9078889894936</v>
+        <v>-486.1796829320101</v>
       </c>
       <c r="AE36" s="5">
-        <v>-259.0764086085228</v>
+        <v>-134.9649049167765</v>
       </c>
       <c r="AF36" s="4">
-        <v>-0.04476809448291996</v>
+        <v>-0.04139494526243093</v>
       </c>
       <c r="AG36" s="4">
-        <v>-0.06265589447088715</v>
+        <v>-0.05905577155655761</v>
       </c>
       <c r="AH36" s="4">
-        <v>-0.07091489762555681</v>
+        <v>-0.06562053503216125</v>
       </c>
       <c r="AI36" s="4">
-        <v>-0.09680442168833081</v>
+        <v>-0.07900133387715336</v>
       </c>
       <c r="AJ36" s="4">
-        <v>-0.04112054026713829</v>
+        <v>-0.02193100182781516</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -4239,103 +4239,103 @@
         <v>274</v>
       </c>
       <c r="D37" s="2">
-        <v>82150</v>
+        <v>82340</v>
       </c>
       <c r="E37" s="2">
-        <v>83421</v>
+        <v>83698</v>
       </c>
       <c r="F37" s="2">
-        <v>83554</v>
+        <v>83951</v>
       </c>
       <c r="G37" s="2">
-        <v>84486</v>
+        <v>84992</v>
       </c>
       <c r="H37" s="2">
-        <v>85658.5</v>
+        <v>86238</v>
       </c>
       <c r="I37" s="2">
-        <v>85867.5</v>
+        <v>86491.5</v>
       </c>
       <c r="J37" s="3">
-        <v>556626973.6169878</v>
+        <v>542803669.4613144</v>
       </c>
       <c r="K37" s="3">
-        <v>542362579.6010673</v>
+        <v>531952013.3889177</v>
       </c>
       <c r="L37" s="3">
-        <v>537424697.417506</v>
+        <v>528094056.3931494</v>
       </c>
       <c r="M37" s="3">
-        <v>540669375.3038547</v>
+        <v>534733933.3884403</v>
       </c>
       <c r="N37" s="3">
-        <v>530736663.7350701</v>
+        <v>531756073.3829173</v>
       </c>
       <c r="O37" s="3">
-        <v>560214152.7756182</v>
+        <v>561522020.5804551</v>
       </c>
       <c r="P37" s="4">
-        <v>0.6788321167883211</v>
+        <v>0.656934306569343</v>
       </c>
       <c r="Q37" s="4">
-        <v>0.6751824817518248</v>
+        <v>0.6496350364963503</v>
       </c>
       <c r="R37" s="4">
-        <v>0.7007299270072993</v>
+        <v>0.6459854014598541</v>
       </c>
       <c r="S37" s="4">
-        <v>0.791970802919708</v>
+        <v>0.7226277372262774</v>
       </c>
       <c r="T37" s="4">
-        <v>0.6496350364963503</v>
+        <v>0.5620437956204379</v>
       </c>
       <c r="U37" s="5">
-        <v>6775.739179756395</v>
+        <v>6592.223335697285</v>
       </c>
       <c r="V37" s="5">
-        <v>6501.511365256558</v>
+        <v>6355.61200254388</v>
       </c>
       <c r="W37" s="5">
-        <v>6432.064262842066</v>
+        <v>6290.503465034954</v>
       </c>
       <c r="X37" s="5">
-        <v>6399.51442018624</v>
+        <v>6291.579600296973</v>
       </c>
       <c r="Y37" s="5">
-        <v>6195.96028105874</v>
+        <v>6166.145705871163</v>
       </c>
       <c r="Z37" s="5">
-        <v>6524.169828813208</v>
+        <v>6492.222016966466</v>
       </c>
       <c r="AA37" s="5">
-        <v>-274.2278144998372</v>
+        <v>-236.6113331534043</v>
       </c>
       <c r="AB37" s="5">
-        <v>-343.6749169143295</v>
+        <v>-301.7198706623303</v>
       </c>
       <c r="AC37" s="5">
-        <v>-376.2247595701547</v>
+        <v>-300.6437354003119</v>
       </c>
       <c r="AD37" s="5">
-        <v>-579.7788986976548</v>
+        <v>-426.0776298261217</v>
       </c>
       <c r="AE37" s="5">
-        <v>-251.5693509431867</v>
+        <v>-100.0013187308186</v>
       </c>
       <c r="AF37" s="4">
-        <v>-0.04047201452487081</v>
+        <v>-0.03589249348882639</v>
       </c>
       <c r="AG37" s="4">
-        <v>-0.05072139109797991</v>
+        <v>-0.04576906080054954</v>
       </c>
       <c r="AH37" s="4">
-        <v>-0.05552527179531741</v>
+        <v>-0.04560581765673932</v>
       </c>
       <c r="AI37" s="4">
-        <v>-0.08556688551853309</v>
+        <v>-0.06463337301072403</v>
       </c>
       <c r="AJ37" s="4">
-        <v>-0.03712795670984359</v>
+        <v>-0.01516958902003596</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -4344,106 +4344,106 @@
         <v>28</v>
       </c>
       <c r="C38" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D38" s="2">
-        <v>49933.5</v>
+        <v>49341.5</v>
       </c>
       <c r="E38" s="2">
-        <v>50788.5</v>
+        <v>50152.5</v>
       </c>
       <c r="F38" s="2">
-        <v>51165</v>
+        <v>50541</v>
       </c>
       <c r="G38" s="2">
-        <v>51073.5</v>
+        <v>50477.5</v>
       </c>
       <c r="H38" s="2">
-        <v>50709.5</v>
+        <v>50191.5</v>
       </c>
       <c r="I38" s="2">
-        <v>50079</v>
+        <v>49590.5</v>
       </c>
       <c r="J38" s="3">
-        <v>375456751.2247404</v>
+        <v>360947811.0881563</v>
       </c>
       <c r="K38" s="3">
-        <v>359584757.6327954</v>
+        <v>347315326.5537681</v>
       </c>
       <c r="L38" s="3">
-        <v>358016258.2696722</v>
+        <v>346489259.9746433</v>
       </c>
       <c r="M38" s="3">
-        <v>354353725.7316968</v>
+        <v>345223807.3809116</v>
       </c>
       <c r="N38" s="3">
-        <v>339400019.5665785</v>
+        <v>335339520.6806784</v>
       </c>
       <c r="O38" s="3">
-        <v>352143463.1476756</v>
+        <v>347489273.6562091</v>
       </c>
       <c r="P38" s="4">
-        <v>0.75</v>
+        <v>0.7228915662650602</v>
       </c>
       <c r="Q38" s="4">
-        <v>0.7142857142857143</v>
+        <v>0.6927710843373494</v>
       </c>
       <c r="R38" s="4">
-        <v>0.6666666666666666</v>
+        <v>0.6385542168674698</v>
       </c>
       <c r="S38" s="4">
-        <v>0.8214285714285714</v>
+        <v>0.7349397590361446</v>
       </c>
       <c r="T38" s="4">
-        <v>0.6071428571428571</v>
+        <v>0.5602409638554217</v>
       </c>
       <c r="U38" s="5">
-        <v>7519.135474676128</v>
+        <v>7315.298705717425</v>
       </c>
       <c r="V38" s="5">
-        <v>7080.042876493604</v>
+        <v>6925.184717686418</v>
       </c>
       <c r="W38" s="5">
-        <v>6997.28834691043</v>
+        <v>6855.607526060889</v>
       </c>
       <c r="X38" s="5">
-        <v>6938.113223720653</v>
+        <v>6839.162149094382</v>
       </c>
       <c r="Y38" s="5">
-        <v>6693.026347461097</v>
+        <v>6681.201412204823</v>
       </c>
       <c r="Z38" s="5">
-        <v>7031.759083601421</v>
+        <v>7007.174230068442</v>
       </c>
       <c r="AA38" s="5">
-        <v>-439.0925981825239</v>
+        <v>-390.1139880310066</v>
       </c>
       <c r="AB38" s="5">
-        <v>-521.8471277656981</v>
+        <v>-459.6911796565364</v>
       </c>
       <c r="AC38" s="5">
-        <v>-581.0222509554751</v>
+        <v>-476.1365566230434</v>
       </c>
       <c r="AD38" s="5">
-        <v>-826.1091272150306</v>
+        <v>-634.0972935126019</v>
       </c>
       <c r="AE38" s="5">
-        <v>-487.3763910747066</v>
+        <v>-308.1244756489832</v>
       </c>
       <c r="AF38" s="4">
-        <v>-0.05839668664853215</v>
+        <v>-0.05332851107311654</v>
       </c>
       <c r="AG38" s="4">
-        <v>-0.06940254361997322</v>
+        <v>-0.06283970048923027</v>
       </c>
       <c r="AH38" s="4">
-        <v>-0.07727248071434722</v>
+        <v>-0.06508778052370012</v>
       </c>
       <c r="AI38" s="4">
-        <v>-0.1098675678869336</v>
+        <v>-0.08668098447121642</v>
       </c>
       <c r="AJ38" s="4">
-        <v>-0.06481814202126734</v>
+        <v>-0.04212055967149531</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -4457,103 +4457,103 @@
         <v>318</v>
       </c>
       <c r="D39" s="2">
-        <v>106016.5</v>
+        <v>107374.5</v>
       </c>
       <c r="E39" s="2">
-        <v>107173.5</v>
+        <v>108583</v>
       </c>
       <c r="F39" s="2">
-        <v>108304.5</v>
+        <v>109728.5</v>
       </c>
       <c r="G39" s="2">
-        <v>109480</v>
+        <v>110925.5</v>
       </c>
       <c r="H39" s="2">
-        <v>110418.5</v>
+        <v>111897.5</v>
       </c>
       <c r="I39" s="2">
-        <v>111475.5</v>
+        <v>112902</v>
       </c>
       <c r="J39" s="3">
-        <v>626322671.4053392</v>
+        <v>618224931.003636</v>
       </c>
       <c r="K39" s="3">
-        <v>619566146.8630344</v>
+        <v>614706022.1473099</v>
       </c>
       <c r="L39" s="3">
-        <v>623481812.6451714</v>
+        <v>619987773.6638873</v>
       </c>
       <c r="M39" s="3">
-        <v>622379065.1879133</v>
+        <v>622252472.2337319</v>
       </c>
       <c r="N39" s="3">
-        <v>607874939.8246266</v>
+        <v>614110835.3477391</v>
       </c>
       <c r="O39" s="3">
-        <v>645611018.6696852</v>
+        <v>653241418.5903237</v>
       </c>
       <c r="P39" s="4">
-        <v>0.7232704402515723</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="Q39" s="4">
-        <v>0.710691823899371</v>
+        <v>0.6698113207547169</v>
       </c>
       <c r="R39" s="4">
-        <v>0.6886792452830188</v>
+        <v>0.6163522012578616</v>
       </c>
       <c r="S39" s="4">
-        <v>0.7955974842767296</v>
+        <v>0.7012578616352201</v>
       </c>
       <c r="T39" s="4">
-        <v>0.6446540880503144</v>
+        <v>0.5408805031446541</v>
       </c>
       <c r="U39" s="5">
-        <v>5907.784839202758</v>
+        <v>5757.651313893299</v>
       </c>
       <c r="V39" s="5">
-        <v>5780.96401501336</v>
+        <v>5661.162632707789</v>
       </c>
       <c r="W39" s="5">
-        <v>5756.748912973804</v>
+        <v>5650.198204330572</v>
       </c>
       <c r="X39" s="5">
-        <v>5684.865410923578</v>
+        <v>5609.643159000698</v>
       </c>
       <c r="Y39" s="5">
-        <v>5505.191066937394</v>
+        <v>5488.155100406525</v>
       </c>
       <c r="Z39" s="5">
-        <v>5791.505924348267</v>
+        <v>5785.915383167027</v>
       </c>
       <c r="AA39" s="5">
-        <v>-126.8208241893981</v>
+        <v>-96.48868118550945</v>
       </c>
       <c r="AB39" s="5">
-        <v>-151.0359262289539</v>
+        <v>-107.4531095627262</v>
       </c>
       <c r="AC39" s="5">
-        <v>-222.9194282791805</v>
+        <v>-148.0081548926009</v>
       </c>
       <c r="AD39" s="5">
-        <v>-402.5937722653644</v>
+        <v>-269.4962134867737</v>
       </c>
       <c r="AE39" s="5">
-        <v>-116.2789148544907</v>
+        <v>28.26406927372864</v>
       </c>
       <c r="AF39" s="4">
-        <v>-0.02146673036361157</v>
+        <v>-0.01675834049774438</v>
       </c>
       <c r="AG39" s="4">
-        <v>-0.02556557666533699</v>
+        <v>-0.01866266359399715</v>
       </c>
       <c r="AH39" s="4">
-        <v>-0.0377331663807281</v>
+        <v>-0.02570634219120826</v>
       </c>
       <c r="AI39" s="4">
-        <v>-0.0681463159581982</v>
+        <v>-0.04680662283880843</v>
       </c>
       <c r="AJ39" s="4">
-        <v>-0.01968232053457486</v>
+        <v>0.004908958138108765</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -4562,106 +4562,106 @@
         <v>25</v>
       </c>
       <c r="C40" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D40" s="2">
-        <v>124051.5</v>
+        <v>124703.5</v>
       </c>
       <c r="E40" s="2">
-        <v>125386</v>
+        <v>126037</v>
       </c>
       <c r="F40" s="2">
-        <v>127065.5</v>
+        <v>127713.5</v>
       </c>
       <c r="G40" s="2">
-        <v>128815.5</v>
+        <v>129469.5</v>
       </c>
       <c r="H40" s="2">
-        <v>130586</v>
+        <v>131280</v>
       </c>
       <c r="I40" s="2">
-        <v>131423</v>
+        <v>132125</v>
       </c>
       <c r="J40" s="3">
-        <v>771402883.4909681</v>
+        <v>754778197.4672676</v>
       </c>
       <c r="K40" s="3">
-        <v>755814257.9026163</v>
+        <v>742039526.5692714</v>
       </c>
       <c r="L40" s="3">
-        <v>757372926.9356345</v>
+        <v>745026438.6857051</v>
       </c>
       <c r="M40" s="3">
-        <v>759468607.4674957</v>
+        <v>751130842.2044935</v>
       </c>
       <c r="N40" s="3">
-        <v>744232860.3571438</v>
+        <v>745142388.2050166</v>
       </c>
       <c r="O40" s="3">
-        <v>789879870.9330672</v>
+        <v>790954598.4386917</v>
       </c>
       <c r="P40" s="4">
-        <v>0.7244094488188977</v>
+        <v>0.6884816753926701</v>
       </c>
       <c r="Q40" s="4">
-        <v>0.7401574803149606</v>
+        <v>0.7041884816753927</v>
       </c>
       <c r="R40" s="4">
-        <v>0.7139107611548556</v>
+        <v>0.6780104712041884</v>
       </c>
       <c r="S40" s="4">
-        <v>0.7979002624671916</v>
+        <v>0.7460732984293194</v>
       </c>
       <c r="T40" s="4">
-        <v>0.6351706036745407</v>
+        <v>0.5602094240837696</v>
       </c>
       <c r="U40" s="5">
-        <v>6218.408350491272</v>
+        <v>6052.582304965519</v>
       </c>
       <c r="V40" s="5">
-        <v>6027.899908304087</v>
+        <v>5887.473730486059</v>
       </c>
       <c r="W40" s="5">
-        <v>5960.492241683498</v>
+        <v>5833.57623654277</v>
       </c>
       <c r="X40" s="5">
-        <v>5895.785891197066</v>
+        <v>5801.604564816374</v>
       </c>
       <c r="Y40" s="5">
-        <v>5699.17801569191</v>
+        <v>5675.977972311217</v>
       </c>
       <c r="Z40" s="5">
-        <v>6010.210320363005</v>
+        <v>5986.411341068622</v>
       </c>
       <c r="AA40" s="5">
-        <v>-190.5084421871852</v>
+        <v>-165.10857447946</v>
       </c>
       <c r="AB40" s="5">
-        <v>-257.9161088077744</v>
+        <v>-219.0060684227492</v>
       </c>
       <c r="AC40" s="5">
-        <v>-322.6224592942062</v>
+        <v>-250.9777401491456</v>
       </c>
       <c r="AD40" s="5">
-        <v>-519.230334799362</v>
+        <v>-376.6043326543022</v>
       </c>
       <c r="AE40" s="5">
-        <v>-208.1980301282674</v>
+        <v>-66.17096389689686</v>
       </c>
       <c r="AF40" s="4">
-        <v>-0.03063620647751997</v>
+        <v>-0.0272790300338428</v>
       </c>
       <c r="AG40" s="4">
-        <v>-0.04147622579134713</v>
+        <v>-0.03618390587486553</v>
       </c>
       <c r="AH40" s="4">
-        <v>-0.05188183874555585</v>
+        <v>-0.04146622507607112</v>
       </c>
       <c r="AI40" s="4">
-        <v>-0.08349891250843011</v>
+        <v>-0.06222209194005301</v>
       </c>
       <c r="AJ40" s="4">
-        <v>-0.03348091961696587</v>
+        <v>-0.01093268303722372</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -4670,106 +4670,106 @@
         <v>26</v>
       </c>
       <c r="C41" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D41" s="2">
-        <v>120017</v>
+        <v>116241</v>
       </c>
       <c r="E41" s="2">
-        <v>122290</v>
+        <v>118452.5</v>
       </c>
       <c r="F41" s="2">
-        <v>123874</v>
+        <v>119889</v>
       </c>
       <c r="G41" s="2">
-        <v>125959</v>
+        <v>121815.5</v>
       </c>
       <c r="H41" s="2">
-        <v>127627.5</v>
+        <v>123346.5</v>
       </c>
       <c r="I41" s="2">
-        <v>128279</v>
+        <v>123947</v>
       </c>
       <c r="J41" s="3">
-        <v>784263852.6996943</v>
+        <v>739559894.9637203</v>
       </c>
       <c r="K41" s="3">
-        <v>766123419.4920706</v>
+        <v>724911995.3300267</v>
       </c>
       <c r="L41" s="3">
-        <v>759489160.0080959</v>
+        <v>721579577.9088861</v>
       </c>
       <c r="M41" s="3">
-        <v>775030198.605482</v>
+        <v>738048120.2328457</v>
       </c>
       <c r="N41" s="3">
-        <v>750923504.2738429</v>
+        <v>727043732.1308475</v>
       </c>
       <c r="O41" s="3">
-        <v>798580043.3678281</v>
+        <v>771498948.8779043</v>
       </c>
       <c r="P41" s="4">
-        <v>0.7310126582278481</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="Q41" s="4">
-        <v>0.7689873417721519</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="R41" s="4">
-        <v>0.7341772151898734</v>
+        <v>0.6762820512820513</v>
       </c>
       <c r="S41" s="4">
-        <v>0.8164556962025317</v>
+        <v>0.7532051282051282</v>
       </c>
       <c r="T41" s="4">
-        <v>0.7183544303797469</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="U41" s="5">
-        <v>6534.60636992838</v>
+        <v>6362.298113090221</v>
       </c>
       <c r="V41" s="5">
-        <v>6264.808402093961</v>
+        <v>6119.853910470668</v>
       </c>
       <c r="W41" s="5">
-        <v>6131.14261272015</v>
+        <v>6018.730474930027</v>
       </c>
       <c r="X41" s="5">
-        <v>6153.035500484141</v>
+        <v>6058.737354711393</v>
       </c>
       <c r="Y41" s="5">
-        <v>5883.712399552157</v>
+        <v>5894.319920961255</v>
       </c>
       <c r="Z41" s="5">
-        <v>6225.337298917423</v>
+        <v>6224.426156969545</v>
       </c>
       <c r="AA41" s="5">
-        <v>-269.7979678344182</v>
+        <v>-242.4442026195529</v>
       </c>
       <c r="AB41" s="5">
-        <v>-403.4637572082293</v>
+        <v>-343.5676381601934</v>
       </c>
       <c r="AC41" s="5">
-        <v>-381.5708694442383</v>
+        <v>-303.5607583788278</v>
       </c>
       <c r="AD41" s="5">
-        <v>-650.8939703762226</v>
+        <v>-467.9781921289659</v>
       </c>
       <c r="AE41" s="5">
-        <v>-309.2690710109564</v>
+        <v>-137.8719561206753</v>
       </c>
       <c r="AF41" s="4">
-        <v>-0.04128756233520081</v>
+        <v>-0.03810638833800195</v>
       </c>
       <c r="AG41" s="4">
-        <v>-0.06174262600803782</v>
+        <v>-0.05400055641110468</v>
       </c>
       <c r="AH41" s="4">
-        <v>-0.0583923266136106</v>
+        <v>-0.0477124386476423</v>
       </c>
       <c r="AI41" s="4">
-        <v>-0.09960721939910155</v>
+        <v>-0.07355489853047215</v>
       </c>
       <c r="AJ41" s="4">
-        <v>-0.04732788074797933</v>
+        <v>-0.02167015026174401</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -4778,106 +4778,106 @@
         <v>27</v>
       </c>
       <c r="C42" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D42" s="2">
-        <v>161540</v>
+        <v>160254.5</v>
       </c>
       <c r="E42" s="2">
-        <v>165286</v>
+        <v>164004</v>
       </c>
       <c r="F42" s="2">
-        <v>167576.5</v>
+        <v>166365.5</v>
       </c>
       <c r="G42" s="2">
-        <v>169800.5</v>
+        <v>168611.5</v>
       </c>
       <c r="H42" s="2">
-        <v>171047.5</v>
+        <v>169880.5</v>
       </c>
       <c r="I42" s="2">
-        <v>171390.5</v>
+        <v>170221.5</v>
       </c>
       <c r="J42" s="3">
-        <v>1088182733.681739</v>
+        <v>1050158038.091403</v>
       </c>
       <c r="K42" s="3">
-        <v>1063382370.232179</v>
+        <v>1030922492.095723</v>
       </c>
       <c r="L42" s="3">
-        <v>1067644043.984773</v>
+        <v>1036994615.379184</v>
       </c>
       <c r="M42" s="3">
-        <v>1068903079.426902</v>
+        <v>1044237989.52576</v>
       </c>
       <c r="N42" s="3">
-        <v>1043896865.767579</v>
+        <v>1032363865.204221</v>
       </c>
       <c r="O42" s="3">
-        <v>1073477019.027897</v>
+        <v>1061548822.062898</v>
       </c>
       <c r="P42" s="4">
-        <v>0.7858823529411765</v>
+        <v>0.7648456057007126</v>
       </c>
       <c r="Q42" s="4">
-        <v>0.7576470588235295</v>
+        <v>0.7410926365795725</v>
       </c>
       <c r="R42" s="4">
-        <v>0.8023529411764706</v>
+        <v>0.7624703087885986</v>
       </c>
       <c r="S42" s="4">
-        <v>0.851764705882353</v>
+        <v>0.7980997624703088</v>
       </c>
       <c r="T42" s="4">
-        <v>0.7435294117647059</v>
+        <v>0.665083135391924</v>
       </c>
       <c r="U42" s="5">
-        <v>6736.30514845697</v>
+        <v>6553.064270216456</v>
       </c>
       <c r="V42" s="5">
-        <v>6433.59008162929</v>
+        <v>6285.959440597318</v>
       </c>
       <c r="W42" s="5">
-        <v>6371.084513549172</v>
+        <v>6233.231140946794</v>
       </c>
       <c r="X42" s="5">
-        <v>6295.052602477035</v>
+        <v>6193.159953655357</v>
       </c>
       <c r="Y42" s="5">
-        <v>6102.96476573805</v>
+        <v>6077.000392653784</v>
       </c>
       <c r="Z42" s="5">
-        <v>6263.34026114573</v>
+        <v>6236.279330536375</v>
       </c>
       <c r="AA42" s="5">
-        <v>-302.7150668276799</v>
+        <v>-267.1048296191375</v>
       </c>
       <c r="AB42" s="5">
-        <v>-365.2206349077978</v>
+        <v>-319.8331292696621</v>
       </c>
       <c r="AC42" s="5">
-        <v>-441.2525459799344</v>
+        <v>-359.9043165610992</v>
       </c>
       <c r="AD42" s="5">
-        <v>-633.3403827189195</v>
+        <v>-476.0638775626721</v>
       </c>
       <c r="AE42" s="5">
-        <v>-472.9648873112392</v>
+        <v>-316.7849396800812</v>
       </c>
       <c r="AF42" s="4">
-        <v>-0.04493784948222257</v>
+        <v>-0.04076029451338115</v>
       </c>
       <c r="AG42" s="4">
-        <v>-0.05421675931522429</v>
+        <v>-0.04880665228987557</v>
       </c>
       <c r="AH42" s="4">
-        <v>-0.06550364573092549</v>
+        <v>-0.05492153009956835</v>
       </c>
       <c r="AI42" s="4">
-        <v>-0.09401895679621841</v>
+        <v>-0.07264752151544929</v>
       </c>
       <c r="AJ42" s="4">
-        <v>-0.07021132162036592</v>
+        <v>-0.04834149744568539</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -4886,106 +4886,106 @@
         <v>28</v>
       </c>
       <c r="C43" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D43" s="2">
-        <v>211244</v>
+        <v>211187</v>
       </c>
       <c r="E43" s="2">
-        <v>215031.5</v>
+        <v>215012</v>
       </c>
       <c r="F43" s="2">
-        <v>217591</v>
+        <v>217573</v>
       </c>
       <c r="G43" s="2">
-        <v>220186.5</v>
+        <v>220163</v>
       </c>
       <c r="H43" s="2">
-        <v>221315</v>
+        <v>221327.5</v>
       </c>
       <c r="I43" s="2">
-        <v>220888</v>
+        <v>220902.5</v>
       </c>
       <c r="J43" s="3">
-        <v>1563336010.978</v>
+        <v>1519973889.611977</v>
       </c>
       <c r="K43" s="3">
-        <v>1512655211.759928</v>
+        <v>1477025420.561894</v>
       </c>
       <c r="L43" s="3">
-        <v>1505084608.020374</v>
+        <v>1472395221.577488</v>
       </c>
       <c r="M43" s="3">
-        <v>1502760577.627402</v>
+        <v>1477343282.343796</v>
       </c>
       <c r="N43" s="3">
-        <v>1469902916.638648</v>
+        <v>1463491089.113883</v>
       </c>
       <c r="O43" s="3">
-        <v>1509218419.637221</v>
+        <v>1502602821.666768</v>
       </c>
       <c r="P43" s="4">
-        <v>0.7768924302788844</v>
+        <v>0.7524950099800399</v>
       </c>
       <c r="Q43" s="4">
-        <v>0.7729083665338645</v>
+        <v>0.7524950099800399</v>
       </c>
       <c r="R43" s="4">
-        <v>0.7928286852589641</v>
+        <v>0.7524950099800399</v>
       </c>
       <c r="S43" s="4">
-        <v>0.8565737051792829</v>
+        <v>0.7964071856287425</v>
       </c>
       <c r="T43" s="4">
-        <v>0.7629482071713147</v>
+        <v>0.6706586826347305</v>
       </c>
       <c r="U43" s="5">
-        <v>7400.617347607508</v>
+        <v>7197.289083191566</v>
       </c>
       <c r="V43" s="5">
-        <v>7034.57498905941</v>
+        <v>6869.502262952275</v>
       </c>
       <c r="W43" s="5">
-        <v>6917.035208351329</v>
+        <v>6767.361858215349</v>
       </c>
       <c r="X43" s="5">
-        <v>6824.944206967286</v>
+        <v>6710.225071169069</v>
       </c>
       <c r="Y43" s="5">
-        <v>6641.677774387855</v>
+        <v>6612.332805972518</v>
       </c>
       <c r="Z43" s="5">
-        <v>6832.505249887819</v>
+        <v>6802.108720665306</v>
       </c>
       <c r="AA43" s="5">
-        <v>-366.0423585480985</v>
+        <v>-327.786820239291</v>
       </c>
       <c r="AB43" s="5">
-        <v>-483.5821392561793</v>
+        <v>-429.9272249762162</v>
       </c>
       <c r="AC43" s="5">
-        <v>-575.6731406402223</v>
+        <v>-487.0640120224962</v>
       </c>
       <c r="AD43" s="5">
-        <v>-758.9395732196535</v>
+        <v>-584.9562772190475</v>
       </c>
       <c r="AE43" s="5">
-        <v>-568.1120977196888</v>
+        <v>-395.1803625262601</v>
       </c>
       <c r="AF43" s="4">
-        <v>-0.04946105728144878</v>
+        <v>-0.04554309496957665</v>
       </c>
       <c r="AG43" s="4">
-        <v>-0.06534348643394094</v>
+        <v>-0.05973460562814703</v>
       </c>
       <c r="AH43" s="4">
-        <v>-0.07778717823133063</v>
+        <v>-0.067673259527671</v>
       </c>
       <c r="AI43" s="4">
-        <v>-0.1025508464459395</v>
+        <v>-0.08127452857008965</v>
       </c>
       <c r="AJ43" s="4">
-        <v>-0.07676550090829237</v>
+        <v>-0.05490683477604896</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -4996,106 +4996,106 @@
         <v>24</v>
       </c>
       <c r="C44" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D44" s="2">
-        <v>93737</v>
+        <v>93328</v>
       </c>
       <c r="E44" s="2">
-        <v>94561.5</v>
+        <v>94101</v>
       </c>
       <c r="F44" s="2">
-        <v>95238.5</v>
+        <v>94801</v>
       </c>
       <c r="G44" s="2">
-        <v>96210.5</v>
+        <v>95771.5</v>
       </c>
       <c r="H44" s="2">
-        <v>96566.5</v>
+        <v>96125</v>
       </c>
       <c r="I44" s="2">
-        <v>97103</v>
+        <v>96688.5</v>
       </c>
       <c r="J44" s="3">
-        <v>526590575.6486865</v>
+        <v>511085731.1210485</v>
       </c>
       <c r="K44" s="3">
-        <v>515034230.7218119</v>
+        <v>501647080.0292385</v>
       </c>
       <c r="L44" s="3">
-        <v>509943919.5027186</v>
+        <v>498369108.4910668</v>
       </c>
       <c r="M44" s="3">
-        <v>517787522.4837566</v>
+        <v>508486158.5861154</v>
       </c>
       <c r="N44" s="3">
-        <v>508465125.5810387</v>
+        <v>504515911.266109</v>
       </c>
       <c r="O44" s="3">
-        <v>537261200.3017929</v>
+        <v>534270995.0550389</v>
       </c>
       <c r="P44" s="4">
-        <v>0.7444794952681388</v>
+        <v>0.7165605095541401</v>
       </c>
       <c r="Q44" s="4">
-        <v>0.7886435331230284</v>
+        <v>0.7579617834394905</v>
       </c>
       <c r="R44" s="4">
-        <v>0.7255520504731862</v>
+        <v>0.6942675159235668</v>
       </c>
       <c r="S44" s="4">
-        <v>0.8012618296529969</v>
+        <v>0.6847133757961783</v>
       </c>
       <c r="T44" s="4">
-        <v>0.61198738170347</v>
+        <v>0.4968152866242038</v>
       </c>
       <c r="U44" s="5">
-        <v>5617.745134244605</v>
+        <v>5476.231475238391</v>
       </c>
       <c r="V44" s="5">
-        <v>5446.553097421381</v>
+        <v>5330.943135877817</v>
       </c>
       <c r="W44" s="5">
-        <v>5354.388398627852</v>
+        <v>5257.00265283137</v>
       </c>
       <c r="X44" s="5">
-        <v>5381.819265919589</v>
+        <v>5309.368221089942</v>
       </c>
       <c r="Y44" s="5">
-        <v>5265.440143124569</v>
+        <v>5248.540039179288</v>
       </c>
       <c r="Z44" s="5">
-        <v>5532.900119479243</v>
+        <v>5525.693283638063</v>
       </c>
       <c r="AA44" s="5">
-        <v>-171.192036823224</v>
+        <v>-145.2883393605734</v>
       </c>
       <c r="AB44" s="5">
-        <v>-263.3567356167532</v>
+        <v>-219.2288224070207</v>
       </c>
       <c r="AC44" s="5">
-        <v>-235.9258683250155</v>
+        <v>-166.8632541484485</v>
       </c>
       <c r="AD44" s="5">
-        <v>-352.304991120036</v>
+        <v>-227.6914360591027</v>
       </c>
       <c r="AE44" s="5">
-        <v>-84.84501476536207</v>
+        <v>49.46180839967201</v>
       </c>
       <c r="AF44" s="4">
-        <v>-0.03047344312216538</v>
+        <v>-0.02653071551440378</v>
       </c>
       <c r="AG44" s="4">
-        <v>-0.04687943815951801</v>
+        <v>-0.04003278959231305</v>
       </c>
       <c r="AH44" s="4">
-        <v>-0.04199654179518764</v>
+        <v>-0.03047045306666563</v>
       </c>
       <c r="AI44" s="4">
-        <v>-0.06271288260701935</v>
+        <v>-0.04157812486353873</v>
       </c>
       <c r="AJ44" s="4">
-        <v>-0.01510303738205643</v>
+        <v>0.009032088695176688</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -5107,103 +5107,103 @@
         <v>326</v>
       </c>
       <c r="D45" s="2">
-        <v>115880</v>
+        <v>115775</v>
       </c>
       <c r="E45" s="2">
-        <v>117203.5</v>
+        <v>117099.5</v>
       </c>
       <c r="F45" s="2">
-        <v>118431.5</v>
+        <v>118353.5</v>
       </c>
       <c r="G45" s="2">
-        <v>119391.5</v>
+        <v>119293</v>
       </c>
       <c r="H45" s="2">
-        <v>119681.5</v>
+        <v>119598.5</v>
       </c>
       <c r="I45" s="2">
-        <v>119771.5</v>
+        <v>119680</v>
       </c>
       <c r="J45" s="3">
-        <v>729289541.4204944</v>
+        <v>708556068.2082436</v>
       </c>
       <c r="K45" s="3">
-        <v>702064219.618571</v>
+        <v>684943598.9351608</v>
       </c>
       <c r="L45" s="3">
-        <v>699253469.5633997</v>
+        <v>683291149.6212611</v>
       </c>
       <c r="M45" s="3">
-        <v>699154064.5212895</v>
+        <v>686947320.7143644</v>
       </c>
       <c r="N45" s="3">
-        <v>683450066.2176857</v>
+        <v>679905353.6397245</v>
       </c>
       <c r="O45" s="3">
-        <v>712029031.3243937</v>
+        <v>707849676.9218397</v>
       </c>
       <c r="P45" s="4">
-        <v>0.7760736196319018</v>
+        <v>0.7699386503067485</v>
       </c>
       <c r="Q45" s="4">
-        <v>0.7914110429447853</v>
+        <v>0.7822085889570553</v>
       </c>
       <c r="R45" s="4">
-        <v>0.7944785276073619</v>
+        <v>0.745398773006135</v>
       </c>
       <c r="S45" s="4">
-        <v>0.8220858895705522</v>
+        <v>0.745398773006135</v>
       </c>
       <c r="T45" s="4">
-        <v>0.6932515337423313</v>
+        <v>0.6073619631901841</v>
       </c>
       <c r="U45" s="5">
-        <v>6293.489311533435</v>
+        <v>6120.112875907956</v>
       </c>
       <c r="V45" s="5">
-        <v>5990.130154974647</v>
+        <v>5849.244436869165</v>
       </c>
       <c r="W45" s="5">
-        <v>5904.286187065094</v>
+        <v>5773.307503548785</v>
       </c>
       <c r="X45" s="5">
-        <v>5855.978562303761</v>
+        <v>5758.488098332378</v>
       </c>
       <c r="Y45" s="5">
-        <v>5710.574033728569</v>
+        <v>5684.898670465972</v>
       </c>
       <c r="Z45" s="5">
-        <v>5944.895332565708</v>
+        <v>5914.519359306816</v>
       </c>
       <c r="AA45" s="5">
-        <v>-303.3591565587885</v>
+        <v>-270.8684390387907</v>
       </c>
       <c r="AB45" s="5">
-        <v>-389.2031244683412</v>
+        <v>-346.8053723591711</v>
       </c>
       <c r="AC45" s="5">
-        <v>-437.5107492296747</v>
+        <v>-361.6247775755774</v>
       </c>
       <c r="AD45" s="5">
-        <v>-582.9152778048665</v>
+        <v>-435.2142054419837</v>
       </c>
       <c r="AE45" s="5">
-        <v>-348.5939789677268</v>
+        <v>-205.5935166011395</v>
       </c>
       <c r="AF45" s="4">
-        <v>-0.04820206113687253</v>
+        <v>-0.04425873256440649</v>
       </c>
       <c r="AG45" s="4">
-        <v>-0.06184218407348185</v>
+        <v>-0.05666649935892243</v>
       </c>
       <c r="AH45" s="4">
-        <v>-0.06951799352831078</v>
+        <v>-0.05908792613925906</v>
       </c>
       <c r="AI45" s="4">
-        <v>-0.09262195404648055</v>
+        <v>-0.07111212068575079</v>
       </c>
       <c r="AJ45" s="4">
-        <v>-0.0553896196071858</v>
+        <v>-0.03359309227946849</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -5212,106 +5212,106 @@
         <v>26</v>
       </c>
       <c r="C46" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D46" s="2">
-        <v>124862.5</v>
+        <v>124635.5</v>
       </c>
       <c r="E46" s="2">
-        <v>126321.5</v>
+        <v>126087.5</v>
       </c>
       <c r="F46" s="2">
-        <v>127713.5</v>
+        <v>127476</v>
       </c>
       <c r="G46" s="2">
-        <v>129155.5</v>
+        <v>128925</v>
       </c>
       <c r="H46" s="2">
-        <v>129510.5</v>
+        <v>129282.5</v>
       </c>
       <c r="I46" s="2">
-        <v>129602.5</v>
+        <v>129382.5</v>
       </c>
       <c r="J46" s="3">
-        <v>808434810.4243026</v>
+        <v>784700074.5277715</v>
       </c>
       <c r="K46" s="3">
-        <v>776983036.3835902</v>
+        <v>757351222.5693033</v>
       </c>
       <c r="L46" s="3">
-        <v>774346437.4951738</v>
+        <v>756179513.3551393</v>
       </c>
       <c r="M46" s="3">
-        <v>774090674.5070918</v>
+        <v>760246068.1366324</v>
       </c>
       <c r="N46" s="3">
-        <v>758449007.7686734</v>
+        <v>753899761.4322112</v>
       </c>
       <c r="O46" s="3">
-        <v>794034054.732862</v>
+        <v>789353685.6272951</v>
       </c>
       <c r="P46" s="4">
-        <v>0.7891373801916933</v>
+        <v>0.7628205128205128</v>
       </c>
       <c r="Q46" s="4">
-        <v>0.8146964856230032</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="R46" s="4">
-        <v>0.8019169329073482</v>
+        <v>0.7660256410256411</v>
       </c>
       <c r="S46" s="4">
-        <v>0.8498402555910544</v>
+        <v>0.8012820512820513</v>
       </c>
       <c r="T46" s="4">
-        <v>0.7028753993610224</v>
+        <v>0.6121794871794872</v>
       </c>
       <c r="U46" s="5">
-        <v>6474.600543992813</v>
+        <v>6295.959614457931</v>
       </c>
       <c r="V46" s="5">
-        <v>6150.837635585314</v>
+        <v>6006.552771442874</v>
       </c>
       <c r="W46" s="5">
-        <v>6063.152583674974</v>
+        <v>5931.936312365773</v>
       </c>
       <c r="X46" s="5">
-        <v>5993.478206557923</v>
+        <v>5896.808750332615</v>
       </c>
       <c r="Y46" s="5">
-        <v>5856.274261690546</v>
+        <v>5831.413852858748</v>
       </c>
       <c r="Z46" s="5">
-        <v>6126.687793313107</v>
+        <v>6100.930849437096</v>
       </c>
       <c r="AA46" s="5">
-        <v>-323.7629084074988</v>
+        <v>-289.4068430150573</v>
       </c>
       <c r="AB46" s="5">
-        <v>-411.4479603178388</v>
+        <v>-364.0233020921578</v>
       </c>
       <c r="AC46" s="5">
-        <v>-481.1223374348901</v>
+        <v>-399.1508641253158</v>
       </c>
       <c r="AD46" s="5">
-        <v>-618.3262823022669</v>
+        <v>-464.5457615991827</v>
       </c>
       <c r="AE46" s="5">
-        <v>-347.9127506797058</v>
+        <v>-195.0287650208347</v>
       </c>
       <c r="AF46" s="4">
-        <v>-0.05000507849212232</v>
+        <v>-0.04596707424083035</v>
       </c>
       <c r="AG46" s="4">
-        <v>-0.06354800694223273</v>
+        <v>-0.05781855735799524</v>
       </c>
       <c r="AH46" s="4">
-        <v>-0.07430919238427447</v>
+        <v>-0.06339793908599933</v>
       </c>
       <c r="AI46" s="4">
-        <v>-0.09550029814209238</v>
+        <v>-0.07378474292185866</v>
       </c>
       <c r="AJ46" s="4">
-        <v>-0.05373501396970382</v>
+        <v>-0.03097681322049373</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -5320,106 +5320,106 @@
         <v>27</v>
       </c>
       <c r="C47" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D47" s="2">
-        <v>148033.5</v>
+        <v>148050.5</v>
       </c>
       <c r="E47" s="2">
-        <v>150085.5</v>
+        <v>149944</v>
       </c>
       <c r="F47" s="2">
-        <v>151860</v>
+        <v>151679</v>
       </c>
       <c r="G47" s="2">
-        <v>154050.5</v>
+        <v>153836.5</v>
       </c>
       <c r="H47" s="2">
-        <v>155270</v>
+        <v>155181.5</v>
       </c>
       <c r="I47" s="2">
-        <v>155348.5</v>
+        <v>155284</v>
       </c>
       <c r="J47" s="3">
-        <v>1023443213.452684</v>
+        <v>1000060138.43894</v>
       </c>
       <c r="K47" s="3">
-        <v>977527945.1126645</v>
+        <v>958661510.0951144</v>
       </c>
       <c r="L47" s="3">
-        <v>974443009.7886815</v>
+        <v>956369641.7537038</v>
       </c>
       <c r="M47" s="3">
-        <v>979526789.0201722</v>
+        <v>960188753.5617777</v>
       </c>
       <c r="N47" s="3">
-        <v>960350778.6502684</v>
+        <v>957812613.0124266</v>
       </c>
       <c r="O47" s="3">
-        <v>1004256629.71976</v>
+        <v>1003915647.009863</v>
       </c>
       <c r="P47" s="4">
-        <v>0.8186528497409327</v>
+        <v>0.8</v>
       </c>
       <c r="Q47" s="4">
-        <v>0.8264248704663213</v>
+        <v>0.812987012987013</v>
       </c>
       <c r="R47" s="4">
-        <v>0.8316062176165803</v>
+        <v>0.8025974025974026</v>
       </c>
       <c r="S47" s="4">
-        <v>0.927461139896373</v>
+        <v>0.8805194805194805</v>
       </c>
       <c r="T47" s="4">
-        <v>0.7979274611398963</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="U47" s="5">
-        <v>6913.591946773423</v>
+        <v>6754.858230393952</v>
       </c>
       <c r="V47" s="5">
-        <v>6513.140477345676</v>
+        <v>6393.463627054863</v>
       </c>
       <c r="W47" s="5">
-        <v>6416.719411225349</v>
+        <v>6305.221169401854</v>
       </c>
       <c r="X47" s="5">
-        <v>6358.478479590603</v>
+        <v>6241.618559716178</v>
       </c>
       <c r="Y47" s="5">
-        <v>6185.037538805103</v>
+        <v>6172.208755634058</v>
       </c>
       <c r="Z47" s="5">
-        <v>6464.540241584306</v>
+        <v>6465.029539488053</v>
       </c>
       <c r="AA47" s="5">
-        <v>-400.4514694277468</v>
+        <v>-361.3946033390894</v>
       </c>
       <c r="AB47" s="5">
-        <v>-496.8725355480738</v>
+        <v>-449.6370609920978</v>
       </c>
       <c r="AC47" s="5">
-        <v>-555.1134671828195</v>
+        <v>-513.2396706777745</v>
       </c>
       <c r="AD47" s="5">
-        <v>-728.5544079683195</v>
+        <v>-582.6494747598936</v>
       </c>
       <c r="AE47" s="5">
-        <v>-449.0517051891165</v>
+        <v>-289.8286909058988</v>
       </c>
       <c r="AF47" s="4">
-        <v>-0.05792234666303064</v>
+        <v>-0.05350143422891829</v>
       </c>
       <c r="AG47" s="4">
-        <v>-0.07186894155359635</v>
+        <v>-0.06656498858390913</v>
       </c>
       <c r="AH47" s="4">
-        <v>-0.08029306205175901</v>
+        <v>-0.07598082049574584</v>
       </c>
       <c r="AI47" s="4">
-        <v>-0.105380012817843</v>
+        <v>-0.08625635874017634</v>
       </c>
       <c r="AJ47" s="4">
-        <v>-0.06495201172506126</v>
+        <v>-0.04290670226086979</v>
       </c>
     </row>
     <row r="48" spans="1:36">
@@ -5428,106 +5428,106 @@
         <v>28</v>
       </c>
       <c r="C48" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D48" s="2">
-        <v>144914</v>
+        <v>145766.5</v>
       </c>
       <c r="E48" s="2">
-        <v>148019</v>
+        <v>148878</v>
       </c>
       <c r="F48" s="2">
-        <v>149745.5</v>
+        <v>150598</v>
       </c>
       <c r="G48" s="2">
-        <v>151290</v>
+        <v>152121</v>
       </c>
       <c r="H48" s="2">
-        <v>152395.5</v>
+        <v>153221.5</v>
       </c>
       <c r="I48" s="2">
-        <v>151206.5</v>
+        <v>152030</v>
       </c>
       <c r="J48" s="3">
-        <v>1066141926.618973</v>
+        <v>1042506341.348806</v>
       </c>
       <c r="K48" s="3">
-        <v>1019214330.208313</v>
+        <v>1000713048.401718</v>
       </c>
       <c r="L48" s="3">
-        <v>1015818622.704893</v>
+        <v>998594903.6405561</v>
       </c>
       <c r="M48" s="3">
-        <v>1015023330.829617</v>
+        <v>1003884159.767433</v>
       </c>
       <c r="N48" s="3">
-        <v>1002040904.319753</v>
+        <v>1001925874.199401</v>
       </c>
       <c r="O48" s="3">
-        <v>1042548962.496317</v>
+        <v>1042501055.153106</v>
       </c>
       <c r="P48" s="4">
-        <v>0.7860824742268041</v>
+        <v>0.7749360613810742</v>
       </c>
       <c r="Q48" s="4">
-        <v>0.8402061855670103</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="R48" s="4">
-        <v>0.845360824742268</v>
+        <v>0.7979539641943734</v>
       </c>
       <c r="S48" s="4">
-        <v>0.8865979381443299</v>
+        <v>0.8439897698209718</v>
       </c>
       <c r="T48" s="4">
-        <v>0.7474226804123711</v>
+        <v>0.6445012787723785</v>
       </c>
       <c r="U48" s="5">
-        <v>7357.066443676756</v>
+        <v>7151.892522279165</v>
       </c>
       <c r="V48" s="5">
-        <v>6885.699337303404</v>
+        <v>6721.698628418689</v>
       </c>
       <c r="W48" s="5">
-        <v>6783.633716571735</v>
+        <v>6630.864311880345</v>
       </c>
       <c r="X48" s="5">
-        <v>6709.123741355125</v>
+        <v>6599.247702601438</v>
       </c>
       <c r="Y48" s="5">
-        <v>6575.265702200874</v>
+        <v>6539.068434908946</v>
       </c>
       <c r="Z48" s="5">
-        <v>6894.868689483037</v>
+        <v>6857.20617741963</v>
       </c>
       <c r="AA48" s="5">
-        <v>-471.3671063733518</v>
+        <v>-430.1938938604762</v>
       </c>
       <c r="AB48" s="5">
-        <v>-573.4327271050206</v>
+        <v>-521.0282103988202</v>
       </c>
       <c r="AC48" s="5">
-        <v>-647.9427023216303</v>
+        <v>-552.6448196777274</v>
       </c>
       <c r="AD48" s="5">
-        <v>-781.8007414758813</v>
+        <v>-612.8240873702189</v>
       </c>
       <c r="AE48" s="5">
-        <v>-462.1977541937185</v>
+        <v>-294.686344859535</v>
       </c>
       <c r="AF48" s="4">
-        <v>-0.06406998087919702</v>
+        <v>-0.06015105687345845</v>
       </c>
       <c r="AG48" s="4">
-        <v>-0.07794312196240583</v>
+        <v>-0.07285179535007591</v>
       </c>
       <c r="AH48" s="4">
-        <v>-0.08807079659835393</v>
+        <v>-0.07727252862877343</v>
       </c>
       <c r="AI48" s="4">
-        <v>-0.106265282155746</v>
+        <v>-0.08568698221641113</v>
       </c>
       <c r="AJ48" s="4">
-        <v>-0.0628236482206801</v>
+        <v>-0.04120396719351482</v>
       </c>
     </row>
   </sheetData>

--- a/output/Region & Deprivation.xlsx
+++ b/output/Region & Deprivation.xlsx
@@ -681,85 +681,85 @@
         <v>118287</v>
       </c>
       <c r="J4" s="3">
-        <v>639654272.2168691</v>
+        <v>641157340.8976663</v>
       </c>
       <c r="K4" s="3">
-        <v>631851557.9527519</v>
+        <v>633032075.5971233</v>
       </c>
       <c r="L4" s="3">
-        <v>630412395.6455989</v>
+        <v>631420347.8303622</v>
       </c>
       <c r="M4" s="3">
-        <v>632617079.085605</v>
+        <v>632957652.4595526</v>
       </c>
       <c r="N4" s="3">
-        <v>633503304.7512335</v>
+        <v>633493878.145635</v>
       </c>
       <c r="O4" s="3">
-        <v>678316011.059967</v>
+        <v>678331734.1732469</v>
       </c>
       <c r="P4" s="4">
-        <v>0.6818181818181818</v>
+        <v>0.6848484848484848</v>
       </c>
       <c r="Q4" s="4">
         <v>0.7</v>
       </c>
       <c r="R4" s="4">
-        <v>0.7242424242424242</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="S4" s="4">
-        <v>0.7393939393939394</v>
+        <v>0.7545454545454545</v>
       </c>
       <c r="T4" s="4">
-        <v>0.493939393939394</v>
+        <v>0.503030303030303</v>
       </c>
       <c r="U4" s="5">
-        <v>5706.28228550284</v>
+        <v>5719.690988547068</v>
       </c>
       <c r="V4" s="5">
-        <v>5537.602828633608</v>
+        <v>5547.948989475411</v>
       </c>
       <c r="W4" s="5">
-        <v>5464.005752049602</v>
+        <v>5472.74202781667</v>
       </c>
       <c r="X4" s="5">
-        <v>5450.306531279443</v>
+        <v>5453.240737999075</v>
       </c>
       <c r="Y4" s="5">
-        <v>5379.385256665677</v>
+        <v>5379.305210764107</v>
       </c>
       <c r="Z4" s="5">
-        <v>5734.493317608588</v>
+        <v>5734.626241034492</v>
       </c>
       <c r="AA4" s="5">
-        <v>-168.6794568692321</v>
+        <v>-171.7419990716571</v>
       </c>
       <c r="AB4" s="5">
-        <v>-242.2765334532378</v>
+        <v>-246.9489607303976</v>
       </c>
       <c r="AC4" s="5">
-        <v>-255.9757542233965</v>
+        <v>-266.4502505479923</v>
       </c>
       <c r="AD4" s="5">
-        <v>-326.8970288371629</v>
+        <v>-340.3857777829608</v>
       </c>
       <c r="AE4" s="5">
-        <v>28.21103210574802</v>
+        <v>14.9352524874239</v>
       </c>
       <c r="AF4" s="4">
-        <v>-0.02956030711936086</v>
+        <v>-0.03002644713071878</v>
       </c>
       <c r="AG4" s="4">
-        <v>-0.04245785983437167</v>
+        <v>-0.04317522768710413</v>
       </c>
       <c r="AH4" s="4">
-        <v>-0.04485858592620251</v>
+        <v>-0.04658472828016824</v>
       </c>
       <c r="AI4" s="4">
-        <v>-0.05728721652408697</v>
+        <v>-0.05951121808232973</v>
       </c>
       <c r="AJ4" s="4">
-        <v>0.004943854981976692</v>
+        <v>0.002611199191937086</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -789,85 +789,85 @@
         <v>130160.5</v>
       </c>
       <c r="J5" s="3">
-        <v>722551376.351311</v>
+        <v>724249237.8230977</v>
       </c>
       <c r="K5" s="3">
-        <v>720890031.3694856</v>
+        <v>722236903.733685</v>
       </c>
       <c r="L5" s="3">
-        <v>715701380.4763327</v>
+        <v>716845699.2985394</v>
       </c>
       <c r="M5" s="3">
-        <v>726651141.0226281</v>
+        <v>727042338.2238467</v>
       </c>
       <c r="N5" s="3">
-        <v>717276205.3823086</v>
+        <v>717265532.2258426</v>
       </c>
       <c r="O5" s="3">
-        <v>768200909.2241865</v>
+        <v>768218715.8360323</v>
       </c>
       <c r="P5" s="4">
+        <v>0.7427055702917772</v>
+      </c>
+      <c r="Q5" s="4">
         <v>0.7400530503978779</v>
       </c>
-      <c r="Q5" s="4">
-        <v>0.7347480106100795</v>
-      </c>
       <c r="R5" s="4">
-        <v>0.6816976127320955</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="S5" s="4">
-        <v>0.7824933687002652</v>
+        <v>0.7877984084880637</v>
       </c>
       <c r="T5" s="4">
-        <v>0.5251989389920424</v>
+        <v>0.5305039787798409</v>
       </c>
       <c r="U5" s="5">
-        <v>5873.94775485886</v>
+        <v>5887.75044060091</v>
       </c>
       <c r="V5" s="5">
-        <v>5750.008226473899</v>
+        <v>5760.751234196511</v>
       </c>
       <c r="W5" s="5">
-        <v>5632.16220844809</v>
+        <v>5641.167345787017</v>
       </c>
       <c r="X5" s="5">
-        <v>5660.290714244982</v>
+        <v>5663.337967267086</v>
       </c>
       <c r="Y5" s="5">
-        <v>5538.384722278655</v>
+        <v>5538.302310445854</v>
       </c>
       <c r="Z5" s="5">
-        <v>5901.951123606521</v>
+        <v>5902.087928642194</v>
       </c>
       <c r="AA5" s="5">
-        <v>-123.9395283849617</v>
+        <v>-126.999206404399</v>
       </c>
       <c r="AB5" s="5">
-        <v>-241.7855464107697</v>
+        <v>-246.5830948138928</v>
       </c>
       <c r="AC5" s="5">
-        <v>-213.6570406138781</v>
+        <v>-224.412473333824</v>
       </c>
       <c r="AD5" s="5">
-        <v>-335.5630325802049</v>
+        <v>-349.4481301550559</v>
       </c>
       <c r="AE5" s="5">
-        <v>28.00336874766072</v>
+        <v>14.3374880412839</v>
       </c>
       <c r="AF5" s="4">
-        <v>-0.02109986904164074</v>
+        <v>-0.02157007293118851</v>
       </c>
       <c r="AG5" s="4">
-        <v>-0.04116235903030763</v>
+        <v>-0.04188069744150469</v>
       </c>
       <c r="AH5" s="4">
-        <v>-0.03637367057566077</v>
+        <v>-0.03811514696450347</v>
       </c>
       <c r="AI5" s="4">
-        <v>-0.05712734375320772</v>
+        <v>-0.05935172247541642</v>
       </c>
       <c r="AJ5" s="4">
-        <v>0.004767384715755441</v>
+        <v>0.002435138545006099</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -897,22 +897,22 @@
         <v>129344.5</v>
       </c>
       <c r="J6" s="3">
-        <v>771463952.4949782</v>
+        <v>773276749.4318922</v>
       </c>
       <c r="K6" s="3">
-        <v>747935574.7137095</v>
+        <v>749332977.5240518</v>
       </c>
       <c r="L6" s="3">
-        <v>742677420.8415934</v>
+        <v>743864871.0473347</v>
       </c>
       <c r="M6" s="3">
-        <v>746520198.2821914</v>
+        <v>746922092.1150554</v>
       </c>
       <c r="N6" s="3">
-        <v>743602239.8672944</v>
+        <v>743591174.9762597</v>
       </c>
       <c r="O6" s="3">
-        <v>780629577.5497277</v>
+        <v>780647672.2534907</v>
       </c>
       <c r="P6" s="4">
         <v>0.7479224376731302</v>
@@ -921,61 +921,61 @@
         <v>0.7673130193905817</v>
       </c>
       <c r="R6" s="4">
-        <v>0.6980609418282548</v>
+        <v>0.7008310249307479</v>
       </c>
       <c r="S6" s="4">
-        <v>0.7562326869806094</v>
+        <v>0.7673130193905817</v>
       </c>
       <c r="T6" s="4">
-        <v>0.554016620498615</v>
+        <v>0.5706371191135734</v>
       </c>
       <c r="U6" s="5">
-        <v>6317.830401485379</v>
+        <v>6332.67612896586</v>
       </c>
       <c r="V6" s="5">
-        <v>6051.55245977725</v>
+        <v>6062.858856611581</v>
       </c>
       <c r="W6" s="5">
-        <v>5920.555329750706</v>
+        <v>5930.021572357688</v>
       </c>
       <c r="X6" s="5">
-        <v>5879.570116069666</v>
+        <v>5882.735419533628</v>
       </c>
       <c r="Y6" s="5">
-        <v>5814.321044536146</v>
+        <v>5814.234526737584</v>
       </c>
       <c r="Z6" s="5">
-        <v>6035.274615849361</v>
+        <v>6035.414511274083</v>
       </c>
       <c r="AA6" s="5">
-        <v>-266.2779417081292</v>
+        <v>-269.8172723542784</v>
       </c>
       <c r="AB6" s="5">
-        <v>-397.2750717346735</v>
+        <v>-402.6545566081713</v>
       </c>
       <c r="AC6" s="5">
-        <v>-438.260285415713</v>
+        <v>-449.9407094322314</v>
       </c>
       <c r="AD6" s="5">
-        <v>-503.5093569492337</v>
+        <v>-518.4416022282758</v>
       </c>
       <c r="AE6" s="5">
-        <v>-282.5557856360183</v>
+        <v>-297.2616176917763</v>
       </c>
       <c r="AF6" s="4">
-        <v>-0.04214705441373112</v>
+        <v>-0.04260714851974279</v>
       </c>
       <c r="AG6" s="4">
-        <v>-0.06288156637463238</v>
+        <v>-0.06358363327099847</v>
       </c>
       <c r="AH6" s="4">
-        <v>-0.06936879554612196</v>
+        <v>-0.07105064277236417</v>
       </c>
       <c r="AI6" s="4">
-        <v>-0.07969656115347035</v>
+        <v>-0.08186769568980601</v>
       </c>
       <c r="AJ6" s="4">
-        <v>-0.04472354711667903</v>
+        <v>-0.04694091591579941</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -1005,85 +1005,85 @@
         <v>120558.5</v>
       </c>
       <c r="J7" s="3">
-        <v>741926335.5495143</v>
+        <v>743669724.575211</v>
       </c>
       <c r="K7" s="3">
-        <v>722970923.8394771</v>
+        <v>724321684.031832</v>
       </c>
       <c r="L7" s="3">
-        <v>716256522.4636155</v>
+        <v>717401728.8898451</v>
       </c>
       <c r="M7" s="3">
-        <v>727325402.7009398</v>
+        <v>727716962.8951622</v>
       </c>
       <c r="N7" s="3">
-        <v>719280173.8177083</v>
+        <v>719269470.8419496</v>
       </c>
       <c r="O7" s="3">
-        <v>757763957.3088725</v>
+        <v>757781521.9960467</v>
       </c>
       <c r="P7" s="4">
         <v>0.7436619718309859</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.7295774647887324</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="R7" s="4">
-        <v>0.6873239436619718</v>
+        <v>0.7014084507042253</v>
       </c>
       <c r="S7" s="4">
-        <v>0.7718309859154929</v>
+        <v>0.780281690140845</v>
       </c>
       <c r="T7" s="4">
-        <v>0.5549295774647888</v>
+        <v>0.571830985915493</v>
       </c>
       <c r="U7" s="5">
-        <v>6476.453619793679</v>
+        <v>6491.672082362229</v>
       </c>
       <c r="V7" s="5">
-        <v>6211.143771333749</v>
+        <v>6222.748340035842</v>
       </c>
       <c r="W7" s="5">
-        <v>6067.990718821533</v>
+        <v>6077.692692552389</v>
       </c>
       <c r="X7" s="5">
-        <v>6080.858486409382</v>
+        <v>6084.132154730515</v>
       </c>
       <c r="Y7" s="5">
-        <v>5964.600936365401</v>
+        <v>5964.512182383913</v>
       </c>
       <c r="Z7" s="5">
-        <v>6285.446130375482</v>
+        <v>6285.59182468301</v>
       </c>
       <c r="AA7" s="5">
-        <v>-265.3098484599295</v>
+        <v>-268.9237423263867</v>
       </c>
       <c r="AB7" s="5">
-        <v>-408.4629009721457</v>
+        <v>-413.9793898098405</v>
       </c>
       <c r="AC7" s="5">
-        <v>-395.5951333842968</v>
+        <v>-407.5399276317139</v>
       </c>
       <c r="AD7" s="5">
-        <v>-511.8526834282775</v>
+        <v>-527.1598999783164</v>
       </c>
       <c r="AE7" s="5">
-        <v>-191.0074894181971</v>
+        <v>-206.0802576792194</v>
       </c>
       <c r="AF7" s="4">
-        <v>-0.04096529737340748</v>
+        <v>-0.04142595912338953</v>
       </c>
       <c r="AG7" s="4">
-        <v>-0.06306891471032539</v>
+        <v>-0.06377084124976307</v>
       </c>
       <c r="AH7" s="4">
-        <v>-0.06108206074004119</v>
+        <v>-0.06277888384704355</v>
       </c>
       <c r="AI7" s="4">
-        <v>-0.07903286481723981</v>
+        <v>-0.08120556511327826</v>
       </c>
       <c r="AJ7" s="4">
-        <v>-0.02949260515576457</v>
+        <v>-0.0317453277159726</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1113,31 +1113,31 @@
         <v>76550.5</v>
       </c>
       <c r="J8" s="3">
-        <v>528349714.3680111</v>
+        <v>529591238.0201902</v>
       </c>
       <c r="K8" s="3">
-        <v>515476904.5131497</v>
+        <v>516439993.9815299</v>
       </c>
       <c r="L8" s="3">
-        <v>508158269.3260412</v>
+        <v>508970752.140958</v>
       </c>
       <c r="M8" s="3">
-        <v>501591982.1244536</v>
+        <v>501862017.3153217</v>
       </c>
       <c r="N8" s="3">
-        <v>501427204.7265455</v>
+        <v>501419743.4292486</v>
       </c>
       <c r="O8" s="3">
-        <v>527748446.0959212</v>
+        <v>527760679.1089505</v>
       </c>
       <c r="P8" s="4">
         <v>0.7075098814229249</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.6837944664031621</v>
+        <v>0.6877470355731226</v>
       </c>
       <c r="R8" s="4">
-        <v>0.691699604743083</v>
+        <v>0.6996047430830039</v>
       </c>
       <c r="S8" s="4">
         <v>0.7351778656126482</v>
@@ -1146,52 +1146,52 @@
         <v>0.4901185770750988</v>
       </c>
       <c r="U8" s="5">
-        <v>7014.0814630612</v>
+        <v>7030.563251160808</v>
       </c>
       <c r="V8" s="5">
-        <v>6718.850178088785</v>
+        <v>6731.403318277003</v>
       </c>
       <c r="W8" s="5">
-        <v>6643.156207076956</v>
+        <v>6653.77779995631</v>
       </c>
       <c r="X8" s="5">
-        <v>6530.167775976952</v>
+        <v>6533.68333277337</v>
       </c>
       <c r="Y8" s="5">
-        <v>6506.422436811656</v>
+        <v>6506.325620460882</v>
       </c>
       <c r="Z8" s="5">
-        <v>6894.121476618979</v>
+        <v>6894.281279795044</v>
       </c>
       <c r="AA8" s="5">
-        <v>-295.2312849724149</v>
+        <v>-299.1599328838056</v>
       </c>
       <c r="AB8" s="5">
-        <v>-370.9252559842444</v>
+        <v>-376.7854512044987</v>
       </c>
       <c r="AC8" s="5">
-        <v>-483.9136870842485</v>
+        <v>-496.879918387438</v>
       </c>
       <c r="AD8" s="5">
-        <v>-507.6590262495447</v>
+        <v>-524.2376306999258</v>
       </c>
       <c r="AE8" s="5">
-        <v>-119.9599864422216</v>
+        <v>-136.2819713657645</v>
       </c>
       <c r="AF8" s="4">
-        <v>-0.04209122556206601</v>
+        <v>-0.04255134648485126</v>
       </c>
       <c r="AG8" s="4">
-        <v>-0.05288294097205415</v>
+        <v>-0.05359249860134441</v>
       </c>
       <c r="AH8" s="4">
-        <v>-0.06899174034871436</v>
+        <v>-0.07067426899336959</v>
       </c>
       <c r="AI8" s="4">
-        <v>-0.07237712149809905</v>
+        <v>-0.07456552369589586</v>
       </c>
       <c r="AJ8" s="4">
-        <v>-0.01710273641302518</v>
+        <v>-0.01938421809138313</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1223,85 +1223,85 @@
         <v>197664.5</v>
       </c>
       <c r="J9" s="3">
-        <v>1123848753.84173</v>
+        <v>1126489589.582572</v>
       </c>
       <c r="K9" s="3">
-        <v>1130053806.746551</v>
+        <v>1132165138.816817</v>
       </c>
       <c r="L9" s="3">
-        <v>1110641937.478701</v>
+        <v>1112417717.864847</v>
       </c>
       <c r="M9" s="3">
-        <v>1118000310.01918</v>
+        <v>1118602192.501088</v>
       </c>
       <c r="N9" s="3">
-        <v>1090472956.407462</v>
+        <v>1090456730.038321</v>
       </c>
       <c r="O9" s="3">
-        <v>1172224998.48491</v>
+        <v>1172252170.225131</v>
       </c>
       <c r="P9" s="4">
         <v>0.6945054945054945</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.7516483516483516</v>
+        <v>0.756043956043956</v>
       </c>
       <c r="R9" s="4">
-        <v>0.734065934065934</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="S9" s="4">
-        <v>0.8285714285714286</v>
+        <v>0.832967032967033</v>
       </c>
       <c r="T9" s="4">
-        <v>0.621978021978022</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="U9" s="5">
-        <v>6041.012133864753</v>
+        <v>6055.207389853991</v>
       </c>
       <c r="V9" s="5">
-        <v>6012.523579391064</v>
+        <v>6023.757056753481</v>
       </c>
       <c r="W9" s="5">
-        <v>5833.0502743032</v>
+        <v>5842.376607047333</v>
       </c>
       <c r="X9" s="5">
-        <v>5801.25422261233</v>
+        <v>5804.377364223646</v>
       </c>
       <c r="Y9" s="5">
-        <v>5586.095918321939</v>
+        <v>5586.012796540789</v>
       </c>
       <c r="Z9" s="5">
-        <v>5930.376969485719</v>
+        <v>5930.514433421939</v>
       </c>
       <c r="AA9" s="5">
-        <v>-28.48855447368896</v>
+        <v>-31.45033310050985</v>
       </c>
       <c r="AB9" s="5">
-        <v>-207.961859561553</v>
+        <v>-212.8307828066581</v>
       </c>
       <c r="AC9" s="5">
-        <v>-239.7579112524236</v>
+        <v>-250.8300256303455</v>
       </c>
       <c r="AD9" s="5">
-        <v>-454.9162155428139</v>
+        <v>-469.1945933132019</v>
       </c>
       <c r="AE9" s="5">
-        <v>-110.635164379034</v>
+        <v>-124.6929564320526</v>
       </c>
       <c r="AF9" s="4">
-        <v>-0.004715857846731897</v>
+        <v>-0.005193931615489755</v>
       </c>
       <c r="AG9" s="4">
-        <v>-0.0344250027898072</v>
+        <v>-0.03514838866844994</v>
       </c>
       <c r="AH9" s="4">
-        <v>-0.03968836776678308</v>
+        <v>-0.04142385379741609</v>
       </c>
       <c r="AI9" s="4">
-        <v>-0.07530463529325504</v>
+        <v>-0.07748613104472313</v>
       </c>
       <c r="AJ9" s="4">
-        <v>-0.01831401128278398</v>
+        <v>-0.02059268137388426</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -1331,85 +1331,85 @@
         <v>205593.5</v>
       </c>
       <c r="J10" s="3">
-        <v>1142798356.890521</v>
+        <v>1145483720.677361</v>
       </c>
       <c r="K10" s="3">
-        <v>1147310057.312731</v>
+        <v>1149453630.038279</v>
       </c>
       <c r="L10" s="3">
-        <v>1142967616.916024</v>
+        <v>1144795082.103164</v>
       </c>
       <c r="M10" s="3">
-        <v>1160877981.593452</v>
+        <v>1161502947.538892</v>
       </c>
       <c r="N10" s="3">
-        <v>1131445078.624118</v>
+        <v>1131428242.584855</v>
       </c>
       <c r="O10" s="3">
-        <v>1215651786.042403</v>
+        <v>1215679964.399436</v>
       </c>
       <c r="P10" s="4">
-        <v>0.6898496240601504</v>
+        <v>0.6917293233082706</v>
       </c>
       <c r="Q10" s="4">
-        <v>0.731203007518797</v>
+        <v>0.7330827067669173</v>
       </c>
       <c r="R10" s="4">
-        <v>0.7218045112781954</v>
+        <v>0.7293233082706767</v>
       </c>
       <c r="S10" s="4">
-        <v>0.793233082706767</v>
+        <v>0.8026315789473685</v>
       </c>
       <c r="T10" s="4">
-        <v>0.6015037593984962</v>
+        <v>0.6109022556390977</v>
       </c>
       <c r="U10" s="5">
-        <v>6028.244152101666</v>
+        <v>6042.40940570627</v>
       </c>
       <c r="V10" s="5">
-        <v>5910.633211217023</v>
+        <v>5921.676322067075</v>
       </c>
       <c r="W10" s="5">
-        <v>5763.598124715213</v>
+        <v>5772.81341198118</v>
       </c>
       <c r="X10" s="5">
-        <v>5744.290271006851</v>
+        <v>5747.382745717391</v>
       </c>
       <c r="Y10" s="5">
-        <v>5529.899458097885</v>
+        <v>5529.817172526846</v>
       </c>
       <c r="Z10" s="5">
-        <v>5912.890174263308</v>
+        <v>5913.027232862107</v>
       </c>
       <c r="AA10" s="5">
-        <v>-117.6109408846432</v>
+        <v>-120.7330836391948</v>
       </c>
       <c r="AB10" s="5">
-        <v>-264.6460273864532</v>
+        <v>-269.59599372509</v>
       </c>
       <c r="AC10" s="5">
-        <v>-283.9538810948152</v>
+        <v>-295.0266599888791</v>
       </c>
       <c r="AD10" s="5">
-        <v>-498.3446940037811</v>
+        <v>-512.5922331794245</v>
       </c>
       <c r="AE10" s="5">
-        <v>-115.3539778383583</v>
+        <v>-129.3821728441635</v>
       </c>
       <c r="AF10" s="4">
-        <v>-0.01950998299291506</v>
+        <v>-0.01998095056670246</v>
       </c>
       <c r="AG10" s="4">
-        <v>-0.04390101341436015</v>
+        <v>-0.04461730009067111</v>
       </c>
       <c r="AH10" s="4">
-        <v>-0.04710391184070051</v>
+        <v>-0.0488259964163078</v>
       </c>
       <c r="AI10" s="4">
-        <v>-0.08266829966235523</v>
+        <v>-0.08483242341959618</v>
       </c>
       <c r="AJ10" s="4">
-        <v>-0.01913558491126177</v>
+        <v>-0.02141234798191249</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -1439,85 +1439,85 @@
         <v>167262</v>
       </c>
       <c r="J11" s="3">
-        <v>982208892.0372897</v>
+        <v>984516900.4220456</v>
       </c>
       <c r="K11" s="3">
-        <v>957701511.5227623</v>
+        <v>959490829.7861485</v>
       </c>
       <c r="L11" s="3">
-        <v>948347148.8161386</v>
+        <v>949863439.7189908</v>
       </c>
       <c r="M11" s="3">
-        <v>951406559.4686563</v>
+        <v>951918755.1596458</v>
       </c>
       <c r="N11" s="3">
-        <v>937105762.3591286</v>
+        <v>937091818.112336</v>
       </c>
       <c r="O11" s="3">
-        <v>992252154.1951836</v>
+        <v>992275154.2316979</v>
       </c>
       <c r="P11" s="4">
-        <v>0.7154989384288747</v>
+        <v>0.721868365180467</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.7813163481953291</v>
+        <v>0.7834394904458599</v>
       </c>
       <c r="R11" s="4">
-        <v>0.7537154989384289</v>
+        <v>0.7558386411889597</v>
       </c>
       <c r="S11" s="4">
-        <v>0.8089171974522293</v>
+        <v>0.8152866242038217</v>
       </c>
       <c r="T11" s="4">
-        <v>0.6581740976645435</v>
+        <v>0.6624203821656051</v>
       </c>
       <c r="U11" s="5">
-        <v>6204.750438487106</v>
+        <v>6219.330449066772</v>
       </c>
       <c r="V11" s="5">
-        <v>5967.229274224578</v>
+        <v>5978.378126130644</v>
       </c>
       <c r="W11" s="5">
-        <v>5850.022508273016</v>
+        <v>5859.375977539885</v>
       </c>
       <c r="X11" s="5">
-        <v>5806.8893590045</v>
+        <v>5810.015534326853</v>
       </c>
       <c r="Y11" s="5">
-        <v>5644.331383994848</v>
+        <v>5644.247395662945</v>
       </c>
       <c r="Z11" s="5">
-        <v>5932.322668598867</v>
+        <v>5932.460177635673</v>
       </c>
       <c r="AA11" s="5">
-        <v>-237.5211642625281</v>
+        <v>-240.9523229361284</v>
       </c>
       <c r="AB11" s="5">
-        <v>-354.7279302140905</v>
+        <v>-359.9544715268876</v>
       </c>
       <c r="AC11" s="5">
-        <v>-397.8610794826063</v>
+        <v>-409.3149147399199</v>
       </c>
       <c r="AD11" s="5">
-        <v>-560.4190544922585</v>
+        <v>-575.0830534038278</v>
       </c>
       <c r="AE11" s="5">
-        <v>-272.4277698882397</v>
+        <v>-286.8702714310994</v>
       </c>
       <c r="AF11" s="4">
-        <v>-0.03828053466731252</v>
+        <v>-0.03874248601347174</v>
       </c>
       <c r="AG11" s="4">
-        <v>-0.05717037836264427</v>
+        <v>-0.05787672394556553</v>
       </c>
       <c r="AH11" s="4">
-        <v>-0.0641220115824056</v>
+        <v>-0.06581334085590174</v>
       </c>
       <c r="AI11" s="4">
-        <v>-0.09032096617715124</v>
+        <v>-0.09246703614054153</v>
       </c>
       <c r="AJ11" s="4">
-        <v>-0.04390632187209531</v>
+        <v>-0.04612558759828322</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -1547,85 +1547,85 @@
         <v>141796.5</v>
       </c>
       <c r="J12" s="3">
-        <v>866680114.8894676</v>
+        <v>868716652.1151863</v>
       </c>
       <c r="K12" s="3">
-        <v>842290425.2536641</v>
+        <v>843864115.6184059</v>
       </c>
       <c r="L12" s="3">
-        <v>839373476.7995633</v>
+        <v>840715532.151926</v>
       </c>
       <c r="M12" s="3">
-        <v>839093959.0590724</v>
+        <v>839545690.5569158</v>
       </c>
       <c r="N12" s="3">
-        <v>832515969.8286418</v>
+        <v>832503581.8905797</v>
       </c>
       <c r="O12" s="3">
-        <v>873757649.857728</v>
+        <v>873777903.2356294</v>
       </c>
       <c r="P12" s="4">
-        <v>0.7355371900826446</v>
+        <v>0.7410468319559229</v>
       </c>
       <c r="Q12" s="4">
-        <v>0.7575757575757576</v>
+        <v>0.7603305785123967</v>
       </c>
       <c r="R12" s="4">
-        <v>0.7961432506887053</v>
+        <v>0.7988980716253443</v>
       </c>
       <c r="S12" s="4">
         <v>0.8181818181818182</v>
       </c>
       <c r="T12" s="4">
-        <v>0.6584022038567493</v>
+        <v>0.6721763085399449</v>
       </c>
       <c r="U12" s="5">
-        <v>6618.379577698959</v>
+        <v>6633.931539896269</v>
       </c>
       <c r="V12" s="5">
-        <v>6296.10983187756</v>
+        <v>6307.873146621164</v>
       </c>
       <c r="W12" s="5">
-        <v>6157.262937516281</v>
+        <v>6167.107646587511</v>
       </c>
       <c r="X12" s="5">
-        <v>6032.67603742193</v>
+        <v>6035.923766419341</v>
       </c>
       <c r="Y12" s="5">
-        <v>5902.903320655452</v>
+        <v>5902.815484741941</v>
       </c>
       <c r="Z12" s="5">
-        <v>6162.053716824661</v>
+        <v>6162.196550941874</v>
       </c>
       <c r="AA12" s="5">
-        <v>-322.2697458213988</v>
+        <v>-326.0583932751051</v>
       </c>
       <c r="AB12" s="5">
-        <v>-461.1166401826777</v>
+        <v>-466.8238933087578</v>
       </c>
       <c r="AC12" s="5">
-        <v>-585.7035402770289</v>
+        <v>-598.0077734769284</v>
       </c>
       <c r="AD12" s="5">
-        <v>-715.4762570435068</v>
+        <v>-731.116055154328</v>
       </c>
       <c r="AE12" s="5">
-        <v>-456.3258608742981</v>
+        <v>-471.7349889543948</v>
       </c>
       <c r="AF12" s="4">
-        <v>-0.04869314943907221</v>
+        <v>-0.04915009920048152</v>
       </c>
       <c r="AG12" s="4">
-        <v>-0.06967213571981257</v>
+        <v>-0.07036911528273881</v>
       </c>
       <c r="AH12" s="4">
-        <v>-0.08849651691942739</v>
+        <v>-0.09014379631151259</v>
       </c>
       <c r="AI12" s="4">
-        <v>-0.108104445906117</v>
+        <v>-0.1102085619601917</v>
       </c>
       <c r="AJ12" s="4">
-        <v>-0.06894827586074337</v>
+        <v>-0.07110941469886967</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -1655,85 +1655,85 @@
         <v>52788.5</v>
       </c>
       <c r="J13" s="3">
-        <v>366521160.3254606</v>
+        <v>367382416.9462056</v>
       </c>
       <c r="K13" s="3">
-        <v>354292672.7298843</v>
+        <v>354954614.2035812</v>
       </c>
       <c r="L13" s="3">
-        <v>350891476.8835065</v>
+        <v>351452509.3650731</v>
       </c>
       <c r="M13" s="3">
-        <v>350196881.2620658</v>
+        <v>350385411.9504403</v>
       </c>
       <c r="N13" s="3">
-        <v>340182439.7039341</v>
+        <v>340177377.748193</v>
       </c>
       <c r="O13" s="3">
-        <v>352023545.0099512</v>
+        <v>352031704.7850193</v>
       </c>
       <c r="P13" s="4">
-        <v>0.717948717948718</v>
+        <v>0.7243589743589743</v>
       </c>
       <c r="Q13" s="4">
         <v>0.6858974358974359</v>
       </c>
       <c r="R13" s="4">
-        <v>0.7564102564102564</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="S13" s="4">
-        <v>0.7756410256410257</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="T13" s="4">
-        <v>0.6538461538461539</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="U13" s="5">
-        <v>7006.311248168918</v>
+        <v>7022.774777707368</v>
       </c>
       <c r="V13" s="5">
-        <v>6654.133286940957</v>
+        <v>6666.565513552347</v>
       </c>
       <c r="W13" s="5">
-        <v>6540.198817992162</v>
+        <v>6550.655794620338</v>
       </c>
       <c r="X13" s="5">
-        <v>6502.165512631541</v>
+        <v>6505.665994233785</v>
       </c>
       <c r="Y13" s="5">
-        <v>6348.819374116943</v>
+        <v>6348.72490291876</v>
       </c>
       <c r="Z13" s="5">
-        <v>6668.565028556432</v>
+        <v>6668.719603417778</v>
       </c>
       <c r="AA13" s="5">
-        <v>-352.1779612279606</v>
+        <v>-356.2092641550216</v>
       </c>
       <c r="AB13" s="5">
-        <v>-466.1124301767559</v>
+        <v>-472.1189830870298</v>
       </c>
       <c r="AC13" s="5">
-        <v>-504.1457355373768</v>
+        <v>-517.1087834735836</v>
       </c>
       <c r="AD13" s="5">
-        <v>-657.4918740519743</v>
+        <v>-674.0498747886086</v>
       </c>
       <c r="AE13" s="5">
-        <v>-337.7462196124861</v>
+        <v>-354.0551742895905</v>
       </c>
       <c r="AF13" s="4">
-        <v>-0.05026581731149915</v>
+        <v>-0.05072201165923029</v>
       </c>
       <c r="AG13" s="4">
-        <v>-0.06652750836591415</v>
+        <v>-0.06722684380904442</v>
       </c>
       <c r="AH13" s="4">
-        <v>-0.07195594338877453</v>
+        <v>-0.07363311509220816</v>
       </c>
       <c r="AI13" s="4">
-        <v>-0.09384280126347633</v>
+        <v>-0.09598056268702615</v>
       </c>
       <c r="AJ13" s="4">
-        <v>-0.04820599708594953</v>
+        <v>-0.05041528249111449</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -1765,85 +1765,85 @@
         <v>151574</v>
       </c>
       <c r="J14" s="3">
-        <v>883937182.6852837</v>
+        <v>886014270.8136592</v>
       </c>
       <c r="K14" s="3">
-        <v>882207842.3690733</v>
+        <v>883856112.3002167</v>
       </c>
       <c r="L14" s="3">
-        <v>879940702.7128173</v>
+        <v>881347620.0892642</v>
       </c>
       <c r="M14" s="3">
-        <v>893558138.072162</v>
+        <v>894039190.7025173</v>
       </c>
       <c r="N14" s="3">
-        <v>877891978.4520904</v>
+        <v>877878915.3135456</v>
       </c>
       <c r="O14" s="3">
-        <v>924503900.3967282</v>
+        <v>924525330.0538735</v>
       </c>
       <c r="P14" s="4">
-        <v>0.7712177121771218</v>
+        <v>0.7749077490774908</v>
       </c>
       <c r="Q14" s="4">
         <v>0.8044280442804428</v>
       </c>
       <c r="R14" s="4">
-        <v>0.7675276752767528</v>
+        <v>0.7785977859778598</v>
       </c>
       <c r="S14" s="4">
-        <v>0.8523985239852399</v>
+        <v>0.8560885608856088</v>
       </c>
       <c r="T14" s="4">
-        <v>0.7121771217712177</v>
+        <v>0.7158671586715867</v>
       </c>
       <c r="U14" s="5">
-        <v>6284.836985661047</v>
+        <v>6299.605184745099</v>
       </c>
       <c r="V14" s="5">
-        <v>6126.060471005793</v>
+        <v>6137.506074621841</v>
       </c>
       <c r="W14" s="5">
-        <v>6000.441217031609</v>
+        <v>6010.035187385023</v>
       </c>
       <c r="X14" s="5">
-        <v>6006.750099638758</v>
+        <v>6009.983871244881</v>
       </c>
       <c r="Y14" s="5">
-        <v>5837.571713232839</v>
+        <v>5837.484849461524</v>
       </c>
       <c r="Z14" s="5">
-        <v>6099.356752455752</v>
+        <v>6099.498133280599</v>
       </c>
       <c r="AA14" s="5">
-        <v>-158.7765146552538</v>
+        <v>-162.0991101232585</v>
       </c>
       <c r="AB14" s="5">
-        <v>-284.395768629438</v>
+        <v>-289.5699973600758</v>
       </c>
       <c r="AC14" s="5">
-        <v>-278.086886022289</v>
+        <v>-289.6213135002181</v>
       </c>
       <c r="AD14" s="5">
-        <v>-447.2652724282079</v>
+        <v>-462.1203352835746</v>
       </c>
       <c r="AE14" s="5">
-        <v>-185.480233205295</v>
+        <v>-200.1070514644998</v>
       </c>
       <c r="AF14" s="4">
-        <v>-0.02526342608686671</v>
+        <v>-0.02573163005767276</v>
       </c>
       <c r="AG14" s="4">
-        <v>-0.04525109708943786</v>
+        <v>-0.04596637231509182</v>
       </c>
       <c r="AH14" s="4">
-        <v>-0.04424727111566273</v>
+        <v>-0.04597451824465992</v>
       </c>
       <c r="AI14" s="4">
-        <v>-0.07116577143506675</v>
+        <v>-0.0733570313902574</v>
       </c>
       <c r="AJ14" s="4">
-        <v>-0.02951233796969932</v>
+        <v>-0.03176501472648985</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -1873,22 +1873,22 @@
         <v>170375</v>
       </c>
       <c r="J15" s="3">
-        <v>1115645484.695813</v>
+        <v>1118267044.278471</v>
       </c>
       <c r="K15" s="3">
-        <v>1099846446.934735</v>
+        <v>1101901341.190139</v>
       </c>
       <c r="L15" s="3">
-        <v>1104558881.322862</v>
+        <v>1106324935.64749</v>
       </c>
       <c r="M15" s="3">
-        <v>1120827307.526865</v>
+        <v>1121430711.94062</v>
       </c>
       <c r="N15" s="3">
-        <v>1097114006.454898</v>
+        <v>1097097681.26613</v>
       </c>
       <c r="O15" s="3">
-        <v>1149432024.032328</v>
+        <v>1149458667.439864</v>
       </c>
       <c r="P15" s="4">
         <v>0.7641791044776119</v>
@@ -1897,61 +1897,61 @@
         <v>0.7970149253731343</v>
       </c>
       <c r="R15" s="4">
-        <v>0.7492537313432835</v>
+        <v>0.7611940298507462</v>
       </c>
       <c r="S15" s="4">
-        <v>0.8507462686567164</v>
+        <v>0.8567164179104477</v>
       </c>
       <c r="T15" s="4">
-        <v>0.6895522388059702</v>
+        <v>0.7074626865671642</v>
       </c>
       <c r="U15" s="5">
-        <v>7100.504605948325</v>
+        <v>7117.189472374782</v>
       </c>
       <c r="V15" s="5">
-        <v>6853.244978111634</v>
+        <v>6866.049214353567</v>
       </c>
       <c r="W15" s="5">
-        <v>6756.331659313466</v>
+        <v>6767.134205875094</v>
       </c>
       <c r="X15" s="5">
-        <v>6747.480186543689</v>
+        <v>6751.112734839881</v>
       </c>
       <c r="Y15" s="5">
-        <v>6495.257867828415</v>
+        <v>6495.161217607778</v>
       </c>
       <c r="Z15" s="5">
-        <v>6746.482899676173</v>
+        <v>6746.639280644836</v>
       </c>
       <c r="AA15" s="5">
-        <v>-247.2596278366909</v>
+        <v>-251.1402580212152</v>
       </c>
       <c r="AB15" s="5">
-        <v>-344.1729466348588</v>
+        <v>-350.0552664996876</v>
       </c>
       <c r="AC15" s="5">
-        <v>-353.0244194046354</v>
+        <v>-366.0767375349005</v>
       </c>
       <c r="AD15" s="5">
-        <v>-605.2467381199094</v>
+        <v>-622.028254767004</v>
       </c>
       <c r="AE15" s="5">
-        <v>-354.0217062721522</v>
+        <v>-370.5501917299462</v>
       </c>
       <c r="AF15" s="4">
-        <v>-0.03482282479326237</v>
+        <v>-0.03528643701225187</v>
       </c>
       <c r="AG15" s="4">
-        <v>-0.04847161796733912</v>
+        <v>-0.04918448045516</v>
       </c>
       <c r="AH15" s="4">
-        <v>-0.04971821567567114</v>
+        <v>-0.05143557565185242</v>
       </c>
       <c r="AI15" s="4">
-        <v>-0.08523996134202549</v>
+        <v>-0.08739801816171866</v>
       </c>
       <c r="AJ15" s="4">
-        <v>-0.04985866863258936</v>
+        <v>-0.05206411788926357</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -1981,85 +1981,85 @@
         <v>233235.5</v>
       </c>
       <c r="J16" s="3">
-        <v>1594031335.230638</v>
+        <v>1597777012.669626</v>
       </c>
       <c r="K16" s="3">
-        <v>1569130402.985905</v>
+        <v>1572062082.276285</v>
       </c>
       <c r="L16" s="3">
-        <v>1572198071.434989</v>
+        <v>1574711823.531121</v>
       </c>
       <c r="M16" s="3">
-        <v>1593773835.9426</v>
+        <v>1594631854.08748</v>
       </c>
       <c r="N16" s="3">
-        <v>1557230869.607991</v>
+        <v>1557207697.824794</v>
       </c>
       <c r="O16" s="3">
-        <v>1609080719.720515</v>
+        <v>1609118017.614154</v>
       </c>
       <c r="P16" s="4">
-        <v>0.7804878048780488</v>
+        <v>0.7829268292682927</v>
       </c>
       <c r="Q16" s="4">
-        <v>0.7804878048780488</v>
+        <v>0.7853658536585366</v>
       </c>
       <c r="R16" s="4">
-        <v>0.7463414634146341</v>
+        <v>0.7536585365853659</v>
       </c>
       <c r="S16" s="4">
-        <v>0.8121951219512196</v>
+        <v>0.824390243902439</v>
       </c>
       <c r="T16" s="4">
-        <v>0.6975609756097561</v>
+        <v>0.7097560975609756</v>
       </c>
       <c r="U16" s="5">
-        <v>7173.551694372373</v>
+        <v>7190.408207883216</v>
       </c>
       <c r="V16" s="5">
-        <v>6927.758634633728</v>
+        <v>6940.702088204738</v>
       </c>
       <c r="W16" s="5">
-        <v>6821.215435329135</v>
+        <v>6832.121723099276</v>
       </c>
       <c r="X16" s="5">
-        <v>6837.545924851826</v>
+        <v>6841.226960603366</v>
       </c>
       <c r="Y16" s="5">
-        <v>6650.08677400313</v>
+        <v>6649.987819909698</v>
       </c>
       <c r="Z16" s="5">
-        <v>6898.952859751261</v>
+        <v>6899.112774917</v>
       </c>
       <c r="AA16" s="5">
-        <v>-245.7930597386448</v>
+        <v>-249.706119678478</v>
       </c>
       <c r="AB16" s="5">
-        <v>-352.336259043238</v>
+        <v>-358.2864847839401</v>
       </c>
       <c r="AC16" s="5">
-        <v>-336.0057695205469</v>
+        <v>-349.1812472798501</v>
       </c>
       <c r="AD16" s="5">
-        <v>-523.4649203692434</v>
+        <v>-540.4203879735178</v>
       </c>
       <c r="AE16" s="5">
-        <v>-274.5988346211125</v>
+        <v>-291.2954329662161</v>
       </c>
       <c r="AF16" s="4">
-        <v>-0.03426378873542779</v>
+        <v>-0.03472766948122807</v>
       </c>
       <c r="AG16" s="4">
-        <v>-0.04911601310681912</v>
+        <v>-0.04982839282909313</v>
       </c>
       <c r="AH16" s="4">
-        <v>-0.04683952717370699</v>
+        <v>-0.04856208954827135</v>
       </c>
       <c r="AI16" s="4">
-        <v>-0.07297151295081628</v>
+        <v>-0.07515851288957798</v>
       </c>
       <c r="AJ16" s="4">
-        <v>-0.03827934143647904</v>
+        <v>-0.04051166839830511</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2089,85 +2089,85 @@
         <v>311391.5</v>
       </c>
       <c r="J17" s="3">
-        <v>2457872745.253994</v>
+        <v>2463648289.489746</v>
       </c>
       <c r="K17" s="3">
-        <v>2403566563.401718</v>
+        <v>2408057258.568649</v>
       </c>
       <c r="L17" s="3">
-        <v>2378394203.56498</v>
+        <v>2382196964.504122</v>
       </c>
       <c r="M17" s="3">
-        <v>2389286957.553091</v>
+        <v>2390573245.178523</v>
       </c>
       <c r="N17" s="3">
-        <v>2318401304.78261</v>
+        <v>2318366806.691514</v>
       </c>
       <c r="O17" s="3">
-        <v>2394571895.199767</v>
+        <v>2394627400.487204</v>
       </c>
       <c r="P17" s="4">
-        <v>0.7517006802721088</v>
+        <v>0.7568027210884354</v>
       </c>
       <c r="Q17" s="4">
-        <v>0.7465986394557823</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="R17" s="4">
-        <v>0.7448979591836735</v>
+        <v>0.7602040816326531</v>
       </c>
       <c r="S17" s="4">
-        <v>0.8112244897959183</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="T17" s="4">
-        <v>0.6700680272108843</v>
+        <v>0.6768707482993197</v>
       </c>
       <c r="U17" s="5">
-        <v>8024.527808988049</v>
+        <v>8043.38395824204</v>
       </c>
       <c r="V17" s="5">
-        <v>7742.438771364297</v>
+        <v>7756.904329714225</v>
       </c>
       <c r="W17" s="5">
-        <v>7624.451273357568</v>
+        <v>7636.641836823143</v>
       </c>
       <c r="X17" s="5">
-        <v>7609.933313755287</v>
+        <v>7614.030169104079</v>
       </c>
       <c r="Y17" s="5">
-        <v>7382.78530826108</v>
+        <v>7382.675451525068</v>
       </c>
       <c r="Z17" s="5">
-        <v>7689.907705251322</v>
+        <v>7690.085954456702</v>
       </c>
       <c r="AA17" s="5">
-        <v>-282.0890376237521</v>
+        <v>-286.4796285278144</v>
       </c>
       <c r="AB17" s="5">
-        <v>-400.076535630481</v>
+        <v>-406.7421214188962</v>
       </c>
       <c r="AC17" s="5">
-        <v>-414.5944952327627</v>
+        <v>-429.353789137961</v>
       </c>
       <c r="AD17" s="5">
-        <v>-641.7425007269694</v>
+        <v>-660.7085067169719</v>
       </c>
       <c r="AE17" s="5">
-        <v>-334.6201037367273</v>
+        <v>-353.2980037853376</v>
       </c>
       <c r="AF17" s="4">
-        <v>-0.03515335037007317</v>
+        <v>-0.03561680382474586</v>
       </c>
       <c r="AG17" s="4">
-        <v>-0.04985670747908266</v>
+        <v>-0.05056853229070435</v>
       </c>
       <c r="AH17" s="4">
-        <v>-0.05166590547152028</v>
+        <v>-0.05337974556069813</v>
       </c>
       <c r="AI17" s="4">
-        <v>-0.07997261845216252</v>
+        <v>-0.0821431017277181</v>
       </c>
       <c r="AJ17" s="4">
-        <v>-0.04169966279659831</v>
+        <v>-0.043924050576165</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2197,85 +2197,85 @@
         <v>237637.5</v>
       </c>
       <c r="J18" s="3">
-        <v>2205712275.360182</v>
+        <v>2210895289.347492</v>
       </c>
       <c r="K18" s="3">
-        <v>2139672893.313154</v>
+        <v>2143670543.666224</v>
       </c>
       <c r="L18" s="3">
-        <v>2097904606.530392</v>
+        <v>2101258898.96846</v>
       </c>
       <c r="M18" s="3">
-        <v>2086473124.695107</v>
+        <v>2087596390.59358</v>
       </c>
       <c r="N18" s="3">
-        <v>2003623862.861666</v>
+        <v>2003594048.696878</v>
       </c>
       <c r="O18" s="3">
-        <v>2036559676.719691</v>
+        <v>2036606883.416829</v>
       </c>
       <c r="P18" s="4">
-        <v>0.7518939393939394</v>
+        <v>0.7537878787878788</v>
       </c>
       <c r="Q18" s="4">
-        <v>0.7348484848484849</v>
+        <v>0.7367424242424242</v>
       </c>
       <c r="R18" s="4">
-        <v>0.696969696969697</v>
+        <v>0.7064393939393939</v>
       </c>
       <c r="S18" s="4">
-        <v>0.7746212121212122</v>
+        <v>0.7765151515151515</v>
       </c>
       <c r="T18" s="4">
-        <v>0.6553030303030303</v>
+        <v>0.6571969696969697</v>
       </c>
       <c r="U18" s="5">
-        <v>9027.317850760453</v>
+        <v>9048.530370276738</v>
       </c>
       <c r="V18" s="5">
-        <v>8727.463257730609</v>
+        <v>8743.769183128228</v>
       </c>
       <c r="W18" s="5">
-        <v>8555.263506473391</v>
+        <v>8568.942324659934</v>
       </c>
       <c r="X18" s="5">
-        <v>8540.740963112883</v>
+        <v>8545.338924600146</v>
       </c>
       <c r="Y18" s="5">
-        <v>8279.745374256339</v>
+        <v>8279.62217064634</v>
       </c>
       <c r="Z18" s="5">
-        <v>8570.026518203949</v>
+        <v>8570.225168236617</v>
       </c>
       <c r="AA18" s="5">
-        <v>-299.8545930298442</v>
+        <v>-304.7611871485096</v>
       </c>
       <c r="AB18" s="5">
-        <v>-472.0543442870621</v>
+        <v>-479.5880456168034</v>
       </c>
       <c r="AC18" s="5">
-        <v>-486.5768876475704</v>
+        <v>-503.1914456765917</v>
       </c>
       <c r="AD18" s="5">
-        <v>-747.5724765041141</v>
+        <v>-768.9081996303976</v>
       </c>
       <c r="AE18" s="5">
-        <v>-457.2913325565041</v>
+        <v>-478.305202040121</v>
       </c>
       <c r="AF18" s="4">
-        <v>-0.03321635484504237</v>
+        <v>-0.03368073871416855</v>
       </c>
       <c r="AG18" s="4">
-        <v>-0.05229176064153951</v>
+        <v>-0.05300176116910527</v>
       </c>
       <c r="AH18" s="4">
-        <v>-0.05390049355651982</v>
+        <v>-0.05561029527286676</v>
       </c>
       <c r="AI18" s="4">
-        <v>-0.08281224709963431</v>
+        <v>-0.08497603126317199</v>
       </c>
       <c r="AJ18" s="4">
-        <v>-0.05065638987309862</v>
+        <v>-0.05285998747501497</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2307,85 +2307,85 @@
         <v>28589.5</v>
       </c>
       <c r="J19" s="3">
-        <v>144087078.7366754</v>
+        <v>144425656.5978161</v>
       </c>
       <c r="K19" s="3">
-        <v>141865269.7020775</v>
+        <v>142130323.1816469</v>
       </c>
       <c r="L19" s="3">
-        <v>141846180.6098524</v>
+        <v>142072975.2741603</v>
       </c>
       <c r="M19" s="3">
-        <v>138639842.448126</v>
+        <v>138714480.0772182</v>
       </c>
       <c r="N19" s="3">
-        <v>144511830.3544183</v>
+        <v>144509680.0009493</v>
       </c>
       <c r="O19" s="3">
-        <v>153599467.0168653</v>
+        <v>153603027.3954796</v>
       </c>
       <c r="P19" s="4">
         <v>0.7222222222222222</v>
       </c>
       <c r="Q19" s="4">
-        <v>0.7222222222222222</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R19" s="4">
-        <v>0.7666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="S19" s="4">
-        <v>0.7888888888888889</v>
+        <v>0.8111111111111111</v>
       </c>
       <c r="T19" s="4">
-        <v>0.5777777777777777</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="U19" s="5">
-        <v>5470.38017945198</v>
+        <v>5483.234556381713</v>
       </c>
       <c r="V19" s="5">
-        <v>5318.285649562417</v>
+        <v>5328.222049921158</v>
       </c>
       <c r="W19" s="5">
-        <v>5251.908866092244</v>
+        <v>5260.306024924016</v>
       </c>
       <c r="X19" s="5">
-        <v>5075.500812656772</v>
+        <v>5078.233240366028</v>
       </c>
       <c r="Y19" s="5">
-        <v>5099.307692599315</v>
+        <v>5099.231814285688</v>
       </c>
       <c r="Z19" s="5">
-        <v>5372.583186724681</v>
+        <v>5372.707721208124</v>
       </c>
       <c r="AA19" s="5">
-        <v>-152.0945298895631</v>
+        <v>-155.0125064605545</v>
       </c>
       <c r="AB19" s="5">
-        <v>-218.4713133597361</v>
+        <v>-222.9285314576964</v>
       </c>
       <c r="AC19" s="5">
-        <v>-394.8793667952086</v>
+        <v>-405.001316015685</v>
       </c>
       <c r="AD19" s="5">
-        <v>-371.0724868526659</v>
+        <v>-384.0027420960241</v>
       </c>
       <c r="AE19" s="5">
-        <v>-97.79699272729977</v>
+        <v>-110.5268351735886</v>
       </c>
       <c r="AF19" s="4">
-        <v>-0.02780328330028425</v>
+        <v>-0.02827026727867077</v>
       </c>
       <c r="AG19" s="4">
-        <v>-0.03993713529826781</v>
+        <v>-0.0406563916180166</v>
       </c>
       <c r="AH19" s="4">
-        <v>-0.07218499516331012</v>
+        <v>-0.07386175292178965</v>
       </c>
       <c r="AI19" s="4">
-        <v>-0.06783303439247246</v>
+        <v>-0.07003215677671482</v>
       </c>
       <c r="AJ19" s="4">
-        <v>-0.0178775495521587</v>
+        <v>-0.02015723274959136</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2415,85 +2415,85 @@
         <v>38569.5</v>
       </c>
       <c r="J20" s="3">
-        <v>208192066.7136249</v>
+        <v>208681279.3846872</v>
       </c>
       <c r="K20" s="3">
-        <v>201773719.9444468</v>
+        <v>202150703.1671148</v>
       </c>
       <c r="L20" s="3">
-        <v>206366886.0954241</v>
+        <v>206696841.4629572</v>
       </c>
       <c r="M20" s="3">
-        <v>211288731.4361258</v>
+        <v>211402480.0504477</v>
       </c>
       <c r="N20" s="3">
-        <v>209438051.0355873</v>
+        <v>209434934.5721223</v>
       </c>
       <c r="O20" s="3">
-        <v>215097313.9003921</v>
+        <v>215102299.7762634</v>
       </c>
       <c r="P20" s="4">
         <v>0.8345864661654135</v>
       </c>
       <c r="Q20" s="4">
-        <v>0.7669172932330827</v>
+        <v>0.7744360902255639</v>
       </c>
       <c r="R20" s="4">
         <v>0.7368421052631579</v>
       </c>
       <c r="S20" s="4">
-        <v>0.7218045112781954</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="T20" s="4">
-        <v>0.6390977443609023</v>
+        <v>0.6466165413533834</v>
       </c>
       <c r="U20" s="5">
-        <v>5694.609245575702</v>
+        <v>5707.990519145152</v>
       </c>
       <c r="V20" s="5">
-        <v>5438.937946639895</v>
+        <v>5449.099767295133</v>
       </c>
       <c r="W20" s="5">
-        <v>5402.345216440636</v>
+        <v>5410.982904565694</v>
       </c>
       <c r="X20" s="5">
-        <v>5467.285914095269</v>
+        <v>5470.229261772181</v>
       </c>
       <c r="Y20" s="5">
-        <v>5418.62672950823</v>
+        <v>5418.546099688818</v>
       </c>
       <c r="Z20" s="5">
-        <v>5576.875870840744</v>
+        <v>5577.005140752755</v>
       </c>
       <c r="AA20" s="5">
-        <v>-255.6712989358066</v>
+        <v>-258.8907518500191</v>
       </c>
       <c r="AB20" s="5">
-        <v>-292.2640291350654</v>
+        <v>-297.0076145794574</v>
       </c>
       <c r="AC20" s="5">
-        <v>-227.3233314804329</v>
+        <v>-237.7612573729712</v>
       </c>
       <c r="AD20" s="5">
-        <v>-275.9825160674718</v>
+        <v>-289.4444194563339</v>
       </c>
       <c r="AE20" s="5">
-        <v>-117.7333747349576</v>
+        <v>-130.9853783923963</v>
       </c>
       <c r="AF20" s="4">
-        <v>-0.04489707509509011</v>
+        <v>-0.04535584825897565</v>
       </c>
       <c r="AG20" s="4">
-        <v>-0.05132292955168671</v>
+        <v>-0.05203365590451936</v>
       </c>
       <c r="AH20" s="4">
-        <v>-0.03991903951215736</v>
+        <v>-0.0416541086702048</v>
       </c>
       <c r="AI20" s="4">
-        <v>-0.0484638197575874</v>
+        <v>-0.0507086370388159</v>
       </c>
       <c r="AJ20" s="4">
-        <v>-0.0206745308866324</v>
+        <v>-0.02294772178633775</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2523,85 +2523,85 @@
         <v>48265.5</v>
       </c>
       <c r="J21" s="3">
-        <v>291345036.5047701</v>
+        <v>292029643.2035705</v>
       </c>
       <c r="K21" s="3">
-        <v>286541659.3314232</v>
+        <v>287077018.4366284</v>
       </c>
       <c r="L21" s="3">
-        <v>285268800.2198179</v>
+        <v>285724910.081255</v>
       </c>
       <c r="M21" s="3">
-        <v>287428701.3726559</v>
+        <v>287583440.4175414</v>
       </c>
       <c r="N21" s="3">
-        <v>277791828.2716556</v>
+        <v>277787694.6957392</v>
       </c>
       <c r="O21" s="3">
-        <v>293226369.7313293</v>
+        <v>293233166.6097057</v>
       </c>
       <c r="P21" s="4">
         <v>0.7692307692307693</v>
       </c>
       <c r="Q21" s="4">
-        <v>0.7350427350427351</v>
+        <v>0.7521367521367521</v>
       </c>
       <c r="R21" s="4">
         <v>0.7350427350427351</v>
       </c>
       <c r="S21" s="4">
-        <v>0.7606837606837606</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="T21" s="4">
-        <v>0.717948717948718</v>
+        <v>0.7350427350427351</v>
       </c>
       <c r="U21" s="5">
-        <v>6410.090790186577</v>
+        <v>6425.153312436922</v>
       </c>
       <c r="V21" s="5">
-        <v>6215.114942985927</v>
+        <v>6226.726931212658</v>
       </c>
       <c r="W21" s="5">
-        <v>6110.960449424673</v>
+        <v>6120.731126490259</v>
       </c>
       <c r="X21" s="5">
-        <v>6078.515868812246</v>
+        <v>6081.788275970508</v>
       </c>
       <c r="Y21" s="5">
-        <v>5808.628058540807</v>
+        <v>5808.541625454565</v>
       </c>
       <c r="Z21" s="5">
-        <v>6075.278816780708</v>
+        <v>6075.419639487951</v>
       </c>
       <c r="AA21" s="5">
-        <v>-194.9758472006497</v>
+        <v>-198.4263812242634</v>
       </c>
       <c r="AB21" s="5">
-        <v>-299.1303407619034</v>
+        <v>-304.4221859466625</v>
       </c>
       <c r="AC21" s="5">
-        <v>-331.5749213743302</v>
+        <v>-343.3650364664136</v>
       </c>
       <c r="AD21" s="5">
-        <v>-601.46273164577</v>
+        <v>-616.6116869823563</v>
       </c>
       <c r="AE21" s="5">
-        <v>-334.8119734058682</v>
+        <v>-349.7336729489707</v>
       </c>
       <c r="AF21" s="4">
-        <v>-0.03041701803961105</v>
+        <v>-0.03088274653932022</v>
       </c>
       <c r="AG21" s="4">
-        <v>-0.04666553884382607</v>
+        <v>-0.04737975440327691</v>
       </c>
       <c r="AH21" s="4">
-        <v>-0.05172702419159947</v>
+        <v>-0.05344075382633673</v>
       </c>
       <c r="AI21" s="4">
-        <v>-0.09383061041297103</v>
+        <v>-0.09596840059657485</v>
       </c>
       <c r="AJ21" s="4">
-        <v>-0.05223201735589189</v>
+        <v>-0.05443195764247444</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -2631,22 +2631,22 @@
         <v>59069</v>
       </c>
       <c r="J22" s="3">
-        <v>400473733.6124244</v>
+        <v>401414772.4714141</v>
       </c>
       <c r="K22" s="3">
-        <v>384679494.2527498</v>
+        <v>385398208.8379676</v>
       </c>
       <c r="L22" s="3">
-        <v>380926196.3533244</v>
+        <v>381535250.6715769</v>
       </c>
       <c r="M22" s="3">
-        <v>387678376.9815274</v>
+        <v>387887086.0683041</v>
       </c>
       <c r="N22" s="3">
-        <v>379539849.588554</v>
+        <v>379534201.9898058</v>
       </c>
       <c r="O22" s="3">
-        <v>401215927.0380216</v>
+        <v>401225227.0742402</v>
       </c>
       <c r="P22" s="4">
         <v>0.7212121212121212</v>
@@ -2655,61 +2655,61 @@
         <v>0.7636363636363637</v>
       </c>
       <c r="R22" s="4">
-        <v>0.7272727272727273</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="S22" s="4">
-        <v>0.7696969696969697</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="T22" s="4">
-        <v>0.6</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="U22" s="5">
-        <v>7015.454871504951</v>
+        <v>7031.939886859202</v>
       </c>
       <c r="V22" s="5">
-        <v>6715.069899325312</v>
+        <v>6727.615976642943</v>
       </c>
       <c r="W22" s="5">
-        <v>6612.154076606915</v>
+        <v>6622.726100877918</v>
       </c>
       <c r="X22" s="5">
-        <v>6654.737314294278</v>
+        <v>6658.319933883276</v>
       </c>
       <c r="Y22" s="5">
-        <v>6436.970101141472</v>
+        <v>6436.874318249834</v>
       </c>
       <c r="Z22" s="5">
-        <v>6792.326381655717</v>
+        <v>6792.483825259276</v>
       </c>
       <c r="AA22" s="5">
-        <v>-300.3849721796396</v>
+        <v>-304.3239102162588</v>
       </c>
       <c r="AB22" s="5">
-        <v>-403.3007948980367</v>
+        <v>-409.2137859812838</v>
       </c>
       <c r="AC22" s="5">
-        <v>-360.7175572106735</v>
+        <v>-373.619952975926</v>
       </c>
       <c r="AD22" s="5">
-        <v>-578.4847703634796</v>
+        <v>-595.0655686093678</v>
       </c>
       <c r="AE22" s="5">
-        <v>-223.128489849234</v>
+        <v>-239.4560615999253</v>
       </c>
       <c r="AF22" s="4">
-        <v>-0.0428176045148162</v>
+        <v>-0.04327737652947772</v>
       </c>
       <c r="AG22" s="4">
-        <v>-0.05748747619147909</v>
+        <v>-0.05819358421223053</v>
       </c>
       <c r="AH22" s="4">
-        <v>-0.05141755792283964</v>
+        <v>-0.05313184682851468</v>
       </c>
       <c r="AI22" s="4">
-        <v>-0.0824586261274578</v>
+        <v>-0.08462324453617487</v>
       </c>
       <c r="AJ22" s="4">
-        <v>-0.0318052776243386</v>
+        <v>-0.03405263205497588</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -2739,85 +2739,85 @@
         <v>110671.5</v>
       </c>
       <c r="J23" s="3">
-        <v>780733773.0969934</v>
+        <v>782568352.3898282</v>
       </c>
       <c r="K23" s="3">
-        <v>749415944.0523233</v>
+        <v>750816112.7055328</v>
       </c>
       <c r="L23" s="3">
-        <v>756212664.0142719</v>
+        <v>757421755.4155575</v>
       </c>
       <c r="M23" s="3">
-        <v>757860782.7445087</v>
+        <v>758268781.8521758</v>
       </c>
       <c r="N23" s="3">
-        <v>752727562.2582616</v>
+        <v>752716361.581329</v>
       </c>
       <c r="O23" s="3">
-        <v>783798075.767431</v>
+        <v>783816243.9158058</v>
       </c>
       <c r="P23" s="4">
         <v>0.7471264367816092</v>
       </c>
       <c r="Q23" s="4">
-        <v>0.7183908045977011</v>
+        <v>0.7270114942528736</v>
       </c>
       <c r="R23" s="4">
-        <v>0.7011494252873564</v>
+        <v>0.7040229885057471</v>
       </c>
       <c r="S23" s="4">
-        <v>0.7586206896551724</v>
+        <v>0.7614942528735632</v>
       </c>
       <c r="T23" s="4">
-        <v>0.6120689655172413</v>
+        <v>0.6235632183908046</v>
       </c>
       <c r="U23" s="5">
-        <v>7300.944238581894</v>
+        <v>7318.100100899867</v>
       </c>
       <c r="V23" s="5">
-        <v>6944.98476984754</v>
+        <v>6957.960407807916</v>
       </c>
       <c r="W23" s="5">
-        <v>6937.38081119092</v>
+        <v>6948.472833164909</v>
       </c>
       <c r="X23" s="5">
-        <v>6875.236733431389</v>
+        <v>6878.938060266222</v>
       </c>
       <c r="Y23" s="5">
-        <v>6799.123492186864</v>
+        <v>6799.02232040908</v>
       </c>
       <c r="Z23" s="5">
-        <v>7082.203419737069</v>
+        <v>7082.367582582741</v>
       </c>
       <c r="AA23" s="5">
-        <v>-355.9594687343542</v>
+        <v>-360.1396930919509</v>
       </c>
       <c r="AB23" s="5">
-        <v>-363.5634273909736</v>
+        <v>-369.627267734958</v>
       </c>
       <c r="AC23" s="5">
-        <v>-425.7075051505044</v>
+        <v>-439.1620406336451</v>
       </c>
       <c r="AD23" s="5">
-        <v>-501.8207463950303</v>
+        <v>-519.0777804907875</v>
       </c>
       <c r="AE23" s="5">
-        <v>-218.7408188448253</v>
+        <v>-235.7325183171261</v>
       </c>
       <c r="AF23" s="4">
-        <v>-0.04875526467566804</v>
+        <v>-0.04921218460070897</v>
       </c>
       <c r="AG23" s="4">
-        <v>-0.0497967681316781</v>
+        <v>-0.05050863784843651</v>
       </c>
       <c r="AH23" s="4">
-        <v>-0.05830855451557215</v>
+        <v>-0.06001038993435515</v>
       </c>
       <c r="AI23" s="4">
-        <v>-0.06873367745272652</v>
+        <v>-0.07093067508422835</v>
       </c>
       <c r="AJ23" s="4">
-        <v>-0.02996062039330305</v>
+        <v>-0.03221225660580118</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -2849,85 +2849,85 @@
         <v>192476.5</v>
       </c>
       <c r="J24" s="3">
-        <v>1025540154.508391</v>
+        <v>1027949983.30825</v>
       </c>
       <c r="K24" s="3">
-        <v>1009661698.397079</v>
+        <v>1011548096.293549</v>
       </c>
       <c r="L24" s="3">
-        <v>1007581826.663393</v>
+        <v>1009192826.558903</v>
       </c>
       <c r="M24" s="3">
-        <v>1017977412.444606</v>
+        <v>1018525446.972002</v>
       </c>
       <c r="N24" s="3">
-        <v>1013377716.527225</v>
+        <v>1013362637.344552</v>
       </c>
       <c r="O24" s="3">
-        <v>1065553208.805685</v>
+        <v>1065577907.933429</v>
       </c>
       <c r="P24" s="4">
-        <v>0.7653239929947461</v>
+        <v>0.7688266199649737</v>
       </c>
       <c r="Q24" s="4">
         <v>0.7775831873905429</v>
       </c>
       <c r="R24" s="4">
-        <v>0.7495621716287215</v>
+        <v>0.7653239929947461</v>
       </c>
       <c r="S24" s="4">
-        <v>0.7863397548161121</v>
+        <v>0.7915936952714536</v>
       </c>
       <c r="T24" s="4">
-        <v>0.6164623467600701</v>
+        <v>0.6269702276707531</v>
       </c>
       <c r="U24" s="5">
-        <v>5628.511669626112</v>
+        <v>5641.737626174162</v>
       </c>
       <c r="V24" s="5">
-        <v>5463.8921271786</v>
+        <v>5474.100570889609</v>
       </c>
       <c r="W24" s="5">
-        <v>5373.368530687802</v>
+        <v>5381.959888642464</v>
       </c>
       <c r="X24" s="5">
-        <v>5370.353788845488</v>
+        <v>5373.24495250456</v>
       </c>
       <c r="Y24" s="5">
-        <v>5309.812504727402</v>
+        <v>5309.733494076774</v>
       </c>
       <c r="Z24" s="5">
-        <v>5536.017169917808</v>
+        <v>5536.145492740304</v>
       </c>
       <c r="AA24" s="5">
-        <v>-164.6195424475118</v>
+        <v>-167.6370552845528</v>
       </c>
       <c r="AB24" s="5">
-        <v>-255.1431389383097</v>
+        <v>-259.7777375316982</v>
       </c>
       <c r="AC24" s="5">
-        <v>-258.1578807806245</v>
+        <v>-268.4926736696016</v>
       </c>
       <c r="AD24" s="5">
-        <v>-318.6991648987105</v>
+        <v>-332.0041320973878</v>
       </c>
       <c r="AE24" s="5">
-        <v>-92.49449970830392</v>
+        <v>-105.5921334338582</v>
       </c>
       <c r="AF24" s="4">
-        <v>-0.02924743735290991</v>
+        <v>-0.0297137276478121</v>
       </c>
       <c r="AG24" s="4">
-        <v>-0.04533048058071421</v>
+        <v>-0.04604569633413835</v>
       </c>
       <c r="AH24" s="4">
-        <v>-0.04586610030032567</v>
+        <v>-0.04759042186293139</v>
       </c>
       <c r="AI24" s="4">
-        <v>-0.05662228020571569</v>
+        <v>-0.05884785044896357</v>
       </c>
       <c r="AJ24" s="4">
-        <v>-0.01643320741563781</v>
+        <v>-0.01871624319145504</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -2936,106 +2936,106 @@
         <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D25" s="2">
-        <v>155751.5</v>
+        <v>155546.5</v>
       </c>
       <c r="E25" s="2">
-        <v>157566</v>
+        <v>157359</v>
       </c>
       <c r="F25" s="2">
-        <v>160291.5</v>
+        <v>160086.5</v>
       </c>
       <c r="G25" s="2">
-        <v>162068.5</v>
+        <v>161860.5</v>
       </c>
       <c r="H25" s="2">
-        <v>164292.5</v>
+        <v>164083.5</v>
       </c>
       <c r="I25" s="2">
-        <v>165358.5</v>
+        <v>165157.5</v>
       </c>
       <c r="J25" s="3">
-        <v>948545372.5148056</v>
+        <v>949543527.7352674</v>
       </c>
       <c r="K25" s="3">
-        <v>932215572.3177316</v>
+        <v>932788729.9013573</v>
       </c>
       <c r="L25" s="3">
-        <v>930280723.8003668</v>
+        <v>930619290.9777716</v>
       </c>
       <c r="M25" s="3">
-        <v>939339331.2855271</v>
+        <v>939221009.7311646</v>
       </c>
       <c r="N25" s="3">
-        <v>930293121.1761594</v>
+        <v>929235781.5059458</v>
       </c>
       <c r="O25" s="3">
-        <v>970332309.9027586</v>
+        <v>969224734.6595967</v>
       </c>
       <c r="P25" s="4">
-        <v>0.7352342158859471</v>
+        <v>0.736734693877551</v>
       </c>
       <c r="Q25" s="4">
-        <v>0.8065173116089613</v>
+        <v>0.8081632653061225</v>
       </c>
       <c r="R25" s="4">
-        <v>0.7963340122199593</v>
+        <v>0.8020408163265306</v>
       </c>
       <c r="S25" s="4">
-        <v>0.8533604887983707</v>
+        <v>0.8530612244897959</v>
       </c>
       <c r="T25" s="4">
-        <v>0.6945010183299389</v>
+        <v>0.7</v>
       </c>
       <c r="U25" s="5">
-        <v>6090.120303912357</v>
+        <v>6104.563765403062</v>
       </c>
       <c r="V25" s="5">
-        <v>5916.349798292345</v>
+        <v>5927.774896264957</v>
       </c>
       <c r="W25" s="5">
-        <v>5803.680942535111</v>
+        <v>5813.227792335842</v>
       </c>
       <c r="X25" s="5">
-        <v>5795.940181377177</v>
+        <v>5802.657286559504</v>
       </c>
       <c r="Y25" s="5">
-        <v>5662.419898511249</v>
+        <v>5663.188446772197</v>
       </c>
       <c r="Z25" s="5">
-        <v>5868.052201143326</v>
+        <v>5868.487562839088</v>
       </c>
       <c r="AA25" s="5">
-        <v>-173.770505620013</v>
+        <v>-176.7888691381058</v>
       </c>
       <c r="AB25" s="5">
-        <v>-286.4393613772463</v>
+        <v>-291.3359730672209</v>
       </c>
       <c r="AC25" s="5">
-        <v>-294.1801225351801</v>
+        <v>-301.9064788435589</v>
       </c>
       <c r="AD25" s="5">
-        <v>-427.7004054011086</v>
+        <v>-441.375318630865</v>
       </c>
       <c r="AE25" s="5">
-        <v>-222.0681027690316</v>
+        <v>-236.0762025639742</v>
       </c>
       <c r="AF25" s="4">
-        <v>-0.02853318111111547</v>
+        <v>-0.02896011507653296</v>
       </c>
       <c r="AG25" s="4">
-        <v>-0.04703344877985982</v>
+        <v>-0.0477242902626942</v>
       </c>
       <c r="AH25" s="4">
-        <v>-0.0483044846168631</v>
+        <v>-0.0494558645704678</v>
       </c>
       <c r="AI25" s="4">
-        <v>-0.07022856430707114</v>
+        <v>-0.07230251588693537</v>
       </c>
       <c r="AJ25" s="4">
-        <v>-0.03646366437562365</v>
+        <v>-0.03867208397460109</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3065,22 +3065,22 @@
         <v>162606</v>
       </c>
       <c r="J26" s="3">
-        <v>964076097.1994743</v>
+        <v>966341496.8857509</v>
       </c>
       <c r="K26" s="3">
-        <v>939384981.3867137</v>
+        <v>941140078.0251995</v>
       </c>
       <c r="L26" s="3">
-        <v>943984015.6622552</v>
+        <v>945493330.4497496</v>
       </c>
       <c r="M26" s="3">
-        <v>943940976.7102941</v>
+        <v>944449153.2579621</v>
       </c>
       <c r="N26" s="3">
-        <v>945969035.2913128</v>
+        <v>945954959.1579497</v>
       </c>
       <c r="O26" s="3">
-        <v>975167893.0664225</v>
+        <v>975190497.0961075</v>
       </c>
       <c r="P26" s="4">
         <v>0.8064516129032258</v>
@@ -3089,61 +3089,61 @@
         <v>0.8086021505376344</v>
       </c>
       <c r="R26" s="4">
-        <v>0.8172043010752689</v>
+        <v>0.8236559139784946</v>
       </c>
       <c r="S26" s="4">
-        <v>0.8516129032258064</v>
+        <v>0.8580645161290322</v>
       </c>
       <c r="T26" s="4">
-        <v>0.7526881720430108</v>
+        <v>0.7569892473118279</v>
       </c>
       <c r="U26" s="5">
-        <v>6215.875648453403</v>
+        <v>6230.481801209234</v>
       </c>
       <c r="V26" s="5">
-        <v>5974.629243884486</v>
+        <v>5985.791921497939</v>
       </c>
       <c r="W26" s="5">
-        <v>5915.965642085885</v>
+        <v>5925.424546344602</v>
       </c>
       <c r="X26" s="5">
-        <v>5848.620170390712</v>
+        <v>5851.768811757218</v>
       </c>
       <c r="Y26" s="5">
-        <v>5820.219682285051</v>
+        <v>5820.133076714051</v>
       </c>
       <c r="Z26" s="5">
-        <v>5997.121219797686</v>
+        <v>5997.260230840851</v>
       </c>
       <c r="AA26" s="5">
-        <v>-241.2464045689176</v>
+        <v>-244.6898797112945</v>
       </c>
       <c r="AB26" s="5">
-        <v>-299.9100063675187</v>
+        <v>-305.0572548646314</v>
       </c>
       <c r="AC26" s="5">
-        <v>-367.2554780626915</v>
+        <v>-378.7129894520158</v>
       </c>
       <c r="AD26" s="5">
-        <v>-395.6559661683523</v>
+        <v>-410.348724495183</v>
       </c>
       <c r="AE26" s="5">
-        <v>-218.7544286557177</v>
+        <v>-233.2215703683823</v>
       </c>
       <c r="AF26" s="4">
-        <v>-0.03881133056916009</v>
+        <v>-0.03927302695335766</v>
       </c>
       <c r="AG26" s="4">
-        <v>-0.04824903574802697</v>
+        <v>-0.04896206498916744</v>
       </c>
       <c r="AH26" s="4">
-        <v>-0.05908346608479365</v>
+        <v>-0.06078390107463505</v>
       </c>
       <c r="AI26" s="4">
-        <v>-0.06365249058140299</v>
+        <v>-0.06586147549865906</v>
       </c>
       <c r="AJ26" s="4">
-        <v>-0.03519285793790727</v>
+        <v>-0.03743234918415428</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -3152,106 +3152,106 @@
         <v>27</v>
       </c>
       <c r="C27" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D27" s="2">
-        <v>176781.5</v>
+        <v>176818.5</v>
       </c>
       <c r="E27" s="2">
-        <v>179180.5</v>
+        <v>179218.5</v>
       </c>
       <c r="F27" s="2">
-        <v>181095.5</v>
+        <v>181134.5</v>
       </c>
       <c r="G27" s="2">
-        <v>182751.5</v>
+        <v>182798.5</v>
       </c>
       <c r="H27" s="2">
-        <v>184805.5</v>
+        <v>184842.5</v>
       </c>
       <c r="I27" s="2">
-        <v>185197.5</v>
+        <v>185220.5</v>
       </c>
       <c r="J27" s="3">
-        <v>1170901153.606467</v>
+        <v>1174089279.53822</v>
       </c>
       <c r="K27" s="3">
-        <v>1139260725.770824</v>
+        <v>1141792970.950165</v>
       </c>
       <c r="L27" s="3">
-        <v>1141210505.131917</v>
+        <v>1143424884.916703</v>
       </c>
       <c r="M27" s="3">
-        <v>1144147759.23832</v>
+        <v>1145165296.951581</v>
       </c>
       <c r="N27" s="3">
-        <v>1132784645.038439</v>
+        <v>1133280637.942955</v>
       </c>
       <c r="O27" s="3">
-        <v>1176351619.203403</v>
+        <v>1176785358.609131</v>
       </c>
       <c r="P27" s="4">
-        <v>0.7809330628803245</v>
+        <v>0.7813765182186235</v>
       </c>
       <c r="Q27" s="4">
-        <v>0.8052738336713996</v>
+        <v>0.805668016194332</v>
       </c>
       <c r="R27" s="4">
-        <v>0.7789046653144016</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="S27" s="4">
-        <v>0.8275862068965517</v>
+        <v>0.8380566801619433</v>
       </c>
       <c r="T27" s="4">
-        <v>0.6815415821501014</v>
+        <v>0.6902834008097166</v>
       </c>
       <c r="U27" s="5">
-        <v>6623.437144760436</v>
+        <v>6640.08166305121</v>
       </c>
       <c r="V27" s="5">
-        <v>6358.173605782012</v>
+        <v>6370.954845343339</v>
       </c>
       <c r="W27" s="5">
-        <v>6301.705482090485</v>
+        <v>6312.57372238145</v>
       </c>
       <c r="X27" s="5">
-        <v>6260.675065530624</v>
+        <v>6264.631804700699</v>
       </c>
       <c r="Y27" s="5">
-        <v>6129.604611542618</v>
+        <v>6131.060973222903</v>
       </c>
       <c r="Z27" s="5">
-        <v>6351.876343921506</v>
+        <v>6353.429337514643</v>
       </c>
       <c r="AA27" s="5">
-        <v>-265.2635389784245</v>
+        <v>-269.1268177078709</v>
       </c>
       <c r="AB27" s="5">
-        <v>-321.7316626699512</v>
+        <v>-327.5079406697596</v>
       </c>
       <c r="AC27" s="5">
-        <v>-362.7620792298121</v>
+        <v>-375.449858350511</v>
       </c>
       <c r="AD27" s="5">
-        <v>-493.8325332178183</v>
+        <v>-509.0206898283068</v>
       </c>
       <c r="AE27" s="5">
-        <v>-271.5608008389299</v>
+        <v>-286.6523255365673</v>
       </c>
       <c r="AF27" s="4">
-        <v>-0.04004922718837378</v>
+        <v>-0.04053064877280488</v>
       </c>
       <c r="AG27" s="4">
-        <v>-0.04857472874555191</v>
+        <v>-0.04932287843569461</v>
       </c>
       <c r="AH27" s="4">
-        <v>-0.05476946052349574</v>
+        <v>-0.05654295796386133</v>
       </c>
       <c r="AI27" s="4">
-        <v>-0.07455834824498508</v>
+        <v>-0.07665879964410027</v>
       </c>
       <c r="AJ27" s="4">
-        <v>-0.04099998156602902</v>
+        <v>-0.04317000002148264</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3281,85 +3281,85 @@
         <v>268939.5</v>
       </c>
       <c r="J28" s="3">
-        <v>1836912253.937835</v>
+        <v>1841228656.404272</v>
       </c>
       <c r="K28" s="3">
-        <v>1779664744.713541</v>
+        <v>1782989775.103602</v>
       </c>
       <c r="L28" s="3">
-        <v>1788996603.94889</v>
+        <v>1791856990.337134</v>
       </c>
       <c r="M28" s="3">
-        <v>1801953223.701611</v>
+        <v>1802923316.526137</v>
       </c>
       <c r="N28" s="3">
-        <v>1779649052.327952</v>
+        <v>1779622570.93536</v>
       </c>
       <c r="O28" s="3">
-        <v>1856455826.394535</v>
+        <v>1856498858.351295</v>
       </c>
       <c r="P28" s="4">
-        <v>0.7645502645502645</v>
+        <v>0.7658730158730159</v>
       </c>
       <c r="Q28" s="4">
         <v>0.7738095238095238</v>
       </c>
       <c r="R28" s="4">
-        <v>0.7685185185185185</v>
+        <v>0.7738095238095238</v>
       </c>
       <c r="S28" s="4">
-        <v>0.8253968253968254</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="T28" s="4">
-        <v>0.6812169312169312</v>
+        <v>0.6838624338624338</v>
       </c>
       <c r="U28" s="5">
-        <v>7243.844720900831</v>
+        <v>7260.866409962327</v>
       </c>
       <c r="V28" s="5">
-        <v>6902.406580681413</v>
+        <v>6915.302667831254</v>
       </c>
       <c r="W28" s="5">
-        <v>6826.60282928267</v>
+        <v>6837.517730835713</v>
       </c>
       <c r="X28" s="5">
-        <v>6779.536043844689</v>
+        <v>6783.185849612809</v>
       </c>
       <c r="Y28" s="5">
-        <v>6632.129509770167</v>
+        <v>6632.030822882973</v>
       </c>
       <c r="Z28" s="5">
-        <v>6902.875280107737</v>
+        <v>6903.035286193717</v>
       </c>
       <c r="AA28" s="5">
-        <v>-341.4381402194176</v>
+        <v>-345.5637421310721</v>
       </c>
       <c r="AB28" s="5">
-        <v>-417.2418916181605</v>
+        <v>-423.3486791266132</v>
       </c>
       <c r="AC28" s="5">
-        <v>-464.3086770561422</v>
+        <v>-477.6805603495177</v>
       </c>
       <c r="AD28" s="5">
-        <v>-611.7152111306641</v>
+        <v>-628.8355870793539</v>
       </c>
       <c r="AE28" s="5">
-        <v>-340.9694407930938</v>
+        <v>-357.8311237686094</v>
       </c>
       <c r="AF28" s="4">
-        <v>-0.0471349336401784</v>
+        <v>-0.04759263187337237</v>
       </c>
       <c r="AG28" s="4">
-        <v>-0.0575995079538747</v>
+        <v>-0.05830553204308431</v>
       </c>
       <c r="AH28" s="4">
-        <v>-0.06409699475148356</v>
+        <v>-0.06578836923567588</v>
       </c>
       <c r="AI28" s="4">
-        <v>-0.084446207048816</v>
+        <v>-0.08660613645453596</v>
       </c>
       <c r="AJ28" s="4">
-        <v>-0.04707023051022707</v>
+        <v>-0.04928215223429044</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3391,85 +3391,85 @@
         <v>381463</v>
       </c>
       <c r="J29" s="3">
-        <v>2080326407.576871</v>
+        <v>2085214788.073774</v>
       </c>
       <c r="K29" s="3">
-        <v>2080342609.538209</v>
+        <v>2084229410.363477</v>
       </c>
       <c r="L29" s="3">
-        <v>2082010118.571479</v>
+        <v>2085338997.670634</v>
       </c>
       <c r="M29" s="3">
-        <v>2120995920.102131</v>
+        <v>2122137771.564127</v>
       </c>
       <c r="N29" s="3">
-        <v>2101407134.41438</v>
+        <v>2101375865.222717</v>
       </c>
       <c r="O29" s="3">
-        <v>2238616942.151745</v>
+        <v>2238668832.461271</v>
       </c>
       <c r="P29" s="4">
-        <v>0.6831228473019518</v>
+        <v>0.6842709529276694</v>
       </c>
       <c r="Q29" s="4">
-        <v>0.7405281285878301</v>
+        <v>0.7428243398392652</v>
       </c>
       <c r="R29" s="4">
-        <v>0.6762342135476463</v>
+        <v>0.6796785304247991</v>
       </c>
       <c r="S29" s="4">
-        <v>0.7393800229621125</v>
+        <v>0.7554535017221584</v>
       </c>
       <c r="T29" s="4">
-        <v>0.5235361653272101</v>
+        <v>0.5327210103329506</v>
       </c>
       <c r="U29" s="5">
-        <v>5824.226682466709</v>
+        <v>5837.912532927681</v>
       </c>
       <c r="V29" s="5">
-        <v>5729.077466232125</v>
+        <v>5739.781368042183</v>
       </c>
       <c r="W29" s="5">
-        <v>5657.228809804399</v>
+        <v>5666.274025567816</v>
       </c>
       <c r="X29" s="5">
-        <v>5696.112536982856</v>
+        <v>5699.179074907991</v>
       </c>
       <c r="Y29" s="5">
-        <v>5567.091207142246</v>
+        <v>5567.008368153497</v>
       </c>
       <c r="Z29" s="5">
-        <v>5868.503477799275</v>
+        <v>5868.63950753093</v>
       </c>
       <c r="AA29" s="5">
-        <v>-95.14921623458395</v>
+        <v>-98.13116488549804</v>
       </c>
       <c r="AB29" s="5">
-        <v>-166.9978726623094</v>
+        <v>-171.6385073598649</v>
       </c>
       <c r="AC29" s="5">
-        <v>-128.1141454838526</v>
+        <v>-138.7334580196903</v>
       </c>
       <c r="AD29" s="5">
-        <v>-257.1354753244623</v>
+        <v>-270.9041647741842</v>
       </c>
       <c r="AE29" s="5">
-        <v>44.27679533256651</v>
+        <v>30.72697460324889</v>
       </c>
       <c r="AF29" s="4">
-        <v>-0.01633679824327949</v>
+        <v>-0.01680929002139153</v>
       </c>
       <c r="AG29" s="4">
-        <v>-0.02867296926560925</v>
+        <v>-0.02940066443129619</v>
       </c>
       <c r="AH29" s="4">
-        <v>-0.02199676497302694</v>
+        <v>-0.0237642234680957</v>
       </c>
       <c r="AI29" s="4">
-        <v>-0.04414929042829752</v>
+        <v>-0.04640428633457572</v>
       </c>
       <c r="AJ29" s="4">
-        <v>0.00760217583320677</v>
+        <v>0.005263349601409617</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -3499,85 +3499,85 @@
         <v>275693.5</v>
       </c>
       <c r="J30" s="3">
-        <v>1505525552.811863</v>
+        <v>1509063258.10808</v>
       </c>
       <c r="K30" s="3">
-        <v>1484290143.226968</v>
+        <v>1487063311.515297</v>
       </c>
       <c r="L30" s="3">
-        <v>1489379273.927533</v>
+        <v>1491760608.913113</v>
       </c>
       <c r="M30" s="3">
-        <v>1517781308.51717</v>
+        <v>1518598415.60809</v>
       </c>
       <c r="N30" s="3">
-        <v>1506897451.430019</v>
+        <v>1506875028.614159</v>
       </c>
       <c r="O30" s="3">
-        <v>1603093152.468339</v>
+        <v>1603130311.57239</v>
       </c>
       <c r="P30" s="4">
-        <v>0.703125</v>
+        <v>0.7102272727272727</v>
       </c>
       <c r="Q30" s="4">
-        <v>0.7457386363636364</v>
+        <v>0.7514204545454546</v>
       </c>
       <c r="R30" s="4">
-        <v>0.7002840909090909</v>
+        <v>0.7144886363636364</v>
       </c>
       <c r="S30" s="4">
-        <v>0.7784090909090909</v>
+        <v>0.7826704545454546</v>
       </c>
       <c r="T30" s="4">
-        <v>0.5539772727272727</v>
+        <v>0.5639204545454546</v>
       </c>
       <c r="U30" s="5">
-        <v>5889.033607844596</v>
+        <v>5902.871742537934</v>
       </c>
       <c r="V30" s="5">
-        <v>5716.943894106876</v>
+        <v>5727.625126199965</v>
       </c>
       <c r="W30" s="5">
-        <v>5625.733818056437</v>
+        <v>5634.728677186691</v>
       </c>
       <c r="X30" s="5">
-        <v>5640.579779499486</v>
+        <v>5643.616421016192</v>
       </c>
       <c r="Y30" s="5">
-        <v>5522.329766100478</v>
+        <v>5522.24759316738</v>
       </c>
       <c r="Z30" s="5">
-        <v>5814.765863062926</v>
+        <v>5814.900647176631</v>
       </c>
       <c r="AA30" s="5">
-        <v>-172.0897137377206</v>
+        <v>-175.2466163379686</v>
       </c>
       <c r="AB30" s="5">
-        <v>-263.2997897881596</v>
+        <v>-268.1430653512425</v>
       </c>
       <c r="AC30" s="5">
-        <v>-248.4538283451102</v>
+        <v>-259.2553215217413</v>
       </c>
       <c r="AD30" s="5">
-        <v>-366.7038417441181</v>
+        <v>-380.6241493705538</v>
       </c>
       <c r="AE30" s="5">
-        <v>-74.26774478167044</v>
+        <v>-87.97109536130301</v>
       </c>
       <c r="AF30" s="4">
-        <v>-0.02922206344831946</v>
+        <v>-0.0296883659312952</v>
       </c>
       <c r="AG30" s="4">
-        <v>-0.04471018630924883</v>
+        <v>-0.04542586677242533</v>
       </c>
       <c r="AH30" s="4">
-        <v>-0.04218923594087709</v>
+        <v>-0.04392020237428951</v>
       </c>
       <c r="AI30" s="4">
-        <v>-0.06226893343852602</v>
+        <v>-0.06448118237563216</v>
       </c>
       <c r="AJ30" s="4">
-        <v>-0.01261119391180598</v>
+        <v>-0.01490310126973549</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -3586,106 +3586,106 @@
         <v>26</v>
       </c>
       <c r="C31" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D31" s="2">
-        <v>188774.5</v>
+        <v>189266.5</v>
       </c>
       <c r="E31" s="2">
-        <v>192221</v>
+        <v>192711</v>
       </c>
       <c r="F31" s="2">
-        <v>195678.5</v>
+        <v>196171.5</v>
       </c>
       <c r="G31" s="2">
-        <v>198629.5</v>
+        <v>199102</v>
       </c>
       <c r="H31" s="2">
-        <v>201318</v>
+        <v>201785</v>
       </c>
       <c r="I31" s="2">
-        <v>201733.5</v>
+        <v>202207.5</v>
       </c>
       <c r="J31" s="3">
-        <v>1144184102.514074</v>
+        <v>1148964476.023474</v>
       </c>
       <c r="K31" s="3">
-        <v>1124788200.46373</v>
+        <v>1129377017.065561</v>
       </c>
       <c r="L31" s="3">
-        <v>1123262830.037508</v>
+        <v>1127888657.249681</v>
       </c>
       <c r="M31" s="3">
-        <v>1142544870.781641</v>
+        <v>1146169412.12774</v>
       </c>
       <c r="N31" s="3">
-        <v>1130203955.623713</v>
+        <v>1132310973.692003</v>
       </c>
       <c r="O31" s="3">
-        <v>1195241646.477396</v>
+        <v>1197880625.223021</v>
       </c>
       <c r="P31" s="4">
-        <v>0.7123287671232876</v>
+        <v>0.712890625</v>
       </c>
       <c r="Q31" s="4">
-        <v>0.7573385518590998</v>
+        <v>0.76171875</v>
       </c>
       <c r="R31" s="4">
-        <v>0.726027397260274</v>
+        <v>0.736328125</v>
       </c>
       <c r="S31" s="4">
-        <v>0.7808219178082192</v>
+        <v>0.7890625</v>
       </c>
       <c r="T31" s="4">
-        <v>0.5772994129158513</v>
+        <v>0.580078125</v>
       </c>
       <c r="U31" s="5">
-        <v>6061.115789018505</v>
+        <v>6070.617230325887</v>
       </c>
       <c r="V31" s="5">
-        <v>5851.536515072393</v>
+        <v>5860.469911243059</v>
       </c>
       <c r="W31" s="5">
-        <v>5740.348735489633</v>
+        <v>5749.50315030308</v>
       </c>
       <c r="X31" s="5">
-        <v>5752.140899421492</v>
+        <v>5756.694619480166</v>
       </c>
       <c r="Y31" s="5">
-        <v>5614.023364148827</v>
+        <v>5611.472476606305</v>
       </c>
       <c r="Z31" s="5">
-        <v>5924.854555526951</v>
+        <v>5924.016790786797</v>
       </c>
       <c r="AA31" s="5">
-        <v>-209.5792739461122</v>
+        <v>-210.1473190828283</v>
       </c>
       <c r="AB31" s="5">
-        <v>-320.7670535288717</v>
+        <v>-321.1140800228077</v>
       </c>
       <c r="AC31" s="5">
-        <v>-308.9748895970133</v>
+        <v>-313.9226108457215</v>
       </c>
       <c r="AD31" s="5">
-        <v>-447.0924248696783</v>
+        <v>-459.1447537195827</v>
       </c>
       <c r="AE31" s="5">
-        <v>-136.2612334915539</v>
+        <v>-146.6004395390901</v>
       </c>
       <c r="AF31" s="4">
-        <v>-0.03457767203949913</v>
+        <v>-0.03461712559194696</v>
       </c>
       <c r="AG31" s="4">
-        <v>-0.05292211280801395</v>
+        <v>-0.05289644657855808</v>
       </c>
       <c r="AH31" s="4">
-        <v>-0.05097656938955242</v>
+        <v>-0.05171181099633737</v>
       </c>
       <c r="AI31" s="4">
-        <v>-0.0737640461645227</v>
+        <v>-0.07563394895430342</v>
       </c>
       <c r="AJ31" s="4">
-        <v>-0.02248121273948123</v>
+        <v>-0.02414918186683634</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -3715,85 +3715,85 @@
         <v>172148.5</v>
       </c>
       <c r="J32" s="3">
-        <v>1054244043.595221</v>
+        <v>1056721321.20075</v>
       </c>
       <c r="K32" s="3">
-        <v>1028321516.909924</v>
+        <v>1030242777.812931</v>
       </c>
       <c r="L32" s="3">
-        <v>1035375652.870707</v>
+        <v>1037031091.689123</v>
       </c>
       <c r="M32" s="3">
-        <v>1039241603.574839</v>
+        <v>1039801085.812953</v>
       </c>
       <c r="N32" s="3">
-        <v>1032612599.31572</v>
+        <v>1032597233.915671</v>
       </c>
       <c r="O32" s="3">
-        <v>1075912939.872174</v>
+        <v>1075937879.134637</v>
       </c>
       <c r="P32" s="4">
         <v>0.7328918322295805</v>
       </c>
       <c r="Q32" s="4">
-        <v>0.7748344370860927</v>
+        <v>0.7770419426048565</v>
       </c>
       <c r="R32" s="4">
         <v>0.7527593818984547</v>
       </c>
       <c r="S32" s="4">
-        <v>0.7924944812362031</v>
+        <v>0.7991169977924945</v>
       </c>
       <c r="T32" s="4">
-        <v>0.6490066225165563</v>
+        <v>0.6534216335540839</v>
       </c>
       <c r="U32" s="5">
-        <v>6547.611628917227</v>
+        <v>6562.997299584817</v>
       </c>
       <c r="V32" s="5">
-        <v>6226.157530114004</v>
+        <v>6237.790149719702</v>
       </c>
       <c r="W32" s="5">
-        <v>6181.550157591488</v>
+        <v>6191.433698952041</v>
       </c>
       <c r="X32" s="5">
-        <v>6123.325409868926</v>
+        <v>6126.621940524772</v>
       </c>
       <c r="Y32" s="5">
-        <v>6025.632253695048</v>
+        <v>6025.542591560195</v>
       </c>
       <c r="Z32" s="5">
-        <v>6249.911790530699</v>
+        <v>6250.056661165429</v>
       </c>
       <c r="AA32" s="5">
-        <v>-321.4540988032231</v>
+        <v>-325.2071498651148</v>
       </c>
       <c r="AB32" s="5">
-        <v>-366.0614713257391</v>
+        <v>-371.5636006327759</v>
       </c>
       <c r="AC32" s="5">
-        <v>-424.2862190483011</v>
+        <v>-436.3753590600445</v>
       </c>
       <c r="AD32" s="5">
-        <v>-521.9793752221785</v>
+        <v>-537.4547080246211</v>
       </c>
       <c r="AE32" s="5">
-        <v>-297.6998383865275</v>
+        <v>-312.9406384193871</v>
       </c>
       <c r="AF32" s="4">
-        <v>-0.04909486344357017</v>
+        <v>-0.04955162024608606</v>
       </c>
       <c r="AG32" s="4">
-        <v>-0.05590763351159156</v>
+        <v>-0.05661492511299393</v>
       </c>
       <c r="AH32" s="4">
-        <v>-0.06480015051205246</v>
+        <v>-0.0664902542452136</v>
       </c>
       <c r="AI32" s="4">
-        <v>-0.07972057672401955</v>
+        <v>-0.0818916546040056</v>
       </c>
       <c r="AJ32" s="4">
-        <v>-0.04546693592389472</v>
+        <v>-0.04768257918362762</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -3823,22 +3823,22 @@
         <v>89506.5</v>
       </c>
       <c r="J33" s="3">
-        <v>632481254.2273923</v>
+        <v>633967467.6487857</v>
       </c>
       <c r="K33" s="3">
-        <v>615944970.163402</v>
+        <v>617095768.7902119</v>
       </c>
       <c r="L33" s="3">
-        <v>601569194.6767492</v>
+        <v>602531030.1169289</v>
       </c>
       <c r="M33" s="3">
-        <v>603134105.4054921</v>
+        <v>603458806.4355657</v>
       </c>
       <c r="N33" s="3">
-        <v>590726657.1529515</v>
+        <v>590717867.0690303</v>
       </c>
       <c r="O33" s="3">
-        <v>614691575.1468939</v>
+        <v>614705823.4693727</v>
       </c>
       <c r="P33" s="4">
         <v>0.7204724409448819</v>
@@ -3847,61 +3847,61 @@
         <v>0.7637795275590551</v>
       </c>
       <c r="R33" s="4">
-        <v>0.7401574803149606</v>
+        <v>0.7480314960629921</v>
       </c>
       <c r="S33" s="4">
-        <v>0.7559055118110236</v>
+        <v>0.7598425196850394</v>
       </c>
       <c r="T33" s="4">
-        <v>0.6417322834645669</v>
+        <v>0.65748031496063</v>
       </c>
       <c r="U33" s="5">
-        <v>7156.303438831788</v>
+        <v>7173.119422147132</v>
       </c>
       <c r="V33" s="5">
-        <v>6887.183998875164</v>
+        <v>6900.051644967623</v>
       </c>
       <c r="W33" s="5">
-        <v>6771.835048255727</v>
+        <v>6782.662382836852</v>
       </c>
       <c r="X33" s="5">
-        <v>6780.597025356853</v>
+        <v>6784.247402311025</v>
       </c>
       <c r="Y33" s="5">
-        <v>6610.046741036517</v>
+        <v>6609.948382743602</v>
       </c>
       <c r="Z33" s="5">
-        <v>6867.563530546875</v>
+        <v>6867.722718119609</v>
       </c>
       <c r="AA33" s="5">
-        <v>-269.1194399566248</v>
+        <v>-273.067777179509</v>
       </c>
       <c r="AB33" s="5">
-        <v>-384.4683905760612</v>
+        <v>-390.4570393102804</v>
       </c>
       <c r="AC33" s="5">
-        <v>-375.7064134749353</v>
+        <v>-388.872019836107</v>
       </c>
       <c r="AD33" s="5">
-        <v>-546.2566977952711</v>
+        <v>-563.1710394035299</v>
       </c>
       <c r="AE33" s="5">
-        <v>-288.7399082849133</v>
+        <v>-305.3967040275238</v>
       </c>
       <c r="AF33" s="4">
-        <v>-0.03760592913043892</v>
+        <v>-0.03806820451593307</v>
       </c>
       <c r="AG33" s="4">
-        <v>-0.05372443942075533</v>
+        <v>-0.05443336661937304</v>
       </c>
       <c r="AH33" s="4">
-        <v>-0.05250006748403979</v>
+        <v>-0.0542124000662052</v>
       </c>
       <c r="AI33" s="4">
-        <v>-0.07633224365964608</v>
+        <v>-0.07851131512807796</v>
       </c>
       <c r="AJ33" s="4">
-        <v>-0.04034763348884041</v>
+        <v>-0.04257515957208324</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -3933,85 +3933,85 @@
         <v>136726.5</v>
       </c>
       <c r="J34" s="3">
-        <v>742635741.3858193</v>
+        <v>744380797.3834118</v>
       </c>
       <c r="K34" s="3">
-        <v>743947113.6042473</v>
+        <v>745337064.5872518</v>
       </c>
       <c r="L34" s="3">
-        <v>732140713.3349848</v>
+        <v>733311316.6363429</v>
       </c>
       <c r="M34" s="3">
-        <v>739247233.3312052</v>
+        <v>739645211.7177544</v>
       </c>
       <c r="N34" s="3">
-        <v>726796792.4704485</v>
+        <v>726785977.6464981</v>
       </c>
       <c r="O34" s="3">
-        <v>783461713.0068539</v>
+        <v>783479873.3584644</v>
       </c>
       <c r="P34" s="4">
-        <v>0.6530612244897959</v>
+        <v>0.6556122448979592</v>
       </c>
       <c r="Q34" s="4">
-        <v>0.7040816326530612</v>
+        <v>0.7066326530612245</v>
       </c>
       <c r="R34" s="4">
-        <v>0.6454081632653061</v>
+        <v>0.6556122448979592</v>
       </c>
       <c r="S34" s="4">
-        <v>0.7704081632653061</v>
+        <v>0.7729591836734694</v>
       </c>
       <c r="T34" s="4">
-        <v>0.4872448979591837</v>
+        <v>0.4974489795918368</v>
       </c>
       <c r="U34" s="5">
-        <v>5679.510400099569</v>
+        <v>5692.856194187782</v>
       </c>
       <c r="V34" s="5">
-        <v>5633.381015551564</v>
+        <v>5643.906123233304</v>
       </c>
       <c r="W34" s="5">
-        <v>5494.180164981219</v>
+        <v>5502.964685937699</v>
       </c>
       <c r="X34" s="5">
-        <v>5490.873145546418</v>
+        <v>5493.829191557389</v>
       </c>
       <c r="Y34" s="5">
-        <v>5346.846115430358</v>
+        <v>5346.766553715133</v>
       </c>
       <c r="Z34" s="5">
-        <v>5730.137998170464</v>
+        <v>5730.270820641678</v>
       </c>
       <c r="AA34" s="5">
-        <v>-46.12938454800496</v>
+        <v>-48.95007095447727</v>
       </c>
       <c r="AB34" s="5">
-        <v>-185.3302351183502</v>
+        <v>-189.8915082500826</v>
       </c>
       <c r="AC34" s="5">
-        <v>-188.6372545531513</v>
+        <v>-199.0270026303924</v>
       </c>
       <c r="AD34" s="5">
-        <v>-332.6642846692112</v>
+        <v>-346.0896404726482</v>
       </c>
       <c r="AE34" s="5">
-        <v>50.62759807089515</v>
+        <v>37.41462645389674</v>
       </c>
       <c r="AF34" s="4">
-        <v>-0.008122070618480803</v>
+        <v>-0.008598508250472481</v>
       </c>
       <c r="AG34" s="4">
-        <v>-0.03263137525289173</v>
+        <v>-0.03335610487472973</v>
       </c>
       <c r="AH34" s="4">
-        <v>-0.03321364717455999</v>
+        <v>-0.03496083439339159</v>
       </c>
       <c r="AI34" s="4">
-        <v>-0.05857270455273378</v>
+        <v>-0.06079367345094622</v>
       </c>
       <c r="AJ34" s="4">
-        <v>0.008914077887771432</v>
+        <v>0.006572206494886768</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -4041,85 +4041,85 @@
         <v>168483</v>
       </c>
       <c r="J35" s="3">
-        <v>949406475.4438928</v>
+        <v>951637404.2449143</v>
       </c>
       <c r="K35" s="3">
-        <v>946532691.9276292</v>
+        <v>948301142.9660591</v>
       </c>
       <c r="L35" s="3">
-        <v>931210721.4941897</v>
+        <v>932699613.3492494</v>
       </c>
       <c r="M35" s="3">
-        <v>944407495.1571699</v>
+        <v>944915922.8579714</v>
       </c>
       <c r="N35" s="3">
-        <v>922116149.9369787</v>
+        <v>922102428.7374271</v>
       </c>
       <c r="O35" s="3">
-        <v>986641320.4439127</v>
+        <v>986664190.423385</v>
       </c>
       <c r="P35" s="4">
-        <v>0.6359550561797753</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="Q35" s="4">
         <v>0.7078651685393258</v>
       </c>
       <c r="R35" s="4">
-        <v>0.6292134831460674</v>
+        <v>0.6382022471910113</v>
       </c>
       <c r="S35" s="4">
-        <v>0.701123595505618</v>
+        <v>0.7056179775280899</v>
       </c>
       <c r="T35" s="4">
-        <v>0.4898876404494382</v>
+        <v>0.4966292134831461</v>
       </c>
       <c r="U35" s="5">
-        <v>5872.968541070865</v>
+        <v>5886.768925842458</v>
       </c>
       <c r="V35" s="5">
-        <v>5778.429114753436</v>
+        <v>5789.225222543087</v>
       </c>
       <c r="W35" s="5">
-        <v>5635.077965502426</v>
+        <v>5644.087764779651</v>
       </c>
       <c r="X35" s="5">
-        <v>5673.957290395503</v>
+        <v>5677.011900904627</v>
       </c>
       <c r="Y35" s="5">
-        <v>5506.107904550797</v>
+        <v>5506.025973000941</v>
       </c>
       <c r="Z35" s="5">
-        <v>5856.028919498779</v>
+        <v>5856.164660074814</v>
       </c>
       <c r="AA35" s="5">
-        <v>-94.53942631742939</v>
+        <v>-97.54370329937137</v>
       </c>
       <c r="AB35" s="5">
-        <v>-237.8905755684391</v>
+        <v>-242.6811610628065</v>
       </c>
       <c r="AC35" s="5">
-        <v>-199.0112506753621</v>
+        <v>-209.7570249378314</v>
       </c>
       <c r="AD35" s="5">
-        <v>-366.8606365200685</v>
+        <v>-380.7429528415169</v>
       </c>
       <c r="AE35" s="5">
-        <v>-16.93962157208625</v>
+        <v>-30.60426576764348</v>
       </c>
       <c r="AF35" s="4">
-        <v>-0.01609738340266864</v>
+        <v>-0.01656999018105876</v>
       </c>
       <c r="AG35" s="4">
-        <v>-0.04050601904383133</v>
+        <v>-0.04122484916937286</v>
       </c>
       <c r="AH35" s="4">
-        <v>-0.03388597253393</v>
+        <v>-0.03563194471877673</v>
       </c>
       <c r="AI35" s="4">
-        <v>-0.06246596315892672</v>
+        <v>-0.06467774727322573</v>
       </c>
       <c r="AJ35" s="4">
-        <v>-0.002884337188872044</v>
+        <v>-0.005198822334148923</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -4149,85 +4149,85 @@
         <v>154669</v>
       </c>
       <c r="J36" s="3">
-        <v>902306562.7283611</v>
+        <v>904426815.4864866</v>
       </c>
       <c r="K36" s="3">
-        <v>878813139.1716819</v>
+        <v>880455066.6210021</v>
       </c>
       <c r="L36" s="3">
-        <v>877119213.5926195</v>
+        <v>878521619.7536408</v>
       </c>
       <c r="M36" s="3">
-        <v>882572093.2772908</v>
+        <v>883047231.5014979</v>
       </c>
       <c r="N36" s="3">
-        <v>876207556.6794426</v>
+        <v>876194518.6052965</v>
       </c>
       <c r="O36" s="3">
-        <v>930968856.6250734</v>
+        <v>930990436.1375046</v>
       </c>
       <c r="P36" s="4">
         <v>0.7102803738317757</v>
       </c>
       <c r="Q36" s="4">
-        <v>0.7172897196261683</v>
+        <v>0.719626168224299</v>
       </c>
       <c r="R36" s="4">
-        <v>0.6728971962616822</v>
+        <v>0.6752336448598131</v>
       </c>
       <c r="S36" s="4">
-        <v>0.7429906542056075</v>
+        <v>0.7476635514018691</v>
       </c>
       <c r="T36" s="4">
-        <v>0.514018691588785</v>
+        <v>0.5233644859813084</v>
       </c>
       <c r="U36" s="5">
-        <v>6154.069293159239</v>
+        <v>6168.530212464826</v>
       </c>
       <c r="V36" s="5">
-        <v>5899.321931627705</v>
+        <v>5910.343909088177</v>
       </c>
       <c r="W36" s="5">
-        <v>5790.635982839201</v>
+        <v>5799.894500327722</v>
       </c>
       <c r="X36" s="5">
-        <v>5750.235973517136</v>
+        <v>5753.331649133937</v>
       </c>
       <c r="Y36" s="5">
-        <v>5667.889610227229</v>
+        <v>5667.805271346073</v>
       </c>
       <c r="Z36" s="5">
-        <v>6019.104388242463</v>
+        <v>6019.24390884731</v>
       </c>
       <c r="AA36" s="5">
-        <v>-254.7473615315339</v>
+        <v>-258.1863033766494</v>
       </c>
       <c r="AB36" s="5">
-        <v>-363.4333103200379</v>
+        <v>-368.6357121371038</v>
       </c>
       <c r="AC36" s="5">
-        <v>-403.8333196421036</v>
+        <v>-415.1985633308886</v>
       </c>
       <c r="AD36" s="5">
-        <v>-486.1796829320101</v>
+        <v>-500.7249411187531</v>
       </c>
       <c r="AE36" s="5">
-        <v>-134.9649049167765</v>
+        <v>-149.2863036175158</v>
       </c>
       <c r="AF36" s="4">
-        <v>-0.04139494526243093</v>
+        <v>-0.04185540063578341</v>
       </c>
       <c r="AG36" s="4">
-        <v>-0.05905577155655761</v>
+        <v>-0.05976070464763183</v>
       </c>
       <c r="AH36" s="4">
-        <v>-0.06562053503216125</v>
+        <v>-0.06730915615714939</v>
       </c>
       <c r="AI36" s="4">
-        <v>-0.07900133387715336</v>
+        <v>-0.08117410855943152</v>
       </c>
       <c r="AJ36" s="4">
-        <v>-0.02193100182781516</v>
+        <v>-0.02420127623203516</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -4236,106 +4236,106 @@
         <v>27</v>
       </c>
       <c r="C37" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D37" s="2">
-        <v>82340</v>
+        <v>82387</v>
       </c>
       <c r="E37" s="2">
-        <v>83698</v>
+        <v>83749</v>
       </c>
       <c r="F37" s="2">
-        <v>83951</v>
+        <v>84000</v>
       </c>
       <c r="G37" s="2">
-        <v>84992</v>
+        <v>85041</v>
       </c>
       <c r="H37" s="2">
-        <v>86238</v>
+        <v>86280</v>
       </c>
       <c r="I37" s="2">
-        <v>86491.5</v>
+        <v>86531.5</v>
       </c>
       <c r="J37" s="3">
-        <v>542803669.4613144</v>
+        <v>544382284.7918661</v>
       </c>
       <c r="K37" s="3">
-        <v>531952013.3889177</v>
+        <v>533277571.3210383</v>
       </c>
       <c r="L37" s="3">
-        <v>528094056.3931494</v>
+        <v>529293110.3651751</v>
       </c>
       <c r="M37" s="3">
-        <v>534733933.3884403</v>
+        <v>535423732.4373777</v>
       </c>
       <c r="N37" s="3">
-        <v>531756073.3829173</v>
+        <v>532123050.2864552</v>
       </c>
       <c r="O37" s="3">
-        <v>561522020.5804551</v>
+        <v>561921395.1329197</v>
       </c>
       <c r="P37" s="4">
-        <v>0.656934306569343</v>
+        <v>0.6581818181818182</v>
       </c>
       <c r="Q37" s="4">
-        <v>0.6496350364963503</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="R37" s="4">
-        <v>0.6459854014598541</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="S37" s="4">
-        <v>0.7226277372262774</v>
+        <v>0.7236363636363636</v>
       </c>
       <c r="T37" s="4">
-        <v>0.5620437956204379</v>
+        <v>0.5745454545454546</v>
       </c>
       <c r="U37" s="5">
-        <v>6592.223335697285</v>
+        <v>6607.623591001809</v>
       </c>
       <c r="V37" s="5">
-        <v>6355.61200254388</v>
+        <v>6367.569419587557</v>
       </c>
       <c r="W37" s="5">
-        <v>6290.503465034954</v>
+        <v>6301.108456728275</v>
       </c>
       <c r="X37" s="5">
-        <v>6291.579600296973</v>
+        <v>6296.065808696719</v>
       </c>
       <c r="Y37" s="5">
-        <v>6166.145705871163</v>
+        <v>6167.397430301984</v>
       </c>
       <c r="Z37" s="5">
-        <v>6492.222016966466</v>
+        <v>6493.836292366591</v>
       </c>
       <c r="AA37" s="5">
-        <v>-236.6113331534043</v>
+        <v>-240.0541714142528</v>
       </c>
       <c r="AB37" s="5">
-        <v>-301.7198706623303</v>
+        <v>-306.5151342735344</v>
       </c>
       <c r="AC37" s="5">
-        <v>-300.6437354003119</v>
+        <v>-311.5577823050908</v>
       </c>
       <c r="AD37" s="5">
-        <v>-426.0776298261217</v>
+        <v>-440.2261606998254</v>
       </c>
       <c r="AE37" s="5">
-        <v>-100.0013187308186</v>
+        <v>-113.7872986352186</v>
       </c>
       <c r="AF37" s="4">
-        <v>-0.03589249348882639</v>
+        <v>-0.0363298798892171</v>
       </c>
       <c r="AG37" s="4">
-        <v>-0.04576906080054954</v>
+        <v>-0.04638810459647602</v>
       </c>
       <c r="AH37" s="4">
-        <v>-0.04560581765673932</v>
+        <v>-0.04715126066342012</v>
       </c>
       <c r="AI37" s="4">
-        <v>-0.06463337301072403</v>
+        <v>-0.06662397678029375</v>
       </c>
       <c r="AJ37" s="4">
-        <v>-0.01516958902003596</v>
+        <v>-0.0172206084484251</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -4365,85 +4365,85 @@
         <v>49590.5</v>
       </c>
       <c r="J38" s="3">
-        <v>360947811.0881563</v>
+        <v>361795971.3738193</v>
       </c>
       <c r="K38" s="3">
-        <v>347315326.5537681</v>
+        <v>347964231.9271846</v>
       </c>
       <c r="L38" s="3">
-        <v>346489259.9746433</v>
+        <v>347043253.8507165</v>
       </c>
       <c r="M38" s="3">
-        <v>345223807.3809116</v>
+        <v>345409660.7837577</v>
       </c>
       <c r="N38" s="3">
-        <v>335339520.6806784</v>
+        <v>335334530.7881564</v>
       </c>
       <c r="O38" s="3">
-        <v>347489273.6562091</v>
+        <v>347497328.3285509</v>
       </c>
       <c r="P38" s="4">
-        <v>0.7228915662650602</v>
+        <v>0.7289156626506024</v>
       </c>
       <c r="Q38" s="4">
         <v>0.6927710843373494</v>
       </c>
       <c r="R38" s="4">
-        <v>0.6385542168674698</v>
+        <v>0.6445783132530121</v>
       </c>
       <c r="S38" s="4">
-        <v>0.7349397590361446</v>
+        <v>0.7530120481927711</v>
       </c>
       <c r="T38" s="4">
-        <v>0.5602409638554217</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="U38" s="5">
-        <v>7315.298705717425</v>
+        <v>7332.488298365864</v>
       </c>
       <c r="V38" s="5">
-        <v>6925.184717686418</v>
+        <v>6938.123362288711</v>
       </c>
       <c r="W38" s="5">
-        <v>6855.607526060889</v>
+        <v>6866.568802570518</v>
       </c>
       <c r="X38" s="5">
-        <v>6839.162149094382</v>
+        <v>6842.844054950378</v>
       </c>
       <c r="Y38" s="5">
-        <v>6681.201412204823</v>
+        <v>6681.101995121812</v>
       </c>
       <c r="Z38" s="5">
-        <v>7007.174230068442</v>
+        <v>7007.336653765357</v>
       </c>
       <c r="AA38" s="5">
-        <v>-390.1139880310066</v>
+        <v>-394.3649360771533</v>
       </c>
       <c r="AB38" s="5">
-        <v>-459.6911796565364</v>
+        <v>-465.9194957953468</v>
       </c>
       <c r="AC38" s="5">
-        <v>-476.1365566230434</v>
+        <v>-489.644243415486</v>
       </c>
       <c r="AD38" s="5">
-        <v>-634.0972935126019</v>
+        <v>-651.3863032440522</v>
       </c>
       <c r="AE38" s="5">
-        <v>-308.1244756489832</v>
+        <v>-325.1516446005071</v>
       </c>
       <c r="AF38" s="4">
-        <v>-0.05332851107311654</v>
+        <v>-0.05378323428965337</v>
       </c>
       <c r="AG38" s="4">
-        <v>-0.06283970048923027</v>
+        <v>-0.06354179875052546</v>
       </c>
       <c r="AH38" s="4">
-        <v>-0.06508778052370012</v>
+        <v>-0.06677736444865645</v>
       </c>
       <c r="AI38" s="4">
-        <v>-0.08668098447121642</v>
+        <v>-0.08883564170013358</v>
       </c>
       <c r="AJ38" s="4">
-        <v>-0.04212055967149531</v>
+        <v>-0.04434397047356642</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -4475,85 +4475,85 @@
         <v>112902</v>
       </c>
       <c r="J39" s="3">
-        <v>618224931.003636</v>
+        <v>619677644.7145274</v>
       </c>
       <c r="K39" s="3">
-        <v>614706022.1473099</v>
+        <v>615854505.9899349</v>
       </c>
       <c r="L39" s="3">
-        <v>619987773.6638873</v>
+        <v>620979058.1552891</v>
       </c>
       <c r="M39" s="3">
-        <v>622252472.2337319</v>
+        <v>622587465.7565471</v>
       </c>
       <c r="N39" s="3">
-        <v>614110835.3477391</v>
+        <v>614101697.3044251</v>
       </c>
       <c r="O39" s="3">
-        <v>653241418.5903237</v>
+        <v>653256560.4838601</v>
       </c>
       <c r="P39" s="4">
         <v>0.7075471698113207</v>
       </c>
       <c r="Q39" s="4">
-        <v>0.6698113207547169</v>
+        <v>0.6761006289308176</v>
       </c>
       <c r="R39" s="4">
-        <v>0.6163522012578616</v>
+        <v>0.6257861635220126</v>
       </c>
       <c r="S39" s="4">
-        <v>0.7012578616352201</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="T39" s="4">
-        <v>0.5408805031446541</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="U39" s="5">
-        <v>5757.651313893299</v>
+        <v>5771.180724608984</v>
       </c>
       <c r="V39" s="5">
-        <v>5661.162632707789</v>
+        <v>5671.739646076595</v>
       </c>
       <c r="W39" s="5">
-        <v>5650.198204330572</v>
+        <v>5659.232179017202</v>
       </c>
       <c r="X39" s="5">
-        <v>5609.643159000698</v>
+        <v>5612.663145593638</v>
       </c>
       <c r="Y39" s="5">
-        <v>5488.155100406525</v>
+        <v>5488.073435996561</v>
       </c>
       <c r="Z39" s="5">
-        <v>5785.915383167027</v>
+        <v>5786.049498537317</v>
       </c>
       <c r="AA39" s="5">
-        <v>-96.48868118550945</v>
+        <v>-99.44107853238893</v>
       </c>
       <c r="AB39" s="5">
-        <v>-107.4531095627262</v>
+        <v>-111.948545591782</v>
       </c>
       <c r="AC39" s="5">
-        <v>-148.0081548926009</v>
+        <v>-158.5175790153462</v>
       </c>
       <c r="AD39" s="5">
-        <v>-269.4962134867737</v>
+        <v>-283.107288612423</v>
       </c>
       <c r="AE39" s="5">
-        <v>28.26406927372864</v>
+        <v>14.86877392833321</v>
       </c>
       <c r="AF39" s="4">
-        <v>-0.01675834049774438</v>
+        <v>-0.0172306297926802</v>
       </c>
       <c r="AG39" s="4">
-        <v>-0.01866266359399715</v>
+        <v>-0.01939785824318763</v>
       </c>
       <c r="AH39" s="4">
-        <v>-0.02570634219120826</v>
+        <v>-0.02746709669641934</v>
       </c>
       <c r="AI39" s="4">
-        <v>-0.04680662283880843</v>
+        <v>-0.04905534969737135</v>
       </c>
       <c r="AJ39" s="4">
-        <v>0.004908958138108765</v>
+        <v>0.002576383349932376</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -4583,85 +4583,85 @@
         <v>132125</v>
       </c>
       <c r="J40" s="3">
-        <v>754778197.4672676</v>
+        <v>756551785.9803716</v>
       </c>
       <c r="K40" s="3">
-        <v>742039526.5692714</v>
+        <v>743425913.5187225</v>
       </c>
       <c r="L40" s="3">
-        <v>745026438.6857051</v>
+        <v>746217644.6831863</v>
       </c>
       <c r="M40" s="3">
-        <v>751130842.2044935</v>
+        <v>751535218.2064434</v>
       </c>
       <c r="N40" s="3">
-        <v>745142388.2050166</v>
+        <v>745131300.3963889</v>
       </c>
       <c r="O40" s="3">
-        <v>790954598.4386917</v>
+        <v>790972932.4726053</v>
       </c>
       <c r="P40" s="4">
-        <v>0.6884816753926701</v>
+        <v>0.693717277486911</v>
       </c>
       <c r="Q40" s="4">
         <v>0.7041884816753927</v>
       </c>
       <c r="R40" s="4">
-        <v>0.6780104712041884</v>
+        <v>0.6858638743455497</v>
       </c>
       <c r="S40" s="4">
-        <v>0.7460732984293194</v>
+        <v>0.7486910994764397</v>
       </c>
       <c r="T40" s="4">
-        <v>0.5602094240837696</v>
+        <v>0.5654450261780105</v>
       </c>
       <c r="U40" s="5">
-        <v>6052.582304965519</v>
+        <v>6066.804748706905</v>
       </c>
       <c r="V40" s="5">
-        <v>5887.473730486059</v>
+        <v>5898.473571401434</v>
       </c>
       <c r="W40" s="5">
-        <v>5833.57623654277</v>
+        <v>5842.903410236086</v>
       </c>
       <c r="X40" s="5">
-        <v>5801.604564816374</v>
+        <v>5804.727895036618</v>
       </c>
       <c r="Y40" s="5">
-        <v>5675.977972311217</v>
+        <v>5675.89351307426</v>
       </c>
       <c r="Z40" s="5">
-        <v>5986.411341068622</v>
+        <v>5986.550103860778</v>
       </c>
       <c r="AA40" s="5">
-        <v>-165.10857447946</v>
+        <v>-168.3311773054711</v>
       </c>
       <c r="AB40" s="5">
-        <v>-219.0060684227492</v>
+        <v>-223.9013384708196</v>
       </c>
       <c r="AC40" s="5">
-        <v>-250.9777401491456</v>
+        <v>-262.0768536702872</v>
       </c>
       <c r="AD40" s="5">
-        <v>-376.6043326543022</v>
+        <v>-390.911235632645</v>
       </c>
       <c r="AE40" s="5">
-        <v>-66.17096389689686</v>
+        <v>-80.25464484612712</v>
       </c>
       <c r="AF40" s="4">
-        <v>-0.0272790300338428</v>
+        <v>-0.02774626583150708</v>
       </c>
       <c r="AG40" s="4">
-        <v>-0.03618390587486553</v>
+        <v>-0.0369059740250488</v>
       </c>
       <c r="AH40" s="4">
-        <v>-0.04146622507607112</v>
+        <v>-0.04319849814288934</v>
       </c>
       <c r="AI40" s="4">
-        <v>-0.06222209194005301</v>
+        <v>-0.06443445138331916</v>
       </c>
       <c r="AJ40" s="4">
-        <v>-0.01093268303722372</v>
+        <v>-0.0132284865213822</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -4691,85 +4691,85 @@
         <v>123947</v>
       </c>
       <c r="J41" s="3">
-        <v>739559894.9637203</v>
+        <v>741297723.2937661</v>
       </c>
       <c r="K41" s="3">
-        <v>724911995.3300267</v>
+        <v>726266382.1164993</v>
       </c>
       <c r="L41" s="3">
-        <v>721579577.9088861</v>
+        <v>722733295.2486104</v>
       </c>
       <c r="M41" s="3">
-        <v>738048120.2328457</v>
+        <v>738445453.0693338</v>
       </c>
       <c r="N41" s="3">
-        <v>727043732.1308475</v>
+        <v>727032913.6324056</v>
       </c>
       <c r="O41" s="3">
-        <v>771498948.8779043</v>
+        <v>771516831.9370835</v>
       </c>
       <c r="P41" s="4">
         <v>0.7115384615384616</v>
       </c>
       <c r="Q41" s="4">
-        <v>0.7435897435897436</v>
+        <v>0.7467948717948718</v>
       </c>
       <c r="R41" s="4">
-        <v>0.6762820512820513</v>
+        <v>0.6858974358974359</v>
       </c>
       <c r="S41" s="4">
-        <v>0.7532051282051282</v>
+        <v>0.7564102564102564</v>
       </c>
       <c r="T41" s="4">
-        <v>0.5897435897435898</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="U41" s="5">
-        <v>6362.298113090221</v>
+        <v>6377.248331430099</v>
       </c>
       <c r="V41" s="5">
-        <v>6119.853910470668</v>
+        <v>6131.287918081081</v>
       </c>
       <c r="W41" s="5">
-        <v>6018.730474930027</v>
+        <v>6028.353687566085</v>
       </c>
       <c r="X41" s="5">
-        <v>6058.737354711393</v>
+        <v>6061.999113982488</v>
       </c>
       <c r="Y41" s="5">
-        <v>5894.319920961255</v>
+        <v>5894.232212769763</v>
       </c>
       <c r="Z41" s="5">
-        <v>6224.426156969545</v>
+        <v>6224.570436856749</v>
       </c>
       <c r="AA41" s="5">
-        <v>-242.4442026195529</v>
+        <v>-245.9604133490175</v>
       </c>
       <c r="AB41" s="5">
-        <v>-343.5676381601934</v>
+        <v>-348.8946438640141</v>
       </c>
       <c r="AC41" s="5">
-        <v>-303.5607583788278</v>
+        <v>-315.249217447611</v>
       </c>
       <c r="AD41" s="5">
-        <v>-467.9781921289659</v>
+        <v>-483.0161186603355</v>
       </c>
       <c r="AE41" s="5">
-        <v>-137.8719561206753</v>
+        <v>-152.6778945733495</v>
       </c>
       <c r="AF41" s="4">
-        <v>-0.03810638833800195</v>
+        <v>-0.0385684233334318</v>
       </c>
       <c r="AG41" s="4">
-        <v>-0.05400055641110468</v>
+        <v>-0.05470927674942438</v>
       </c>
       <c r="AH41" s="4">
-        <v>-0.0477124386476423</v>
+        <v>-0.04943342348672763</v>
       </c>
       <c r="AI41" s="4">
-        <v>-0.07355489853047215</v>
+        <v>-0.07574052217471339</v>
       </c>
       <c r="AJ41" s="4">
-        <v>-0.02167015026174401</v>
+        <v>-0.02394103014945814</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -4799,85 +4799,85 @@
         <v>170221.5</v>
       </c>
       <c r="J42" s="3">
-        <v>1050158038.091403</v>
+        <v>1052625714.343251</v>
       </c>
       <c r="K42" s="3">
-        <v>1030922492.095723</v>
+        <v>1032848612.521603</v>
       </c>
       <c r="L42" s="3">
-        <v>1036994615.379184</v>
+        <v>1038652642.7203</v>
       </c>
       <c r="M42" s="3">
-        <v>1044237989.52576</v>
+        <v>1044800161.599602</v>
       </c>
       <c r="N42" s="3">
-        <v>1032363865.204221</v>
+        <v>1032348503.505366</v>
       </c>
       <c r="O42" s="3">
-        <v>1061548822.062898</v>
+        <v>1061573428.370443</v>
       </c>
       <c r="P42" s="4">
-        <v>0.7648456057007126</v>
+        <v>0.7672209026128266</v>
       </c>
       <c r="Q42" s="4">
-        <v>0.7410926365795725</v>
+        <v>0.7434679334916865</v>
       </c>
       <c r="R42" s="4">
-        <v>0.7624703087885986</v>
+        <v>0.7695961995249406</v>
       </c>
       <c r="S42" s="4">
-        <v>0.7980997624703088</v>
+        <v>0.8052256532066508</v>
       </c>
       <c r="T42" s="4">
-        <v>0.665083135391924</v>
+        <v>0.6817102137767221</v>
       </c>
       <c r="U42" s="5">
-        <v>6553.064270216456</v>
+        <v>6568.462753577909</v>
       </c>
       <c r="V42" s="5">
-        <v>6285.959440597318</v>
+        <v>6297.703790892926</v>
       </c>
       <c r="W42" s="5">
-        <v>6233.231140946794</v>
+        <v>6243.197313867957</v>
       </c>
       <c r="X42" s="5">
-        <v>6193.159953655357</v>
+        <v>6196.494080176039</v>
       </c>
       <c r="Y42" s="5">
-        <v>6077.000392653784</v>
+        <v>6076.909966154834</v>
       </c>
       <c r="Z42" s="5">
-        <v>6236.279330536375</v>
+        <v>6236.423885175745</v>
       </c>
       <c r="AA42" s="5">
-        <v>-267.1048296191375</v>
+        <v>-270.7589626849831</v>
       </c>
       <c r="AB42" s="5">
-        <v>-319.8331292696621</v>
+        <v>-325.2654397099523</v>
       </c>
       <c r="AC42" s="5">
-        <v>-359.9043165610992</v>
+        <v>-371.9686734018696</v>
       </c>
       <c r="AD42" s="5">
-        <v>-476.0638775626721</v>
+        <v>-491.5527874230747</v>
       </c>
       <c r="AE42" s="5">
-        <v>-316.7849396800812</v>
+        <v>-332.0388684021646</v>
       </c>
       <c r="AF42" s="4">
-        <v>-0.04076029451338115</v>
+        <v>-0.04122105473422955</v>
       </c>
       <c r="AG42" s="4">
-        <v>-0.04880665228987557</v>
+        <v>-0.04951926377793292</v>
       </c>
       <c r="AH42" s="4">
-        <v>-0.05492153009956835</v>
+        <v>-0.05662948658714007</v>
       </c>
       <c r="AI42" s="4">
-        <v>-0.07264752151544929</v>
+        <v>-0.07483528579884557</v>
       </c>
       <c r="AJ42" s="4">
-        <v>-0.04834149744568539</v>
+        <v>-0.05055046833009746</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -4907,85 +4907,85 @@
         <v>220902.5</v>
       </c>
       <c r="J43" s="3">
-        <v>1519973889.611977</v>
+        <v>1523545545.814923</v>
       </c>
       <c r="K43" s="3">
-        <v>1477025420.561894</v>
+        <v>1479785015.831086</v>
       </c>
       <c r="L43" s="3">
-        <v>1472395221.577488</v>
+        <v>1474749401.144188</v>
       </c>
       <c r="M43" s="3">
-        <v>1477343282.343796</v>
+        <v>1478138619.369591</v>
       </c>
       <c r="N43" s="3">
-        <v>1463491089.113883</v>
+        <v>1463469312.189929</v>
       </c>
       <c r="O43" s="3">
-        <v>1502602821.666768</v>
+        <v>1502637651.442263</v>
       </c>
       <c r="P43" s="4">
-        <v>0.7524950099800399</v>
+        <v>0.7544910179640718</v>
       </c>
       <c r="Q43" s="4">
-        <v>0.7524950099800399</v>
+        <v>0.7564870259481038</v>
       </c>
       <c r="R43" s="4">
-        <v>0.7524950099800399</v>
+        <v>0.7544910179640718</v>
       </c>
       <c r="S43" s="4">
-        <v>0.7964071856287425</v>
+        <v>0.7984031936127745</v>
       </c>
       <c r="T43" s="4">
-        <v>0.6706586826347305</v>
+        <v>0.6806387225548902</v>
       </c>
       <c r="U43" s="5">
-        <v>7197.289083191566</v>
+        <v>7214.201375155303</v>
       </c>
       <c r="V43" s="5">
-        <v>6869.502262952275</v>
+        <v>6882.336873435371</v>
       </c>
       <c r="W43" s="5">
-        <v>6767.361858215349</v>
+        <v>6778.182040713636</v>
       </c>
       <c r="X43" s="5">
-        <v>6710.225071169069</v>
+        <v>6713.837562940146</v>
       </c>
       <c r="Y43" s="5">
-        <v>6612.332805972518</v>
+        <v>6612.234413662691</v>
       </c>
       <c r="Z43" s="5">
-        <v>6802.108720665306</v>
+        <v>6802.266391019854</v>
       </c>
       <c r="AA43" s="5">
-        <v>-327.786820239291</v>
+        <v>-331.8645017199324</v>
       </c>
       <c r="AB43" s="5">
-        <v>-429.9272249762162</v>
+        <v>-436.0193344416675</v>
       </c>
       <c r="AC43" s="5">
-        <v>-487.0640120224962</v>
+        <v>-500.3638122151569</v>
       </c>
       <c r="AD43" s="5">
-        <v>-584.9562772190475</v>
+        <v>-601.9669614926124</v>
       </c>
       <c r="AE43" s="5">
-        <v>-395.1803625262601</v>
+        <v>-411.9349841354488</v>
       </c>
       <c r="AF43" s="4">
-        <v>-0.04554309496957665</v>
+        <v>-0.04600155782493498</v>
       </c>
       <c r="AG43" s="4">
-        <v>-0.05973460562814703</v>
+        <v>-0.06043903015283947</v>
       </c>
       <c r="AH43" s="4">
-        <v>-0.067673259527671</v>
+        <v>-0.0693581709457598</v>
       </c>
       <c r="AI43" s="4">
-        <v>-0.08127452857008965</v>
+        <v>-0.08344194044342901</v>
       </c>
       <c r="AJ43" s="4">
-        <v>-0.05490683477604896</v>
+        <v>-0.05710056632936455</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -5017,85 +5017,85 @@
         <v>96688.5</v>
       </c>
       <c r="J44" s="3">
-        <v>511085731.1210485</v>
+        <v>512286687.6205461</v>
       </c>
       <c r="K44" s="3">
-        <v>501647080.0292385</v>
+        <v>502584330.5935014</v>
       </c>
       <c r="L44" s="3">
-        <v>498369108.4910668</v>
+        <v>499165939.6371411</v>
       </c>
       <c r="M44" s="3">
-        <v>508486158.5861154</v>
+        <v>508759905.3001395</v>
       </c>
       <c r="N44" s="3">
-        <v>504515911.266109</v>
+        <v>504508404.0084865</v>
       </c>
       <c r="O44" s="3">
-        <v>534270995.0550389</v>
+        <v>534283379.2583309</v>
       </c>
       <c r="P44" s="4">
         <v>0.7165605095541401</v>
       </c>
       <c r="Q44" s="4">
-        <v>0.7579617834394905</v>
+        <v>0.7643312101910829</v>
       </c>
       <c r="R44" s="4">
-        <v>0.6942675159235668</v>
+        <v>0.697452229299363</v>
       </c>
       <c r="S44" s="4">
-        <v>0.6847133757961783</v>
+        <v>0.7006369426751592</v>
       </c>
       <c r="T44" s="4">
-        <v>0.4968152866242038</v>
+        <v>0.5127388535031847</v>
       </c>
       <c r="U44" s="5">
-        <v>5476.231475238391</v>
+        <v>5489.099601625944</v>
       </c>
       <c r="V44" s="5">
-        <v>5330.943135877817</v>
+        <v>5340.903184806765</v>
       </c>
       <c r="W44" s="5">
-        <v>5257.00265283137</v>
+        <v>5265.407956004063</v>
       </c>
       <c r="X44" s="5">
-        <v>5309.368221089942</v>
+        <v>5312.226552785949</v>
       </c>
       <c r="Y44" s="5">
-        <v>5248.540039179288</v>
+        <v>5248.461940270341</v>
       </c>
       <c r="Z44" s="5">
-        <v>5525.693283638063</v>
+        <v>5525.821367156704</v>
       </c>
       <c r="AA44" s="5">
-        <v>-145.2883393605734</v>
+        <v>-148.1964168191789</v>
       </c>
       <c r="AB44" s="5">
-        <v>-219.2288224070207</v>
+        <v>-223.6916456218814</v>
       </c>
       <c r="AC44" s="5">
-        <v>-166.8632541484485</v>
+        <v>-176.8730488399951</v>
       </c>
       <c r="AD44" s="5">
-        <v>-227.6914360591027</v>
+        <v>-240.6376613556031</v>
       </c>
       <c r="AE44" s="5">
-        <v>49.46180839967201</v>
+        <v>36.72176553075951</v>
       </c>
       <c r="AF44" s="4">
-        <v>-0.02653071551440378</v>
+        <v>-0.02699831075670067</v>
       </c>
       <c r="AG44" s="4">
-        <v>-0.04003278959231305</v>
+        <v>-0.04075197425013399</v>
       </c>
       <c r="AH44" s="4">
-        <v>-0.03047045306666563</v>
+        <v>-0.03222259781688108</v>
       </c>
       <c r="AI44" s="4">
-        <v>-0.04157812486353873</v>
+        <v>-0.04383918653695462</v>
       </c>
       <c r="AJ44" s="4">
-        <v>0.009032088695176688</v>
+        <v>0.006689943377941709</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -5125,22 +5125,22 @@
         <v>119680</v>
       </c>
       <c r="J45" s="3">
-        <v>708556068.2082436</v>
+        <v>710221043.3064648</v>
       </c>
       <c r="K45" s="3">
-        <v>684943598.9351608</v>
+        <v>686223310.9082729</v>
       </c>
       <c r="L45" s="3">
-        <v>683291149.6212611</v>
+        <v>684383648.4551151</v>
       </c>
       <c r="M45" s="3">
-        <v>686947320.7143644</v>
+        <v>687317143.1147943</v>
       </c>
       <c r="N45" s="3">
-        <v>679905353.6397245</v>
+        <v>679895236.5660412</v>
       </c>
       <c r="O45" s="3">
-        <v>707849676.9218397</v>
+        <v>707866084.6145271</v>
       </c>
       <c r="P45" s="4">
         <v>0.7699386503067485</v>
@@ -5149,61 +5149,61 @@
         <v>0.7822085889570553</v>
       </c>
       <c r="R45" s="4">
-        <v>0.745398773006135</v>
+        <v>0.7668711656441718</v>
       </c>
       <c r="S45" s="4">
-        <v>0.745398773006135</v>
+        <v>0.754601226993865</v>
       </c>
       <c r="T45" s="4">
-        <v>0.6073619631901841</v>
+        <v>0.6288343558282209</v>
       </c>
       <c r="U45" s="5">
-        <v>6120.112875907956</v>
+        <v>6134.494003942688</v>
       </c>
       <c r="V45" s="5">
-        <v>5849.244436869165</v>
+        <v>5860.172852217754</v>
       </c>
       <c r="W45" s="5">
-        <v>5773.307503548785</v>
+        <v>5782.538314921951</v>
       </c>
       <c r="X45" s="5">
-        <v>5758.488098332378</v>
+        <v>5761.588216532356</v>
       </c>
       <c r="Y45" s="5">
-        <v>5684.898670465972</v>
+        <v>5684.814078487952</v>
       </c>
       <c r="Z45" s="5">
-        <v>5914.519359306816</v>
+        <v>5914.656455669511</v>
       </c>
       <c r="AA45" s="5">
-        <v>-270.8684390387907</v>
+        <v>-274.3211517249347</v>
       </c>
       <c r="AB45" s="5">
-        <v>-346.8053723591711</v>
+        <v>-351.9556890207377</v>
       </c>
       <c r="AC45" s="5">
-        <v>-361.6247775755774</v>
+        <v>-372.9057874103328</v>
       </c>
       <c r="AD45" s="5">
-        <v>-435.2142054419837</v>
+        <v>-449.6799254547368</v>
       </c>
       <c r="AE45" s="5">
-        <v>-205.5935166011395</v>
+        <v>-219.8375482731772</v>
       </c>
       <c r="AF45" s="4">
-        <v>-0.04425873256440649</v>
+        <v>-0.04471781234909122</v>
       </c>
       <c r="AG45" s="4">
-        <v>-0.05666649935892243</v>
+        <v>-0.05737322243603682</v>
       </c>
       <c r="AH45" s="4">
-        <v>-0.05908792613925906</v>
+        <v>-0.06078835306883723</v>
       </c>
       <c r="AI45" s="4">
-        <v>-0.07111212068575079</v>
+        <v>-0.07330350721114476</v>
       </c>
       <c r="AJ45" s="4">
-        <v>-0.03359309227946849</v>
+        <v>-0.03583629687010625</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -5233,85 +5233,85 @@
         <v>129382.5</v>
       </c>
       <c r="J46" s="3">
-        <v>784700074.5277715</v>
+        <v>786543973.8919603</v>
       </c>
       <c r="K46" s="3">
-        <v>757351222.5693033</v>
+        <v>758766217.0723257</v>
       </c>
       <c r="L46" s="3">
-        <v>756179513.3551393</v>
+        <v>757388551.7525822</v>
       </c>
       <c r="M46" s="3">
-        <v>760246068.1366324</v>
+        <v>760655351.3776571</v>
       </c>
       <c r="N46" s="3">
-        <v>753899761.4322112</v>
+        <v>753888543.3128138</v>
       </c>
       <c r="O46" s="3">
-        <v>789353685.6272951</v>
+        <v>789371982.5526435</v>
       </c>
       <c r="P46" s="4">
         <v>0.7628205128205128</v>
       </c>
       <c r="Q46" s="4">
-        <v>0.7916666666666666</v>
+        <v>0.8012820512820513</v>
       </c>
       <c r="R46" s="4">
-        <v>0.7660256410256411</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="S46" s="4">
         <v>0.8012820512820513</v>
       </c>
       <c r="T46" s="4">
-        <v>0.6121794871794872</v>
+        <v>0.6314102564102564</v>
       </c>
       <c r="U46" s="5">
-        <v>6295.959614457931</v>
+        <v>6310.75394965287</v>
       </c>
       <c r="V46" s="5">
-        <v>6006.552771442874</v>
+        <v>6017.775093267182</v>
       </c>
       <c r="W46" s="5">
-        <v>5931.936312365773</v>
+        <v>5941.420751769605</v>
       </c>
       <c r="X46" s="5">
-        <v>5896.808750332615</v>
+        <v>5899.983334323499</v>
       </c>
       <c r="Y46" s="5">
-        <v>5831.413852858748</v>
+        <v>5831.327080717141</v>
       </c>
       <c r="Z46" s="5">
-        <v>6100.930849437096</v>
+        <v>6101.072266748931</v>
       </c>
       <c r="AA46" s="5">
-        <v>-289.4068430150573</v>
+        <v>-292.9788563856882</v>
       </c>
       <c r="AB46" s="5">
-        <v>-364.0233020921578</v>
+        <v>-369.3331978832648</v>
       </c>
       <c r="AC46" s="5">
-        <v>-399.1508641253158</v>
+        <v>-410.7706153293711</v>
       </c>
       <c r="AD46" s="5">
-        <v>-464.5457615991827</v>
+        <v>-479.4268689357286</v>
       </c>
       <c r="AE46" s="5">
-        <v>-195.0287650208347</v>
+        <v>-209.681682903939</v>
       </c>
       <c r="AF46" s="4">
-        <v>-0.04596707424083035</v>
+        <v>-0.04642533344241762</v>
       </c>
       <c r="AG46" s="4">
-        <v>-0.05781855735799524</v>
+        <v>-0.05852441734059055</v>
       </c>
       <c r="AH46" s="4">
-        <v>-0.06339793908599933</v>
+        <v>-0.06509057691149023</v>
       </c>
       <c r="AI46" s="4">
-        <v>-0.07378474292185866</v>
+        <v>-0.07596982432853372</v>
       </c>
       <c r="AJ46" s="4">
-        <v>-0.03097681322049373</v>
+        <v>-0.03322609066630977</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -5320,106 +5320,106 @@
         <v>27</v>
       </c>
       <c r="C47" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D47" s="2">
-        <v>148050.5</v>
+        <v>146924.5</v>
       </c>
       <c r="E47" s="2">
-        <v>149944</v>
+        <v>148881</v>
       </c>
       <c r="F47" s="2">
-        <v>151679</v>
+        <v>150667</v>
       </c>
       <c r="G47" s="2">
-        <v>153836.5</v>
+        <v>152879.5</v>
       </c>
       <c r="H47" s="2">
-        <v>155181.5</v>
+        <v>154199.5</v>
       </c>
       <c r="I47" s="2">
-        <v>155284</v>
+        <v>154316</v>
       </c>
       <c r="J47" s="3">
-        <v>1000060138.43894</v>
+        <v>993630352.9859132</v>
       </c>
       <c r="K47" s="3">
-        <v>958661510.0951144</v>
+        <v>952447062.2607267</v>
       </c>
       <c r="L47" s="3">
-        <v>956369641.7537038</v>
+        <v>950418127.2194012</v>
       </c>
       <c r="M47" s="3">
-        <v>960188753.5617777</v>
+        <v>956974828.6331246</v>
       </c>
       <c r="N47" s="3">
-        <v>957812613.0124266</v>
+        <v>951103944.0223438</v>
       </c>
       <c r="O47" s="3">
-        <v>1003915647.009863</v>
+        <v>996800124.5102428</v>
       </c>
       <c r="P47" s="4">
-        <v>0.8</v>
+        <v>0.7994791666666666</v>
       </c>
       <c r="Q47" s="4">
-        <v>0.812987012987013</v>
+        <v>0.8125</v>
       </c>
       <c r="R47" s="4">
-        <v>0.8025974025974026</v>
+        <v>0.8072916666666666</v>
       </c>
       <c r="S47" s="4">
-        <v>0.8805194805194805</v>
+        <v>0.8880208333333334</v>
       </c>
       <c r="T47" s="4">
-        <v>0.6857142857142857</v>
+        <v>0.6901041666666666</v>
       </c>
       <c r="U47" s="5">
-        <v>6754.858230393952</v>
+        <v>6762.863599916373</v>
       </c>
       <c r="V47" s="5">
-        <v>6393.463627054863</v>
+        <v>6397.371472926207</v>
       </c>
       <c r="W47" s="5">
-        <v>6305.221169401854</v>
+        <v>6308.070959263815</v>
       </c>
       <c r="X47" s="5">
-        <v>6241.618559716178</v>
+        <v>6259.667441567539</v>
       </c>
       <c r="Y47" s="5">
-        <v>6172.208755634058</v>
+        <v>6168.009260875319</v>
       </c>
       <c r="Z47" s="5">
-        <v>6465.029539488053</v>
+        <v>6459.473577012383</v>
       </c>
       <c r="AA47" s="5">
-        <v>-361.3946033390894</v>
+        <v>-365.4921269901661</v>
       </c>
       <c r="AB47" s="5">
-        <v>-449.6370609920978</v>
+        <v>-454.7926406525585</v>
       </c>
       <c r="AC47" s="5">
-        <v>-513.2396706777745</v>
+        <v>-503.1961583488346</v>
       </c>
       <c r="AD47" s="5">
-        <v>-582.6494747598936</v>
+        <v>-594.8543390410541</v>
       </c>
       <c r="AE47" s="5">
-        <v>-289.8286909058988</v>
+        <v>-303.3900229039909</v>
       </c>
       <c r="AF47" s="4">
-        <v>-0.05350143422891829</v>
+        <v>-0.05404398914606023</v>
       </c>
       <c r="AG47" s="4">
-        <v>-0.06656498858390913</v>
+        <v>-0.06724853073455184</v>
       </c>
       <c r="AH47" s="4">
-        <v>-0.07598082049574584</v>
+        <v>-0.07440578253789665</v>
       </c>
       <c r="AI47" s="4">
-        <v>-0.08625635874017634</v>
+        <v>-0.08795894375991997</v>
       </c>
       <c r="AJ47" s="4">
-        <v>-0.04290670226086979</v>
+        <v>-0.04486117728409345</v>
       </c>
     </row>
     <row r="48" spans="1:36">
@@ -5449,85 +5449,85 @@
         <v>152030</v>
       </c>
       <c r="J48" s="3">
-        <v>1042506341.348806</v>
+        <v>1044956037.535126</v>
       </c>
       <c r="K48" s="3">
-        <v>1000713048.401718</v>
+        <v>1002582727.119323</v>
       </c>
       <c r="L48" s="3">
-        <v>998594903.6405561</v>
+        <v>1000191534.547199</v>
       </c>
       <c r="M48" s="3">
-        <v>1003884159.767433</v>
+        <v>1004424607.103821</v>
       </c>
       <c r="N48" s="3">
-        <v>1001925874.199401</v>
+        <v>1001910965.421523</v>
       </c>
       <c r="O48" s="3">
-        <v>1042501055.153106</v>
+        <v>1042525219.940487</v>
       </c>
       <c r="P48" s="4">
-        <v>0.7749360613810742</v>
+        <v>0.7774936061381074</v>
       </c>
       <c r="Q48" s="4">
-        <v>0.8235294117647058</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="R48" s="4">
-        <v>0.7979539641943734</v>
+        <v>0.8081841432225064</v>
       </c>
       <c r="S48" s="4">
-        <v>0.8439897698209718</v>
+        <v>0.8516624040920716</v>
       </c>
       <c r="T48" s="4">
-        <v>0.6445012787723785</v>
+        <v>0.6572890025575447</v>
       </c>
       <c r="U48" s="5">
-        <v>7151.892522279165</v>
+        <v>7168.698140760232</v>
       </c>
       <c r="V48" s="5">
-        <v>6721.698628418689</v>
+        <v>6734.257090499089</v>
       </c>
       <c r="W48" s="5">
-        <v>6630.864311880345</v>
+        <v>6641.466251525246</v>
       </c>
       <c r="X48" s="5">
-        <v>6599.247702601438</v>
+        <v>6602.800449009808</v>
       </c>
       <c r="Y48" s="5">
-        <v>6539.068434908946</v>
+        <v>6538.971132781778</v>
       </c>
       <c r="Z48" s="5">
-        <v>6857.20617741963</v>
+        <v>6857.365124912759</v>
       </c>
       <c r="AA48" s="5">
-        <v>-430.1938938604762</v>
+        <v>-434.4410502611436</v>
       </c>
       <c r="AB48" s="5">
-        <v>-521.0282103988202</v>
+        <v>-527.2318892349867</v>
       </c>
       <c r="AC48" s="5">
-        <v>-552.6448196777274</v>
+        <v>-565.8976917504242</v>
       </c>
       <c r="AD48" s="5">
-        <v>-612.8240873702189</v>
+        <v>-629.7270079784548</v>
       </c>
       <c r="AE48" s="5">
-        <v>-294.686344859535</v>
+        <v>-311.3330158474737</v>
       </c>
       <c r="AF48" s="4">
-        <v>-0.06015105687345845</v>
+        <v>-0.06060250295530945</v>
       </c>
       <c r="AG48" s="4">
-        <v>-0.07285179535007591</v>
+        <v>-0.07354639278744612</v>
       </c>
       <c r="AH48" s="4">
-        <v>-0.07727252862877343</v>
+        <v>-0.07894009213929765</v>
       </c>
       <c r="AI48" s="4">
-        <v>-0.08568698221641113</v>
+        <v>-0.08784398444648045</v>
       </c>
       <c r="AJ48" s="4">
-        <v>-0.04120396719351482</v>
+        <v>-0.04342950557190806</v>
       </c>
     </row>
   </sheetData>

--- a/output/Region & Deprivation.xlsx
+++ b/output/Region & Deprivation.xlsx
@@ -660,106 +660,106 @@
         <v>24</v>
       </c>
       <c r="C4" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D4" s="2">
-        <v>112096.5</v>
+        <v>114042</v>
       </c>
       <c r="E4" s="2">
-        <v>114102</v>
+        <v>116618</v>
       </c>
       <c r="F4" s="2">
-        <v>115375.5</v>
+        <v>117708</v>
       </c>
       <c r="G4" s="2">
-        <v>116070</v>
+        <v>118751.5</v>
       </c>
       <c r="H4" s="2">
-        <v>117765</v>
+        <v>120716.5</v>
       </c>
       <c r="I4" s="2">
-        <v>118287</v>
+        <v>121489.5</v>
       </c>
       <c r="J4" s="3">
-        <v>641157340.8976663</v>
+        <v>677056307.075196</v>
       </c>
       <c r="K4" s="3">
-        <v>633032075.5971233</v>
+        <v>676951668.2349628</v>
       </c>
       <c r="L4" s="3">
-        <v>631420347.8303622</v>
+        <v>670498324.6382827</v>
       </c>
       <c r="M4" s="3">
-        <v>632957652.4595526</v>
+        <v>674174672.2969344</v>
       </c>
       <c r="N4" s="3">
-        <v>633493878.145635</v>
+        <v>672583338.5933368</v>
       </c>
       <c r="O4" s="3">
-        <v>678331734.1732469</v>
+        <v>730493836.2288548</v>
       </c>
       <c r="P4" s="4">
-        <v>0.6848484848484848</v>
+        <v>0.6696696696696697</v>
       </c>
       <c r="Q4" s="4">
-        <v>0.7</v>
+        <v>0.7117117117117117</v>
       </c>
       <c r="R4" s="4">
-        <v>0.7333333333333333</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="S4" s="4">
-        <v>0.7545454545454545</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="T4" s="4">
-        <v>0.503030303030303</v>
+        <v>0.4894894894894895</v>
       </c>
       <c r="U4" s="5">
-        <v>5719.690988547068</v>
+        <v>5936.903132838744</v>
       </c>
       <c r="V4" s="5">
-        <v>5547.948989475411</v>
+        <v>5804.86432827662</v>
       </c>
       <c r="W4" s="5">
-        <v>5472.74202781667</v>
+        <v>5696.285083752019</v>
       </c>
       <c r="X4" s="5">
-        <v>5453.240737999075</v>
+        <v>5677.188686432882</v>
       </c>
       <c r="Y4" s="5">
-        <v>5379.305210764107</v>
+        <v>5571.594095201044</v>
       </c>
       <c r="Z4" s="5">
-        <v>5734.626241034492</v>
+        <v>6012.814574336505</v>
       </c>
       <c r="AA4" s="5">
-        <v>-171.7419990716571</v>
+        <v>-132.0388045621239</v>
       </c>
       <c r="AB4" s="5">
-        <v>-246.9489607303976</v>
+        <v>-240.6180490867246</v>
       </c>
       <c r="AC4" s="5">
-        <v>-266.4502505479923</v>
+        <v>-259.714446405862</v>
       </c>
       <c r="AD4" s="5">
-        <v>-340.3857777829608</v>
+        <v>-365.3090376376995</v>
       </c>
       <c r="AE4" s="5">
-        <v>14.9352524874239</v>
+        <v>75.91144149776119</v>
       </c>
       <c r="AF4" s="4">
-        <v>-0.03002644713071878</v>
+        <v>-0.0222403501636701</v>
       </c>
       <c r="AG4" s="4">
-        <v>-0.04317522768710413</v>
+        <v>-0.04052921930893494</v>
       </c>
       <c r="AH4" s="4">
-        <v>-0.04658472828016824</v>
+        <v>-0.0437457779914423</v>
       </c>
       <c r="AI4" s="4">
-        <v>-0.05951121808232973</v>
+        <v>-0.06153191815057057</v>
       </c>
       <c r="AJ4" s="4">
-        <v>0.002611199191937086</v>
+        <v>0.0127863702336446</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -768,106 +768,106 @@
         <v>25</v>
       </c>
       <c r="C5" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D5" s="2">
-        <v>123009.5</v>
+        <v>119130.5</v>
       </c>
       <c r="E5" s="2">
-        <v>125372</v>
+        <v>120828</v>
       </c>
       <c r="F5" s="2">
-        <v>127074</v>
+        <v>122206.5</v>
       </c>
       <c r="G5" s="2">
-        <v>128377</v>
+        <v>123376.5</v>
       </c>
       <c r="H5" s="2">
-        <v>129510</v>
+        <v>124454</v>
       </c>
       <c r="I5" s="2">
-        <v>130160.5</v>
+        <v>125160.5</v>
       </c>
       <c r="J5" s="3">
-        <v>724249237.8230977</v>
+        <v>735904664.9710916</v>
       </c>
       <c r="K5" s="3">
-        <v>722236903.733685</v>
+        <v>726759703.8378222</v>
       </c>
       <c r="L5" s="3">
-        <v>716845699.2985394</v>
+        <v>716483342.8848732</v>
       </c>
       <c r="M5" s="3">
-        <v>727042338.2238467</v>
+        <v>726579351.3815978</v>
       </c>
       <c r="N5" s="3">
-        <v>717265532.2258426</v>
+        <v>720965105.3508414</v>
       </c>
       <c r="O5" s="3">
-        <v>768218715.8360323</v>
+        <v>775004564.5467701</v>
       </c>
       <c r="P5" s="4">
-        <v>0.7427055702917772</v>
+        <v>0.7465940054495913</v>
       </c>
       <c r="Q5" s="4">
-        <v>0.7400530503978779</v>
+        <v>0.7629427792915532</v>
       </c>
       <c r="R5" s="4">
-        <v>0.6896551724137931</v>
+        <v>0.7138964577656676</v>
       </c>
       <c r="S5" s="4">
-        <v>0.7877984084880637</v>
+        <v>0.7792915531335149</v>
       </c>
       <c r="T5" s="4">
-        <v>0.5305039787798409</v>
+        <v>0.4877384196185286</v>
       </c>
       <c r="U5" s="5">
-        <v>5887.75044060091</v>
+        <v>6177.298550506307</v>
       </c>
       <c r="V5" s="5">
-        <v>5760.751234196511</v>
+        <v>6014.828548331696</v>
       </c>
       <c r="W5" s="5">
-        <v>5641.167345787017</v>
+        <v>5862.890622715429</v>
       </c>
       <c r="X5" s="5">
-        <v>5663.337967267086</v>
+        <v>5889.122737163056</v>
       </c>
       <c r="Y5" s="5">
-        <v>5538.302310445854</v>
+        <v>5793.024775024036</v>
       </c>
       <c r="Z5" s="5">
-        <v>5902.087928642194</v>
+        <v>6192.085878106672</v>
       </c>
       <c r="AA5" s="5">
-        <v>-126.999206404399</v>
+        <v>-162.4700021746112</v>
       </c>
       <c r="AB5" s="5">
-        <v>-246.5830948138928</v>
+        <v>-314.4079277908777</v>
       </c>
       <c r="AC5" s="5">
-        <v>-224.412473333824</v>
+        <v>-288.1758133432513</v>
       </c>
       <c r="AD5" s="5">
-        <v>-349.4481301550559</v>
+        <v>-384.273775482271</v>
       </c>
       <c r="AE5" s="5">
-        <v>14.3374880412839</v>
+        <v>14.78732760036473</v>
       </c>
       <c r="AF5" s="4">
-        <v>-0.02157007293118851</v>
+        <v>-0.02630114132354744</v>
       </c>
       <c r="AG5" s="4">
-        <v>-0.04188069744150469</v>
+        <v>-0.0508973178518477</v>
       </c>
       <c r="AH5" s="4">
-        <v>-0.03811514696450347</v>
+        <v>-0.04665078286035429</v>
       </c>
       <c r="AI5" s="4">
-        <v>-0.05935172247541642</v>
+        <v>-0.06220741515735462</v>
       </c>
       <c r="AJ5" s="4">
-        <v>0.002435138545006099</v>
+        <v>0.002393817860584457</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -876,106 +876,106 @@
         <v>26</v>
       </c>
       <c r="C6" s="2">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="D6" s="2">
-        <v>122109</v>
+        <v>124702.5</v>
       </c>
       <c r="E6" s="2">
-        <v>123594</v>
+        <v>126235.5</v>
       </c>
       <c r="F6" s="2">
-        <v>125440.5</v>
+        <v>128213.5</v>
       </c>
       <c r="G6" s="2">
-        <v>126968.5</v>
+        <v>129921.5</v>
       </c>
       <c r="H6" s="2">
-        <v>127891.5</v>
+        <v>131022.5</v>
       </c>
       <c r="I6" s="2">
-        <v>129344.5</v>
+        <v>132501</v>
       </c>
       <c r="J6" s="3">
-        <v>773276749.4318922</v>
+        <v>798199938.6451381</v>
       </c>
       <c r="K6" s="3">
-        <v>749332977.5240518</v>
+        <v>779506913.4861804</v>
       </c>
       <c r="L6" s="3">
-        <v>743864871.0473347</v>
+        <v>768978641.711303</v>
       </c>
       <c r="M6" s="3">
-        <v>746922092.1150554</v>
+        <v>773022061.3820536</v>
       </c>
       <c r="N6" s="3">
-        <v>743591174.9762597</v>
+        <v>771563065.515597</v>
       </c>
       <c r="O6" s="3">
-        <v>780647672.2534907</v>
+        <v>828948842.6472338</v>
       </c>
       <c r="P6" s="4">
-        <v>0.7479224376731302</v>
+        <v>0.7055702917771883</v>
       </c>
       <c r="Q6" s="4">
-        <v>0.7673130193905817</v>
+        <v>0.7639257294429708</v>
       </c>
       <c r="R6" s="4">
-        <v>0.7008310249307479</v>
+        <v>0.7082228116710876</v>
       </c>
       <c r="S6" s="4">
-        <v>0.7673130193905817</v>
+        <v>0.7824933687002652</v>
       </c>
       <c r="T6" s="4">
-        <v>0.5706371191135734</v>
+        <v>0.5119363395225465</v>
       </c>
       <c r="U6" s="5">
-        <v>6332.67612896586</v>
+        <v>6400.833492874146</v>
       </c>
       <c r="V6" s="5">
-        <v>6062.858856611581</v>
+        <v>6175.021396407353</v>
       </c>
       <c r="W6" s="5">
-        <v>5930.021572357688</v>
+        <v>5997.641759341278</v>
       </c>
       <c r="X6" s="5">
-        <v>5882.735419533628</v>
+        <v>5949.916383216431</v>
       </c>
       <c r="Y6" s="5">
-        <v>5814.234526737584</v>
+        <v>5888.782961060863</v>
       </c>
       <c r="Z6" s="5">
-        <v>6035.414511274083</v>
+        <v>6256.170463975622</v>
       </c>
       <c r="AA6" s="5">
-        <v>-269.8172723542784</v>
+        <v>-225.8120964667933</v>
       </c>
       <c r="AB6" s="5">
-        <v>-402.6545566081713</v>
+        <v>-403.1917335328681</v>
       </c>
       <c r="AC6" s="5">
-        <v>-449.9407094322314</v>
+        <v>-450.9171096577147</v>
       </c>
       <c r="AD6" s="5">
-        <v>-518.4416022282758</v>
+        <v>-512.0505318132828</v>
       </c>
       <c r="AE6" s="5">
-        <v>-297.2616176917763</v>
+        <v>-144.6630288985243</v>
       </c>
       <c r="AF6" s="4">
-        <v>-0.04260714851974279</v>
+        <v>-0.03527854563287469</v>
       </c>
       <c r="AG6" s="4">
-        <v>-0.06358363327099847</v>
+        <v>-0.06299050490560787</v>
       </c>
       <c r="AH6" s="4">
-        <v>-0.07105064277236417</v>
+        <v>-0.070446623890421</v>
       </c>
       <c r="AI6" s="4">
-        <v>-0.08186769568980601</v>
+        <v>-0.07999747726344286</v>
       </c>
       <c r="AJ6" s="4">
-        <v>-0.04694091591579941</v>
+        <v>-0.02260065490839169</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -984,106 +984,106 @@
         <v>27</v>
       </c>
       <c r="C7" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D7" s="2">
-        <v>114557.5</v>
+        <v>111730.5</v>
       </c>
       <c r="E7" s="2">
-        <v>116399</v>
+        <v>113450</v>
       </c>
       <c r="F7" s="2">
-        <v>118038.5</v>
+        <v>115005</v>
       </c>
       <c r="G7" s="2">
-        <v>119609</v>
+        <v>116179</v>
       </c>
       <c r="H7" s="2">
-        <v>120591.5</v>
+        <v>117123.5</v>
       </c>
       <c r="I7" s="2">
-        <v>120558.5</v>
+        <v>116773</v>
       </c>
       <c r="J7" s="3">
-        <v>743669724.575211</v>
+        <v>736939515.9229748</v>
       </c>
       <c r="K7" s="3">
-        <v>724321684.031832</v>
+        <v>718618317.5981854</v>
       </c>
       <c r="L7" s="3">
-        <v>717401728.8898451</v>
+        <v>708050373.7202387</v>
       </c>
       <c r="M7" s="3">
-        <v>727716962.8951622</v>
+        <v>715947234.1575913</v>
       </c>
       <c r="N7" s="3">
-        <v>719269470.8419496</v>
+        <v>710769988.6345268</v>
       </c>
       <c r="O7" s="3">
-        <v>757781521.9960467</v>
+        <v>746521898.3778028</v>
       </c>
       <c r="P7" s="4">
-        <v>0.7436619718309859</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.7323943661971831</v>
+        <v>0.7426900584795322</v>
       </c>
       <c r="R7" s="4">
-        <v>0.7014084507042253</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="S7" s="4">
-        <v>0.780281690140845</v>
+        <v>0.783625730994152</v>
       </c>
       <c r="T7" s="4">
-        <v>0.571830985915493</v>
+        <v>0.5116959064327485</v>
       </c>
       <c r="U7" s="5">
-        <v>6491.672082362229</v>
+        <v>6595.687980658592</v>
       </c>
       <c r="V7" s="5">
-        <v>6222.748340035842</v>
+        <v>6334.229330966818</v>
       </c>
       <c r="W7" s="5">
-        <v>6077.692692552389</v>
+        <v>6156.692089215588</v>
       </c>
       <c r="X7" s="5">
-        <v>6084.132154730515</v>
+        <v>6162.449617896447</v>
       </c>
       <c r="Y7" s="5">
-        <v>5964.512182383913</v>
+        <v>6068.551474593287</v>
       </c>
       <c r="Z7" s="5">
-        <v>6285.59182468301</v>
+        <v>6392.932427682794</v>
       </c>
       <c r="AA7" s="5">
-        <v>-268.9237423263867</v>
+        <v>-261.4586496917746</v>
       </c>
       <c r="AB7" s="5">
-        <v>-413.9793898098405</v>
+        <v>-438.9958914430044</v>
       </c>
       <c r="AC7" s="5">
-        <v>-407.5399276317139</v>
+        <v>-433.2383627621448</v>
       </c>
       <c r="AD7" s="5">
-        <v>-527.1598999783164</v>
+        <v>-527.1365060653052</v>
       </c>
       <c r="AE7" s="5">
-        <v>-206.0802576792194</v>
+        <v>-202.7555529757983</v>
       </c>
       <c r="AF7" s="4">
-        <v>-0.04142595912338953</v>
+        <v>-0.03964084572503801</v>
       </c>
       <c r="AG7" s="4">
-        <v>-0.06377084124976307</v>
+        <v>-0.06655801377056192</v>
       </c>
       <c r="AH7" s="4">
-        <v>-0.06277888384704355</v>
+        <v>-0.06568509062778394</v>
       </c>
       <c r="AI7" s="4">
-        <v>-0.08120556511327826</v>
+        <v>-0.07992138312350394</v>
       </c>
       <c r="AJ7" s="4">
-        <v>-0.0317453277159726</v>
+        <v>-0.03074062229298369</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1092,106 +1092,106 @@
         <v>28</v>
       </c>
       <c r="C8" s="2">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="D8" s="2">
-        <v>75327</v>
+        <v>81083.5</v>
       </c>
       <c r="E8" s="2">
-        <v>76721</v>
+        <v>82704</v>
       </c>
       <c r="F8" s="2">
-        <v>76493.5</v>
+        <v>82763.5</v>
       </c>
       <c r="G8" s="2">
-        <v>76811.5</v>
+        <v>83131</v>
       </c>
       <c r="H8" s="2">
-        <v>77066.5</v>
+        <v>83072.5</v>
       </c>
       <c r="I8" s="2">
-        <v>76550.5</v>
+        <v>82514.5</v>
       </c>
       <c r="J8" s="3">
-        <v>529591238.0201902</v>
+        <v>589355238.1135266</v>
       </c>
       <c r="K8" s="3">
-        <v>516439993.9815299</v>
+        <v>576213417.0512007</v>
       </c>
       <c r="L8" s="3">
-        <v>508970752.140958</v>
+        <v>572921224.0045465</v>
       </c>
       <c r="M8" s="3">
-        <v>501862017.3153217</v>
+        <v>564288799.5629488</v>
       </c>
       <c r="N8" s="3">
-        <v>501419743.4292486</v>
+        <v>561843685.0561694</v>
       </c>
       <c r="O8" s="3">
-        <v>527760679.1089505</v>
+        <v>594409414.3546571</v>
       </c>
       <c r="P8" s="4">
-        <v>0.7075098814229249</v>
+        <v>0.6900369003690037</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.6877470355731226</v>
+        <v>0.6974169741697417</v>
       </c>
       <c r="R8" s="4">
-        <v>0.6996047430830039</v>
+        <v>0.7121771217712177</v>
       </c>
       <c r="S8" s="4">
-        <v>0.7351778656126482</v>
+        <v>0.7306273062730627</v>
       </c>
       <c r="T8" s="4">
-        <v>0.4901185770750988</v>
+        <v>0.4833948339483395</v>
       </c>
       <c r="U8" s="5">
-        <v>7030.563251160808</v>
+        <v>7268.497759883658</v>
       </c>
       <c r="V8" s="5">
-        <v>6731.403318277003</v>
+        <v>6967.177126272015</v>
       </c>
       <c r="W8" s="5">
-        <v>6653.77779995631</v>
+        <v>6922.389990811729</v>
       </c>
       <c r="X8" s="5">
-        <v>6533.68333277337</v>
+        <v>6787.946729414404</v>
       </c>
       <c r="Y8" s="5">
-        <v>6506.325620460882</v>
+        <v>6763.293328793156</v>
       </c>
       <c r="Z8" s="5">
-        <v>6894.281279795044</v>
+        <v>7203.696494005988</v>
       </c>
       <c r="AA8" s="5">
-        <v>-299.1599328838056</v>
+        <v>-301.3206336116427</v>
       </c>
       <c r="AB8" s="5">
-        <v>-376.7854512044987</v>
+        <v>-346.1077690719285</v>
       </c>
       <c r="AC8" s="5">
-        <v>-496.879918387438</v>
+        <v>-480.5510304692534</v>
       </c>
       <c r="AD8" s="5">
-        <v>-524.2376306999258</v>
+        <v>-505.2044310905021</v>
       </c>
       <c r="AE8" s="5">
-        <v>-136.2819713657645</v>
+        <v>-64.80126587766972</v>
       </c>
       <c r="AF8" s="4">
-        <v>-0.04255134648485126</v>
+        <v>-0.04145569601392651</v>
       </c>
       <c r="AG8" s="4">
-        <v>-0.05359249860134441</v>
+        <v>-0.04761751059237695</v>
       </c>
       <c r="AH8" s="4">
-        <v>-0.07067426899336959</v>
+        <v>-0.06611421594177469</v>
       </c>
       <c r="AI8" s="4">
-        <v>-0.07456552369589586</v>
+        <v>-0.06950603106446973</v>
       </c>
       <c r="AJ8" s="4">
-        <v>-0.01938421809138313</v>
+        <v>-0.008915358856588118</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1202,106 +1202,106 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="D9" s="2">
-        <v>186036.5</v>
+        <v>195665.5</v>
       </c>
       <c r="E9" s="2">
-        <v>187950</v>
+        <v>198100</v>
       </c>
       <c r="F9" s="2">
-        <v>190405</v>
+        <v>201056.5</v>
       </c>
       <c r="G9" s="2">
-        <v>192717</v>
+        <v>203901</v>
       </c>
       <c r="H9" s="2">
-        <v>195212</v>
+        <v>207097</v>
       </c>
       <c r="I9" s="2">
-        <v>197664.5</v>
+        <v>209922</v>
       </c>
       <c r="J9" s="3">
-        <v>1126489589.582572</v>
+        <v>1214360466.77939</v>
       </c>
       <c r="K9" s="3">
-        <v>1132165138.816817</v>
+        <v>1226812063.49112</v>
       </c>
       <c r="L9" s="3">
-        <v>1112417717.864847</v>
+        <v>1200701426.628883</v>
       </c>
       <c r="M9" s="3">
-        <v>1118602192.501088</v>
+        <v>1209017864.407794</v>
       </c>
       <c r="N9" s="3">
-        <v>1090456730.038321</v>
+        <v>1180247018.704116</v>
       </c>
       <c r="O9" s="3">
-        <v>1172252170.225131</v>
+        <v>1285627006.277267</v>
       </c>
       <c r="P9" s="4">
-        <v>0.6945054945054945</v>
+        <v>0.6963906581740976</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.756043956043956</v>
+        <v>0.772823779193206</v>
       </c>
       <c r="R9" s="4">
-        <v>0.7428571428571429</v>
+        <v>0.7749469214437368</v>
       </c>
       <c r="S9" s="4">
-        <v>0.832967032967033</v>
+        <v>0.8535031847133758</v>
       </c>
       <c r="T9" s="4">
-        <v>0.6461538461538462</v>
+        <v>0.6050955414012739</v>
       </c>
       <c r="U9" s="5">
-        <v>6055.207389853991</v>
+        <v>6206.308556078564</v>
       </c>
       <c r="V9" s="5">
-        <v>6023.757056753481</v>
+        <v>6192.892799046544</v>
       </c>
       <c r="W9" s="5">
-        <v>5842.376607047333</v>
+        <v>5971.960253107373</v>
       </c>
       <c r="X9" s="5">
-        <v>5804.377364223646</v>
+        <v>5929.435679117775</v>
       </c>
       <c r="Y9" s="5">
-        <v>5586.012796540789</v>
+        <v>5699.005870215967</v>
       </c>
       <c r="Z9" s="5">
-        <v>5930.514433421939</v>
+        <v>6124.308106235967</v>
       </c>
       <c r="AA9" s="5">
-        <v>-31.45033310050985</v>
+        <v>-13.41575703202034</v>
       </c>
       <c r="AB9" s="5">
-        <v>-212.8307828066581</v>
+        <v>-234.3483029711906</v>
       </c>
       <c r="AC9" s="5">
-        <v>-250.8300256303455</v>
+        <v>-276.8728769607887</v>
       </c>
       <c r="AD9" s="5">
-        <v>-469.1945933132019</v>
+        <v>-507.3026858625972</v>
       </c>
       <c r="AE9" s="5">
-        <v>-124.6929564320526</v>
+        <v>-82.00044984259694</v>
       </c>
       <c r="AF9" s="4">
-        <v>-0.005193931615489755</v>
+        <v>-0.002161632298942173</v>
       </c>
       <c r="AG9" s="4">
-        <v>-0.03514838866844994</v>
+        <v>-0.0377596925537429</v>
       </c>
       <c r="AH9" s="4">
-        <v>-0.04142385379741609</v>
+        <v>-0.0446115230106654</v>
       </c>
       <c r="AI9" s="4">
-        <v>-0.07748613104472313</v>
+        <v>-0.08173984281940616</v>
       </c>
       <c r="AJ9" s="4">
-        <v>-0.02059268137388426</v>
+        <v>-0.01321243523451376</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -1310,106 +1310,106 @@
         <v>25</v>
       </c>
       <c r="C10" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D10" s="2">
-        <v>189574</v>
+        <v>181300</v>
       </c>
       <c r="E10" s="2">
-        <v>194109.5</v>
+        <v>185145.5</v>
       </c>
       <c r="F10" s="2">
-        <v>198308</v>
+        <v>188385.5</v>
       </c>
       <c r="G10" s="2">
-        <v>202092.5</v>
+        <v>191400</v>
       </c>
       <c r="H10" s="2">
-        <v>204605</v>
+        <v>193417.5</v>
       </c>
       <c r="I10" s="2">
-        <v>205593.5</v>
+        <v>194385</v>
       </c>
       <c r="J10" s="3">
-        <v>1145483720.677361</v>
+        <v>1128463547.783849</v>
       </c>
       <c r="K10" s="3">
-        <v>1149453630.038279</v>
+        <v>1136280052.579563</v>
       </c>
       <c r="L10" s="3">
-        <v>1144795082.103164</v>
+        <v>1121323597.154924</v>
       </c>
       <c r="M10" s="3">
-        <v>1161502947.538892</v>
+        <v>1134662380.281096</v>
       </c>
       <c r="N10" s="3">
-        <v>1131428242.584855</v>
+        <v>1107763832.529964</v>
       </c>
       <c r="O10" s="3">
-        <v>1215679964.399436</v>
+        <v>1193293515.956127</v>
       </c>
       <c r="P10" s="4">
-        <v>0.6917293233082706</v>
+        <v>0.6529080675422139</v>
       </c>
       <c r="Q10" s="4">
-        <v>0.7330827067669173</v>
+        <v>0.7185741088180112</v>
       </c>
       <c r="R10" s="4">
-        <v>0.7293233082706767</v>
+        <v>0.7148217636022514</v>
       </c>
       <c r="S10" s="4">
-        <v>0.8026315789473685</v>
+        <v>0.7842401500938087</v>
       </c>
       <c r="T10" s="4">
-        <v>0.6109022556390977</v>
+        <v>0.5628517823639775</v>
       </c>
       <c r="U10" s="5">
-        <v>6042.40940570627</v>
+        <v>6224.288735707938</v>
       </c>
       <c r="V10" s="5">
-        <v>5921.676322067075</v>
+        <v>6137.227491781127</v>
       </c>
       <c r="W10" s="5">
-        <v>5772.81341198118</v>
+        <v>5952.281874958126</v>
       </c>
       <c r="X10" s="5">
-        <v>5747.382745717391</v>
+        <v>5928.225602304577</v>
       </c>
       <c r="Y10" s="5">
-        <v>5529.817172526846</v>
+        <v>5727.319567929295</v>
       </c>
       <c r="Z10" s="5">
-        <v>5913.027232862107</v>
+        <v>6138.814805443462</v>
       </c>
       <c r="AA10" s="5">
-        <v>-120.7330836391948</v>
+        <v>-87.06124392681068</v>
       </c>
       <c r="AB10" s="5">
-        <v>-269.59599372509</v>
+        <v>-272.0068607498124</v>
       </c>
       <c r="AC10" s="5">
-        <v>-295.0266599888791</v>
+        <v>-296.0631334033615</v>
       </c>
       <c r="AD10" s="5">
-        <v>-512.5922331794245</v>
+        <v>-496.9691677786432</v>
       </c>
       <c r="AE10" s="5">
-        <v>-129.3821728441635</v>
+        <v>-85.47393026447571</v>
       </c>
       <c r="AF10" s="4">
-        <v>-0.01998095056670246</v>
+        <v>-0.01398734018030878</v>
       </c>
       <c r="AG10" s="4">
-        <v>-0.04461730009067111</v>
+        <v>-0.04370087447732696</v>
       </c>
       <c r="AH10" s="4">
-        <v>-0.0488259964163078</v>
+        <v>-0.04756577754898894</v>
       </c>
       <c r="AI10" s="4">
-        <v>-0.08483242341959618</v>
+        <v>-0.07984352732989319</v>
       </c>
       <c r="AJ10" s="4">
-        <v>-0.02141234798191249</v>
+        <v>-0.01373232089541776</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -1418,106 +1418,106 @@
         <v>26</v>
       </c>
       <c r="C11" s="2">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="D11" s="2">
-        <v>158299.5</v>
+        <v>163500.5</v>
       </c>
       <c r="E11" s="2">
-        <v>160493.5</v>
+        <v>165731</v>
       </c>
       <c r="F11" s="2">
-        <v>162110</v>
+        <v>167490.5</v>
       </c>
       <c r="G11" s="2">
-        <v>163841</v>
+        <v>169896.5</v>
       </c>
       <c r="H11" s="2">
-        <v>166026</v>
+        <v>172441</v>
       </c>
       <c r="I11" s="2">
-        <v>167262</v>
+        <v>173809.5</v>
       </c>
       <c r="J11" s="3">
-        <v>984516900.4220456</v>
+        <v>1048911213.838011</v>
       </c>
       <c r="K11" s="3">
-        <v>959490829.7861485</v>
+        <v>1020952914.361011</v>
       </c>
       <c r="L11" s="3">
-        <v>949863439.7189908</v>
+        <v>1004950643.920429</v>
       </c>
       <c r="M11" s="3">
-        <v>951918755.1596458</v>
+        <v>1011596634.426076</v>
       </c>
       <c r="N11" s="3">
-        <v>937091818.112336</v>
+        <v>997302281.3515792</v>
       </c>
       <c r="O11" s="3">
-        <v>992275154.2316979</v>
+        <v>1069483629.808522</v>
       </c>
       <c r="P11" s="4">
-        <v>0.721868365180467</v>
+        <v>0.7204968944099379</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.7834394904458599</v>
+        <v>0.7991718426501035</v>
       </c>
       <c r="R11" s="4">
-        <v>0.7558386411889597</v>
+        <v>0.7474120082815735</v>
       </c>
       <c r="S11" s="4">
-        <v>0.8152866242038217</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="T11" s="4">
-        <v>0.6624203821656051</v>
+        <v>0.6542443064182195</v>
       </c>
       <c r="U11" s="5">
-        <v>6219.330449066772</v>
+        <v>6415.339487267691</v>
       </c>
       <c r="V11" s="5">
-        <v>5978.378126130644</v>
+        <v>6160.301418328564</v>
       </c>
       <c r="W11" s="5">
-        <v>5859.375977539885</v>
+        <v>6000.045637934264</v>
       </c>
       <c r="X11" s="5">
-        <v>5810.015534326853</v>
+        <v>5954.193490896373</v>
       </c>
       <c r="Y11" s="5">
-        <v>5644.247395662945</v>
+        <v>5783.440604911704</v>
       </c>
       <c r="Z11" s="5">
-        <v>5932.460177635673</v>
+        <v>6153.194329472909</v>
       </c>
       <c r="AA11" s="5">
-        <v>-240.9523229361284</v>
+        <v>-255.0380689391268</v>
       </c>
       <c r="AB11" s="5">
-        <v>-359.9544715268876</v>
+        <v>-415.2938493334268</v>
       </c>
       <c r="AC11" s="5">
-        <v>-409.3149147399199</v>
+        <v>-461.1459963713178</v>
       </c>
       <c r="AD11" s="5">
-        <v>-575.0830534038278</v>
+        <v>-631.8988823559866</v>
       </c>
       <c r="AE11" s="5">
-        <v>-286.8702714310994</v>
+        <v>-262.1451577947819</v>
       </c>
       <c r="AF11" s="4">
-        <v>-0.03874248601347174</v>
+        <v>-0.03975441509296462</v>
       </c>
       <c r="AG11" s="4">
-        <v>-0.05787672394556553</v>
+        <v>-0.06473450861916918</v>
       </c>
       <c r="AH11" s="4">
-        <v>-0.06581334085590174</v>
+        <v>-0.07188177605979207</v>
       </c>
       <c r="AI11" s="4">
-        <v>-0.09246703614054153</v>
+        <v>-0.09849812057648633</v>
       </c>
       <c r="AJ11" s="4">
-        <v>-0.04612558759828322</v>
+        <v>-0.04086224249161752</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -1526,106 +1526,106 @@
         <v>27</v>
       </c>
       <c r="C12" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D12" s="2">
-        <v>130950.5</v>
+        <v>131557</v>
       </c>
       <c r="E12" s="2">
-        <v>133779.5</v>
+        <v>134406</v>
       </c>
       <c r="F12" s="2">
-        <v>136322.5</v>
+        <v>136724</v>
       </c>
       <c r="G12" s="2">
-        <v>139091.5</v>
+        <v>139208.5</v>
       </c>
       <c r="H12" s="2">
-        <v>141035</v>
+        <v>140769</v>
       </c>
       <c r="I12" s="2">
-        <v>141796.5</v>
+        <v>141165</v>
       </c>
       <c r="J12" s="3">
-        <v>868716652.1151863</v>
+        <v>903799854.9186863</v>
       </c>
       <c r="K12" s="3">
-        <v>843864115.6184059</v>
+        <v>880506645.1865131</v>
       </c>
       <c r="L12" s="3">
-        <v>840715532.151926</v>
+        <v>875548294.8790039</v>
       </c>
       <c r="M12" s="3">
-        <v>839545690.5569158</v>
+        <v>873681870.0236486</v>
       </c>
       <c r="N12" s="3">
-        <v>832503581.8905797</v>
+        <v>864836007.1174583</v>
       </c>
       <c r="O12" s="3">
-        <v>873777903.2356294</v>
+        <v>914758419.5010005</v>
       </c>
       <c r="P12" s="4">
-        <v>0.7410468319559229</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="Q12" s="4">
-        <v>0.7603305785123967</v>
+        <v>0.7722222222222223</v>
       </c>
       <c r="R12" s="4">
-        <v>0.7988980716253443</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="S12" s="4">
-        <v>0.8181818181818182</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="T12" s="4">
-        <v>0.6721763085399449</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="U12" s="5">
-        <v>6633.931539896269</v>
+        <v>6870.024817521578</v>
       </c>
       <c r="V12" s="5">
-        <v>6307.873146621164</v>
+        <v>6551.096269411433</v>
       </c>
       <c r="W12" s="5">
-        <v>6167.107646587511</v>
+        <v>6403.764480844649</v>
       </c>
       <c r="X12" s="5">
-        <v>6035.923766419341</v>
+        <v>6276.066978838567</v>
       </c>
       <c r="Y12" s="5">
-        <v>5902.815484741941</v>
+        <v>6143.653837971843</v>
       </c>
       <c r="Z12" s="5">
-        <v>6162.196550941874</v>
+        <v>6480.065310105199</v>
       </c>
       <c r="AA12" s="5">
-        <v>-326.0583932751051</v>
+        <v>-318.9285481101451</v>
       </c>
       <c r="AB12" s="5">
-        <v>-466.8238933087578</v>
+        <v>-466.260336676929</v>
       </c>
       <c r="AC12" s="5">
-        <v>-598.0077734769284</v>
+        <v>-593.9578386830117</v>
       </c>
       <c r="AD12" s="5">
-        <v>-731.116055154328</v>
+        <v>-726.3709795497352</v>
       </c>
       <c r="AE12" s="5">
-        <v>-471.7349889543948</v>
+        <v>-389.959507416379</v>
       </c>
       <c r="AF12" s="4">
-        <v>-0.04915009920048152</v>
+        <v>-0.04642320174691905</v>
       </c>
       <c r="AG12" s="4">
-        <v>-0.07036911528273881</v>
+        <v>-0.06786879946747215</v>
       </c>
       <c r="AH12" s="4">
-        <v>-0.09014379631151259</v>
+        <v>-0.08645643275816972</v>
       </c>
       <c r="AI12" s="4">
-        <v>-0.1102085619601917</v>
+        <v>-0.1057304738837581</v>
       </c>
       <c r="AJ12" s="4">
-        <v>-0.07110941469886967</v>
+        <v>-0.05676245978352379</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -1634,106 +1634,106 @@
         <v>28</v>
       </c>
       <c r="C13" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D13" s="2">
-        <v>52313</v>
+        <v>52621.5</v>
       </c>
       <c r="E13" s="2">
-        <v>53244</v>
+        <v>53689</v>
       </c>
       <c r="F13" s="2">
-        <v>53651.5</v>
+        <v>54276</v>
       </c>
       <c r="G13" s="2">
-        <v>53858.5</v>
+        <v>54380</v>
       </c>
       <c r="H13" s="2">
-        <v>53582</v>
+        <v>54036</v>
       </c>
       <c r="I13" s="2">
-        <v>52788.5</v>
+        <v>53163.5</v>
       </c>
       <c r="J13" s="3">
-        <v>367382416.9462056</v>
+        <v>379448797.1728935</v>
       </c>
       <c r="K13" s="3">
-        <v>354954614.2035812</v>
+        <v>366990496.9467303</v>
       </c>
       <c r="L13" s="3">
-        <v>351452509.3650731</v>
+        <v>363213132.5773479</v>
       </c>
       <c r="M13" s="3">
-        <v>350385411.9504403</v>
+        <v>361371721.2275383</v>
       </c>
       <c r="N13" s="3">
-        <v>340177377.748193</v>
+        <v>352558390.8583558</v>
       </c>
       <c r="O13" s="3">
-        <v>352031704.7850193</v>
+        <v>367050848.2365393</v>
       </c>
       <c r="P13" s="4">
-        <v>0.7243589743589743</v>
+        <v>0.7124183006535948</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.6858974358974359</v>
+        <v>0.6928104575163399</v>
       </c>
       <c r="R13" s="4">
-        <v>0.7692307692307693</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="S13" s="4">
-        <v>0.782051282051282</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="T13" s="4">
-        <v>0.6666666666666666</v>
+        <v>0.6013071895424836</v>
       </c>
       <c r="U13" s="5">
-        <v>7022.774777707368</v>
+        <v>7210.908035173713</v>
       </c>
       <c r="V13" s="5">
-        <v>6666.565513552347</v>
+        <v>6835.487659422419</v>
       </c>
       <c r="W13" s="5">
-        <v>6550.655794620338</v>
+        <v>6691.965741346965</v>
       </c>
       <c r="X13" s="5">
-        <v>6505.665994233785</v>
+        <v>6645.305649642118</v>
       </c>
       <c r="Y13" s="5">
-        <v>6348.72490291876</v>
+        <v>6524.509417024868</v>
       </c>
       <c r="Z13" s="5">
-        <v>6668.719603417778</v>
+        <v>6904.188931062464</v>
       </c>
       <c r="AA13" s="5">
-        <v>-356.2092641550216</v>
+        <v>-375.4203757512942</v>
       </c>
       <c r="AB13" s="5">
-        <v>-472.1189830870298</v>
+        <v>-518.942293826748</v>
       </c>
       <c r="AC13" s="5">
-        <v>-517.1087834735836</v>
+        <v>-565.6023855315952</v>
       </c>
       <c r="AD13" s="5">
-        <v>-674.0498747886086</v>
+        <v>-686.3986181488453</v>
       </c>
       <c r="AE13" s="5">
-        <v>-354.0551742895905</v>
+        <v>-306.7191041112492</v>
       </c>
       <c r="AF13" s="4">
-        <v>-0.05072201165923029</v>
+        <v>-0.05206284339226774</v>
       </c>
       <c r="AG13" s="4">
-        <v>-0.06722684380904442</v>
+        <v>-0.07196628930717552</v>
       </c>
       <c r="AH13" s="4">
-        <v>-0.07363311509220816</v>
+        <v>-0.07843705435885084</v>
       </c>
       <c r="AI13" s="4">
-        <v>-0.09598056268702615</v>
+        <v>-0.09518892971602155</v>
       </c>
       <c r="AJ13" s="4">
-        <v>-0.05041528249111449</v>
+        <v>-0.04253543418042771</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -1744,106 +1744,106 @@
         <v>24</v>
       </c>
       <c r="C14" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D14" s="2">
-        <v>140646</v>
+        <v>145746.5</v>
       </c>
       <c r="E14" s="2">
-        <v>144009</v>
+        <v>149492.5</v>
       </c>
       <c r="F14" s="2">
-        <v>146646</v>
+        <v>152509.5</v>
       </c>
       <c r="G14" s="2">
-        <v>148759</v>
+        <v>154870</v>
       </c>
       <c r="H14" s="2">
-        <v>150386.5</v>
+        <v>156704</v>
       </c>
       <c r="I14" s="2">
-        <v>151574</v>
+        <v>158051</v>
       </c>
       <c r="J14" s="3">
-        <v>886014270.8136592</v>
+        <v>958940151.5482821</v>
       </c>
       <c r="K14" s="3">
-        <v>883856112.3002167</v>
+        <v>964595432.3233116</v>
       </c>
       <c r="L14" s="3">
-        <v>881347620.0892642</v>
+        <v>959696089.7344757</v>
       </c>
       <c r="M14" s="3">
-        <v>894039190.7025173</v>
+        <v>970879406.4476231</v>
       </c>
       <c r="N14" s="3">
-        <v>877878915.3135456</v>
+        <v>952152440.6970068</v>
       </c>
       <c r="O14" s="3">
-        <v>924525330.0538735</v>
+        <v>1015329498.159179</v>
       </c>
       <c r="P14" s="4">
-        <v>0.7749077490774908</v>
+        <v>0.73992673992674</v>
       </c>
       <c r="Q14" s="4">
-        <v>0.8044280442804428</v>
+        <v>0.8021978021978022</v>
       </c>
       <c r="R14" s="4">
-        <v>0.7785977859778598</v>
+        <v>0.7728937728937729</v>
       </c>
       <c r="S14" s="4">
-        <v>0.8560885608856088</v>
+        <v>0.8608058608058609</v>
       </c>
       <c r="T14" s="4">
-        <v>0.7158671586715867</v>
+        <v>0.6776556776556777</v>
       </c>
       <c r="U14" s="5">
-        <v>6299.605184745099</v>
+        <v>6579.507237211748</v>
       </c>
       <c r="V14" s="5">
-        <v>6137.506074621841</v>
+        <v>6452.46706238314</v>
       </c>
       <c r="W14" s="5">
-        <v>6010.035187385023</v>
+        <v>6292.69710893076</v>
       </c>
       <c r="X14" s="5">
-        <v>6009.983871244881</v>
+        <v>6268.995973704546</v>
       </c>
       <c r="Y14" s="5">
-        <v>5837.484849461524</v>
+        <v>6076.120843737281</v>
       </c>
       <c r="Z14" s="5">
-        <v>6099.498133280599</v>
+        <v>6424.062474512525</v>
       </c>
       <c r="AA14" s="5">
-        <v>-162.0991101232585</v>
+        <v>-127.0401748286085</v>
       </c>
       <c r="AB14" s="5">
-        <v>-289.5699973600758</v>
+        <v>-286.8101282809885</v>
       </c>
       <c r="AC14" s="5">
-        <v>-289.6213135002181</v>
+        <v>-310.5112635072019</v>
       </c>
       <c r="AD14" s="5">
-        <v>-462.1203352835746</v>
+        <v>-503.3863934744677</v>
       </c>
       <c r="AE14" s="5">
-        <v>-200.1070514644998</v>
+        <v>-155.4447626992232</v>
       </c>
       <c r="AF14" s="4">
-        <v>-0.02573163005767276</v>
+        <v>-0.01930846342262638</v>
       </c>
       <c r="AG14" s="4">
-        <v>-0.04596637231509182</v>
+        <v>-0.04359142986557951</v>
       </c>
       <c r="AH14" s="4">
-        <v>-0.04597451824465992</v>
+        <v>-0.04719369586692479</v>
       </c>
       <c r="AI14" s="4">
-        <v>-0.0733570313902574</v>
+        <v>-0.07650822095421717</v>
       </c>
       <c r="AJ14" s="4">
-        <v>-0.03176501472648985</v>
+        <v>-0.02362559339095693</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -1852,106 +1852,106 @@
         <v>25</v>
       </c>
       <c r="C15" s="2">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="D15" s="2">
-        <v>157122</v>
+        <v>143846.5</v>
       </c>
       <c r="E15" s="2">
-        <v>160485.5</v>
+        <v>146579.5</v>
       </c>
       <c r="F15" s="2">
-        <v>163485</v>
+        <v>148826.5</v>
       </c>
       <c r="G15" s="2">
-        <v>166110.5</v>
+        <v>150894</v>
       </c>
       <c r="H15" s="2">
-        <v>168910</v>
+        <v>153291.5</v>
       </c>
       <c r="I15" s="2">
-        <v>170375</v>
+        <v>154814</v>
       </c>
       <c r="J15" s="3">
-        <v>1118267044.278471</v>
+        <v>1035251502.577865</v>
       </c>
       <c r="K15" s="3">
-        <v>1101901341.190139</v>
+        <v>1020076386.606242</v>
       </c>
       <c r="L15" s="3">
-        <v>1106324935.64749</v>
+        <v>1008897821.448149</v>
       </c>
       <c r="M15" s="3">
-        <v>1121430711.94062</v>
+        <v>1025954678.03095</v>
       </c>
       <c r="N15" s="3">
-        <v>1097097681.26613</v>
+        <v>1004251698.419046</v>
       </c>
       <c r="O15" s="3">
-        <v>1149458667.439864</v>
+        <v>1059770775.606377</v>
       </c>
       <c r="P15" s="4">
-        <v>0.7641791044776119</v>
+        <v>0.7564935064935064</v>
       </c>
       <c r="Q15" s="4">
-        <v>0.7970149253731343</v>
+        <v>0.8116883116883117</v>
       </c>
       <c r="R15" s="4">
-        <v>0.7611940298507462</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="S15" s="4">
-        <v>0.8567164179104477</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="T15" s="4">
-        <v>0.7074626865671642</v>
+        <v>0.6688311688311688</v>
       </c>
       <c r="U15" s="5">
-        <v>7117.189472374782</v>
+        <v>7196.918260631058</v>
       </c>
       <c r="V15" s="5">
-        <v>6866.049214353567</v>
+        <v>6959.202252745042</v>
       </c>
       <c r="W15" s="5">
-        <v>6767.134205875094</v>
+        <v>6779.020009528874</v>
       </c>
       <c r="X15" s="5">
-        <v>6751.112734839881</v>
+        <v>6799.174771899145</v>
       </c>
       <c r="Y15" s="5">
-        <v>6495.161217607778</v>
+        <v>6551.254951638192</v>
       </c>
       <c r="Z15" s="5">
-        <v>6746.639280644836</v>
+        <v>6845.445344777453</v>
       </c>
       <c r="AA15" s="5">
-        <v>-251.1402580212152</v>
+        <v>-237.7160078860161</v>
       </c>
       <c r="AB15" s="5">
-        <v>-350.0552664996876</v>
+        <v>-417.8982511021841</v>
       </c>
       <c r="AC15" s="5">
-        <v>-366.0767375349005</v>
+        <v>-397.7434887319132</v>
       </c>
       <c r="AD15" s="5">
-        <v>-622.028254767004</v>
+        <v>-645.6633089928655</v>
       </c>
       <c r="AE15" s="5">
-        <v>-370.5501917299462</v>
+        <v>-351.4729158536047</v>
       </c>
       <c r="AF15" s="4">
-        <v>-0.03528643701225187</v>
+        <v>-0.03303024979266223</v>
       </c>
       <c r="AG15" s="4">
-        <v>-0.04918448045516</v>
+        <v>-0.05806627725483449</v>
       </c>
       <c r="AH15" s="4">
-        <v>-0.05143557565185242</v>
+        <v>-0.05526580604752307</v>
       </c>
       <c r="AI15" s="4">
-        <v>-0.08739801816171866</v>
+        <v>-0.08971385885050343</v>
       </c>
       <c r="AJ15" s="4">
-        <v>-0.05206411788926357</v>
+        <v>-0.04883658576147087</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -1960,106 +1960,106 @@
         <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D16" s="2">
-        <v>222209.5</v>
+        <v>214384</v>
       </c>
       <c r="E16" s="2">
-        <v>226499</v>
+        <v>218864.5</v>
       </c>
       <c r="F16" s="2">
-        <v>230486.5</v>
+        <v>223087</v>
       </c>
       <c r="G16" s="2">
-        <v>233091.5</v>
+        <v>226434.5</v>
       </c>
       <c r="H16" s="2">
-        <v>234167</v>
+        <v>228706</v>
       </c>
       <c r="I16" s="2">
-        <v>233235.5</v>
+        <v>227610</v>
       </c>
       <c r="J16" s="3">
-        <v>1597777012.669626</v>
+        <v>1589594075.614038</v>
       </c>
       <c r="K16" s="3">
-        <v>1572062082.276285</v>
+        <v>1569193004.646488</v>
       </c>
       <c r="L16" s="3">
-        <v>1574711823.531121</v>
+        <v>1569986550.766388</v>
       </c>
       <c r="M16" s="3">
-        <v>1594631854.08748</v>
+        <v>1602346258.154005</v>
       </c>
       <c r="N16" s="3">
-        <v>1557207697.824794</v>
+        <v>1569422576.418292</v>
       </c>
       <c r="O16" s="3">
-        <v>1609118017.614154</v>
+        <v>1644319047.514235</v>
       </c>
       <c r="P16" s="4">
-        <v>0.7829268292682927</v>
+        <v>0.7518427518427518</v>
       </c>
       <c r="Q16" s="4">
-        <v>0.7853658536585366</v>
+        <v>0.7886977886977887</v>
       </c>
       <c r="R16" s="4">
-        <v>0.7536585365853659</v>
+        <v>0.7714987714987716</v>
       </c>
       <c r="S16" s="4">
-        <v>0.824390243902439</v>
+        <v>0.8624078624078624</v>
       </c>
       <c r="T16" s="4">
-        <v>0.7097560975609756</v>
+        <v>0.6658476658476659</v>
       </c>
       <c r="U16" s="5">
-        <v>7190.408207883216</v>
+        <v>7414.704808260123</v>
       </c>
       <c r="V16" s="5">
-        <v>6940.702088204738</v>
+        <v>7169.70090922232</v>
       </c>
       <c r="W16" s="5">
-        <v>6832.121723099276</v>
+        <v>7037.552841565792</v>
       </c>
       <c r="X16" s="5">
-        <v>6841.226960603366</v>
+        <v>7076.422798442838</v>
       </c>
       <c r="Y16" s="5">
-        <v>6649.987819909698</v>
+        <v>6862.183661199494</v>
       </c>
       <c r="Z16" s="5">
-        <v>6899.112774917</v>
+        <v>7224.282973130508</v>
       </c>
       <c r="AA16" s="5">
-        <v>-249.706119678478</v>
+        <v>-245.0038990378034</v>
       </c>
       <c r="AB16" s="5">
-        <v>-358.2864847839401</v>
+        <v>-377.1519666943313</v>
       </c>
       <c r="AC16" s="5">
-        <v>-349.1812472798501</v>
+        <v>-338.2820098172851</v>
       </c>
       <c r="AD16" s="5">
-        <v>-540.4203879735178</v>
+        <v>-552.5211470606291</v>
       </c>
       <c r="AE16" s="5">
-        <v>-291.2954329662161</v>
+        <v>-190.4218351296149</v>
       </c>
       <c r="AF16" s="4">
-        <v>-0.03472766948122807</v>
+        <v>-0.03304297411339485</v>
       </c>
       <c r="AG16" s="4">
-        <v>-0.04982839282909313</v>
+        <v>-0.05086540549452179</v>
       </c>
       <c r="AH16" s="4">
-        <v>-0.04856208954827135</v>
+        <v>-0.04562312574337857</v>
       </c>
       <c r="AI16" s="4">
-        <v>-0.07515851288957798</v>
+        <v>-0.07451694455119917</v>
       </c>
       <c r="AJ16" s="4">
-        <v>-0.04051166839830511</v>
+        <v>-0.0256816474901983</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2068,106 +2068,106 @@
         <v>27</v>
       </c>
       <c r="C17" s="2">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="D17" s="2">
-        <v>306295</v>
+        <v>322773.5</v>
       </c>
       <c r="E17" s="2">
-        <v>310440.5</v>
+        <v>327314</v>
       </c>
       <c r="F17" s="2">
-        <v>311943</v>
+        <v>328931.5</v>
       </c>
       <c r="G17" s="2">
-        <v>313969.5</v>
+        <v>330789.5</v>
       </c>
       <c r="H17" s="2">
-        <v>314028</v>
+        <v>329846</v>
       </c>
       <c r="I17" s="2">
-        <v>311391.5</v>
+        <v>327405</v>
       </c>
       <c r="J17" s="3">
-        <v>2463648289.489746</v>
+        <v>2665230881.653433</v>
       </c>
       <c r="K17" s="3">
-        <v>2408057258.568649</v>
+        <v>2612822639.717928</v>
       </c>
       <c r="L17" s="3">
-        <v>2382196964.504122</v>
+        <v>2574701769.694878</v>
       </c>
       <c r="M17" s="3">
-        <v>2390573245.178523</v>
+        <v>2581877808.644912</v>
       </c>
       <c r="N17" s="3">
-        <v>2318366806.691514</v>
+        <v>2504014437.093705</v>
       </c>
       <c r="O17" s="3">
-        <v>2394627400.487204</v>
+        <v>2603212034.767341</v>
       </c>
       <c r="P17" s="4">
-        <v>0.7568027210884354</v>
+        <v>0.7540453074433657</v>
       </c>
       <c r="Q17" s="4">
-        <v>0.7551020408163265</v>
+        <v>0.7621359223300971</v>
       </c>
       <c r="R17" s="4">
-        <v>0.7602040816326531</v>
+        <v>0.7637540453074434</v>
       </c>
       <c r="S17" s="4">
-        <v>0.8214285714285714</v>
+        <v>0.8009708737864077</v>
       </c>
       <c r="T17" s="4">
-        <v>0.6768707482993197</v>
+        <v>0.6456310679611651</v>
       </c>
       <c r="U17" s="5">
-        <v>8043.38395824204</v>
+        <v>8257.279118804467</v>
       </c>
       <c r="V17" s="5">
-        <v>7756.904329714225</v>
+        <v>7982.618035641396</v>
       </c>
       <c r="W17" s="5">
-        <v>7636.641836823143</v>
+        <v>7827.470977072362</v>
       </c>
       <c r="X17" s="5">
-        <v>7614.030169104079</v>
+        <v>7805.198800581374</v>
       </c>
       <c r="Y17" s="5">
-        <v>7382.675451525068</v>
+        <v>7591.46522041712</v>
       </c>
       <c r="Z17" s="5">
-        <v>7690.085954456702</v>
+        <v>7951.045447587363</v>
       </c>
       <c r="AA17" s="5">
-        <v>-286.4796285278144</v>
+        <v>-274.6610831630705</v>
       </c>
       <c r="AB17" s="5">
-        <v>-406.7421214188962</v>
+        <v>-429.8081417321046</v>
       </c>
       <c r="AC17" s="5">
-        <v>-429.353789137961</v>
+        <v>-452.0803182230929</v>
       </c>
       <c r="AD17" s="5">
-        <v>-660.7085067169719</v>
+        <v>-665.8138983873469</v>
       </c>
       <c r="AE17" s="5">
-        <v>-353.2980037853376</v>
+        <v>-306.2336712171036</v>
       </c>
       <c r="AF17" s="4">
-        <v>-0.03561680382474586</v>
+        <v>-0.0332629040645579</v>
       </c>
       <c r="AG17" s="4">
-        <v>-0.05056853229070435</v>
+        <v>-0.05205203016006732</v>
       </c>
       <c r="AH17" s="4">
-        <v>-0.05337974556069813</v>
+        <v>-0.05474930806124279</v>
       </c>
       <c r="AI17" s="4">
-        <v>-0.0821431017277181</v>
+        <v>-0.08063357055123344</v>
       </c>
       <c r="AJ17" s="4">
-        <v>-0.043924050576165</v>
+        <v>-0.03708651079987246</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2176,106 +2176,106 @@
         <v>28</v>
       </c>
       <c r="C18" s="2">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="D18" s="2">
-        <v>244337.5</v>
+        <v>251391</v>
       </c>
       <c r="E18" s="2">
-        <v>245165.5</v>
+        <v>252137</v>
       </c>
       <c r="F18" s="2">
-        <v>245218</v>
+        <v>252319</v>
       </c>
       <c r="G18" s="2">
-        <v>244296.5</v>
+        <v>251283</v>
       </c>
       <c r="H18" s="2">
-        <v>241991</v>
+        <v>249141</v>
       </c>
       <c r="I18" s="2">
-        <v>237637.5</v>
+        <v>244459.5</v>
       </c>
       <c r="J18" s="3">
-        <v>2210895289.347492</v>
+        <v>2338785628.135529</v>
       </c>
       <c r="K18" s="3">
-        <v>2143670543.666224</v>
+        <v>2271548711.807686</v>
       </c>
       <c r="L18" s="3">
-        <v>2101258898.96846</v>
+        <v>2217614401.431939</v>
       </c>
       <c r="M18" s="3">
-        <v>2087596390.59358</v>
+        <v>2201489895.828743</v>
       </c>
       <c r="N18" s="3">
-        <v>2003594048.696878</v>
+        <v>2115744778.133184</v>
       </c>
       <c r="O18" s="3">
-        <v>2036606883.416829</v>
+        <v>2174746886.223093</v>
       </c>
       <c r="P18" s="4">
-        <v>0.7537878787878788</v>
+        <v>0.7458256029684601</v>
       </c>
       <c r="Q18" s="4">
-        <v>0.7367424242424242</v>
+        <v>0.7476808905380334</v>
       </c>
       <c r="R18" s="4">
-        <v>0.7064393939393939</v>
+        <v>0.7198515769944341</v>
       </c>
       <c r="S18" s="4">
-        <v>0.7765151515151515</v>
+        <v>0.7829313543599258</v>
       </c>
       <c r="T18" s="4">
-        <v>0.6571969696969697</v>
+        <v>0.640074211502783</v>
       </c>
       <c r="U18" s="5">
-        <v>9048.530370276738</v>
+        <v>9303.378514487507</v>
       </c>
       <c r="V18" s="5">
-        <v>8743.769183128228</v>
+        <v>9009.184339496727</v>
       </c>
       <c r="W18" s="5">
-        <v>8568.942324659934</v>
+        <v>8788.931477343913</v>
       </c>
       <c r="X18" s="5">
-        <v>8545.338924600146</v>
+        <v>8760.998140856098</v>
       </c>
       <c r="Y18" s="5">
-        <v>8279.62217064634</v>
+        <v>8492.158167997975</v>
       </c>
       <c r="Z18" s="5">
-        <v>8570.225168236617</v>
+        <v>8896.143885686964</v>
       </c>
       <c r="AA18" s="5">
-        <v>-304.7611871485096</v>
+        <v>-294.1941749907801</v>
       </c>
       <c r="AB18" s="5">
-        <v>-479.5880456168034</v>
+        <v>-514.4470371435946</v>
       </c>
       <c r="AC18" s="5">
-        <v>-503.1914456765917</v>
+        <v>-542.3803736314094</v>
       </c>
       <c r="AD18" s="5">
-        <v>-768.9081996303976</v>
+        <v>-811.2203464895319</v>
       </c>
       <c r="AE18" s="5">
-        <v>-478.305202040121</v>
+        <v>-407.2346288005429</v>
       </c>
       <c r="AF18" s="4">
-        <v>-0.03368073871416855</v>
+        <v>-0.03162229447427645</v>
       </c>
       <c r="AG18" s="4">
-        <v>-0.05300176116910527</v>
+        <v>-0.05529679743143656</v>
       </c>
       <c r="AH18" s="4">
-        <v>-0.05561029527286676</v>
+        <v>-0.05829929125067823</v>
       </c>
       <c r="AI18" s="4">
-        <v>-0.08497603126317199</v>
+        <v>-0.08719631746964551</v>
       </c>
       <c r="AJ18" s="4">
-        <v>-0.05285998747501497</v>
+        <v>-0.04377276794299878</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2286,106 +2286,106 @@
         <v>24</v>
       </c>
       <c r="C19" s="2">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="D19" s="2">
-        <v>26339.5</v>
+        <v>31166</v>
       </c>
       <c r="E19" s="2">
-        <v>26675</v>
+        <v>31526</v>
       </c>
       <c r="F19" s="2">
-        <v>27008.5</v>
+        <v>31841.5</v>
       </c>
       <c r="G19" s="2">
-        <v>27315.5</v>
+        <v>32088</v>
       </c>
       <c r="H19" s="2">
-        <v>28339.5</v>
+        <v>32924.5</v>
       </c>
       <c r="I19" s="2">
-        <v>28589.5</v>
+        <v>33096.5</v>
       </c>
       <c r="J19" s="3">
-        <v>144425656.5978161</v>
+        <v>171239767.9292428</v>
       </c>
       <c r="K19" s="3">
-        <v>142130323.1816469</v>
+        <v>168788362.9034209</v>
       </c>
       <c r="L19" s="3">
-        <v>142072975.2741603</v>
+        <v>167875194.2822454</v>
       </c>
       <c r="M19" s="3">
-        <v>138714480.0772182</v>
+        <v>165611006.5589966</v>
       </c>
       <c r="N19" s="3">
-        <v>144509680.0009493</v>
+        <v>169777527.2720192</v>
       </c>
       <c r="O19" s="3">
-        <v>153603027.3954796</v>
+        <v>180358281.9340689</v>
       </c>
       <c r="P19" s="4">
-        <v>0.7222222222222222</v>
+        <v>0.7433628318584071</v>
       </c>
       <c r="Q19" s="4">
-        <v>0.7333333333333333</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="R19" s="4">
-        <v>0.7777777777777778</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="S19" s="4">
-        <v>0.8111111111111111</v>
+        <v>0.7522123893805309</v>
       </c>
       <c r="T19" s="4">
-        <v>0.6111111111111112</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="U19" s="5">
-        <v>5483.234556381713</v>
+        <v>5494.441632844858</v>
       </c>
       <c r="V19" s="5">
-        <v>5328.222049921158</v>
+        <v>5353.941600692156</v>
       </c>
       <c r="W19" s="5">
-        <v>5260.306024924016</v>
+        <v>5272.213755075777</v>
       </c>
       <c r="X19" s="5">
-        <v>5078.233240366028</v>
+        <v>5161.150790295332</v>
       </c>
       <c r="Y19" s="5">
-        <v>5099.231814285688</v>
+        <v>5156.571163480668</v>
       </c>
       <c r="Z19" s="5">
-        <v>5372.707721208124</v>
+        <v>5449.466920492166</v>
       </c>
       <c r="AA19" s="5">
-        <v>-155.0125064605545</v>
+        <v>-140.5000321527023</v>
       </c>
       <c r="AB19" s="5">
-        <v>-222.9285314576964</v>
+        <v>-222.2278777690808</v>
       </c>
       <c r="AC19" s="5">
-        <v>-405.001316015685</v>
+        <v>-333.2908425495261</v>
       </c>
       <c r="AD19" s="5">
-        <v>-384.0027420960241</v>
+        <v>-337.8704693641903</v>
       </c>
       <c r="AE19" s="5">
-        <v>-110.5268351735886</v>
+        <v>-44.97471235269222</v>
       </c>
       <c r="AF19" s="4">
-        <v>-0.02827026727867077</v>
+        <v>-0.02557130306250166</v>
       </c>
       <c r="AG19" s="4">
-        <v>-0.0406563916180166</v>
+        <v>-0.04044594384998823</v>
       </c>
       <c r="AH19" s="4">
-        <v>-0.07386175292178965</v>
+        <v>-0.06065963838020749</v>
       </c>
       <c r="AI19" s="4">
-        <v>-0.07003215677671482</v>
+        <v>-0.06149314014811935</v>
       </c>
       <c r="AJ19" s="4">
-        <v>-0.02015723274959136</v>
+        <v>-0.008185492786717541</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2397,103 +2397,103 @@
         <v>133</v>
       </c>
       <c r="D20" s="2">
-        <v>36559.5</v>
+        <v>38835.5</v>
       </c>
       <c r="E20" s="2">
-        <v>37098</v>
+        <v>39296.5</v>
       </c>
       <c r="F20" s="2">
-        <v>38199.5</v>
+        <v>40542</v>
       </c>
       <c r="G20" s="2">
-        <v>38646</v>
+        <v>41184.5</v>
       </c>
       <c r="H20" s="2">
-        <v>38651.5</v>
+        <v>41399.5</v>
       </c>
       <c r="I20" s="2">
-        <v>38569.5</v>
+        <v>41556.5</v>
       </c>
       <c r="J20" s="3">
-        <v>208681279.3846872</v>
+        <v>242558205.4749348</v>
       </c>
       <c r="K20" s="3">
-        <v>202150703.1671148</v>
+        <v>237329628.2378747</v>
       </c>
       <c r="L20" s="3">
-        <v>206696841.4629572</v>
+        <v>239996347.0503943</v>
       </c>
       <c r="M20" s="3">
-        <v>211402480.0504477</v>
+        <v>244067616.7277406</v>
       </c>
       <c r="N20" s="3">
-        <v>209434934.5721223</v>
+        <v>236510438.5836511</v>
       </c>
       <c r="O20" s="3">
-        <v>215102299.7762634</v>
+        <v>254324684.7443755</v>
       </c>
       <c r="P20" s="4">
-        <v>0.8345864661654135</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="Q20" s="4">
-        <v>0.7744360902255639</v>
+        <v>0.7969924812030075</v>
       </c>
       <c r="R20" s="4">
-        <v>0.7368421052631579</v>
+        <v>0.8120300751879699</v>
       </c>
       <c r="S20" s="4">
-        <v>0.7368421052631579</v>
+        <v>0.8120300751879699</v>
       </c>
       <c r="T20" s="4">
-        <v>0.6466165413533834</v>
+        <v>0.6616541353383458</v>
       </c>
       <c r="U20" s="5">
-        <v>5707.990519145152</v>
+        <v>6245.785569258405</v>
       </c>
       <c r="V20" s="5">
-        <v>5449.099767295133</v>
+        <v>6039.459703481853</v>
       </c>
       <c r="W20" s="5">
-        <v>5410.982904565694</v>
+        <v>5919.696784825473</v>
       </c>
       <c r="X20" s="5">
-        <v>5470.229261772181</v>
+        <v>5926.200797089698</v>
       </c>
       <c r="Y20" s="5">
-        <v>5418.546099688818</v>
+        <v>5712.881522328799</v>
       </c>
       <c r="Z20" s="5">
-        <v>5577.005140752755</v>
+        <v>6119.973644180225</v>
       </c>
       <c r="AA20" s="5">
-        <v>-258.8907518500191</v>
+        <v>-206.3258657765518</v>
       </c>
       <c r="AB20" s="5">
-        <v>-297.0076145794574</v>
+        <v>-326.0887844329327</v>
       </c>
       <c r="AC20" s="5">
-        <v>-237.7612573729712</v>
+        <v>-319.5847721687078</v>
       </c>
       <c r="AD20" s="5">
-        <v>-289.4444194563339</v>
+        <v>-532.904046929606</v>
       </c>
       <c r="AE20" s="5">
-        <v>-130.9853783923963</v>
+        <v>-125.8119250781801</v>
       </c>
       <c r="AF20" s="4">
-        <v>-0.04535584825897565</v>
+        <v>-0.03303441392417994</v>
       </c>
       <c r="AG20" s="4">
-        <v>-0.05203365590451936</v>
+        <v>-0.05220941078059627</v>
       </c>
       <c r="AH20" s="4">
-        <v>-0.0416541086702048</v>
+        <v>-0.05116806663067264</v>
       </c>
       <c r="AI20" s="4">
-        <v>-0.0507086370388159</v>
+        <v>-0.08532218101635536</v>
       </c>
       <c r="AJ20" s="4">
-        <v>-0.02294772178633775</v>
+        <v>-0.02014349094810797</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2502,106 +2502,106 @@
         <v>26</v>
       </c>
       <c r="C21" s="2">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D21" s="2">
-        <v>45451</v>
+        <v>51764</v>
       </c>
       <c r="E21" s="2">
-        <v>46104</v>
+        <v>52142.5</v>
       </c>
       <c r="F21" s="2">
-        <v>46681.5</v>
+        <v>52559.5</v>
       </c>
       <c r="G21" s="2">
-        <v>47286</v>
+        <v>52953</v>
       </c>
       <c r="H21" s="2">
-        <v>47824</v>
+        <v>53493.5</v>
       </c>
       <c r="I21" s="2">
-        <v>48265.5</v>
+        <v>54059.5</v>
       </c>
       <c r="J21" s="3">
-        <v>292029643.2035705</v>
+        <v>328512828.067577</v>
       </c>
       <c r="K21" s="3">
-        <v>287077018.4366284</v>
+        <v>321889567.3825483</v>
       </c>
       <c r="L21" s="3">
-        <v>285724910.081255</v>
+        <v>317192991.4183395</v>
       </c>
       <c r="M21" s="3">
-        <v>287583440.4175414</v>
+        <v>315216971.7513576</v>
       </c>
       <c r="N21" s="3">
-        <v>277787694.6957392</v>
+        <v>311302273.0084071</v>
       </c>
       <c r="O21" s="3">
-        <v>293233166.6097057</v>
+        <v>325985449.6963848</v>
       </c>
       <c r="P21" s="4">
-        <v>0.7692307692307693</v>
+        <v>0.7348484848484849</v>
       </c>
       <c r="Q21" s="4">
-        <v>0.7521367521367521</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="R21" s="4">
-        <v>0.7350427350427351</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="S21" s="4">
-        <v>0.7777777777777778</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="T21" s="4">
-        <v>0.7350427350427351</v>
+        <v>0.6742424242424242</v>
       </c>
       <c r="U21" s="5">
-        <v>6425.153312436922</v>
+        <v>6346.357083447512</v>
       </c>
       <c r="V21" s="5">
-        <v>6226.726931212658</v>
+        <v>6173.266862589026</v>
       </c>
       <c r="W21" s="5">
-        <v>6120.731126490259</v>
+        <v>6034.931675878566</v>
       </c>
       <c r="X21" s="5">
-        <v>6081.788275970508</v>
+        <v>5952.768903581622</v>
       </c>
       <c r="Y21" s="5">
-        <v>5808.541625454565</v>
+        <v>5819.441109824691</v>
       </c>
       <c r="Z21" s="5">
-        <v>6075.419639487951</v>
+        <v>6030.123284462209</v>
       </c>
       <c r="AA21" s="5">
-        <v>-198.4263812242634</v>
+        <v>-173.0902208584866</v>
       </c>
       <c r="AB21" s="5">
-        <v>-304.4221859466625</v>
+        <v>-311.425407568946</v>
       </c>
       <c r="AC21" s="5">
-        <v>-343.3650364664136</v>
+        <v>-393.5881798658902</v>
       </c>
       <c r="AD21" s="5">
-        <v>-616.6116869823563</v>
+        <v>-526.9159736228212</v>
       </c>
       <c r="AE21" s="5">
-        <v>-349.7336729489707</v>
+        <v>-316.2337989853031</v>
       </c>
       <c r="AF21" s="4">
-        <v>-0.03088274653932022</v>
+        <v>-0.02727394922512927</v>
       </c>
       <c r="AG21" s="4">
-        <v>-0.04737975440327691</v>
+        <v>-0.04907152299721707</v>
       </c>
       <c r="AH21" s="4">
-        <v>-0.05344075382633673</v>
+        <v>-0.06201796947298188</v>
       </c>
       <c r="AI21" s="4">
-        <v>-0.09596840059657485</v>
+        <v>-0.0830265247754679</v>
       </c>
       <c r="AJ21" s="4">
-        <v>-0.05443195764247444</v>
+        <v>-0.04982918465305086</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -2610,106 +2610,106 @@
         <v>27</v>
       </c>
       <c r="C22" s="2">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D22" s="2">
-        <v>57084.5</v>
+        <v>63221.5</v>
       </c>
       <c r="E22" s="2">
-        <v>57286</v>
+        <v>63996</v>
       </c>
       <c r="F22" s="2">
-        <v>57610</v>
+        <v>64349</v>
       </c>
       <c r="G22" s="2">
-        <v>58256</v>
+        <v>65125.5</v>
       </c>
       <c r="H22" s="2">
-        <v>58962.5</v>
+        <v>65692.5</v>
       </c>
       <c r="I22" s="2">
-        <v>59069</v>
+        <v>65669</v>
       </c>
       <c r="J22" s="3">
-        <v>401414772.4714141</v>
+        <v>455051213.5036818</v>
       </c>
       <c r="K22" s="3">
-        <v>385398208.8379676</v>
+        <v>441977734.658502</v>
       </c>
       <c r="L22" s="3">
-        <v>381535250.6715769</v>
+        <v>439106204.515718</v>
       </c>
       <c r="M22" s="3">
-        <v>387887086.0683041</v>
+        <v>443914664.2935746</v>
       </c>
       <c r="N22" s="3">
-        <v>379534201.9898058</v>
+        <v>427189540.2298774</v>
       </c>
       <c r="O22" s="3">
-        <v>401225227.0742402</v>
+        <v>461026616.1806164</v>
       </c>
       <c r="P22" s="4">
-        <v>0.7212121212121212</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="Q22" s="4">
-        <v>0.7636363636363637</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="R22" s="4">
-        <v>0.7333333333333333</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="S22" s="4">
-        <v>0.7818181818181819</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="T22" s="4">
-        <v>0.6181818181818182</v>
+        <v>0.5913978494623656</v>
       </c>
       <c r="U22" s="5">
-        <v>7031.939886859202</v>
+        <v>7197.728834394657</v>
       </c>
       <c r="V22" s="5">
-        <v>6727.615976642943</v>
+        <v>6906.333749898463</v>
       </c>
       <c r="W22" s="5">
-        <v>6622.726100877918</v>
+        <v>6823.823284211378</v>
       </c>
       <c r="X22" s="5">
-        <v>6658.319933883276</v>
+        <v>6816.295679780955</v>
       </c>
       <c r="Y22" s="5">
-        <v>6436.874318249834</v>
+        <v>6502.866236326482</v>
       </c>
       <c r="Z22" s="5">
-        <v>6792.483825259276</v>
+        <v>7020.460433090445</v>
       </c>
       <c r="AA22" s="5">
-        <v>-304.3239102162588</v>
+        <v>-291.3950844961937</v>
       </c>
       <c r="AB22" s="5">
-        <v>-409.2137859812838</v>
+        <v>-373.9055501832781</v>
       </c>
       <c r="AC22" s="5">
-        <v>-373.619952975926</v>
+        <v>-381.4331546137018</v>
       </c>
       <c r="AD22" s="5">
-        <v>-595.0655686093678</v>
+        <v>-694.8625980681745</v>
       </c>
       <c r="AE22" s="5">
-        <v>-239.4560615999253</v>
+        <v>-177.2684013042117</v>
       </c>
       <c r="AF22" s="4">
-        <v>-0.04327737652947772</v>
+        <v>-0.04048430987060114</v>
       </c>
       <c r="AG22" s="4">
-        <v>-0.05819358421223053</v>
+        <v>-0.05194771278358734</v>
       </c>
       <c r="AH22" s="4">
-        <v>-0.05313184682851468</v>
+        <v>-0.05299354329535266</v>
       </c>
       <c r="AI22" s="4">
-        <v>-0.08462324453617487</v>
+        <v>-0.09653914645238426</v>
       </c>
       <c r="AJ22" s="4">
-        <v>-0.03405263205497588</v>
+        <v>-0.02462838006026669</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -2718,106 +2718,106 @@
         <v>28</v>
       </c>
       <c r="C23" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="D23" s="2">
-        <v>106936</v>
+        <v>106931.5</v>
       </c>
       <c r="E23" s="2">
-        <v>107907.5</v>
+        <v>108026</v>
       </c>
       <c r="F23" s="2">
-        <v>109005.5</v>
+        <v>109236.5</v>
       </c>
       <c r="G23" s="2">
-        <v>110230.5</v>
+        <v>110581.5</v>
       </c>
       <c r="H23" s="2">
-        <v>110709.5</v>
+        <v>111074</v>
       </c>
       <c r="I23" s="2">
-        <v>110671.5</v>
+        <v>111003.5</v>
       </c>
       <c r="J23" s="3">
-        <v>782568352.3898282</v>
+        <v>804042503.3344277</v>
       </c>
       <c r="K23" s="3">
-        <v>750816112.7055328</v>
+        <v>774162396.2362838</v>
       </c>
       <c r="L23" s="3">
-        <v>757421755.4155575</v>
+        <v>778656907.5496148</v>
       </c>
       <c r="M23" s="3">
-        <v>758268781.8521758</v>
+        <v>781998007.5526235</v>
       </c>
       <c r="N23" s="3">
-        <v>752716361.581329</v>
+        <v>777673690.5780293</v>
       </c>
       <c r="O23" s="3">
-        <v>783816243.9158058</v>
+        <v>816395489.9020029</v>
       </c>
       <c r="P23" s="4">
-        <v>0.7471264367816092</v>
+        <v>0.7338935574229691</v>
       </c>
       <c r="Q23" s="4">
-        <v>0.7270114942528736</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="R23" s="4">
-        <v>0.7040229885057471</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="S23" s="4">
-        <v>0.7614942528735632</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="T23" s="4">
-        <v>0.6235632183908046</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="U23" s="5">
-        <v>7318.100100899867</v>
+        <v>7519.229631440948</v>
       </c>
       <c r="V23" s="5">
-        <v>6957.960407807916</v>
+        <v>7166.445080224055</v>
       </c>
       <c r="W23" s="5">
-        <v>6948.472833164909</v>
+        <v>7128.175175418608</v>
       </c>
       <c r="X23" s="5">
-        <v>6878.938060266222</v>
+        <v>7071.689274902434</v>
       </c>
       <c r="Y23" s="5">
-        <v>6799.02232040908</v>
+        <v>7001.401683364507</v>
       </c>
       <c r="Z23" s="5">
-        <v>7082.367582582741</v>
+        <v>7354.682419040868</v>
       </c>
       <c r="AA23" s="5">
-        <v>-360.1396930919509</v>
+        <v>-352.7845512168924</v>
       </c>
       <c r="AB23" s="5">
-        <v>-369.627267734958</v>
+        <v>-391.0544560223398</v>
       </c>
       <c r="AC23" s="5">
-        <v>-439.1620406336451</v>
+        <v>-447.5403565385141</v>
       </c>
       <c r="AD23" s="5">
-        <v>-519.0777804907875</v>
+        <v>-517.8279480764404</v>
       </c>
       <c r="AE23" s="5">
-        <v>-235.7325183171261</v>
+        <v>-164.5472124000798</v>
       </c>
       <c r="AF23" s="4">
-        <v>-0.04921218460070897</v>
+        <v>-0.04691764562446099</v>
       </c>
       <c r="AG23" s="4">
-        <v>-0.05050863784843651</v>
+        <v>-0.05200725010274754</v>
       </c>
       <c r="AH23" s="4">
-        <v>-0.06001038993435515</v>
+        <v>-0.05951944261246744</v>
       </c>
       <c r="AI23" s="4">
-        <v>-0.07093067508422835</v>
+        <v>-0.06886715441049862</v>
       </c>
       <c r="AJ23" s="4">
-        <v>-0.03221225660580118</v>
+        <v>-0.02188352004998506</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -2828,106 +2828,106 @@
         <v>24</v>
       </c>
       <c r="C24" s="2">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="D24" s="2">
-        <v>182204.5</v>
+        <v>189633</v>
       </c>
       <c r="E24" s="2">
-        <v>184788</v>
+        <v>192458</v>
       </c>
       <c r="F24" s="2">
-        <v>187514</v>
+        <v>195339</v>
       </c>
       <c r="G24" s="2">
-        <v>189555</v>
+        <v>197618</v>
       </c>
       <c r="H24" s="2">
-        <v>190850</v>
+        <v>199240.5</v>
       </c>
       <c r="I24" s="2">
-        <v>192476.5</v>
+        <v>201066</v>
       </c>
       <c r="J24" s="3">
-        <v>1027949983.30825</v>
+        <v>1103707125.466746</v>
       </c>
       <c r="K24" s="3">
-        <v>1011548096.293549</v>
+        <v>1090518361.742094</v>
       </c>
       <c r="L24" s="3">
-        <v>1009192826.558903</v>
+        <v>1084172273.927968</v>
       </c>
       <c r="M24" s="3">
-        <v>1018525446.972002</v>
+        <v>1094394365.580761</v>
       </c>
       <c r="N24" s="3">
-        <v>1013362637.344552</v>
+        <v>1089025899.656277</v>
       </c>
       <c r="O24" s="3">
-        <v>1065577907.933429</v>
+        <v>1154646603.12123</v>
       </c>
       <c r="P24" s="4">
-        <v>0.7688266199649737</v>
+        <v>0.7402376910016978</v>
       </c>
       <c r="Q24" s="4">
-        <v>0.7775831873905429</v>
+        <v>0.7775891341256367</v>
       </c>
       <c r="R24" s="4">
-        <v>0.7653239929947461</v>
+        <v>0.7707979626485568</v>
       </c>
       <c r="S24" s="4">
-        <v>0.7915936952714536</v>
+        <v>0.8047538200339559</v>
       </c>
       <c r="T24" s="4">
-        <v>0.6269702276707531</v>
+        <v>0.5857385398981324</v>
       </c>
       <c r="U24" s="5">
-        <v>5641.737626174162</v>
+        <v>5820.227099010964</v>
       </c>
       <c r="V24" s="5">
-        <v>5474.100570889609</v>
+        <v>5666.266726985079</v>
       </c>
       <c r="W24" s="5">
-        <v>5381.959888642464</v>
+        <v>5550.208990155412</v>
       </c>
       <c r="X24" s="5">
-        <v>5373.24495250456</v>
+        <v>5537.928557017889</v>
       </c>
       <c r="Y24" s="5">
-        <v>5309.733494076774</v>
+        <v>5465.886201130179</v>
       </c>
       <c r="Z24" s="5">
-        <v>5536.145492740304</v>
+        <v>5742.624825287367</v>
       </c>
       <c r="AA24" s="5">
-        <v>-167.6370552845528</v>
+        <v>-153.9603720258847</v>
       </c>
       <c r="AB24" s="5">
-        <v>-259.7777375316982</v>
+        <v>-270.0181088555519</v>
       </c>
       <c r="AC24" s="5">
-        <v>-268.4926736696016</v>
+        <v>-282.2985419930747</v>
       </c>
       <c r="AD24" s="5">
-        <v>-332.0041320973878</v>
+        <v>-354.3408978807847</v>
       </c>
       <c r="AE24" s="5">
-        <v>-105.5921334338582</v>
+        <v>-77.60227372359714</v>
       </c>
       <c r="AF24" s="4">
-        <v>-0.0297137276478121</v>
+        <v>-0.02645263997551695</v>
       </c>
       <c r="AG24" s="4">
-        <v>-0.04604569633413835</v>
+        <v>-0.04639305378675629</v>
       </c>
       <c r="AH24" s="4">
-        <v>-0.04759042186293139</v>
+        <v>-0.04850301151325276</v>
       </c>
       <c r="AI24" s="4">
-        <v>-0.05884785044896357</v>
+        <v>-0.06088094018547807</v>
       </c>
       <c r="AJ24" s="4">
-        <v>-0.01871624319145504</v>
+        <v>-0.01333320373989944</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -2936,106 +2936,106 @@
         <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D25" s="2">
-        <v>155546.5</v>
+        <v>144551</v>
       </c>
       <c r="E25" s="2">
-        <v>157359</v>
+        <v>146128.5</v>
       </c>
       <c r="F25" s="2">
-        <v>160086.5</v>
+        <v>148854</v>
       </c>
       <c r="G25" s="2">
-        <v>161860.5</v>
+        <v>150628</v>
       </c>
       <c r="H25" s="2">
-        <v>164083.5</v>
+        <v>152469.5</v>
       </c>
       <c r="I25" s="2">
-        <v>165157.5</v>
+        <v>153188</v>
       </c>
       <c r="J25" s="3">
-        <v>949543527.7352674</v>
+        <v>918324805.0016513</v>
       </c>
       <c r="K25" s="3">
-        <v>932788729.9013573</v>
+        <v>904122923.9404202</v>
       </c>
       <c r="L25" s="3">
-        <v>930619290.9777716</v>
+        <v>896452568.6184769</v>
       </c>
       <c r="M25" s="3">
-        <v>939221009.7311646</v>
+        <v>906607203.8286217</v>
       </c>
       <c r="N25" s="3">
-        <v>929235781.5059458</v>
+        <v>898744096.4880458</v>
       </c>
       <c r="O25" s="3">
-        <v>969224734.6595967</v>
+        <v>948025709.3568457</v>
       </c>
       <c r="P25" s="4">
-        <v>0.736734693877551</v>
+        <v>0.7199170124481328</v>
       </c>
       <c r="Q25" s="4">
-        <v>0.8081632653061225</v>
+        <v>0.8174273858921162</v>
       </c>
       <c r="R25" s="4">
-        <v>0.8020408163265306</v>
+        <v>0.8174273858921162</v>
       </c>
       <c r="S25" s="4">
-        <v>0.8530612244897959</v>
+        <v>0.8506224066390041</v>
       </c>
       <c r="T25" s="4">
-        <v>0.7</v>
+        <v>0.6659751037344398</v>
       </c>
       <c r="U25" s="5">
-        <v>6104.563765403062</v>
+        <v>6352.946745450749</v>
       </c>
       <c r="V25" s="5">
-        <v>5927.774896264957</v>
+        <v>6187.177203217854</v>
       </c>
       <c r="W25" s="5">
-        <v>5813.227792335842</v>
+        <v>6022.361297771487</v>
       </c>
       <c r="X25" s="5">
-        <v>5802.657286559504</v>
+        <v>6018.849110581178</v>
       </c>
       <c r="Y25" s="5">
-        <v>5663.188446772197</v>
+        <v>5894.582827962614</v>
       </c>
       <c r="Z25" s="5">
-        <v>5868.487562839088</v>
+        <v>6188.642121816629</v>
       </c>
       <c r="AA25" s="5">
-        <v>-176.7888691381058</v>
+        <v>-165.7695422328952</v>
       </c>
       <c r="AB25" s="5">
-        <v>-291.3359730672209</v>
+        <v>-330.5854476792629</v>
       </c>
       <c r="AC25" s="5">
-        <v>-301.9064788435589</v>
+        <v>-334.0976348695713</v>
       </c>
       <c r="AD25" s="5">
-        <v>-441.375318630865</v>
+        <v>-458.3639174881355</v>
       </c>
       <c r="AE25" s="5">
-        <v>-236.0762025639742</v>
+        <v>-164.3046236341206</v>
       </c>
       <c r="AF25" s="4">
-        <v>-0.02896011507653296</v>
+        <v>-0.02609333099661193</v>
       </c>
       <c r="AG25" s="4">
-        <v>-0.0477242902626942</v>
+        <v>-0.052036552630634</v>
       </c>
       <c r="AH25" s="4">
-        <v>-0.0494558645704678</v>
+        <v>-0.05258939642596783</v>
       </c>
       <c r="AI25" s="4">
-        <v>-0.07230251588693537</v>
+        <v>-0.07214981265447618</v>
       </c>
       <c r="AJ25" s="4">
-        <v>-0.03867208397460109</v>
+        <v>-0.0258627421600498</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3044,106 +3044,106 @@
         <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="D26" s="2">
-        <v>155099</v>
+        <v>169246.5</v>
       </c>
       <c r="E26" s="2">
-        <v>157229</v>
+        <v>171271</v>
       </c>
       <c r="F26" s="2">
-        <v>159565.5</v>
+        <v>173628</v>
       </c>
       <c r="G26" s="2">
-        <v>161395.5</v>
+        <v>175424.5</v>
       </c>
       <c r="H26" s="2">
-        <v>162531.5</v>
+        <v>176954.5</v>
       </c>
       <c r="I26" s="2">
-        <v>162606</v>
+        <v>177520.5</v>
       </c>
       <c r="J26" s="3">
-        <v>966341496.8857509</v>
+        <v>1083746155.044627</v>
       </c>
       <c r="K26" s="3">
-        <v>941140078.0251995</v>
+        <v>1054358895.050568</v>
       </c>
       <c r="L26" s="3">
-        <v>945493330.4497496</v>
+        <v>1055687100.587887</v>
       </c>
       <c r="M26" s="3">
-        <v>944449153.2579621</v>
+        <v>1053237929.321416</v>
       </c>
       <c r="N26" s="3">
-        <v>945954959.1579497</v>
+        <v>1054137119.996306</v>
       </c>
       <c r="O26" s="3">
-        <v>975190497.0961075</v>
+        <v>1099540239.555745</v>
       </c>
       <c r="P26" s="4">
-        <v>0.8064516129032258</v>
+        <v>0.8008385744234801</v>
       </c>
       <c r="Q26" s="4">
-        <v>0.8086021505376344</v>
+        <v>0.8197064989517819</v>
       </c>
       <c r="R26" s="4">
-        <v>0.8236559139784946</v>
+        <v>0.8259958071278826</v>
       </c>
       <c r="S26" s="4">
-        <v>0.8580645161290322</v>
+        <v>0.8637316561844863</v>
       </c>
       <c r="T26" s="4">
-        <v>0.7569892473118279</v>
+        <v>0.7023060796645703</v>
       </c>
       <c r="U26" s="5">
-        <v>6230.481801209234</v>
+        <v>6403.359331180422</v>
       </c>
       <c r="V26" s="5">
-        <v>5985.791921497939</v>
+        <v>6156.085356251604</v>
       </c>
       <c r="W26" s="5">
-        <v>5925.424546344602</v>
+        <v>6080.16622081627</v>
       </c>
       <c r="X26" s="5">
-        <v>5851.768811757218</v>
+        <v>6003.938613599677</v>
       </c>
       <c r="Y26" s="5">
-        <v>5820.133076714051</v>
+        <v>5957.108296179561</v>
       </c>
       <c r="Z26" s="5">
-        <v>5997.260230840851</v>
+        <v>6193.877549667477</v>
       </c>
       <c r="AA26" s="5">
-        <v>-244.6898797112945</v>
+        <v>-247.2739749288176</v>
       </c>
       <c r="AB26" s="5">
-        <v>-305.0572548646314</v>
+        <v>-323.1931103641518</v>
       </c>
       <c r="AC26" s="5">
-        <v>-378.7129894520158</v>
+        <v>-399.4207175807451</v>
       </c>
       <c r="AD26" s="5">
-        <v>-410.348724495183</v>
+        <v>-446.2510350008606</v>
       </c>
       <c r="AE26" s="5">
-        <v>-233.2215703683823</v>
+        <v>-209.4817815129445</v>
       </c>
       <c r="AF26" s="4">
-        <v>-0.03927302695335766</v>
+        <v>-0.03861628906638825</v>
       </c>
       <c r="AG26" s="4">
-        <v>-0.04896206498916744</v>
+        <v>-0.05047243074278218</v>
       </c>
       <c r="AH26" s="4">
-        <v>-0.06078390107463505</v>
+        <v>-0.06237674584898145</v>
       </c>
       <c r="AI26" s="4">
-        <v>-0.06586147549865906</v>
+        <v>-0.06969014417602526</v>
       </c>
       <c r="AJ26" s="4">
-        <v>-0.03743234918415428</v>
+        <v>-0.03271435674285794</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -3152,106 +3152,106 @@
         <v>27</v>
       </c>
       <c r="C27" s="2">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="D27" s="2">
-        <v>176818.5</v>
+        <v>177347</v>
       </c>
       <c r="E27" s="2">
-        <v>179218.5</v>
+        <v>179760</v>
       </c>
       <c r="F27" s="2">
-        <v>181134.5</v>
+        <v>181636</v>
       </c>
       <c r="G27" s="2">
-        <v>182798.5</v>
+        <v>183498.5</v>
       </c>
       <c r="H27" s="2">
-        <v>184842.5</v>
+        <v>185783.5</v>
       </c>
       <c r="I27" s="2">
-        <v>185220.5</v>
+        <v>186214</v>
       </c>
       <c r="J27" s="3">
-        <v>1174089279.53822</v>
+        <v>1215414759.910744</v>
       </c>
       <c r="K27" s="3">
-        <v>1141792970.950165</v>
+        <v>1187691414.383846</v>
       </c>
       <c r="L27" s="3">
-        <v>1143424884.916703</v>
+        <v>1179269795.278677</v>
       </c>
       <c r="M27" s="3">
-        <v>1145165296.951581</v>
+        <v>1186699461.867093</v>
       </c>
       <c r="N27" s="3">
-        <v>1133280637.942955</v>
+        <v>1173353017.923779</v>
       </c>
       <c r="O27" s="3">
-        <v>1176785358.609131</v>
+        <v>1229611464.546926</v>
       </c>
       <c r="P27" s="4">
-        <v>0.7813765182186235</v>
+        <v>0.7663366336633664</v>
       </c>
       <c r="Q27" s="4">
-        <v>0.805668016194332</v>
+        <v>0.8158415841584158</v>
       </c>
       <c r="R27" s="4">
-        <v>0.7894736842105263</v>
+        <v>0.7940594059405941</v>
       </c>
       <c r="S27" s="4">
-        <v>0.8380566801619433</v>
+        <v>0.8336633663366336</v>
       </c>
       <c r="T27" s="4">
-        <v>0.6902834008097166</v>
+        <v>0.6594059405940594</v>
       </c>
       <c r="U27" s="5">
-        <v>6640.08166305121</v>
+        <v>6853.314462103922</v>
       </c>
       <c r="V27" s="5">
-        <v>6370.954845343339</v>
+        <v>6607.095095593268</v>
       </c>
       <c r="W27" s="5">
-        <v>6312.57372238145</v>
+        <v>6492.48934835978</v>
       </c>
       <c r="X27" s="5">
-        <v>6264.631804700699</v>
+        <v>6467.079904561037</v>
       </c>
       <c r="Y27" s="5">
-        <v>6131.060973222903</v>
+        <v>6315.700898754619</v>
       </c>
       <c r="Z27" s="5">
-        <v>6353.429337514643</v>
+        <v>6603.217075767267</v>
       </c>
       <c r="AA27" s="5">
-        <v>-269.1268177078709</v>
+        <v>-246.2193665106543</v>
       </c>
       <c r="AB27" s="5">
-        <v>-327.5079406697596</v>
+        <v>-360.8251137441421</v>
       </c>
       <c r="AC27" s="5">
-        <v>-375.449858350511</v>
+        <v>-386.2345575428853</v>
       </c>
       <c r="AD27" s="5">
-        <v>-509.0206898283068</v>
+        <v>-537.6135633493031</v>
       </c>
       <c r="AE27" s="5">
-        <v>-286.6523255365673</v>
+        <v>-250.0973863366553</v>
       </c>
       <c r="AF27" s="4">
-        <v>-0.04053064877280488</v>
+        <v>-0.03592704929449075</v>
       </c>
       <c r="AG27" s="4">
-        <v>-0.04932287843569461</v>
+        <v>-0.05264972382915745</v>
       </c>
       <c r="AH27" s="4">
-        <v>-0.05654295796386133</v>
+        <v>-0.05635733770551565</v>
       </c>
       <c r="AI27" s="4">
-        <v>-0.07665879964410027</v>
+        <v>-0.07844577486150539</v>
       </c>
       <c r="AJ27" s="4">
-        <v>-0.04317000002148264</v>
+        <v>-0.03649290977666253</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3260,106 +3260,106 @@
         <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D28" s="2">
-        <v>253582.5</v>
+        <v>254559.5</v>
       </c>
       <c r="E28" s="2">
-        <v>257832.5</v>
+        <v>259244</v>
       </c>
       <c r="F28" s="2">
-        <v>262062.5</v>
+        <v>263412</v>
       </c>
       <c r="G28" s="2">
-        <v>265793</v>
+        <v>266744.5</v>
       </c>
       <c r="H28" s="2">
-        <v>268337.5</v>
+        <v>268778.5</v>
       </c>
       <c r="I28" s="2">
-        <v>268939.5</v>
+        <v>269062</v>
       </c>
       <c r="J28" s="3">
-        <v>1841228656.404272</v>
+        <v>1900091431.247919</v>
       </c>
       <c r="K28" s="3">
-        <v>1782989775.103602</v>
+        <v>1853168036.140258</v>
       </c>
       <c r="L28" s="3">
-        <v>1791856990.337134</v>
+        <v>1851664274.725635</v>
       </c>
       <c r="M28" s="3">
-        <v>1802923316.526137</v>
+        <v>1859387564.459312</v>
       </c>
       <c r="N28" s="3">
-        <v>1779622570.93536</v>
+        <v>1837745887.012706</v>
       </c>
       <c r="O28" s="3">
-        <v>1856498858.351295</v>
+        <v>1934024568.046426</v>
       </c>
       <c r="P28" s="4">
-        <v>0.7658730158730159</v>
+        <v>0.7563249001331558</v>
       </c>
       <c r="Q28" s="4">
-        <v>0.7738095238095238</v>
+        <v>0.7856191744340879</v>
       </c>
       <c r="R28" s="4">
-        <v>0.7738095238095238</v>
+        <v>0.7802929427430093</v>
       </c>
       <c r="S28" s="4">
-        <v>0.8333333333333334</v>
+        <v>0.8348868175765646</v>
       </c>
       <c r="T28" s="4">
-        <v>0.6838624338624338</v>
+        <v>0.6511318242343542</v>
       </c>
       <c r="U28" s="5">
-        <v>7260.866409962327</v>
+        <v>7464.233042757858</v>
       </c>
       <c r="V28" s="5">
-        <v>6915.302667831254</v>
+        <v>7148.354585410879</v>
       </c>
       <c r="W28" s="5">
-        <v>6837.517730835713</v>
+        <v>7029.536523490331</v>
       </c>
       <c r="X28" s="5">
-        <v>6783.185849612809</v>
+        <v>6970.668802765614</v>
       </c>
       <c r="Y28" s="5">
-        <v>6632.030822882973</v>
+        <v>6837.399148416655</v>
       </c>
       <c r="Z28" s="5">
-        <v>6903.035286193717</v>
+        <v>7188.025689418892</v>
       </c>
       <c r="AA28" s="5">
-        <v>-345.5637421310721</v>
+        <v>-315.8784573469793</v>
       </c>
       <c r="AB28" s="5">
-        <v>-423.3486791266132</v>
+        <v>-434.696519267527</v>
       </c>
       <c r="AC28" s="5">
-        <v>-477.6805603495177</v>
+        <v>-493.5642399922444</v>
       </c>
       <c r="AD28" s="5">
-        <v>-628.8355870793539</v>
+        <v>-626.8338943412027</v>
       </c>
       <c r="AE28" s="5">
-        <v>-357.8311237686094</v>
+        <v>-276.2073533389657</v>
       </c>
       <c r="AF28" s="4">
-        <v>-0.04759263187337237</v>
+        <v>-0.0423189436258905</v>
       </c>
       <c r="AG28" s="4">
-        <v>-0.05830553204308431</v>
+        <v>-0.05823726520560468</v>
       </c>
       <c r="AH28" s="4">
-        <v>-0.06578836923567588</v>
+        <v>-0.06612390545216473</v>
       </c>
       <c r="AI28" s="4">
-        <v>-0.08660613645453596</v>
+        <v>-0.08397833920115683</v>
       </c>
       <c r="AJ28" s="4">
-        <v>-0.04928215223429044</v>
+        <v>-0.03700411706825724</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3370,106 +3370,106 @@
         <v>24</v>
       </c>
       <c r="C29" s="2">
-        <v>871</v>
+        <v>841</v>
       </c>
       <c r="D29" s="2">
-        <v>357185</v>
+        <v>344111.5</v>
       </c>
       <c r="E29" s="2">
-        <v>363120</v>
+        <v>349622.5</v>
       </c>
       <c r="F29" s="2">
-        <v>368026.5</v>
+        <v>354294.5</v>
       </c>
       <c r="G29" s="2">
-        <v>372358.5</v>
+        <v>358955.5</v>
       </c>
       <c r="H29" s="2">
-        <v>377469.5</v>
+        <v>364239.5</v>
       </c>
       <c r="I29" s="2">
-        <v>381463</v>
+        <v>368372.5</v>
       </c>
       <c r="J29" s="3">
-        <v>2085214788.073774</v>
+        <v>2061304997.396246</v>
       </c>
       <c r="K29" s="3">
-        <v>2084229410.363477</v>
+        <v>2063459312.87363</v>
       </c>
       <c r="L29" s="3">
-        <v>2085338997.670634</v>
+        <v>2057038183.54876</v>
       </c>
       <c r="M29" s="3">
-        <v>2122137771.564127</v>
+        <v>2096056972.26507</v>
       </c>
       <c r="N29" s="3">
-        <v>2101375865.222717</v>
+        <v>2072810543.520702</v>
       </c>
       <c r="O29" s="3">
-        <v>2238668832.461271</v>
+        <v>2233364554.073931</v>
       </c>
       <c r="P29" s="4">
-        <v>0.6842709529276694</v>
+        <v>0.6646848989298454</v>
       </c>
       <c r="Q29" s="4">
-        <v>0.7428243398392652</v>
+        <v>0.7384066587395958</v>
       </c>
       <c r="R29" s="4">
-        <v>0.6796785304247991</v>
+        <v>0.6991676575505351</v>
       </c>
       <c r="S29" s="4">
-        <v>0.7554535017221584</v>
+        <v>0.760998810939358</v>
       </c>
       <c r="T29" s="4">
-        <v>0.5327210103329506</v>
+        <v>0.4922711058263972</v>
       </c>
       <c r="U29" s="5">
-        <v>5837.912532927681</v>
+        <v>5990.224091308328</v>
       </c>
       <c r="V29" s="5">
-        <v>5739.781368042183</v>
+        <v>5901.963726229375</v>
       </c>
       <c r="W29" s="5">
-        <v>5666.274025567816</v>
+        <v>5806.012183504853</v>
       </c>
       <c r="X29" s="5">
-        <v>5699.179074907991</v>
+        <v>5839.32262429485</v>
       </c>
       <c r="Y29" s="5">
-        <v>5567.008368153497</v>
+        <v>5690.790107939149</v>
       </c>
       <c r="Z29" s="5">
-        <v>5868.63950753093</v>
+        <v>6062.788492827045</v>
       </c>
       <c r="AA29" s="5">
-        <v>-98.13116488549804</v>
+        <v>-88.26036507895242</v>
       </c>
       <c r="AB29" s="5">
-        <v>-171.6385073598649</v>
+        <v>-184.2119078034748</v>
       </c>
       <c r="AC29" s="5">
-        <v>-138.7334580196903</v>
+        <v>-150.9014670134775</v>
       </c>
       <c r="AD29" s="5">
-        <v>-270.9041647741842</v>
+        <v>-299.4339833691793</v>
       </c>
       <c r="AE29" s="5">
-        <v>30.72697460324889</v>
+        <v>72.5644015187172</v>
       </c>
       <c r="AF29" s="4">
-        <v>-0.01680929002139153</v>
+        <v>-0.01473406732930349</v>
       </c>
       <c r="AG29" s="4">
-        <v>-0.02940066443129619</v>
+        <v>-0.03075208957053244</v>
       </c>
       <c r="AH29" s="4">
-        <v>-0.0237642234680957</v>
+        <v>-0.02519128912596635</v>
       </c>
       <c r="AI29" s="4">
-        <v>-0.04640428633457572</v>
+        <v>-0.04998710879675616</v>
       </c>
       <c r="AJ29" s="4">
-        <v>0.005263349601409617</v>
+        <v>0.01211380416034968</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -3478,106 +3478,106 @@
         <v>25</v>
       </c>
       <c r="C30" s="2">
-        <v>704</v>
+        <v>744</v>
       </c>
       <c r="D30" s="2">
-        <v>255649</v>
+        <v>275543</v>
       </c>
       <c r="E30" s="2">
-        <v>259630</v>
+        <v>279928.5</v>
       </c>
       <c r="F30" s="2">
-        <v>264744</v>
+        <v>285232</v>
       </c>
       <c r="G30" s="2">
-        <v>269082.5</v>
+        <v>289540</v>
       </c>
       <c r="H30" s="2">
-        <v>272873.5</v>
+        <v>293141</v>
       </c>
       <c r="I30" s="2">
-        <v>275693.5</v>
+        <v>296081</v>
       </c>
       <c r="J30" s="3">
-        <v>1509063258.10808</v>
+        <v>1684382683.643037</v>
       </c>
       <c r="K30" s="3">
-        <v>1487063311.515297</v>
+        <v>1666351507.951326</v>
       </c>
       <c r="L30" s="3">
-        <v>1491760608.913113</v>
+        <v>1660873215.855843</v>
       </c>
       <c r="M30" s="3">
-        <v>1518598415.60809</v>
+        <v>1691941282.795017</v>
       </c>
       <c r="N30" s="3">
-        <v>1506875028.614159</v>
+        <v>1678591932.037764</v>
       </c>
       <c r="O30" s="3">
-        <v>1603130311.57239</v>
+        <v>1800719854.088105</v>
       </c>
       <c r="P30" s="4">
-        <v>0.7102272727272727</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="Q30" s="4">
-        <v>0.7514204545454546</v>
+        <v>0.7809139784946236</v>
       </c>
       <c r="R30" s="4">
-        <v>0.7144886363636364</v>
+        <v>0.7043010752688172</v>
       </c>
       <c r="S30" s="4">
-        <v>0.7826704545454546</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="T30" s="4">
-        <v>0.5639204545454546</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="U30" s="5">
-        <v>5902.871742537934</v>
+        <v>6112.957627822289</v>
       </c>
       <c r="V30" s="5">
-        <v>5727.625126199965</v>
+        <v>5952.775469276356</v>
       </c>
       <c r="W30" s="5">
-        <v>5634.728677186691</v>
+        <v>5822.885285857979</v>
       </c>
       <c r="X30" s="5">
-        <v>5643.616421016192</v>
+        <v>5843.549363801259</v>
       </c>
       <c r="Y30" s="5">
-        <v>5522.24759316738</v>
+        <v>5726.227078565483</v>
       </c>
       <c r="Z30" s="5">
-        <v>5814.900647176631</v>
+        <v>6081.848730881431</v>
       </c>
       <c r="AA30" s="5">
-        <v>-175.2466163379686</v>
+        <v>-160.1821585459338</v>
       </c>
       <c r="AB30" s="5">
-        <v>-268.1430653512425</v>
+        <v>-290.07234196431</v>
       </c>
       <c r="AC30" s="5">
-        <v>-259.2553215217413</v>
+        <v>-269.4082640210308</v>
       </c>
       <c r="AD30" s="5">
-        <v>-380.6241493705538</v>
+        <v>-386.7305492568066</v>
       </c>
       <c r="AE30" s="5">
-        <v>-87.97109536130301</v>
+        <v>-31.10889694085836</v>
       </c>
       <c r="AF30" s="4">
-        <v>-0.0296883659312952</v>
+        <v>-0.02620370830265317</v>
       </c>
       <c r="AG30" s="4">
-        <v>-0.04542586677242533</v>
+        <v>-0.04745204524959989</v>
       </c>
       <c r="AH30" s="4">
-        <v>-0.04392020237428951</v>
+        <v>-0.04407167208142515</v>
       </c>
       <c r="AI30" s="4">
-        <v>-0.06448118237563216</v>
+        <v>-0.06326406508964755</v>
       </c>
       <c r="AJ30" s="4">
-        <v>-0.01490310126973549</v>
+        <v>-0.005089009090995522</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -3586,106 +3586,106 @@
         <v>26</v>
       </c>
       <c r="C31" s="2">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="D31" s="2">
-        <v>189266.5</v>
+        <v>188487</v>
       </c>
       <c r="E31" s="2">
-        <v>192711</v>
+        <v>192206</v>
       </c>
       <c r="F31" s="2">
-        <v>196171.5</v>
+        <v>195846</v>
       </c>
       <c r="G31" s="2">
-        <v>199102</v>
+        <v>198784</v>
       </c>
       <c r="H31" s="2">
-        <v>201785</v>
+        <v>201321</v>
       </c>
       <c r="I31" s="2">
-        <v>202207.5</v>
+        <v>201734.5</v>
       </c>
       <c r="J31" s="3">
-        <v>1148964476.023474</v>
+        <v>1176050790.042486</v>
       </c>
       <c r="K31" s="3">
-        <v>1129377017.065561</v>
+        <v>1166085372.308784</v>
       </c>
       <c r="L31" s="3">
-        <v>1127888657.249681</v>
+        <v>1158187288.32924</v>
       </c>
       <c r="M31" s="3">
-        <v>1146169412.12774</v>
+        <v>1177201520.006035</v>
       </c>
       <c r="N31" s="3">
-        <v>1132310973.692003</v>
+        <v>1160607216.156601</v>
       </c>
       <c r="O31" s="3">
-        <v>1197880625.223021</v>
+        <v>1239714120.086061</v>
       </c>
       <c r="P31" s="4">
-        <v>0.712890625</v>
+        <v>0.6743295019157088</v>
       </c>
       <c r="Q31" s="4">
-        <v>0.76171875</v>
+        <v>0.7567049808429118</v>
       </c>
       <c r="R31" s="4">
-        <v>0.736328125</v>
+        <v>0.7375478927203065</v>
       </c>
       <c r="S31" s="4">
-        <v>0.7890625</v>
+        <v>0.7701149425287356</v>
       </c>
       <c r="T31" s="4">
-        <v>0.580078125</v>
+        <v>0.5306513409961686</v>
       </c>
       <c r="U31" s="5">
-        <v>6070.617230325887</v>
+        <v>6239.42653892569</v>
       </c>
       <c r="V31" s="5">
-        <v>5860.469911243059</v>
+        <v>6066.852087389487</v>
       </c>
       <c r="W31" s="5">
-        <v>5749.50315030308</v>
+        <v>5913.765347922551</v>
       </c>
       <c r="X31" s="5">
-        <v>5756.694619480166</v>
+        <v>5922.013441756053</v>
       </c>
       <c r="Y31" s="5">
-        <v>5611.472476606305</v>
+        <v>5764.958529694372</v>
       </c>
       <c r="Z31" s="5">
-        <v>5924.016790786797</v>
+        <v>6145.275696948516</v>
       </c>
       <c r="AA31" s="5">
-        <v>-210.1473190828283</v>
+        <v>-172.574451536203</v>
       </c>
       <c r="AB31" s="5">
-        <v>-321.1140800228077</v>
+        <v>-325.6611910031388</v>
       </c>
       <c r="AC31" s="5">
-        <v>-313.9226108457215</v>
+        <v>-317.4130971696368</v>
       </c>
       <c r="AD31" s="5">
-        <v>-459.1447537195827</v>
+        <v>-474.4680092313174</v>
       </c>
       <c r="AE31" s="5">
-        <v>-146.6004395390901</v>
+        <v>-94.15084197717351</v>
       </c>
       <c r="AF31" s="4">
-        <v>-0.03461712559194696</v>
+        <v>-0.02765870396254666</v>
       </c>
       <c r="AG31" s="4">
-        <v>-0.05289644657855808</v>
+        <v>-0.05219409010931497</v>
       </c>
       <c r="AH31" s="4">
-        <v>-0.05171181099633737</v>
+        <v>-0.05087215871352968</v>
       </c>
       <c r="AI31" s="4">
-        <v>-0.07563394895430342</v>
+        <v>-0.07604352840301443</v>
       </c>
       <c r="AJ31" s="4">
-        <v>-0.02414918186683634</v>
+        <v>-0.01508966271015422</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -3694,106 +3694,106 @@
         <v>27</v>
       </c>
       <c r="C32" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D32" s="2">
-        <v>161012</v>
+        <v>163034.5</v>
       </c>
       <c r="E32" s="2">
-        <v>165161.5</v>
+        <v>165943</v>
       </c>
       <c r="F32" s="2">
-        <v>167494.5</v>
+        <v>168828.5</v>
       </c>
       <c r="G32" s="2">
-        <v>169718.5</v>
+        <v>170637</v>
       </c>
       <c r="H32" s="2">
-        <v>171370</v>
+        <v>172949.5</v>
       </c>
       <c r="I32" s="2">
-        <v>172148.5</v>
+        <v>173589</v>
       </c>
       <c r="J32" s="3">
-        <v>1056721321.20075</v>
+        <v>1096594643.75524</v>
       </c>
       <c r="K32" s="3">
-        <v>1030242777.812931</v>
+        <v>1064597220.695328</v>
       </c>
       <c r="L32" s="3">
-        <v>1037031091.689123</v>
+        <v>1067924982.688754</v>
       </c>
       <c r="M32" s="3">
-        <v>1039801085.812953</v>
+        <v>1071944582.766545</v>
       </c>
       <c r="N32" s="3">
-        <v>1032597233.915671</v>
+        <v>1069547316.029004</v>
       </c>
       <c r="O32" s="3">
-        <v>1075937879.134637</v>
+        <v>1121854454.959508</v>
       </c>
       <c r="P32" s="4">
-        <v>0.7328918322295805</v>
+        <v>0.7254464285714286</v>
       </c>
       <c r="Q32" s="4">
-        <v>0.7770419426048565</v>
+        <v>0.78125</v>
       </c>
       <c r="R32" s="4">
-        <v>0.7527593818984547</v>
+        <v>0.7678571428571429</v>
       </c>
       <c r="S32" s="4">
-        <v>0.7991169977924945</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="T32" s="4">
-        <v>0.6534216335540839</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="U32" s="5">
-        <v>6562.997299584817</v>
+        <v>6726.150868406624</v>
       </c>
       <c r="V32" s="5">
-        <v>6237.790149719702</v>
+        <v>6415.439161009069</v>
       </c>
       <c r="W32" s="5">
-        <v>6191.433698952041</v>
+        <v>6325.50181212742</v>
       </c>
       <c r="X32" s="5">
-        <v>6126.621940524772</v>
+        <v>6282.017280932885</v>
       </c>
       <c r="Y32" s="5">
-        <v>6025.542591560195</v>
+        <v>6184.159630580046</v>
       </c>
       <c r="Z32" s="5">
-        <v>6250.056661165429</v>
+        <v>6462.704750643807</v>
       </c>
       <c r="AA32" s="5">
-        <v>-325.2071498651148</v>
+        <v>-310.7117073975551</v>
       </c>
       <c r="AB32" s="5">
-        <v>-371.5636006327759</v>
+        <v>-400.6490562792042</v>
       </c>
       <c r="AC32" s="5">
-        <v>-436.3753590600445</v>
+        <v>-444.1335874737388</v>
       </c>
       <c r="AD32" s="5">
-        <v>-537.4547080246211</v>
+        <v>-541.9912378265781</v>
       </c>
       <c r="AE32" s="5">
-        <v>-312.9406384193871</v>
+        <v>-263.4461177628173</v>
       </c>
       <c r="AF32" s="4">
-        <v>-0.04955162024608606</v>
+        <v>-0.04619457896149759</v>
       </c>
       <c r="AG32" s="4">
-        <v>-0.05661492511299393</v>
+        <v>-0.05956587417048453</v>
       </c>
       <c r="AH32" s="4">
-        <v>-0.0664902542452136</v>
+        <v>-0.06603086909035549</v>
       </c>
       <c r="AI32" s="4">
-        <v>-0.0818916546040056</v>
+        <v>-0.08057970277954407</v>
       </c>
       <c r="AJ32" s="4">
-        <v>-0.04768257918362762</v>
+        <v>-0.03916744106949033</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -3802,106 +3802,106 @@
         <v>28</v>
       </c>
       <c r="C33" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D33" s="2">
-        <v>88381</v>
+        <v>91174.5</v>
       </c>
       <c r="E33" s="2">
-        <v>89433.5</v>
+        <v>92999</v>
       </c>
       <c r="F33" s="2">
-        <v>88834</v>
+        <v>92668.5</v>
       </c>
       <c r="G33" s="2">
-        <v>88950</v>
+        <v>93161.5</v>
       </c>
       <c r="H33" s="2">
-        <v>89368</v>
+        <v>92739.5</v>
       </c>
       <c r="I33" s="2">
-        <v>89506.5</v>
+        <v>92424</v>
       </c>
       <c r="J33" s="3">
-        <v>633967467.6487857</v>
+        <v>673362254.4290392</v>
       </c>
       <c r="K33" s="3">
-        <v>617095768.7902119</v>
+        <v>659464698.3414766</v>
       </c>
       <c r="L33" s="3">
-        <v>602531030.1169289</v>
+        <v>646343722.0885249</v>
       </c>
       <c r="M33" s="3">
-        <v>603458806.4355657</v>
+        <v>647065485.7637562</v>
       </c>
       <c r="N33" s="3">
-        <v>590717867.0690303</v>
+        <v>631174267.2881472</v>
       </c>
       <c r="O33" s="3">
-        <v>614705823.4693727</v>
+        <v>660957939.3286375</v>
       </c>
       <c r="P33" s="4">
-        <v>0.7204724409448819</v>
+        <v>0.6917293233082706</v>
       </c>
       <c r="Q33" s="4">
-        <v>0.7637795275590551</v>
+        <v>0.7669172932330827</v>
       </c>
       <c r="R33" s="4">
-        <v>0.7480314960629921</v>
+        <v>0.7556390977443609</v>
       </c>
       <c r="S33" s="4">
-        <v>0.7598425196850394</v>
+        <v>0.7593984962406015</v>
       </c>
       <c r="T33" s="4">
-        <v>0.65748031496063</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="U33" s="5">
-        <v>7173.119422147132</v>
+        <v>7385.423056107127</v>
       </c>
       <c r="V33" s="5">
-        <v>6900.051644967623</v>
+        <v>7091.094510064372</v>
       </c>
       <c r="W33" s="5">
-        <v>6782.662382836852</v>
+        <v>6974.794262219902</v>
       </c>
       <c r="X33" s="5">
-        <v>6784.247402311025</v>
+        <v>6945.631894760777</v>
       </c>
       <c r="Y33" s="5">
-        <v>6609.948382743602</v>
+        <v>6805.883871361688</v>
       </c>
       <c r="Z33" s="5">
-        <v>6867.722718119609</v>
+        <v>7151.366953698579</v>
       </c>
       <c r="AA33" s="5">
-        <v>-273.067777179509</v>
+        <v>-294.3285460427551</v>
       </c>
       <c r="AB33" s="5">
-        <v>-390.4570393102804</v>
+        <v>-410.6287938872256</v>
       </c>
       <c r="AC33" s="5">
-        <v>-388.872019836107</v>
+        <v>-439.7911613463502</v>
       </c>
       <c r="AD33" s="5">
-        <v>-563.1710394035299</v>
+        <v>-579.5391847454393</v>
       </c>
       <c r="AE33" s="5">
-        <v>-305.3967040275238</v>
+        <v>-234.0561024085482</v>
       </c>
       <c r="AF33" s="4">
-        <v>-0.03806820451593307</v>
+        <v>-0.03985263184068655</v>
       </c>
       <c r="AG33" s="4">
-        <v>-0.05443336661937304</v>
+        <v>-0.05559990142307014</v>
       </c>
       <c r="AH33" s="4">
-        <v>-0.0542124000662052</v>
+        <v>-0.05954854014526356</v>
       </c>
       <c r="AI33" s="4">
-        <v>-0.07851131512807796</v>
+        <v>-0.07847068209128638</v>
       </c>
       <c r="AJ33" s="4">
-        <v>-0.04257515957208324</v>
+        <v>-0.03169163101834815</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -3912,106 +3912,106 @@
         <v>24</v>
       </c>
       <c r="C34" s="2">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="D34" s="2">
-        <v>130757</v>
+        <v>133373</v>
       </c>
       <c r="E34" s="2">
-        <v>132060.5</v>
+        <v>134835.5</v>
       </c>
       <c r="F34" s="2">
-        <v>133257.5</v>
+        <v>136225</v>
       </c>
       <c r="G34" s="2">
-        <v>134632</v>
+        <v>137745.5</v>
       </c>
       <c r="H34" s="2">
-        <v>135930</v>
+        <v>139152.5</v>
       </c>
       <c r="I34" s="2">
-        <v>136726.5</v>
+        <v>139934</v>
       </c>
       <c r="J34" s="3">
-        <v>744380797.3834118</v>
+        <v>772557236.2038932</v>
       </c>
       <c r="K34" s="3">
-        <v>745337064.5872518</v>
+        <v>776063833.1472981</v>
       </c>
       <c r="L34" s="3">
-        <v>733311316.6363429</v>
+        <v>761106722.3372558</v>
       </c>
       <c r="M34" s="3">
-        <v>739645211.7177544</v>
+        <v>768373163.7862693</v>
       </c>
       <c r="N34" s="3">
-        <v>726785977.6464981</v>
+        <v>755656182.5777102</v>
       </c>
       <c r="O34" s="3">
-        <v>783479873.3584644</v>
+        <v>823764280.1138147</v>
       </c>
       <c r="P34" s="4">
-        <v>0.6556122448979592</v>
+        <v>0.6314496314496314</v>
       </c>
       <c r="Q34" s="4">
-        <v>0.7066326530612245</v>
+        <v>0.7174447174447175</v>
       </c>
       <c r="R34" s="4">
-        <v>0.6556122448979592</v>
+        <v>0.6633906633906634</v>
       </c>
       <c r="S34" s="4">
-        <v>0.7729591836734694</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="T34" s="4">
-        <v>0.4974489795918368</v>
+        <v>0.457002457002457</v>
       </c>
       <c r="U34" s="5">
-        <v>5692.856194187782</v>
+        <v>5792.456015864479</v>
       </c>
       <c r="V34" s="5">
-        <v>5643.906123233304</v>
+        <v>5755.634333297226</v>
       </c>
       <c r="W34" s="5">
-        <v>5502.964685937699</v>
+        <v>5587.129545511146</v>
       </c>
       <c r="X34" s="5">
-        <v>5493.829191557389</v>
+        <v>5578.208825596984</v>
       </c>
       <c r="Y34" s="5">
-        <v>5346.766553715133</v>
+        <v>5430.417581988898</v>
       </c>
       <c r="Z34" s="5">
-        <v>5730.270820641678</v>
+        <v>5886.805780680997</v>
       </c>
       <c r="AA34" s="5">
-        <v>-48.95007095447727</v>
+        <v>-36.82168256725345</v>
       </c>
       <c r="AB34" s="5">
-        <v>-189.8915082500826</v>
+        <v>-205.3264703533332</v>
       </c>
       <c r="AC34" s="5">
-        <v>-199.0270026303924</v>
+        <v>-214.2471902674952</v>
       </c>
       <c r="AD34" s="5">
-        <v>-346.0896404726482</v>
+        <v>-362.0384338755812</v>
       </c>
       <c r="AE34" s="5">
-        <v>37.41462645389674</v>
+        <v>94.34976481651847</v>
       </c>
       <c r="AF34" s="4">
-        <v>-0.008598508250472481</v>
+        <v>-0.006356834210981543</v>
       </c>
       <c r="AG34" s="4">
-        <v>-0.03335610487472973</v>
+        <v>-0.03544722131527311</v>
       </c>
       <c r="AH34" s="4">
-        <v>-0.03496083439339159</v>
+        <v>-0.03698727960656256</v>
       </c>
       <c r="AI34" s="4">
-        <v>-0.06079367345094622</v>
+        <v>-0.06250171479662925</v>
       </c>
       <c r="AJ34" s="4">
-        <v>0.006572206494886768</v>
+        <v>0.01628838692225054</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -4020,106 +4020,106 @@
         <v>25</v>
       </c>
       <c r="C35" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D35" s="2">
-        <v>161657</v>
+        <v>166456</v>
       </c>
       <c r="E35" s="2">
-        <v>163804.5</v>
+        <v>168934</v>
       </c>
       <c r="F35" s="2">
-        <v>165252.5</v>
+        <v>170533</v>
       </c>
       <c r="G35" s="2">
-        <v>166446</v>
+        <v>172064.5</v>
       </c>
       <c r="H35" s="2">
-        <v>167471.5</v>
+        <v>173306</v>
       </c>
       <c r="I35" s="2">
-        <v>168483</v>
+        <v>174571</v>
       </c>
       <c r="J35" s="3">
-        <v>951637404.2449143</v>
+        <v>1016471985.989087</v>
       </c>
       <c r="K35" s="3">
-        <v>948301142.9660591</v>
+        <v>1016390572.551049</v>
       </c>
       <c r="L35" s="3">
-        <v>932699613.3492494</v>
+        <v>994588024.2765939</v>
       </c>
       <c r="M35" s="3">
-        <v>944915922.8579714</v>
+        <v>1009588202.19721</v>
       </c>
       <c r="N35" s="3">
-        <v>922102428.7374271</v>
+        <v>989708036.5285696</v>
       </c>
       <c r="O35" s="3">
-        <v>986664190.423385</v>
+        <v>1067500046.70594</v>
       </c>
       <c r="P35" s="4">
-        <v>0.6404494382022472</v>
+        <v>0.6289592760180995</v>
       </c>
       <c r="Q35" s="4">
-        <v>0.7078651685393258</v>
+        <v>0.7262443438914027</v>
       </c>
       <c r="R35" s="4">
-        <v>0.6382022471910113</v>
+        <v>0.665158371040724</v>
       </c>
       <c r="S35" s="4">
-        <v>0.7056179775280899</v>
+        <v>0.7285067873303167</v>
       </c>
       <c r="T35" s="4">
-        <v>0.4966292134831461</v>
+        <v>0.4638009049773756</v>
       </c>
       <c r="U35" s="5">
-        <v>5886.768925842458</v>
+        <v>6106.550595887725</v>
       </c>
       <c r="V35" s="5">
-        <v>5789.225222543087</v>
+        <v>6016.495036825319</v>
       </c>
       <c r="W35" s="5">
-        <v>5644.087764779651</v>
+        <v>5832.232027095013</v>
       </c>
       <c r="X35" s="5">
-        <v>5677.011900904627</v>
+        <v>5867.498538032016</v>
       </c>
       <c r="Y35" s="5">
-        <v>5506.025973000941</v>
+        <v>5710.754598966969</v>
       </c>
       <c r="Z35" s="5">
-        <v>5856.164660074814</v>
+        <v>6114.990729880336</v>
       </c>
       <c r="AA35" s="5">
-        <v>-97.54370329937137</v>
+        <v>-90.05555906240534</v>
       </c>
       <c r="AB35" s="5">
-        <v>-242.6811610628065</v>
+        <v>-274.3185687927116</v>
       </c>
       <c r="AC35" s="5">
-        <v>-209.7570249378314</v>
+        <v>-239.0520578557089</v>
       </c>
       <c r="AD35" s="5">
-        <v>-380.7429528415169</v>
+        <v>-395.7959969207559</v>
       </c>
       <c r="AE35" s="5">
-        <v>-30.60426576764348</v>
+        <v>8.440133992611663</v>
       </c>
       <c r="AF35" s="4">
-        <v>-0.01656999018105876</v>
+        <v>-0.01474736967266765</v>
       </c>
       <c r="AG35" s="4">
-        <v>-0.04122484916937286</v>
+        <v>-0.04492201685472696</v>
       </c>
       <c r="AH35" s="4">
-        <v>-0.03563194471877673</v>
+        <v>-0.03914682341561071</v>
       </c>
       <c r="AI35" s="4">
-        <v>-0.06467774727322573</v>
+        <v>-0.06481498690722276</v>
       </c>
       <c r="AJ35" s="4">
-        <v>-0.005198822334148923</v>
+        <v>0.001382144282616071</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -4128,106 +4128,106 @@
         <v>26</v>
       </c>
       <c r="C36" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="D36" s="2">
-        <v>146619.5</v>
+        <v>142906.5</v>
       </c>
       <c r="E36" s="2">
-        <v>148968.5</v>
+        <v>145178.5</v>
       </c>
       <c r="F36" s="2">
-        <v>151472</v>
+        <v>147846</v>
       </c>
       <c r="G36" s="2">
-        <v>153484.5</v>
+        <v>149935</v>
       </c>
       <c r="H36" s="2">
-        <v>154591.5</v>
+        <v>151234.5</v>
       </c>
       <c r="I36" s="2">
-        <v>154669</v>
+        <v>151386</v>
       </c>
       <c r="J36" s="3">
-        <v>904426815.4864866</v>
+        <v>917974087.9347134</v>
       </c>
       <c r="K36" s="3">
-        <v>880455066.6210021</v>
+        <v>896143532.3011416</v>
       </c>
       <c r="L36" s="3">
-        <v>878521619.7536408</v>
+        <v>891795800.5497181</v>
       </c>
       <c r="M36" s="3">
-        <v>883047231.5014979</v>
+        <v>902529615.5208453</v>
       </c>
       <c r="N36" s="3">
-        <v>876194518.6052965</v>
+        <v>892964247.17652</v>
       </c>
       <c r="O36" s="3">
-        <v>930990436.1375046</v>
+        <v>957866782.2891423</v>
       </c>
       <c r="P36" s="4">
-        <v>0.7102803738317757</v>
+        <v>0.6963470319634704</v>
       </c>
       <c r="Q36" s="4">
-        <v>0.719626168224299</v>
+        <v>0.723744292237443</v>
       </c>
       <c r="R36" s="4">
-        <v>0.6752336448598131</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="S36" s="4">
-        <v>0.7476635514018691</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="T36" s="4">
-        <v>0.5233644859813084</v>
+        <v>0.5273972602739726</v>
       </c>
       <c r="U36" s="5">
-        <v>6168.530212464826</v>
+        <v>6423.599261997973</v>
       </c>
       <c r="V36" s="5">
-        <v>5910.343909088177</v>
+        <v>6172.701414473504</v>
       </c>
       <c r="W36" s="5">
-        <v>5799.894500327722</v>
+        <v>6031.923762223652</v>
       </c>
       <c r="X36" s="5">
-        <v>5753.331649133937</v>
+        <v>6019.47254157365</v>
       </c>
       <c r="Y36" s="5">
-        <v>5667.805271346073</v>
+        <v>5904.500938453329</v>
       </c>
       <c r="Z36" s="5">
-        <v>6019.24390884731</v>
+        <v>6327.314165703185</v>
       </c>
       <c r="AA36" s="5">
-        <v>-258.1863033766494</v>
+        <v>-250.8978475244694</v>
       </c>
       <c r="AB36" s="5">
-        <v>-368.6357121371038</v>
+        <v>-391.675499774321</v>
       </c>
       <c r="AC36" s="5">
-        <v>-415.1985633308886</v>
+        <v>-404.1267204243231</v>
       </c>
       <c r="AD36" s="5">
-        <v>-500.7249411187531</v>
+        <v>-519.0983235446447</v>
       </c>
       <c r="AE36" s="5">
-        <v>-149.2863036175158</v>
+        <v>-96.28509629478867</v>
       </c>
       <c r="AF36" s="4">
-        <v>-0.04185540063578341</v>
+        <v>-0.03905876398747066</v>
       </c>
       <c r="AG36" s="4">
-        <v>-0.05976070464763183</v>
+        <v>-0.06097446054760514</v>
       </c>
       <c r="AH36" s="4">
-        <v>-0.06730915615714939</v>
+        <v>-0.06291281631080847</v>
       </c>
       <c r="AI36" s="4">
-        <v>-0.08117410855943152</v>
+        <v>-0.08081113132564655</v>
       </c>
       <c r="AJ36" s="4">
-        <v>-0.02420127623203516</v>
+        <v>-0.01498927507268577</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -4236,106 +4236,106 @@
         <v>27</v>
       </c>
       <c r="C37" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D37" s="2">
-        <v>82387</v>
+        <v>82390.5</v>
       </c>
       <c r="E37" s="2">
-        <v>83749</v>
+        <v>83579.5</v>
       </c>
       <c r="F37" s="2">
-        <v>84000</v>
+        <v>83685</v>
       </c>
       <c r="G37" s="2">
-        <v>85041</v>
+        <v>84458</v>
       </c>
       <c r="H37" s="2">
-        <v>86280</v>
+        <v>85107.5</v>
       </c>
       <c r="I37" s="2">
-        <v>86531.5</v>
+        <v>84852</v>
       </c>
       <c r="J37" s="3">
-        <v>544382284.7918661</v>
+        <v>555510908.055649</v>
       </c>
       <c r="K37" s="3">
-        <v>533277571.3210383</v>
+        <v>548783550.7473967</v>
       </c>
       <c r="L37" s="3">
-        <v>529293110.3651751</v>
+        <v>540679470.0209424</v>
       </c>
       <c r="M37" s="3">
-        <v>535423732.4373777</v>
+        <v>550642591.9443811</v>
       </c>
       <c r="N37" s="3">
-        <v>532123050.2864552</v>
+        <v>535515321.3321344</v>
       </c>
       <c r="O37" s="3">
-        <v>561921395.1329197</v>
+        <v>574139586.667904</v>
       </c>
       <c r="P37" s="4">
-        <v>0.6581818181818182</v>
+        <v>0.6273062730627307</v>
       </c>
       <c r="Q37" s="4">
-        <v>0.6545454545454545</v>
+        <v>0.6568265682656826</v>
       </c>
       <c r="R37" s="4">
-        <v>0.6545454545454545</v>
+        <v>0.6309963099630996</v>
       </c>
       <c r="S37" s="4">
-        <v>0.7236363636363636</v>
+        <v>0.7269372693726938</v>
       </c>
       <c r="T37" s="4">
-        <v>0.5745454545454546</v>
+        <v>0.4501845018450185</v>
       </c>
       <c r="U37" s="5">
-        <v>6607.623591001809</v>
+        <v>6742.414575171277</v>
       </c>
       <c r="V37" s="5">
-        <v>6367.569419587557</v>
+        <v>6566.006625397336</v>
       </c>
       <c r="W37" s="5">
-        <v>6301.108456728275</v>
+        <v>6460.888689979595</v>
       </c>
       <c r="X37" s="5">
-        <v>6296.065808696719</v>
+        <v>6519.720949399478</v>
       </c>
       <c r="Y37" s="5">
-        <v>6167.397430301984</v>
+        <v>6292.22244023305</v>
       </c>
       <c r="Z37" s="5">
-        <v>6493.836292366591</v>
+        <v>6766.364807758262</v>
       </c>
       <c r="AA37" s="5">
-        <v>-240.0541714142528</v>
+        <v>-176.4079497739403</v>
       </c>
       <c r="AB37" s="5">
-        <v>-306.5151342735344</v>
+        <v>-281.5258851916815</v>
       </c>
       <c r="AC37" s="5">
-        <v>-311.5577823050908</v>
+        <v>-222.6936257717989</v>
       </c>
       <c r="AD37" s="5">
-        <v>-440.2261606998254</v>
+        <v>-450.1921349382264</v>
       </c>
       <c r="AE37" s="5">
-        <v>-113.7872986352186</v>
+        <v>23.95023258698529</v>
       </c>
       <c r="AF37" s="4">
-        <v>-0.0363298798892171</v>
+        <v>-0.02616391321049238</v>
       </c>
       <c r="AG37" s="4">
-        <v>-0.04638810459647602</v>
+        <v>-0.04175446081710721</v>
       </c>
       <c r="AH37" s="4">
-        <v>-0.04715126066342012</v>
+        <v>-0.0330287648866715</v>
       </c>
       <c r="AI37" s="4">
-        <v>-0.06662397678029375</v>
+        <v>-0.06677016518622936</v>
       </c>
       <c r="AJ37" s="4">
-        <v>-0.0172206084484251</v>
+        <v>0.003552174420597298</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -4347,103 +4347,103 @@
         <v>166</v>
       </c>
       <c r="D38" s="2">
-        <v>49341.5</v>
+        <v>48837.5</v>
       </c>
       <c r="E38" s="2">
-        <v>50152.5</v>
+        <v>49604</v>
       </c>
       <c r="F38" s="2">
-        <v>50541</v>
+        <v>49873</v>
       </c>
       <c r="G38" s="2">
-        <v>50477.5</v>
+        <v>49738.5</v>
       </c>
       <c r="H38" s="2">
-        <v>50191.5</v>
+        <v>49439</v>
       </c>
       <c r="I38" s="2">
-        <v>49590.5</v>
+        <v>48861</v>
       </c>
       <c r="J38" s="3">
-        <v>361795971.3738193</v>
+        <v>365529442.365943</v>
       </c>
       <c r="K38" s="3">
-        <v>347964231.9271846</v>
+        <v>351729139.5362093</v>
       </c>
       <c r="L38" s="3">
-        <v>347043253.8507165</v>
+        <v>348053427.971188</v>
       </c>
       <c r="M38" s="3">
-        <v>345409660.7837577</v>
+        <v>346157650.5275198</v>
       </c>
       <c r="N38" s="3">
-        <v>335334530.7881564</v>
+        <v>335857871.7021838</v>
       </c>
       <c r="O38" s="3">
-        <v>347497328.3285509</v>
+        <v>349626589.9995274</v>
       </c>
       <c r="P38" s="4">
-        <v>0.7289156626506024</v>
+        <v>0.7048192771084337</v>
       </c>
       <c r="Q38" s="4">
-        <v>0.6927710843373494</v>
+        <v>0.6867469879518072</v>
       </c>
       <c r="R38" s="4">
-        <v>0.6445783132530121</v>
+        <v>0.6626506024096386</v>
       </c>
       <c r="S38" s="4">
-        <v>0.7530120481927711</v>
+        <v>0.7469879518072289</v>
       </c>
       <c r="T38" s="4">
-        <v>0.5662650602409639</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="U38" s="5">
-        <v>7332.488298365864</v>
+        <v>7484.605935314932</v>
       </c>
       <c r="V38" s="5">
-        <v>6938.123362288711</v>
+        <v>7090.741463112035</v>
       </c>
       <c r="W38" s="5">
-        <v>6866.568802570518</v>
+        <v>6978.79469795657</v>
       </c>
       <c r="X38" s="5">
-        <v>6842.844054950378</v>
+        <v>6959.551464710833</v>
       </c>
       <c r="Y38" s="5">
-        <v>6681.101995121812</v>
+        <v>6793.379148085191</v>
       </c>
       <c r="Z38" s="5">
-        <v>7007.336653765357</v>
+        <v>7155.534884663175</v>
       </c>
       <c r="AA38" s="5">
-        <v>-394.3649360771533</v>
+        <v>-393.8644722028976</v>
       </c>
       <c r="AB38" s="5">
-        <v>-465.9194957953468</v>
+        <v>-505.8112373583626</v>
       </c>
       <c r="AC38" s="5">
-        <v>-489.644243415486</v>
+        <v>-525.0544706040992</v>
       </c>
       <c r="AD38" s="5">
-        <v>-651.3863032440522</v>
+        <v>-691.2267872297407</v>
       </c>
       <c r="AE38" s="5">
-        <v>-325.1516446005071</v>
+        <v>-329.0710506517571</v>
       </c>
       <c r="AF38" s="4">
-        <v>-0.05378323428965337</v>
+        <v>-0.0526232744391405</v>
       </c>
       <c r="AG38" s="4">
-        <v>-0.06354179875052546</v>
+        <v>-0.06758020953003985</v>
       </c>
       <c r="AH38" s="4">
-        <v>-0.06677736444865645</v>
+        <v>-0.07015125113357168</v>
       </c>
       <c r="AI38" s="4">
-        <v>-0.08883564170013358</v>
+        <v>-0.09235313030553771</v>
       </c>
       <c r="AJ38" s="4">
-        <v>-0.04434397047356642</v>
+        <v>-0.04396638293261201</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -4454,106 +4454,106 @@
         <v>24</v>
       </c>
       <c r="C39" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D39" s="2">
-        <v>107374.5</v>
+        <v>106926.5</v>
       </c>
       <c r="E39" s="2">
-        <v>108583</v>
+        <v>108160.5</v>
       </c>
       <c r="F39" s="2">
-        <v>109728.5</v>
+        <v>109328.5</v>
       </c>
       <c r="G39" s="2">
-        <v>110925.5</v>
+        <v>110639</v>
       </c>
       <c r="H39" s="2">
-        <v>111897.5</v>
+        <v>111589.5</v>
       </c>
       <c r="I39" s="2">
-        <v>112902</v>
+        <v>112391.5</v>
       </c>
       <c r="J39" s="3">
-        <v>619677644.7145274</v>
+        <v>632779618.5869406</v>
       </c>
       <c r="K39" s="3">
-        <v>615854505.9899349</v>
+        <v>631514726.7026545</v>
       </c>
       <c r="L39" s="3">
-        <v>620979058.1552891</v>
+        <v>634146239.9430526</v>
       </c>
       <c r="M39" s="3">
-        <v>622587465.7565471</v>
+        <v>638577553.3368888</v>
       </c>
       <c r="N39" s="3">
-        <v>614101697.3044251</v>
+        <v>630040594.5653561</v>
       </c>
       <c r="O39" s="3">
-        <v>653256560.4838601</v>
+        <v>673849508.5288978</v>
       </c>
       <c r="P39" s="4">
-        <v>0.7075471698113207</v>
+        <v>0.6867088607594937</v>
       </c>
       <c r="Q39" s="4">
-        <v>0.6761006289308176</v>
+        <v>0.6613924050632911</v>
       </c>
       <c r="R39" s="4">
-        <v>0.6257861635220126</v>
+        <v>0.6265822784810127</v>
       </c>
       <c r="S39" s="4">
-        <v>0.7169811320754716</v>
+        <v>0.6993670886075949</v>
       </c>
       <c r="T39" s="4">
-        <v>0.5471698113207547</v>
+        <v>0.4778481012658228</v>
       </c>
       <c r="U39" s="5">
-        <v>5771.180724608984</v>
+        <v>5917.893306027418</v>
       </c>
       <c r="V39" s="5">
-        <v>5671.739646076595</v>
+        <v>5838.681650904485</v>
       </c>
       <c r="W39" s="5">
-        <v>5659.232179017202</v>
+        <v>5800.374467252845</v>
       </c>
       <c r="X39" s="5">
-        <v>5612.663145593638</v>
+        <v>5771.722026924401</v>
       </c>
       <c r="Y39" s="5">
-        <v>5488.073435996561</v>
+        <v>5646.05625587852</v>
       </c>
       <c r="Z39" s="5">
-        <v>5786.049498537317</v>
+        <v>5995.555789618412</v>
       </c>
       <c r="AA39" s="5">
-        <v>-99.44107853238893</v>
+        <v>-79.21165512293283</v>
       </c>
       <c r="AB39" s="5">
-        <v>-111.948545591782</v>
+        <v>-117.5188387745729</v>
       </c>
       <c r="AC39" s="5">
-        <v>-158.5175790153462</v>
+        <v>-146.1712791030168</v>
       </c>
       <c r="AD39" s="5">
-        <v>-283.107288612423</v>
+        <v>-271.8370501488971</v>
       </c>
       <c r="AE39" s="5">
-        <v>14.86877392833321</v>
+        <v>77.66248359099427</v>
       </c>
       <c r="AF39" s="4">
-        <v>-0.0172306297926802</v>
+        <v>-0.01338511038079293</v>
       </c>
       <c r="AG39" s="4">
-        <v>-0.01939785824318763</v>
+        <v>-0.01985822195457276</v>
       </c>
       <c r="AH39" s="4">
-        <v>-0.02746709669641934</v>
+        <v>-0.02469988415542068</v>
       </c>
       <c r="AI39" s="4">
-        <v>-0.04905534969737135</v>
+        <v>-0.04593476700095778</v>
       </c>
       <c r="AJ39" s="4">
-        <v>0.002576383349932376</v>
+        <v>0.01312333284412115</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -4562,106 +4562,106 @@
         <v>25</v>
       </c>
       <c r="C40" s="2">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="D40" s="2">
-        <v>124703.5</v>
+        <v>132720</v>
       </c>
       <c r="E40" s="2">
-        <v>126037</v>
+        <v>134022.5</v>
       </c>
       <c r="F40" s="2">
-        <v>127713.5</v>
+        <v>135681.5</v>
       </c>
       <c r="G40" s="2">
-        <v>129469.5</v>
+        <v>137357.5</v>
       </c>
       <c r="H40" s="2">
-        <v>131280</v>
+        <v>139234</v>
       </c>
       <c r="I40" s="2">
-        <v>132125</v>
+        <v>140393.5</v>
       </c>
       <c r="J40" s="3">
-        <v>756551785.9803716</v>
+        <v>832883415.1707944</v>
       </c>
       <c r="K40" s="3">
-        <v>743425913.5187225</v>
+        <v>818937004.5247853</v>
       </c>
       <c r="L40" s="3">
-        <v>746217644.6831863</v>
+        <v>815818974.5597538</v>
       </c>
       <c r="M40" s="3">
-        <v>751535218.2064434</v>
+        <v>822110533.0316707</v>
       </c>
       <c r="N40" s="3">
-        <v>745131300.3963889</v>
+        <v>810632041.6857413</v>
       </c>
       <c r="O40" s="3">
-        <v>790972932.4726053</v>
+        <v>869002578.6325829</v>
       </c>
       <c r="P40" s="4">
-        <v>0.693717277486911</v>
+        <v>0.6895674300254453</v>
       </c>
       <c r="Q40" s="4">
-        <v>0.7041884816753927</v>
+        <v>0.7506361323155216</v>
       </c>
       <c r="R40" s="4">
-        <v>0.6858638743455497</v>
+        <v>0.7175572519083969</v>
       </c>
       <c r="S40" s="4">
-        <v>0.7486910994764397</v>
+        <v>0.7659033078880407</v>
       </c>
       <c r="T40" s="4">
-        <v>0.5654450261780105</v>
+        <v>0.5521628498727735</v>
       </c>
       <c r="U40" s="5">
-        <v>6066.804748706905</v>
+        <v>6275.492881033713</v>
       </c>
       <c r="V40" s="5">
-        <v>5898.473571401434</v>
+        <v>6110.44417560324</v>
       </c>
       <c r="W40" s="5">
-        <v>5842.903410236086</v>
+        <v>6012.750261161277</v>
       </c>
       <c r="X40" s="5">
-        <v>5804.727895036618</v>
+        <v>5985.188526521454</v>
       </c>
       <c r="Y40" s="5">
-        <v>5675.89351307426</v>
+        <v>5822.083985849299</v>
       </c>
       <c r="Z40" s="5">
-        <v>5986.550103860778</v>
+        <v>6189.763618918133</v>
       </c>
       <c r="AA40" s="5">
-        <v>-168.3311773054711</v>
+        <v>-165.0487054304731</v>
       </c>
       <c r="AB40" s="5">
-        <v>-223.9013384708196</v>
+        <v>-262.7426198724361</v>
       </c>
       <c r="AC40" s="5">
-        <v>-262.0768536702872</v>
+        <v>-290.3043545122591</v>
       </c>
       <c r="AD40" s="5">
-        <v>-390.911235632645</v>
+        <v>-453.4088951844142</v>
       </c>
       <c r="AE40" s="5">
-        <v>-80.25464484612712</v>
+        <v>-85.72926211558024</v>
       </c>
       <c r="AF40" s="4">
-        <v>-0.02774626583150708</v>
+        <v>-0.02630051671786549</v>
       </c>
       <c r="AG40" s="4">
-        <v>-0.0369059740250488</v>
+        <v>-0.04186804524414611</v>
       </c>
       <c r="AH40" s="4">
-        <v>-0.04319849814288934</v>
+        <v>-0.04626000857871093</v>
       </c>
       <c r="AI40" s="4">
-        <v>-0.06443445138331916</v>
+        <v>-0.07225072257746357</v>
       </c>
       <c r="AJ40" s="4">
-        <v>-0.0132284865213822</v>
+        <v>-0.01366096077882228</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -4670,106 +4670,106 @@
         <v>26</v>
       </c>
       <c r="C41" s="2">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="D41" s="2">
-        <v>116241</v>
+        <v>120454</v>
       </c>
       <c r="E41" s="2">
-        <v>118452.5</v>
+        <v>122668.5</v>
       </c>
       <c r="F41" s="2">
-        <v>119889</v>
+        <v>124363</v>
       </c>
       <c r="G41" s="2">
-        <v>121815.5</v>
+        <v>126473</v>
       </c>
       <c r="H41" s="2">
-        <v>123346.5</v>
+        <v>127931.5</v>
       </c>
       <c r="I41" s="2">
-        <v>123947</v>
+        <v>128506</v>
       </c>
       <c r="J41" s="3">
-        <v>741297723.2937661</v>
+        <v>778112680.8090141</v>
       </c>
       <c r="K41" s="3">
-        <v>726266382.1164993</v>
+        <v>765533069.0040079</v>
       </c>
       <c r="L41" s="3">
-        <v>722733295.2486104</v>
+        <v>766221684.5855182</v>
       </c>
       <c r="M41" s="3">
-        <v>738445453.0693338</v>
+        <v>774172977.1554167</v>
       </c>
       <c r="N41" s="3">
-        <v>727032913.6324056</v>
+        <v>764899404.386761</v>
       </c>
       <c r="O41" s="3">
-        <v>771516831.9370835</v>
+        <v>813695822.2613178</v>
       </c>
       <c r="P41" s="4">
-        <v>0.7115384615384616</v>
+        <v>0.6920821114369502</v>
       </c>
       <c r="Q41" s="4">
-        <v>0.7467948717948718</v>
+        <v>0.7126099706744868</v>
       </c>
       <c r="R41" s="4">
-        <v>0.6858974358974359</v>
+        <v>0.7008797653958945</v>
       </c>
       <c r="S41" s="4">
-        <v>0.7564102564102564</v>
+        <v>0.7683284457478006</v>
       </c>
       <c r="T41" s="4">
-        <v>0.6057692307692307</v>
+        <v>0.5571847507331378</v>
       </c>
       <c r="U41" s="5">
-        <v>6377.248331430099</v>
+        <v>6459.832639920751</v>
       </c>
       <c r="V41" s="5">
-        <v>6131.287918081081</v>
+        <v>6240.665443891528</v>
       </c>
       <c r="W41" s="5">
-        <v>6028.353687566085</v>
+        <v>6161.170803096727</v>
       </c>
       <c r="X41" s="5">
-        <v>6061.999113982488</v>
+        <v>6121.250995512218</v>
       </c>
       <c r="Y41" s="5">
-        <v>5894.232212769763</v>
+        <v>5978.976283298179</v>
       </c>
       <c r="Z41" s="5">
-        <v>6224.570436856749</v>
+        <v>6331.967552186808</v>
       </c>
       <c r="AA41" s="5">
-        <v>-245.9604133490175</v>
+        <v>-219.1671960292224</v>
       </c>
       <c r="AB41" s="5">
-        <v>-348.8946438640141</v>
+        <v>-298.6618368240242</v>
       </c>
       <c r="AC41" s="5">
-        <v>-315.249217447611</v>
+        <v>-338.5816444085331</v>
       </c>
       <c r="AD41" s="5">
-        <v>-483.0161186603355</v>
+        <v>-480.8563566225721</v>
       </c>
       <c r="AE41" s="5">
-        <v>-152.6778945733495</v>
+        <v>-127.8650877339433</v>
       </c>
       <c r="AF41" s="4">
-        <v>-0.0385684233334318</v>
+        <v>-0.03392768950000402</v>
       </c>
       <c r="AG41" s="4">
-        <v>-0.05470927674942438</v>
+        <v>-0.04623368026260322</v>
       </c>
       <c r="AH41" s="4">
-        <v>-0.04943342348672763</v>
+        <v>-0.05241337713861993</v>
       </c>
       <c r="AI41" s="4">
-        <v>-0.07574052217471339</v>
+        <v>-0.07443789698992442</v>
       </c>
       <c r="AJ41" s="4">
-        <v>-0.02394103014945814</v>
+        <v>-0.01979387003678035</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -4778,106 +4778,106 @@
         <v>27</v>
       </c>
       <c r="C42" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="D42" s="2">
-        <v>160254.5</v>
+        <v>156456.5</v>
       </c>
       <c r="E42" s="2">
-        <v>164004</v>
+        <v>160304</v>
       </c>
       <c r="F42" s="2">
-        <v>166365.5</v>
+        <v>162429</v>
       </c>
       <c r="G42" s="2">
-        <v>168611.5</v>
+        <v>164821.5</v>
       </c>
       <c r="H42" s="2">
-        <v>169880.5</v>
+        <v>166407</v>
       </c>
       <c r="I42" s="2">
-        <v>170221.5</v>
+        <v>166946</v>
       </c>
       <c r="J42" s="3">
-        <v>1052625714.343251</v>
+        <v>1070875520.929965</v>
       </c>
       <c r="K42" s="3">
-        <v>1032848612.521603</v>
+        <v>1055861140.084149</v>
       </c>
       <c r="L42" s="3">
-        <v>1038652642.7203</v>
+        <v>1052274797.99688</v>
       </c>
       <c r="M42" s="3">
-        <v>1044800161.599602</v>
+        <v>1064757159.803567</v>
       </c>
       <c r="N42" s="3">
-        <v>1032348503.505366</v>
+        <v>1054453378.799848</v>
       </c>
       <c r="O42" s="3">
-        <v>1061573428.370443</v>
+        <v>1097089478.86917</v>
       </c>
       <c r="P42" s="4">
-        <v>0.7672209026128266</v>
+        <v>0.762962962962963</v>
       </c>
       <c r="Q42" s="4">
-        <v>0.7434679334916865</v>
+        <v>0.7753086419753087</v>
       </c>
       <c r="R42" s="4">
-        <v>0.7695961995249406</v>
+        <v>0.7802469135802469</v>
       </c>
       <c r="S42" s="4">
-        <v>0.8052256532066508</v>
+        <v>0.8</v>
       </c>
       <c r="T42" s="4">
-        <v>0.6817102137767221</v>
+        <v>0.654320987654321</v>
       </c>
       <c r="U42" s="5">
-        <v>6568.462753577909</v>
+        <v>6844.557566671665</v>
       </c>
       <c r="V42" s="5">
-        <v>6297.703790892926</v>
+        <v>6586.617552176794</v>
       </c>
       <c r="W42" s="5">
-        <v>6243.197313867957</v>
+        <v>6478.367766820458</v>
       </c>
       <c r="X42" s="5">
-        <v>6196.494080176039</v>
+        <v>6460.062308640362</v>
       </c>
       <c r="Y42" s="5">
-        <v>6076.909966154834</v>
+        <v>6336.592684201074</v>
       </c>
       <c r="Z42" s="5">
-        <v>6236.423885175745</v>
+        <v>6571.523000665905</v>
       </c>
       <c r="AA42" s="5">
-        <v>-270.7589626849831</v>
+        <v>-257.9400144948713</v>
       </c>
       <c r="AB42" s="5">
-        <v>-325.2654397099523</v>
+        <v>-366.1897998512068</v>
       </c>
       <c r="AC42" s="5">
-        <v>-371.9686734018696</v>
+        <v>-384.4952580313029</v>
       </c>
       <c r="AD42" s="5">
-        <v>-491.5527874230747</v>
+        <v>-507.964882470591</v>
       </c>
       <c r="AE42" s="5">
-        <v>-332.0388684021646</v>
+        <v>-273.0345660057601</v>
       </c>
       <c r="AF42" s="4">
-        <v>-0.04122105473422955</v>
+        <v>-0.03768541822934812</v>
       </c>
       <c r="AG42" s="4">
-        <v>-0.04951926377793292</v>
+        <v>-0.0535008722308512</v>
       </c>
       <c r="AH42" s="4">
-        <v>-0.05662948658714007</v>
+        <v>-0.05617532678862003</v>
       </c>
       <c r="AI42" s="4">
-        <v>-0.07483528579884557</v>
+        <v>-0.0742144218267714</v>
       </c>
       <c r="AJ42" s="4">
-        <v>-0.05055046833009746</v>
+        <v>-0.03989075456611724</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -4886,106 +4886,106 @@
         <v>28</v>
       </c>
       <c r="C43" s="2">
-        <v>501</v>
+        <v>532</v>
       </c>
       <c r="D43" s="2">
-        <v>211187</v>
+        <v>221050.5</v>
       </c>
       <c r="E43" s="2">
-        <v>215012</v>
+        <v>225185.5</v>
       </c>
       <c r="F43" s="2">
-        <v>217573</v>
+        <v>228004</v>
       </c>
       <c r="G43" s="2">
-        <v>220163</v>
+        <v>230646</v>
       </c>
       <c r="H43" s="2">
-        <v>221327.5</v>
+        <v>231669</v>
       </c>
       <c r="I43" s="2">
-        <v>220902.5</v>
+        <v>230780.5</v>
       </c>
       <c r="J43" s="3">
-        <v>1523545545.814923</v>
+        <v>1638719067.441055</v>
       </c>
       <c r="K43" s="3">
-        <v>1479785015.831086</v>
+        <v>1596801301.611869</v>
       </c>
       <c r="L43" s="3">
-        <v>1474749401.144188</v>
+        <v>1584746045.561065</v>
       </c>
       <c r="M43" s="3">
-        <v>1478138619.369591</v>
+        <v>1593045783.281919</v>
       </c>
       <c r="N43" s="3">
-        <v>1463469312.189929</v>
+        <v>1573461804.174567</v>
       </c>
       <c r="O43" s="3">
-        <v>1502637651.442263</v>
+        <v>1630582230.370133</v>
       </c>
       <c r="P43" s="4">
-        <v>0.7544910179640718</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="Q43" s="4">
-        <v>0.7564870259481038</v>
+        <v>0.7575187969924813</v>
       </c>
       <c r="R43" s="4">
-        <v>0.7544910179640718</v>
+        <v>0.7556390977443609</v>
       </c>
       <c r="S43" s="4">
-        <v>0.7984031936127745</v>
+        <v>0.8045112781954887</v>
       </c>
       <c r="T43" s="4">
-        <v>0.6806387225548902</v>
+        <v>0.6296992481203008</v>
       </c>
       <c r="U43" s="5">
-        <v>7214.201375155303</v>
+        <v>7413.324409766345</v>
       </c>
       <c r="V43" s="5">
-        <v>6882.336873435371</v>
+        <v>7091.048498290828</v>
       </c>
       <c r="W43" s="5">
-        <v>6778.182040713636</v>
+        <v>6950.518611783412</v>
       </c>
       <c r="X43" s="5">
-        <v>6713.837562940146</v>
+        <v>6906.886671704337</v>
       </c>
       <c r="Y43" s="5">
-        <v>6612.234413662691</v>
+        <v>6791.853049715618</v>
       </c>
       <c r="Z43" s="5">
-        <v>6802.266391019854</v>
+        <v>7065.511299135467</v>
       </c>
       <c r="AA43" s="5">
-        <v>-331.8645017199324</v>
+        <v>-322.2759114755163</v>
       </c>
       <c r="AB43" s="5">
-        <v>-436.0193344416675</v>
+        <v>-462.8057979829327</v>
       </c>
       <c r="AC43" s="5">
-        <v>-500.3638122151569</v>
+        <v>-506.4377380620072</v>
       </c>
       <c r="AD43" s="5">
-        <v>-601.9669614926124</v>
+        <v>-621.4713600507266</v>
       </c>
       <c r="AE43" s="5">
-        <v>-411.9349841354488</v>
+        <v>-347.8131106308774</v>
       </c>
       <c r="AF43" s="4">
-        <v>-0.04600155782493498</v>
+        <v>-0.04347252240181865</v>
       </c>
       <c r="AG43" s="4">
-        <v>-0.06043903015283947</v>
+        <v>-0.06242891480281509</v>
       </c>
       <c r="AH43" s="4">
-        <v>-0.0693581709457598</v>
+        <v>-0.06831452531536653</v>
       </c>
       <c r="AI43" s="4">
-        <v>-0.08344194044342901</v>
+        <v>-0.08383166926190333</v>
       </c>
       <c r="AJ43" s="4">
-        <v>-0.05710056632936455</v>
+        <v>-0.04691729262146782</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -4996,106 +4996,106 @@
         <v>24</v>
       </c>
       <c r="C44" s="2">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="D44" s="2">
-        <v>93328</v>
+        <v>100337.5</v>
       </c>
       <c r="E44" s="2">
-        <v>94101</v>
+        <v>101070</v>
       </c>
       <c r="F44" s="2">
-        <v>94801</v>
+        <v>101910</v>
       </c>
       <c r="G44" s="2">
-        <v>95771.5</v>
+        <v>102994</v>
       </c>
       <c r="H44" s="2">
-        <v>96125</v>
+        <v>103465.5</v>
       </c>
       <c r="I44" s="2">
-        <v>96688.5</v>
+        <v>104031.5</v>
       </c>
       <c r="J44" s="3">
-        <v>512286687.6205461</v>
+        <v>573413747.8762176</v>
       </c>
       <c r="K44" s="3">
-        <v>502584330.5935014</v>
+        <v>562937797.2617996</v>
       </c>
       <c r="L44" s="3">
-        <v>499165939.6371411</v>
+        <v>556010376.5286815</v>
       </c>
       <c r="M44" s="3">
-        <v>508759905.3001395</v>
+        <v>565572337.327522</v>
       </c>
       <c r="N44" s="3">
-        <v>504508404.0084865</v>
+        <v>562178028.4653094</v>
       </c>
       <c r="O44" s="3">
-        <v>534283379.2583309</v>
+        <v>600703912.6024767</v>
       </c>
       <c r="P44" s="4">
-        <v>0.7165605095541401</v>
+        <v>0.6927710843373494</v>
       </c>
       <c r="Q44" s="4">
-        <v>0.7643312101910829</v>
+        <v>0.7740963855421686</v>
       </c>
       <c r="R44" s="4">
-        <v>0.697452229299363</v>
+        <v>0.7048192771084337</v>
       </c>
       <c r="S44" s="4">
-        <v>0.7006369426751592</v>
+        <v>0.7048192771084337</v>
       </c>
       <c r="T44" s="4">
-        <v>0.5127388535031847</v>
+        <v>0.4728915662650602</v>
       </c>
       <c r="U44" s="5">
-        <v>5489.099601625944</v>
+        <v>5714.849860483046</v>
       </c>
       <c r="V44" s="5">
-        <v>5340.903184806765</v>
+        <v>5569.78131257346</v>
       </c>
       <c r="W44" s="5">
-        <v>5265.407956004063</v>
+        <v>5455.896148843896</v>
       </c>
       <c r="X44" s="5">
-        <v>5312.226552785949</v>
+        <v>5491.313448623435</v>
       </c>
       <c r="Y44" s="5">
-        <v>5248.461940270341</v>
+        <v>5433.482933589548</v>
       </c>
       <c r="Z44" s="5">
-        <v>5525.821367156704</v>
+        <v>5774.250228079733</v>
       </c>
       <c r="AA44" s="5">
-        <v>-148.1964168191789</v>
+        <v>-145.0685479095855</v>
       </c>
       <c r="AB44" s="5">
-        <v>-223.6916456218814</v>
+        <v>-258.9537116391493</v>
       </c>
       <c r="AC44" s="5">
-        <v>-176.8730488399951</v>
+        <v>-223.5364118596108</v>
       </c>
       <c r="AD44" s="5">
-        <v>-240.6376613556031</v>
+        <v>-281.3669268934973</v>
       </c>
       <c r="AE44" s="5">
-        <v>36.72176553075951</v>
+        <v>59.40036759668692</v>
       </c>
       <c r="AF44" s="4">
-        <v>-0.02699831075670067</v>
+        <v>-0.02538448978558527</v>
       </c>
       <c r="AG44" s="4">
-        <v>-0.04075197425013399</v>
+        <v>-0.04531242604110364</v>
       </c>
       <c r="AH44" s="4">
-        <v>-0.03222259781688108</v>
+        <v>-0.0391150104231639</v>
       </c>
       <c r="AI44" s="4">
-        <v>-0.04383918653695462</v>
+        <v>-0.04923435151622946</v>
       </c>
       <c r="AJ44" s="4">
-        <v>0.006689943377941709</v>
+        <v>0.01039403817192608</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -5104,106 +5104,106 @@
         <v>25</v>
       </c>
       <c r="C45" s="2">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="D45" s="2">
-        <v>115775</v>
+        <v>121760.5</v>
       </c>
       <c r="E45" s="2">
-        <v>117099.5</v>
+        <v>123153.5</v>
       </c>
       <c r="F45" s="2">
-        <v>118353.5</v>
+        <v>124401</v>
       </c>
       <c r="G45" s="2">
-        <v>119293</v>
+        <v>125461.5</v>
       </c>
       <c r="H45" s="2">
-        <v>119598.5</v>
+        <v>125735.5</v>
       </c>
       <c r="I45" s="2">
-        <v>119680</v>
+        <v>125749</v>
       </c>
       <c r="J45" s="3">
-        <v>710221043.3064648</v>
+        <v>765272961.7345912</v>
       </c>
       <c r="K45" s="3">
-        <v>686223310.9082729</v>
+        <v>745227348.8240558</v>
       </c>
       <c r="L45" s="3">
-        <v>684383648.4551151</v>
+        <v>740245443.7597626</v>
       </c>
       <c r="M45" s="3">
-        <v>687317143.1147943</v>
+        <v>744218549.3034024</v>
       </c>
       <c r="N45" s="3">
-        <v>679895236.5660412</v>
+        <v>733525002.1427171</v>
       </c>
       <c r="O45" s="3">
-        <v>707866084.6145271</v>
+        <v>772301941.2980683</v>
       </c>
       <c r="P45" s="4">
-        <v>0.7699386503067485</v>
+        <v>0.7645348837209303</v>
       </c>
       <c r="Q45" s="4">
-        <v>0.7822085889570553</v>
+        <v>0.7645348837209303</v>
       </c>
       <c r="R45" s="4">
-        <v>0.7668711656441718</v>
+        <v>0.7703488372093024</v>
       </c>
       <c r="S45" s="4">
-        <v>0.754601226993865</v>
+        <v>0.7616279069767442</v>
       </c>
       <c r="T45" s="4">
-        <v>0.6288343558282209</v>
+        <v>0.563953488372093</v>
       </c>
       <c r="U45" s="5">
-        <v>6134.494003942688</v>
+        <v>6285.067503292046</v>
       </c>
       <c r="V45" s="5">
-        <v>5860.172852217754</v>
+        <v>6051.207223700957</v>
       </c>
       <c r="W45" s="5">
-        <v>5782.538314921951</v>
+        <v>5950.478241812869</v>
       </c>
       <c r="X45" s="5">
-        <v>5761.588216532356</v>
+        <v>5931.848011568509</v>
       </c>
       <c r="Y45" s="5">
-        <v>5684.814078487952</v>
+        <v>5833.873505435753</v>
       </c>
       <c r="Z45" s="5">
-        <v>5914.656455669511</v>
+        <v>6141.614973463553</v>
       </c>
       <c r="AA45" s="5">
-        <v>-274.3211517249347</v>
+        <v>-233.8602795910892</v>
       </c>
       <c r="AB45" s="5">
-        <v>-351.9556890207377</v>
+        <v>-334.5892614791774</v>
       </c>
       <c r="AC45" s="5">
-        <v>-372.9057874103328</v>
+        <v>-353.2194917235374</v>
       </c>
       <c r="AD45" s="5">
-        <v>-449.6799254547368</v>
+        <v>-451.1939978562932</v>
       </c>
       <c r="AE45" s="5">
-        <v>-219.8375482731772</v>
+        <v>-143.4525298284934</v>
       </c>
       <c r="AF45" s="4">
-        <v>-0.04471781234909122</v>
+        <v>-0.03720887316939647</v>
       </c>
       <c r="AG45" s="4">
-        <v>-0.05737322243603682</v>
+        <v>-0.05323558757386826</v>
       </c>
       <c r="AH45" s="4">
-        <v>-0.06078835306883723</v>
+        <v>-0.05619979284844989</v>
       </c>
       <c r="AI45" s="4">
-        <v>-0.07330350721114476</v>
+        <v>-0.07178825010550216</v>
       </c>
       <c r="AJ45" s="4">
-        <v>-0.03583629687010625</v>
+        <v>-0.02282434194276428</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -5215,103 +5215,103 @@
         <v>312</v>
       </c>
       <c r="D46" s="2">
-        <v>124635.5</v>
+        <v>127130</v>
       </c>
       <c r="E46" s="2">
-        <v>126087.5</v>
+        <v>128733</v>
       </c>
       <c r="F46" s="2">
-        <v>127476</v>
+        <v>130094</v>
       </c>
       <c r="G46" s="2">
-        <v>128925</v>
+        <v>131857.5</v>
       </c>
       <c r="H46" s="2">
-        <v>129282.5</v>
+        <v>132484</v>
       </c>
       <c r="I46" s="2">
-        <v>129382.5</v>
+        <v>132925</v>
       </c>
       <c r="J46" s="3">
-        <v>786543973.8919603</v>
+        <v>824381862.2010245</v>
       </c>
       <c r="K46" s="3">
-        <v>758766217.0723257</v>
+        <v>798410594.3180393</v>
       </c>
       <c r="L46" s="3">
-        <v>757388551.7525822</v>
+        <v>795921814.4395453</v>
       </c>
       <c r="M46" s="3">
-        <v>760655351.3776571</v>
+        <v>796831477.1778991</v>
       </c>
       <c r="N46" s="3">
-        <v>753888543.3128138</v>
+        <v>793704322.5510594</v>
       </c>
       <c r="O46" s="3">
-        <v>789371982.5526435</v>
+        <v>832398148.0244193</v>
       </c>
       <c r="P46" s="4">
-        <v>0.7628205128205128</v>
+        <v>0.75</v>
       </c>
       <c r="Q46" s="4">
-        <v>0.8012820512820513</v>
+        <v>0.7980769230769231</v>
       </c>
       <c r="R46" s="4">
-        <v>0.7692307692307693</v>
+        <v>0.7724358974358975</v>
       </c>
       <c r="S46" s="4">
         <v>0.8012820512820513</v>
       </c>
       <c r="T46" s="4">
-        <v>0.6314102564102564</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="U46" s="5">
-        <v>6310.75394965287</v>
+        <v>6484.558028797487</v>
       </c>
       <c r="V46" s="5">
-        <v>6017.775093267182</v>
+        <v>6202.066248110736</v>
       </c>
       <c r="W46" s="5">
-        <v>5941.420751769605</v>
+        <v>6118.051673709359</v>
       </c>
       <c r="X46" s="5">
-        <v>5899.983334323499</v>
+        <v>6043.125928960424</v>
       </c>
       <c r="Y46" s="5">
-        <v>5831.327080717141</v>
+        <v>5990.944737108325</v>
       </c>
       <c r="Z46" s="5">
-        <v>6101.072266748931</v>
+        <v>6262.163987394541</v>
       </c>
       <c r="AA46" s="5">
-        <v>-292.9788563856882</v>
+        <v>-282.4917806867516</v>
       </c>
       <c r="AB46" s="5">
-        <v>-369.3331978832648</v>
+        <v>-366.5063550881287</v>
       </c>
       <c r="AC46" s="5">
-        <v>-410.7706153293711</v>
+        <v>-441.4320998370631</v>
       </c>
       <c r="AD46" s="5">
-        <v>-479.4268689357286</v>
+        <v>-493.613291689162</v>
       </c>
       <c r="AE46" s="5">
-        <v>-209.681682903939</v>
+        <v>-222.3940414029466</v>
       </c>
       <c r="AF46" s="4">
-        <v>-0.04642533344241762</v>
+        <v>-0.04356376786701954</v>
       </c>
       <c r="AG46" s="4">
-        <v>-0.05852441734059055</v>
+        <v>-0.05651986665251485</v>
       </c>
       <c r="AH46" s="4">
-        <v>-0.06509057691149023</v>
+        <v>-0.06807435416210217</v>
       </c>
       <c r="AI46" s="4">
-        <v>-0.07596982432853372</v>
+        <v>-0.07612134697493</v>
       </c>
       <c r="AJ46" s="4">
-        <v>-0.03322609066630977</v>
+        <v>-0.03429594436742023</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -5320,106 +5320,106 @@
         <v>27</v>
       </c>
       <c r="C47" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D47" s="2">
-        <v>146924.5</v>
+        <v>144565.5</v>
       </c>
       <c r="E47" s="2">
-        <v>148881</v>
+        <v>146505.5</v>
       </c>
       <c r="F47" s="2">
-        <v>150667</v>
+        <v>148350.5</v>
       </c>
       <c r="G47" s="2">
-        <v>152879.5</v>
+        <v>150096.5</v>
       </c>
       <c r="H47" s="2">
-        <v>154199.5</v>
+        <v>151088</v>
       </c>
       <c r="I47" s="2">
-        <v>154316</v>
+        <v>151070.5</v>
       </c>
       <c r="J47" s="3">
-        <v>993630352.9859132</v>
+        <v>1013054007.570449</v>
       </c>
       <c r="K47" s="3">
-        <v>952447062.2607267</v>
+        <v>971200665.0243241</v>
       </c>
       <c r="L47" s="3">
-        <v>950418127.2194012</v>
+        <v>965816284.6602676</v>
       </c>
       <c r="M47" s="3">
-        <v>956974828.6331246</v>
+        <v>973541343.1343275</v>
       </c>
       <c r="N47" s="3">
-        <v>951103944.0223438</v>
+        <v>967499243.6447018</v>
       </c>
       <c r="O47" s="3">
-        <v>996800124.5102428</v>
+        <v>1025023393.217219</v>
       </c>
       <c r="P47" s="4">
-        <v>0.7994791666666666</v>
+        <v>0.7704081632653061</v>
       </c>
       <c r="Q47" s="4">
-        <v>0.8125</v>
+        <v>0.8239795918367347</v>
       </c>
       <c r="R47" s="4">
-        <v>0.8072916666666666</v>
+        <v>0.798469387755102</v>
       </c>
       <c r="S47" s="4">
-        <v>0.8880208333333334</v>
+        <v>0.8673469387755102</v>
       </c>
       <c r="T47" s="4">
-        <v>0.6901041666666666</v>
+        <v>0.6632653061224489</v>
       </c>
       <c r="U47" s="5">
-        <v>6762.863599916373</v>
+        <v>7007.577932289857</v>
       </c>
       <c r="V47" s="5">
-        <v>6397.371472926207</v>
+        <v>6629.107200919583</v>
       </c>
       <c r="W47" s="5">
-        <v>6308.070959263815</v>
+        <v>6510.367573147833</v>
       </c>
       <c r="X47" s="5">
-        <v>6259.667441567539</v>
+        <v>6486.102894699927</v>
       </c>
       <c r="Y47" s="5">
-        <v>6168.009260875319</v>
+        <v>6403.547890267274</v>
       </c>
       <c r="Z47" s="5">
-        <v>6459.473577012383</v>
+        <v>6785.066529979177</v>
       </c>
       <c r="AA47" s="5">
-        <v>-365.4921269901661</v>
+        <v>-378.4707313702738</v>
       </c>
       <c r="AB47" s="5">
-        <v>-454.7926406525585</v>
+        <v>-497.2103591420237</v>
       </c>
       <c r="AC47" s="5">
-        <v>-503.1961583488346</v>
+        <v>-521.4750375899303</v>
       </c>
       <c r="AD47" s="5">
-        <v>-594.8543390410541</v>
+        <v>-604.0300420225831</v>
       </c>
       <c r="AE47" s="5">
-        <v>-303.3900229039909</v>
+        <v>-222.5114023106798</v>
       </c>
       <c r="AF47" s="4">
-        <v>-0.05404398914606023</v>
+        <v>-0.05400877949945271</v>
       </c>
       <c r="AG47" s="4">
-        <v>-0.06724853073455184</v>
+        <v>-0.07095324004189141</v>
       </c>
       <c r="AH47" s="4">
-        <v>-0.07440578253789665</v>
+        <v>-0.07441587416203421</v>
       </c>
       <c r="AI47" s="4">
-        <v>-0.08795894375991997</v>
+        <v>-0.08619669276017672</v>
       </c>
       <c r="AJ47" s="4">
-        <v>-0.04486117728409345</v>
+        <v>-0.031752968637763</v>
       </c>
     </row>
     <row r="48" spans="1:36">
@@ -5428,106 +5428,106 @@
         <v>28</v>
       </c>
       <c r="C48" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D48" s="2">
-        <v>145766.5</v>
+        <v>150215.5</v>
       </c>
       <c r="E48" s="2">
-        <v>148878</v>
+        <v>153056</v>
       </c>
       <c r="F48" s="2">
-        <v>150598</v>
+        <v>154523.5</v>
       </c>
       <c r="G48" s="2">
-        <v>152121</v>
+        <v>156022</v>
       </c>
       <c r="H48" s="2">
-        <v>153221.5</v>
+        <v>157109.5</v>
       </c>
       <c r="I48" s="2">
-        <v>152030</v>
+        <v>155850</v>
       </c>
       <c r="J48" s="3">
-        <v>1044956037.535126</v>
+        <v>1104099680.38822</v>
       </c>
       <c r="K48" s="3">
-        <v>1002582727.119323</v>
+        <v>1060523036.711648</v>
       </c>
       <c r="L48" s="3">
-        <v>1000191534.547199</v>
+        <v>1052208086.981527</v>
       </c>
       <c r="M48" s="3">
-        <v>1004424607.103821</v>
+        <v>1055201108.357939</v>
       </c>
       <c r="N48" s="3">
-        <v>1001910965.421523</v>
+        <v>1051861610.50931</v>
       </c>
       <c r="O48" s="3">
-        <v>1042525219.940487</v>
+        <v>1102012675.059752</v>
       </c>
       <c r="P48" s="4">
-        <v>0.7774936061381074</v>
+        <v>0.7615384615384615</v>
       </c>
       <c r="Q48" s="4">
-        <v>0.8260869565217391</v>
+        <v>0.8384615384615385</v>
       </c>
       <c r="R48" s="4">
-        <v>0.8081841432225064</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="S48" s="4">
-        <v>0.8516624040920716</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="T48" s="4">
-        <v>0.6572890025575447</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="U48" s="5">
-        <v>7168.698140760232</v>
+        <v>7350.104885236345</v>
       </c>
       <c r="V48" s="5">
-        <v>6734.257090499089</v>
+        <v>6928.987015939578</v>
       </c>
       <c r="W48" s="5">
-        <v>6641.466251525246</v>
+        <v>6809.372600164553</v>
       </c>
       <c r="X48" s="5">
-        <v>6602.800449009808</v>
+        <v>6763.155890566325</v>
       </c>
       <c r="Y48" s="5">
-        <v>6538.971132781778</v>
+        <v>6695.085978310097</v>
       </c>
       <c r="Z48" s="5">
-        <v>6857.365124912759</v>
+        <v>7070.982836443712</v>
       </c>
       <c r="AA48" s="5">
-        <v>-434.4410502611436</v>
+        <v>-421.1178692967669</v>
       </c>
       <c r="AB48" s="5">
-        <v>-527.2318892349867</v>
+        <v>-540.7322850717919</v>
       </c>
       <c r="AC48" s="5">
-        <v>-565.8976917504242</v>
+        <v>-586.9489946700196</v>
       </c>
       <c r="AD48" s="5">
-        <v>-629.7270079784548</v>
+        <v>-655.0189069262478</v>
       </c>
       <c r="AE48" s="5">
-        <v>-311.3330158474737</v>
+        <v>-279.122048792633</v>
       </c>
       <c r="AF48" s="4">
-        <v>-0.06060250295530945</v>
+        <v>-0.05729413061065802</v>
       </c>
       <c r="AG48" s="4">
-        <v>-0.07354639278744612</v>
+        <v>-0.07356796855483305</v>
       </c>
       <c r="AH48" s="4">
-        <v>-0.07894009213929765</v>
+        <v>-0.07985586652633814</v>
       </c>
       <c r="AI48" s="4">
-        <v>-0.08784398444648045</v>
+        <v>-0.08911694692166094</v>
       </c>
       <c r="AJ48" s="4">
-        <v>-0.04342950557190806</v>
+        <v>-0.03797524704079891</v>
       </c>
     </row>
   </sheetData>
